--- a/03_設計/05_コード/コード定義一覧.xlsx
+++ b/03_設計/05_コード/コード定義一覧.xlsx
@@ -688,88 +688,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <border>
         <top style="hair">
@@ -1234,8 +1153,8 @@
         <v>24</v>
       </c>
       <c r="J3" s="15" t="str">
-        <f>IF(ISNUMBER($G3),"insert into M_CD_GRP values ("&amp;$G3&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B3)&amp;"', '"&amp;$H3&amp;"', '"&amp;$I3&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (1, now(), 1, now(), 1, 0, '1', '0', 'valid');</v>
+        <f>IF(ISNUMBER($G3),"insert into M_CD_VAL values ("&amp;$G3&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B3)&amp;"', '"&amp;$H3&amp;"', '"&amp;$I3&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (1, now(), 1, now(), 1, 0, '1', '0', 'valid');</v>
       </c>
       <c r="K3" s="15">
         <f>IF(ISBLANK($L3),"",MAX($K$1:$K2)+1)</f>
@@ -1248,8 +1167,8 @@
         <v>23</v>
       </c>
       <c r="N3" s="15" t="str">
-        <f>IF(ISNUMBER($K3),"insert into M_CD_GRP values ("&amp;$K3&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G3)&amp;"', '"&amp;$L3&amp;"', '"&amp;$M3&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (1, now(), 1, now(), 1, 0, '1', 'ja', '有効');</v>
+        <f>IF(ISNUMBER($K3),"insert into M_CD_VAL_LANG values ("&amp;$K3&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G3)&amp;"', '"&amp;$L3&amp;"', '"&amp;$M3&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (1, now(), 1, now(), 1, 0, '1', 'ja', '有効');</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>34</v>
@@ -1278,7 +1197,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16" t="str">
-        <f>IF(ISNUMBER($G4),"insert into M_CD_GRP values ("&amp;$G4&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B4)&amp;"', '"&amp;$H4&amp;"', '"&amp;$I4&amp;"');","")</f>
+        <f>IF(ISNUMBER($G4),"insert into M_CD_VAL values ("&amp;$G4&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B4)&amp;"', '"&amp;$H4&amp;"', '"&amp;$I4&amp;"');","")</f>
         <v/>
       </c>
       <c r="K4" s="16">
@@ -1292,8 +1211,8 @@
         <v>29</v>
       </c>
       <c r="N4" s="16" t="str">
-        <f>IF(ISNUMBER($K4),"insert into M_CD_GRP values ("&amp;$K4&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G4)&amp;"', '"&amp;$L4&amp;"', '"&amp;$M4&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (2, now(), 1, now(), 1, 0, '1', 'en', 'Valid');</v>
+        <f>IF(ISNUMBER($K4),"insert into M_CD_VAL_LANG values ("&amp;$K4&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G4)&amp;"', '"&amp;$L4&amp;"', '"&amp;$M4&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (2, now(), 1, now(), 1, 0, '1', 'en', 'Valid');</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>34</v>
@@ -1326,8 +1245,8 @@
         <v>25</v>
       </c>
       <c r="J5" s="16" t="str">
-        <f>IF(ISNUMBER($G5),"insert into M_CD_GRP values ("&amp;$G5&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B5)&amp;"', '"&amp;$H5&amp;"', '"&amp;$I5&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (2, now(), 1, now(), 1, 0, '1', '1', 'invalid');</v>
+        <f>IF(ISNUMBER($G5),"insert into M_CD_VAL values ("&amp;$G5&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B5)&amp;"', '"&amp;$H5&amp;"', '"&amp;$I5&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (2, now(), 1, now(), 1, 0, '1', '1', 'invalid');</v>
       </c>
       <c r="K5" s="16">
         <f>IF(ISBLANK($L5),"",MAX($K$1:$K4)+1)</f>
@@ -1340,8 +1259,8 @@
         <v>27</v>
       </c>
       <c r="N5" s="16" t="str">
-        <f>IF(ISNUMBER($K5),"insert into M_CD_GRP values ("&amp;$K5&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G5)&amp;"', '"&amp;$L5&amp;"', '"&amp;$M5&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (3, now(), 1, now(), 1, 0, '2', 'ja', '無効');</v>
+        <f>IF(ISNUMBER($K5),"insert into M_CD_VAL_LANG values ("&amp;$K5&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G5)&amp;"', '"&amp;$L5&amp;"', '"&amp;$M5&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (3, now(), 1, now(), 1, 0, '2', 'ja', '無効');</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>34</v>
@@ -1370,7 +1289,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="16" t="str">
-        <f>IF(ISNUMBER($G6),"insert into M_CD_GRP values ("&amp;$G6&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B6)&amp;"', '"&amp;$H6&amp;"', '"&amp;$I6&amp;"');","")</f>
+        <f>IF(ISNUMBER($G6),"insert into M_CD_VAL values ("&amp;$G6&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B6)&amp;"', '"&amp;$H6&amp;"', '"&amp;$I6&amp;"');","")</f>
         <v/>
       </c>
       <c r="K6" s="16">
@@ -1384,8 +1303,8 @@
         <v>30</v>
       </c>
       <c r="N6" s="16" t="str">
-        <f>IF(ISNUMBER($K6),"insert into M_CD_GRP values ("&amp;$K6&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G6)&amp;"', '"&amp;$L6&amp;"', '"&amp;$M6&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (4, now(), 1, now(), 1, 0, '2', 'en', 'Invalid');</v>
+        <f>IF(ISNUMBER($K6),"insert into M_CD_VAL_LANG values ("&amp;$K6&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G6)&amp;"', '"&amp;$L6&amp;"', '"&amp;$M6&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (4, now(), 1, now(), 1, 0, '2', 'en', 'Invalid');</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>34</v>
@@ -1418,8 +1337,8 @@
         <v>26</v>
       </c>
       <c r="J7" s="16" t="str">
-        <f>IF(ISNUMBER($G7),"insert into M_CD_GRP values ("&amp;$G7&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B7)&amp;"', '"&amp;$H7&amp;"', '"&amp;$I7&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (3, now(), 1, now(), 1, 0, '1', '2', 'deleted');</v>
+        <f>IF(ISNUMBER($G7),"insert into M_CD_VAL values ("&amp;$G7&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B7)&amp;"', '"&amp;$H7&amp;"', '"&amp;$I7&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (3, now(), 1, now(), 1, 0, '1', '2', 'deleted');</v>
       </c>
       <c r="K7" s="16">
         <f>IF(ISBLANK($L7),"",MAX($K$1:$K6)+1)</f>
@@ -1432,8 +1351,8 @@
         <v>28</v>
       </c>
       <c r="N7" s="16" t="str">
-        <f>IF(ISNUMBER($K7),"insert into M_CD_GRP values ("&amp;$K7&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G7)&amp;"', '"&amp;$L7&amp;"', '"&amp;$M7&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (5, now(), 1, now(), 1, 0, '3', 'ja', '削除');</v>
+        <f>IF(ISNUMBER($K7),"insert into M_CD_VAL_LANG values ("&amp;$K7&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G7)&amp;"', '"&amp;$L7&amp;"', '"&amp;$M7&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (5, now(), 1, now(), 1, 0, '3', 'ja', '削除');</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>34</v>
@@ -1462,7 +1381,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="16" t="str">
-        <f>IF(ISNUMBER($G8),"insert into M_CD_GRP values ("&amp;$G8&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B8)&amp;"', '"&amp;$H8&amp;"', '"&amp;$I8&amp;"');","")</f>
+        <f>IF(ISNUMBER($G8),"insert into M_CD_VAL values ("&amp;$G8&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B8)&amp;"', '"&amp;$H8&amp;"', '"&amp;$I8&amp;"');","")</f>
         <v/>
       </c>
       <c r="K8" s="16">
@@ -1476,8 +1395,8 @@
         <v>31</v>
       </c>
       <c r="N8" s="16" t="str">
-        <f>IF(ISNUMBER($K8),"insert into M_CD_GRP values ("&amp;$K8&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G8)&amp;"', '"&amp;$L8&amp;"', '"&amp;$M8&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (6, now(), 1, now(), 1, 0, '3', 'en', 'Deleted');</v>
+        <f>IF(ISNUMBER($K8),"insert into M_CD_VAL_LANG values ("&amp;$K8&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G8)&amp;"', '"&amp;$L8&amp;"', '"&amp;$M8&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (6, now(), 1, now(), 1, 0, '3', 'en', 'Deleted');</v>
       </c>
       <c r="O8" s="17" t="s">
         <v>34</v>
@@ -1514,8 +1433,8 @@
         <v>11</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f>IF(ISNUMBER($G9),"insert into M_CD_GRP values ("&amp;$G9&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B9)&amp;"', '"&amp;$H9&amp;"', '"&amp;$I9&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (4, now(), 1, now(), 1, 0, '2', 'common', 'common');</v>
+        <f>IF(ISNUMBER($G9),"insert into M_CD_VAL values ("&amp;$G9&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B9)&amp;"', '"&amp;$H9&amp;"', '"&amp;$I9&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (4, now(), 1, now(), 1, 0, '2', 'common', 'common');</v>
       </c>
       <c r="K9" s="16">
         <f>IF(ISBLANK($L9),"",MAX($K$1:$K8)+1)</f>
@@ -1528,8 +1447,8 @@
         <v>19</v>
       </c>
       <c r="N9" s="16" t="str">
-        <f>IF(ISNUMBER($K9),"insert into M_CD_GRP values ("&amp;$K9&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G9)&amp;"', '"&amp;$L9&amp;"', '"&amp;$M9&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (7, now(), 1, now(), 1, 0, '4', 'ja', '共通');</v>
+        <f>IF(ISNUMBER($K9),"insert into M_CD_VAL_LANG values ("&amp;$K9&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G9)&amp;"', '"&amp;$L9&amp;"', '"&amp;$M9&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (7, now(), 1, now(), 1, 0, '4', 'ja', '共通');</v>
       </c>
       <c r="O9" s="17" t="s">
         <v>34</v>
@@ -1558,7 +1477,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="16" t="str">
-        <f>IF(ISNUMBER($G10),"insert into M_CD_GRP values ("&amp;$G10&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B10)&amp;"', '"&amp;$H10&amp;"', '"&amp;$I10&amp;"');","")</f>
+        <f>IF(ISNUMBER($G10),"insert into M_CD_VAL values ("&amp;$G10&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B10)&amp;"', '"&amp;$H10&amp;"', '"&amp;$I10&amp;"');","")</f>
         <v/>
       </c>
       <c r="K10" s="16">
@@ -1572,8 +1491,8 @@
         <v>20</v>
       </c>
       <c r="N10" s="16" t="str">
-        <f>IF(ISNUMBER($K10),"insert into M_CD_GRP values ("&amp;$K10&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G10)&amp;"', '"&amp;$L10&amp;"', '"&amp;$M10&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (8, now(), 1, now(), 1, 0, '4', 'en', 'Common');</v>
+        <f>IF(ISNUMBER($K10),"insert into M_CD_VAL_LANG values ("&amp;$K10&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G10)&amp;"', '"&amp;$L10&amp;"', '"&amp;$M10&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (8, now(), 1, now(), 1, 0, '4', 'en', 'Common');</v>
       </c>
       <c r="O10" s="17" t="s">
         <v>34</v>
@@ -1606,8 +1525,8 @@
         <v>14</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f>IF(ISNUMBER($G11),"insert into M_CD_GRP values ("&amp;$G11&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B11)&amp;"', '"&amp;$H11&amp;"', '"&amp;$I11&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (5, now(), 1, now(), 1, 0, '2', 'ja', 'japanese');</v>
+        <f>IF(ISNUMBER($G11),"insert into M_CD_VAL values ("&amp;$G11&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B11)&amp;"', '"&amp;$H11&amp;"', '"&amp;$I11&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (5, now(), 1, now(), 1, 0, '2', 'ja', 'japanese');</v>
       </c>
       <c r="K11" s="16">
         <f>IF(ISBLANK($L11),"",MAX($K$1:$K10)+1)</f>
@@ -1620,8 +1539,8 @@
         <v>8</v>
       </c>
       <c r="N11" s="16" t="str">
-        <f>IF(ISNUMBER($K11),"insert into M_CD_GRP values ("&amp;$K11&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G11)&amp;"', '"&amp;$L11&amp;"', '"&amp;$M11&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (9, now(), 1, now(), 1, 0, '5', 'ja', '日本語');</v>
+        <f>IF(ISNUMBER($K11),"insert into M_CD_VAL_LANG values ("&amp;$K11&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G11)&amp;"', '"&amp;$L11&amp;"', '"&amp;$M11&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (9, now(), 1, now(), 1, 0, '5', 'ja', '日本語');</v>
       </c>
       <c r="O11" s="17" t="s">
         <v>34</v>
@@ -1650,7 +1569,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16" t="str">
-        <f>IF(ISNUMBER($G12),"insert into M_CD_GRP values ("&amp;$G12&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B12)&amp;"', '"&amp;$H12&amp;"', '"&amp;$I12&amp;"');","")</f>
+        <f>IF(ISNUMBER($G12),"insert into M_CD_VAL values ("&amp;$G12&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B12)&amp;"', '"&amp;$H12&amp;"', '"&amp;$I12&amp;"');","")</f>
         <v/>
       </c>
       <c r="K12" s="16">
@@ -1664,8 +1583,8 @@
         <v>15</v>
       </c>
       <c r="N12" s="16" t="str">
-        <f>IF(ISNUMBER($K12),"insert into M_CD_GRP values ("&amp;$K12&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G12)&amp;"', '"&amp;$L12&amp;"', '"&amp;$M12&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, '5', 'en', 'Japanese');</v>
+        <f>IF(ISNUMBER($K12),"insert into M_CD_VAL_LANG values ("&amp;$K12&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G12)&amp;"', '"&amp;$L12&amp;"', '"&amp;$M12&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (10, now(), 1, now(), 1, 0, '5', 'en', 'Japanese');</v>
       </c>
       <c r="O12" s="17" t="s">
         <v>34</v>
@@ -1698,8 +1617,8 @@
         <v>16</v>
       </c>
       <c r="J13" s="16" t="str">
-        <f>IF(ISNUMBER($G13),"insert into M_CD_GRP values ("&amp;$G13&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B13)&amp;"', '"&amp;$H13&amp;"', '"&amp;$I13&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (6, now(), 1, now(), 1, 0, '2', 'en', 'english');</v>
+        <f>IF(ISNUMBER($G13),"insert into M_CD_VAL values ("&amp;$G13&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B13)&amp;"', '"&amp;$H13&amp;"', '"&amp;$I13&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (6, now(), 1, now(), 1, 0, '2', 'en', 'english');</v>
       </c>
       <c r="K13" s="16">
         <f>IF(ISBLANK($L13),"",MAX($K$1:$K12)+1)</f>
@@ -1712,8 +1631,8 @@
         <v>17</v>
       </c>
       <c r="N13" s="16" t="str">
-        <f>IF(ISNUMBER($K13),"insert into M_CD_GRP values ("&amp;$K13&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G13)&amp;"', '"&amp;$L13&amp;"', '"&amp;$M13&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (11, now(), 1, now(), 1, 0, '6', 'ja', '英語');</v>
+        <f>IF(ISNUMBER($K13),"insert into M_CD_VAL_LANG values ("&amp;$K13&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G13)&amp;"', '"&amp;$L13&amp;"', '"&amp;$M13&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (11, now(), 1, now(), 1, 0, '6', 'ja', '英語');</v>
       </c>
       <c r="O13" s="17" t="s">
         <v>34</v>
@@ -1742,7 +1661,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="16" t="str">
-        <f>IF(ISNUMBER($G14),"insert into M_CD_GRP values ("&amp;$G14&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B14)&amp;"', '"&amp;$H14&amp;"', '"&amp;$I14&amp;"');","")</f>
+        <f>IF(ISNUMBER($G14),"insert into M_CD_VAL values ("&amp;$G14&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B14)&amp;"', '"&amp;$H14&amp;"', '"&amp;$I14&amp;"');","")</f>
         <v/>
       </c>
       <c r="K14" s="16">
@@ -1756,8 +1675,8 @@
         <v>18</v>
       </c>
       <c r="N14" s="16" t="str">
-        <f>IF(ISNUMBER($K14),"insert into M_CD_GRP values ("&amp;$K14&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G14)&amp;"', '"&amp;$L14&amp;"', '"&amp;$M14&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (12, now(), 1, now(), 1, 0, '6', 'en', 'English');</v>
+        <f>IF(ISNUMBER($K14),"insert into M_CD_VAL_LANG values ("&amp;$K14&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G14)&amp;"', '"&amp;$L14&amp;"', '"&amp;$M14&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (12, now(), 1, now(), 1, 0, '6', 'en', 'English');</v>
       </c>
       <c r="O14" s="17" t="s">
         <v>34</v>
@@ -1794,8 +1713,8 @@
         <v>37</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f>IF(ISNUMBER($G15),"insert into M_CD_GRP values ("&amp;$G15&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B15)&amp;"', '"&amp;$H15&amp;"', '"&amp;$I15&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (7, now(), 1, now(), 1, 0, '3', 'men', 'menu');</v>
+        <f>IF(ISNUMBER($G15),"insert into M_CD_VAL values ("&amp;$G15&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B15)&amp;"', '"&amp;$H15&amp;"', '"&amp;$I15&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (7, now(), 1, now(), 1, 0, '3', 'men', 'menu');</v>
       </c>
       <c r="K15" s="16">
         <f>IF(ISBLANK($L15),"",MAX($K$1:$K14)+1)</f>
@@ -1808,8 +1727,8 @@
         <v>41</v>
       </c>
       <c r="N15" s="16" t="str">
-        <f>IF(ISNUMBER($K15),"insert into M_CD_GRP values ("&amp;$K15&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G15)&amp;"', '"&amp;$L15&amp;"', '"&amp;$M15&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (13, now(), 1, now(), 1, 0, '7', 'ja', 'メニュー');</v>
+        <f>IF(ISNUMBER($K15),"insert into M_CD_VAL_LANG values ("&amp;$K15&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G15)&amp;"', '"&amp;$L15&amp;"', '"&amp;$M15&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (13, now(), 1, now(), 1, 0, '7', 'ja', 'メニュー');</v>
       </c>
       <c r="O15" s="17" t="s">
         <v>34</v>
@@ -1842,8 +1761,8 @@
         <v>38</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f>IF(ISNUMBER($G16),"insert into M_CD_GRP values ("&amp;$G16&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B16)&amp;"', '"&amp;$H16&amp;"', '"&amp;$I16&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (8, now(), 1, now(), 1, 0, '3', 'lst', 'list');</v>
+        <f>IF(ISNUMBER($G16),"insert into M_CD_VAL values ("&amp;$G16&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B16)&amp;"', '"&amp;$H16&amp;"', '"&amp;$I16&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (8, now(), 1, now(), 1, 0, '3', 'lst', 'list');</v>
       </c>
       <c r="K16" s="16">
         <f>IF(ISBLANK($L16),"",MAX($K$1:$K15)+1)</f>
@@ -1856,8 +1775,8 @@
         <v>44</v>
       </c>
       <c r="N16" s="16" t="str">
-        <f>IF(ISNUMBER($K16),"insert into M_CD_GRP values ("&amp;$K16&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G16)&amp;"', '"&amp;$L16&amp;"', '"&amp;$M16&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (14, now(), 1, now(), 1, 0, '8', 'ja', '一覧');</v>
+        <f>IF(ISNUMBER($K16),"insert into M_CD_VAL_LANG values ("&amp;$K16&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G16)&amp;"', '"&amp;$L16&amp;"', '"&amp;$M16&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (14, now(), 1, now(), 1, 0, '8', 'ja', '一覧');</v>
       </c>
       <c r="O16" s="17" t="s">
         <v>34</v>
@@ -1890,8 +1809,8 @@
         <v>39</v>
       </c>
       <c r="J17" s="16" t="str">
-        <f>IF(ISNUMBER($G17),"insert into M_CD_GRP values ("&amp;$G17&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B17)&amp;"', '"&amp;$H17&amp;"', '"&amp;$I17&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (9, now(), 1, now(), 1, 0, '3', 'map', 'map');</v>
+        <f>IF(ISNUMBER($G17),"insert into M_CD_VAL values ("&amp;$G17&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B17)&amp;"', '"&amp;$H17&amp;"', '"&amp;$I17&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (9, now(), 1, now(), 1, 0, '3', 'map', 'map');</v>
       </c>
       <c r="K17" s="16">
         <f>IF(ISBLANK($L17),"",MAX($K$1:$K16)+1)</f>
@@ -1904,8 +1823,8 @@
         <v>42</v>
       </c>
       <c r="N17" s="16" t="str">
-        <f>IF(ISNUMBER($K17),"insert into M_CD_GRP values ("&amp;$K17&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G17)&amp;"', '"&amp;$L17&amp;"', '"&amp;$M17&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (15, now(), 1, now(), 1, 0, '9', 'ja', '地図');</v>
+        <f>IF(ISNUMBER($K17),"insert into M_CD_VAL_LANG values ("&amp;$K17&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G17)&amp;"', '"&amp;$L17&amp;"', '"&amp;$M17&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (15, now(), 1, now(), 1, 0, '9', 'ja', '地図');</v>
       </c>
       <c r="O17" s="17" t="s">
         <v>34</v>
@@ -1938,8 +1857,8 @@
         <v>40</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f>IF(ISNUMBER($G18),"insert into M_CD_GRP values ("&amp;$G18&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B18)&amp;"', '"&amp;$H18&amp;"', '"&amp;$I18&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, '3', 'det', 'detail');</v>
+        <f>IF(ISNUMBER($G18),"insert into M_CD_VAL values ("&amp;$G18&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B18)&amp;"', '"&amp;$H18&amp;"', '"&amp;$I18&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (10, now(), 1, now(), 1, 0, '3', 'det', 'detail');</v>
       </c>
       <c r="K18" s="16">
         <f>IF(ISBLANK($L18),"",MAX($K$1:$K17)+1)</f>
@@ -1952,8 +1871,8 @@
         <v>43</v>
       </c>
       <c r="N18" s="16" t="str">
-        <f>IF(ISNUMBER($K18),"insert into M_CD_GRP values ("&amp;$K18&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G18)&amp;"', '"&amp;$L18&amp;"', '"&amp;$M18&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (16, now(), 1, now(), 1, 0, '10', 'ja', '詳細');</v>
+        <f>IF(ISNUMBER($K18),"insert into M_CD_VAL_LANG values ("&amp;$K18&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G18)&amp;"', '"&amp;$L18&amp;"', '"&amp;$M18&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (16, now(), 1, now(), 1, 0, '10', 'ja', '詳細');</v>
       </c>
       <c r="O18" s="17" t="s">
         <v>34</v>
@@ -1990,8 +1909,8 @@
         <v>48</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f>IF(ISNUMBER($G19),"insert into M_CD_GRP values ("&amp;$G19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B19)&amp;"', '"&amp;$H19&amp;"', '"&amp;$I19&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (11, now(), 1, now(), 1, 0, '4', 'txt', 'text');</v>
+        <f>IF(ISNUMBER($G19),"insert into M_CD_VAL values ("&amp;$G19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B19)&amp;"', '"&amp;$H19&amp;"', '"&amp;$I19&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (11, now(), 1, now(), 1, 0, '4', 'txt', 'text');</v>
       </c>
       <c r="K19" s="16">
         <f>IF(ISBLANK($L19),"",MAX($K$1:$K18)+1)</f>
@@ -2004,8 +1923,8 @@
         <v>55</v>
       </c>
       <c r="N19" s="16" t="str">
-        <f>IF(ISNUMBER($K19),"insert into M_CD_GRP values ("&amp;$K19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G19)&amp;"', '"&amp;$L19&amp;"', '"&amp;$M19&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (17, now(), 1, now(), 1, 0, '11', 'ja', 'テキスト');</v>
+        <f>IF(ISNUMBER($K19),"insert into M_CD_VAL_LANG values ("&amp;$K19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G19)&amp;"', '"&amp;$L19&amp;"', '"&amp;$M19&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (17, now(), 1, now(), 1, 0, '11', 'ja', 'テキスト');</v>
       </c>
       <c r="O19" s="17" t="s">
         <v>34</v>
@@ -2038,8 +1957,8 @@
         <v>50</v>
       </c>
       <c r="J20" s="16" t="str">
-        <f>IF(ISNUMBER($G20),"insert into M_CD_GRP values ("&amp;$G20&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B20)&amp;"', '"&amp;$H20&amp;"', '"&amp;$I20&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (12, now(), 1, now(), 1, 0, '4', 'cd', 'code');</v>
+        <f>IF(ISNUMBER($G20),"insert into M_CD_VAL values ("&amp;$G20&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B20)&amp;"', '"&amp;$H20&amp;"', '"&amp;$I20&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (12, now(), 1, now(), 1, 0, '4', 'cd', 'code');</v>
       </c>
       <c r="K20" s="16">
         <f>IF(ISBLANK($L20),"",MAX($K$1:$K19)+1)</f>
@@ -2052,8 +1971,8 @@
         <v>6</v>
       </c>
       <c r="N20" s="16" t="str">
-        <f>IF(ISNUMBER($K20),"insert into M_CD_GRP values ("&amp;$K20&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G20)&amp;"', '"&amp;$L20&amp;"', '"&amp;$M20&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (18, now(), 1, now(), 1, 0, '12', 'ja', 'コード');</v>
+        <f>IF(ISNUMBER($K20),"insert into M_CD_VAL_LANG values ("&amp;$K20&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G20)&amp;"', '"&amp;$L20&amp;"', '"&amp;$M20&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (18, now(), 1, now(), 1, 0, '12', 'ja', 'コード');</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>34</v>
@@ -2086,8 +2005,8 @@
         <v>52</v>
       </c>
       <c r="J21" s="16" t="str">
-        <f>IF(ISNUMBER($G21),"insert into M_CD_GRP values ("&amp;$G21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B21)&amp;"', '"&amp;$H21&amp;"', '"&amp;$I21&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (13, now(), 1, now(), 1, 0, '4', 'img', 'image');</v>
+        <f>IF(ISNUMBER($G21),"insert into M_CD_VAL values ("&amp;$G21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B21)&amp;"', '"&amp;$H21&amp;"', '"&amp;$I21&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (13, now(), 1, now(), 1, 0, '4', 'img', 'image');</v>
       </c>
       <c r="K21" s="16">
         <f>IF(ISBLANK($L21),"",MAX($K$1:$K20)+1)</f>
@@ -2100,8 +2019,8 @@
         <v>56</v>
       </c>
       <c r="N21" s="16" t="str">
-        <f>IF(ISNUMBER($K21),"insert into M_CD_GRP values ("&amp;$K21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G21)&amp;"', '"&amp;$L21&amp;"', '"&amp;$M21&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (19, now(), 1, now(), 1, 0, '13', 'ja', '画像');</v>
+        <f>IF(ISNUMBER($K21),"insert into M_CD_VAL_LANG values ("&amp;$K21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G21)&amp;"', '"&amp;$L21&amp;"', '"&amp;$M21&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (19, now(), 1, now(), 1, 0, '13', 'ja', '画像');</v>
       </c>
       <c r="O21" s="17" t="s">
         <v>34</v>
@@ -2134,8 +2053,8 @@
         <v>54</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f>IF(ISNUMBER($G22),"insert into M_CD_GRP values ("&amp;$G22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B22)&amp;"', '"&amp;$H22&amp;"', '"&amp;$I22&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (14, now(), 1, now(), 1, 0, '4', 'mov', 'movie');</v>
+        <f>IF(ISNUMBER($G22),"insert into M_CD_VAL values ("&amp;$G22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B22)&amp;"', '"&amp;$H22&amp;"', '"&amp;$I22&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (14, now(), 1, now(), 1, 0, '4', 'mov', 'movie');</v>
       </c>
       <c r="K22" s="16">
         <f>IF(ISBLANK($L22),"",MAX($K$1:$K21)+1)</f>
@@ -2148,8 +2067,8 @@
         <v>57</v>
       </c>
       <c r="N22" s="16" t="str">
-        <f>IF(ISNUMBER($K22),"insert into M_CD_GRP values ("&amp;$K22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G22)&amp;"', '"&amp;$L22&amp;"', '"&amp;$M22&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (20, now(), 1, now(), 1, 0, '14', 'ja', '動画');</v>
+        <f>IF(ISNUMBER($K22),"insert into M_CD_VAL_LANG values ("&amp;$K22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G22)&amp;"', '"&amp;$L22&amp;"', '"&amp;$M22&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (20, now(), 1, now(), 1, 0, '14', 'ja', '動画');</v>
       </c>
       <c r="O22" s="17" t="s">
         <v>34</v>
@@ -2182,8 +2101,8 @@
         <v>64</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f>IF(ISNUMBER($G23),"insert into M_CD_GRP values ("&amp;$G23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B23)&amp;"', '"&amp;$H23&amp;"', '"&amp;$I23&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (15, now(), 1, now(), 1, 0, '4', 'lon', 'longitude');</v>
+        <f>IF(ISNUMBER($G23),"insert into M_CD_VAL values ("&amp;$G23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B23)&amp;"', '"&amp;$H23&amp;"', '"&amp;$I23&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (15, now(), 1, now(), 1, 0, '4', 'lon', 'longitude');</v>
       </c>
       <c r="K23" s="16">
         <f>IF(ISBLANK($L23),"",MAX($K$1:$K22)+1)</f>
@@ -2196,8 +2115,8 @@
         <v>66</v>
       </c>
       <c r="N23" s="16" t="str">
-        <f>IF(ISNUMBER($K23),"insert into M_CD_GRP values ("&amp;$K23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G23)&amp;"', '"&amp;$L23&amp;"', '"&amp;$M23&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (21, now(), 1, now(), 1, 0, '15', 'ja', '緯度');</v>
+        <f>IF(ISNUMBER($K23),"insert into M_CD_VAL_LANG values ("&amp;$K23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G23)&amp;"', '"&amp;$L23&amp;"', '"&amp;$M23&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (21, now(), 1, now(), 1, 0, '15', 'ja', '緯度');</v>
       </c>
       <c r="O23" s="17" t="s">
         <v>34</v>
@@ -2230,8 +2149,8 @@
         <v>68</v>
       </c>
       <c r="J24" s="16" t="str">
-        <f>IF(ISNUMBER($G24),"insert into M_CD_GRP values ("&amp;$G24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B24)&amp;"', '"&amp;$H24&amp;"', '"&amp;$I24&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (16, now(), 1, now(), 1, 0, '4', 'lat', 'latitude');</v>
+        <f>IF(ISNUMBER($G24),"insert into M_CD_VAL values ("&amp;$G24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B24)&amp;"', '"&amp;$H24&amp;"', '"&amp;$I24&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (16, now(), 1, now(), 1, 0, '4', 'lat', 'latitude');</v>
       </c>
       <c r="K24" s="16">
         <f>IF(ISBLANK($L24),"",MAX($K$1:$K23)+1)</f>
@@ -2244,8 +2163,8 @@
         <v>69</v>
       </c>
       <c r="N24" s="16" t="str">
-        <f>IF(ISNUMBER($K24),"insert into M_CD_GRP values ("&amp;$K24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G24)&amp;"', '"&amp;$L24&amp;"', '"&amp;$M24&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (22, now(), 1, now(), 1, 0, '16', 'ja', '経度');</v>
+        <f>IF(ISNUMBER($K24),"insert into M_CD_VAL_LANG values ("&amp;$K24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G24)&amp;"', '"&amp;$L24&amp;"', '"&amp;$M24&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (22, now(), 1, now(), 1, 0, '16', 'ja', '経度');</v>
       </c>
       <c r="O24" s="17" t="s">
         <v>34</v>
@@ -2282,8 +2201,8 @@
         <v>76</v>
       </c>
       <c r="J25" s="16" t="str">
-        <f>IF(ISNUMBER($G25),"insert into M_CD_GRP values ("&amp;$G25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B25)&amp;"', '"&amp;$H25&amp;"', '"&amp;$I25&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (17, now(), 1, now(), 1, 0, '5', 'dcls', 'disclose');</v>
+        <f>IF(ISNUMBER($G25),"insert into M_CD_VAL values ("&amp;$G25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B25)&amp;"', '"&amp;$H25&amp;"', '"&amp;$I25&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (17, now(), 1, now(), 1, 0, '5', 'dcls', 'disclose');</v>
       </c>
       <c r="K25" s="16">
         <f>IF(ISBLANK($L25),"",MAX($K$1:$K24)+1)</f>
@@ -2296,8 +2215,8 @@
         <v>74</v>
       </c>
       <c r="N25" s="16" t="str">
-        <f>IF(ISNUMBER($K25),"insert into M_CD_GRP values ("&amp;$K25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G25)&amp;"', '"&amp;$L25&amp;"', '"&amp;$M25&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (23, now(), 1, now(), 1, 0, '17', 'ja', '公開');</v>
+        <f>IF(ISNUMBER($K25),"insert into M_CD_VAL_LANG values ("&amp;$K25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G25)&amp;"', '"&amp;$L25&amp;"', '"&amp;$M25&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (23, now(), 1, now(), 1, 0, '17', 'ja', '公開');</v>
       </c>
       <c r="O25" s="17" t="s">
         <v>34</v>
@@ -2330,8 +2249,8 @@
         <v>77</v>
       </c>
       <c r="J26" s="16" t="str">
-        <f>IF(ISNUMBER($G26),"insert into M_CD_GRP values ("&amp;$G26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B26)&amp;"', '"&amp;$H26&amp;"', '"&amp;$I26&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (18, now(), 1, now(), 1, 0, '5', 'cls', 'close');</v>
+        <f>IF(ISNUMBER($G26),"insert into M_CD_VAL values ("&amp;$G26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B26)&amp;"', '"&amp;$H26&amp;"', '"&amp;$I26&amp;"');","")</f>
+        <v>insert into M_CD_VAL values (18, now(), 1, now(), 1, 0, '5', 'cls', 'close');</v>
       </c>
       <c r="K26" s="16">
         <f>IF(ISBLANK($L26),"",MAX($K$1:$K25)+1)</f>
@@ -2344,8 +2263,8 @@
         <v>75</v>
       </c>
       <c r="N26" s="16" t="str">
-        <f>IF(ISNUMBER($K26),"insert into M_CD_GRP values ("&amp;$K26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G26)&amp;"', '"&amp;$L26&amp;"', '"&amp;$M26&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (24, now(), 1, now(), 1, 0, '18', 'ja', '非公開');</v>
+        <f>IF(ISNUMBER($K26),"insert into M_CD_VAL_LANG values ("&amp;$K26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G26)&amp;"', '"&amp;$L26&amp;"', '"&amp;$M26&amp;"');","")</f>
+        <v>insert into M_CD_VAL_LANG values (24, now(), 1, now(), 1, 0, '18', 'ja', '非公開');</v>
       </c>
       <c r="O26" s="17" t="s">
         <v>34</v>
@@ -2374,7 +2293,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="16" t="str">
-        <f>IF(ISNUMBER($G27),"insert into M_CD_GRP values ("&amp;$G27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B27)&amp;"', '"&amp;$H27&amp;"', '"&amp;$I27&amp;"');","")</f>
+        <f>IF(ISNUMBER($G27),"insert into M_CD_VAL values ("&amp;$G27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B27)&amp;"', '"&amp;$H27&amp;"', '"&amp;$I27&amp;"');","")</f>
         <v/>
       </c>
       <c r="K27" s="16" t="str">
@@ -2384,7 +2303,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="16" t="str">
-        <f>IF(ISNUMBER($K27),"insert into M_CD_GRP values ("&amp;$K27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G27)&amp;"', '"&amp;$L27&amp;"', '"&amp;$M27&amp;"');","")</f>
+        <f>IF(ISNUMBER($K27),"insert into M_CD_VAL_LANG values ("&amp;$K27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G27)&amp;"', '"&amp;$L27&amp;"', '"&amp;$M27&amp;"');","")</f>
         <v/>
       </c>
       <c r="O27" s="17" t="s">
@@ -2414,7 +2333,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="16" t="str">
-        <f>IF(ISNUMBER($G28),"insert into M_CD_GRP values ("&amp;$G28&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B28)&amp;"', '"&amp;$H28&amp;"', '"&amp;$I28&amp;"');","")</f>
+        <f>IF(ISNUMBER($G28),"insert into M_CD_VAL values ("&amp;$G28&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B28)&amp;"', '"&amp;$H28&amp;"', '"&amp;$I28&amp;"');","")</f>
         <v/>
       </c>
       <c r="K28" s="16" t="str">
@@ -2424,7 +2343,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="16" t="str">
-        <f>IF(ISNUMBER($K28),"insert into M_CD_GRP values ("&amp;$K28&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G28)&amp;"', '"&amp;$L28&amp;"', '"&amp;$M28&amp;"');","")</f>
+        <f>IF(ISNUMBER($K28),"insert into M_CD_VAL_LANG values ("&amp;$K28&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G28)&amp;"', '"&amp;$L28&amp;"', '"&amp;$M28&amp;"');","")</f>
         <v/>
       </c>
       <c r="O28" s="17" t="s">
@@ -2454,7 +2373,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="16" t="str">
-        <f>IF(ISNUMBER($G29),"insert into M_CD_GRP values ("&amp;$G29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B29)&amp;"', '"&amp;$H29&amp;"', '"&amp;$I29&amp;"');","")</f>
+        <f>IF(ISNUMBER($G29),"insert into M_CD_VAL values ("&amp;$G29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B29)&amp;"', '"&amp;$H29&amp;"', '"&amp;$I29&amp;"');","")</f>
         <v/>
       </c>
       <c r="K29" s="16" t="str">
@@ -2464,7 +2383,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="16" t="str">
-        <f>IF(ISNUMBER($K29),"insert into M_CD_GRP values ("&amp;$K29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G29)&amp;"', '"&amp;$L29&amp;"', '"&amp;$M29&amp;"');","")</f>
+        <f>IF(ISNUMBER($K29),"insert into M_CD_VAL_LANG values ("&amp;$K29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G29)&amp;"', '"&amp;$L29&amp;"', '"&amp;$M29&amp;"');","")</f>
         <v/>
       </c>
       <c r="O29" s="17" t="s">
@@ -2494,7 +2413,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="16" t="str">
-        <f>IF(ISNUMBER($G30),"insert into M_CD_GRP values ("&amp;$G30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B30)&amp;"', '"&amp;$H30&amp;"', '"&amp;$I30&amp;"');","")</f>
+        <f>IF(ISNUMBER($G30),"insert into M_CD_VAL values ("&amp;$G30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B30)&amp;"', '"&amp;$H30&amp;"', '"&amp;$I30&amp;"');","")</f>
         <v/>
       </c>
       <c r="K30" s="16" t="str">
@@ -2504,7 +2423,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="16" t="str">
-        <f>IF(ISNUMBER($K30),"insert into M_CD_GRP values ("&amp;$K30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G30)&amp;"', '"&amp;$L30&amp;"', '"&amp;$M30&amp;"');","")</f>
+        <f>IF(ISNUMBER($K30),"insert into M_CD_VAL_LANG values ("&amp;$K30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G30)&amp;"', '"&amp;$L30&amp;"', '"&amp;$M30&amp;"');","")</f>
         <v/>
       </c>
       <c r="O30" s="17" t="s">
@@ -2534,7 +2453,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="16" t="str">
-        <f>IF(ISNUMBER($G31),"insert into M_CD_GRP values ("&amp;$G31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B31)&amp;"', '"&amp;$H31&amp;"', '"&amp;$I31&amp;"');","")</f>
+        <f>IF(ISNUMBER($G31),"insert into M_CD_VAL values ("&amp;$G31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B31)&amp;"', '"&amp;$H31&amp;"', '"&amp;$I31&amp;"');","")</f>
         <v/>
       </c>
       <c r="K31" s="16" t="str">
@@ -2544,7 +2463,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="16" t="str">
-        <f>IF(ISNUMBER($K31),"insert into M_CD_GRP values ("&amp;$K31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G31)&amp;"', '"&amp;$L31&amp;"', '"&amp;$M31&amp;"');","")</f>
+        <f>IF(ISNUMBER($K31),"insert into M_CD_VAL_LANG values ("&amp;$K31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G31)&amp;"', '"&amp;$L31&amp;"', '"&amp;$M31&amp;"');","")</f>
         <v/>
       </c>
       <c r="O31" s="17"/>
@@ -2572,7 +2491,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="16" t="str">
-        <f>IF(ISNUMBER($G32),"insert into M_CD_GRP values ("&amp;$G32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B32)&amp;"', '"&amp;$H32&amp;"', '"&amp;$I32&amp;"');","")</f>
+        <f>IF(ISNUMBER($G32),"insert into M_CD_VAL values ("&amp;$G32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B32)&amp;"', '"&amp;$H32&amp;"', '"&amp;$I32&amp;"');","")</f>
         <v/>
       </c>
       <c r="K32" s="16" t="str">
@@ -2582,7 +2501,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="16" t="str">
-        <f>IF(ISNUMBER($K32),"insert into M_CD_GRP values ("&amp;$K32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G32)&amp;"', '"&amp;$L32&amp;"', '"&amp;$M32&amp;"');","")</f>
+        <f>IF(ISNUMBER($K32),"insert into M_CD_VAL_LANG values ("&amp;$K32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G32)&amp;"', '"&amp;$L32&amp;"', '"&amp;$M32&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2609,7 +2528,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="16" t="str">
-        <f>IF(ISNUMBER($G33),"insert into M_CD_GRP values ("&amp;$G33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B33)&amp;"', '"&amp;$H33&amp;"', '"&amp;$I33&amp;"');","")</f>
+        <f>IF(ISNUMBER($G33),"insert into M_CD_VAL values ("&amp;$G33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B33)&amp;"', '"&amp;$H33&amp;"', '"&amp;$I33&amp;"');","")</f>
         <v/>
       </c>
       <c r="K33" s="16" t="str">
@@ -2619,7 +2538,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="16" t="str">
-        <f>IF(ISNUMBER($K33),"insert into M_CD_GRP values ("&amp;$K33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G33)&amp;"', '"&amp;$L33&amp;"', '"&amp;$M33&amp;"');","")</f>
+        <f>IF(ISNUMBER($K33),"insert into M_CD_VAL_LANG values ("&amp;$K33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G33)&amp;"', '"&amp;$L33&amp;"', '"&amp;$M33&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2646,7 +2565,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="16" t="str">
-        <f>IF(ISNUMBER($G34),"insert into M_CD_GRP values ("&amp;$G34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B34)&amp;"', '"&amp;$H34&amp;"', '"&amp;$I34&amp;"');","")</f>
+        <f>IF(ISNUMBER($G34),"insert into M_CD_VAL values ("&amp;$G34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B34)&amp;"', '"&amp;$H34&amp;"', '"&amp;$I34&amp;"');","")</f>
         <v/>
       </c>
       <c r="K34" s="16" t="str">
@@ -2656,7 +2575,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="16" t="str">
-        <f>IF(ISNUMBER($K34),"insert into M_CD_GRP values ("&amp;$K34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G34)&amp;"', '"&amp;$L34&amp;"', '"&amp;$M34&amp;"');","")</f>
+        <f>IF(ISNUMBER($K34),"insert into M_CD_VAL_LANG values ("&amp;$K34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G34)&amp;"', '"&amp;$L34&amp;"', '"&amp;$M34&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2683,7 +2602,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="16" t="str">
-        <f>IF(ISNUMBER($G35),"insert into M_CD_GRP values ("&amp;$G35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B35)&amp;"', '"&amp;$H35&amp;"', '"&amp;$I35&amp;"');","")</f>
+        <f>IF(ISNUMBER($G35),"insert into M_CD_VAL values ("&amp;$G35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B35)&amp;"', '"&amp;$H35&amp;"', '"&amp;$I35&amp;"');","")</f>
         <v/>
       </c>
       <c r="K35" s="16" t="str">
@@ -2693,7 +2612,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="16" t="str">
-        <f>IF(ISNUMBER($K35),"insert into M_CD_GRP values ("&amp;$K35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G35)&amp;"', '"&amp;$L35&amp;"', '"&amp;$M35&amp;"');","")</f>
+        <f>IF(ISNUMBER($K35),"insert into M_CD_VAL_LANG values ("&amp;$K35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G35)&amp;"', '"&amp;$L35&amp;"', '"&amp;$M35&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2720,7 +2639,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="16" t="str">
-        <f>IF(ISNUMBER($G36),"insert into M_CD_GRP values ("&amp;$G36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B36)&amp;"', '"&amp;$H36&amp;"', '"&amp;$I36&amp;"');","")</f>
+        <f>IF(ISNUMBER($G36),"insert into M_CD_VAL values ("&amp;$G36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B36)&amp;"', '"&amp;$H36&amp;"', '"&amp;$I36&amp;"');","")</f>
         <v/>
       </c>
       <c r="K36" s="16" t="str">
@@ -2730,7 +2649,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="16" t="str">
-        <f>IF(ISNUMBER($K36),"insert into M_CD_GRP values ("&amp;$K36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G36)&amp;"', '"&amp;$L36&amp;"', '"&amp;$M36&amp;"');","")</f>
+        <f>IF(ISNUMBER($K36),"insert into M_CD_VAL_LANG values ("&amp;$K36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G36)&amp;"', '"&amp;$L36&amp;"', '"&amp;$M36&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2757,7 +2676,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="16" t="str">
-        <f>IF(ISNUMBER($G37),"insert into M_CD_GRP values ("&amp;$G37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B37)&amp;"', '"&amp;$H37&amp;"', '"&amp;$I37&amp;"');","")</f>
+        <f>IF(ISNUMBER($G37),"insert into M_CD_VAL values ("&amp;$G37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B37)&amp;"', '"&amp;$H37&amp;"', '"&amp;$I37&amp;"');","")</f>
         <v/>
       </c>
       <c r="K37" s="16" t="str">
@@ -2767,7 +2686,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="16" t="str">
-        <f>IF(ISNUMBER($K37),"insert into M_CD_GRP values ("&amp;$K37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G37)&amp;"', '"&amp;$L37&amp;"', '"&amp;$M37&amp;"');","")</f>
+        <f>IF(ISNUMBER($K37),"insert into M_CD_VAL_LANG values ("&amp;$K37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G37)&amp;"', '"&amp;$L37&amp;"', '"&amp;$M37&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2794,7 +2713,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="16" t="str">
-        <f>IF(ISNUMBER($G38),"insert into M_CD_GRP values ("&amp;$G38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B38)&amp;"', '"&amp;$H38&amp;"', '"&amp;$I38&amp;"');","")</f>
+        <f>IF(ISNUMBER($G38),"insert into M_CD_VAL values ("&amp;$G38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B38)&amp;"', '"&amp;$H38&amp;"', '"&amp;$I38&amp;"');","")</f>
         <v/>
       </c>
       <c r="K38" s="16" t="str">
@@ -2804,7 +2723,7 @@
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="16" t="str">
-        <f>IF(ISNUMBER($K38),"insert into M_CD_GRP values ("&amp;$K38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G38)&amp;"', '"&amp;$L38&amp;"', '"&amp;$M38&amp;"');","")</f>
+        <f>IF(ISNUMBER($K38),"insert into M_CD_VAL_LANG values ("&amp;$K38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G38)&amp;"', '"&amp;$L38&amp;"', '"&amp;$M38&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2831,7 +2750,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="16" t="str">
-        <f>IF(ISNUMBER($G39),"insert into M_CD_GRP values ("&amp;$G39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B39)&amp;"', '"&amp;$H39&amp;"', '"&amp;$I39&amp;"');","")</f>
+        <f>IF(ISNUMBER($G39),"insert into M_CD_VAL values ("&amp;$G39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B39)&amp;"', '"&amp;$H39&amp;"', '"&amp;$I39&amp;"');","")</f>
         <v/>
       </c>
       <c r="K39" s="16" t="str">
@@ -2841,7 +2760,7 @@
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="16" t="str">
-        <f>IF(ISNUMBER($K39),"insert into M_CD_GRP values ("&amp;$K39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G39)&amp;"', '"&amp;$L39&amp;"', '"&amp;$M39&amp;"');","")</f>
+        <f>IF(ISNUMBER($K39),"insert into M_CD_VAL_LANG values ("&amp;$K39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G39)&amp;"', '"&amp;$L39&amp;"', '"&amp;$M39&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2868,7 +2787,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="16" t="str">
-        <f>IF(ISNUMBER($G40),"insert into M_CD_GRP values ("&amp;$G40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B40)&amp;"', '"&amp;$H40&amp;"', '"&amp;$I40&amp;"');","")</f>
+        <f>IF(ISNUMBER($G40),"insert into M_CD_VAL values ("&amp;$G40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B40)&amp;"', '"&amp;$H40&amp;"', '"&amp;$I40&amp;"');","")</f>
         <v/>
       </c>
       <c r="K40" s="16" t="str">
@@ -2878,7 +2797,7 @@
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="16" t="str">
-        <f>IF(ISNUMBER($K40),"insert into M_CD_GRP values ("&amp;$K40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G40)&amp;"', '"&amp;$L40&amp;"', '"&amp;$M40&amp;"');","")</f>
+        <f>IF(ISNUMBER($K40),"insert into M_CD_VAL_LANG values ("&amp;$K40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G40)&amp;"', '"&amp;$L40&amp;"', '"&amp;$M40&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2905,7 +2824,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="16" t="str">
-        <f>IF(ISNUMBER($G41),"insert into M_CD_GRP values ("&amp;$G41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B41)&amp;"', '"&amp;$H41&amp;"', '"&amp;$I41&amp;"');","")</f>
+        <f>IF(ISNUMBER($G41),"insert into M_CD_VAL values ("&amp;$G41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B41)&amp;"', '"&amp;$H41&amp;"', '"&amp;$I41&amp;"');","")</f>
         <v/>
       </c>
       <c r="K41" s="16" t="str">
@@ -2915,7 +2834,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="16" t="str">
-        <f>IF(ISNUMBER($K41),"insert into M_CD_GRP values ("&amp;$K41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G41)&amp;"', '"&amp;$L41&amp;"', '"&amp;$M41&amp;"');","")</f>
+        <f>IF(ISNUMBER($K41),"insert into M_CD_VAL_LANG values ("&amp;$K41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G41)&amp;"', '"&amp;$L41&amp;"', '"&amp;$M41&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2942,7 +2861,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="16" t="str">
-        <f>IF(ISNUMBER($G42),"insert into M_CD_GRP values ("&amp;$G42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B42)&amp;"', '"&amp;$H42&amp;"', '"&amp;$I42&amp;"');","")</f>
+        <f>IF(ISNUMBER($G42),"insert into M_CD_VAL values ("&amp;$G42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B42)&amp;"', '"&amp;$H42&amp;"', '"&amp;$I42&amp;"');","")</f>
         <v/>
       </c>
       <c r="K42" s="16" t="str">
@@ -2952,7 +2871,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="16" t="str">
-        <f>IF(ISNUMBER($K42),"insert into M_CD_GRP values ("&amp;$K42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G42)&amp;"', '"&amp;$L42&amp;"', '"&amp;$M42&amp;"');","")</f>
+        <f>IF(ISNUMBER($K42),"insert into M_CD_VAL_LANG values ("&amp;$K42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G42)&amp;"', '"&amp;$L42&amp;"', '"&amp;$M42&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -2979,7 +2898,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="16" t="str">
-        <f>IF(ISNUMBER($G43),"insert into M_CD_GRP values ("&amp;$G43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B43)&amp;"', '"&amp;$H43&amp;"', '"&amp;$I43&amp;"');","")</f>
+        <f>IF(ISNUMBER($G43),"insert into M_CD_VAL values ("&amp;$G43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B43)&amp;"', '"&amp;$H43&amp;"', '"&amp;$I43&amp;"');","")</f>
         <v/>
       </c>
       <c r="K43" s="16" t="str">
@@ -2989,7 +2908,7 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="16" t="str">
-        <f>IF(ISNUMBER($K43),"insert into M_CD_GRP values ("&amp;$K43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G43)&amp;"', '"&amp;$L43&amp;"', '"&amp;$M43&amp;"');","")</f>
+        <f>IF(ISNUMBER($K43),"insert into M_CD_VAL_LANG values ("&amp;$K43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G43)&amp;"', '"&amp;$L43&amp;"', '"&amp;$M43&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3016,7 +2935,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="16" t="str">
-        <f>IF(ISNUMBER($G44),"insert into M_CD_GRP values ("&amp;$G44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B44)&amp;"', '"&amp;$H44&amp;"', '"&amp;$I44&amp;"');","")</f>
+        <f>IF(ISNUMBER($G44),"insert into M_CD_VAL values ("&amp;$G44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B44)&amp;"', '"&amp;$H44&amp;"', '"&amp;$I44&amp;"');","")</f>
         <v/>
       </c>
       <c r="K44" s="16" t="str">
@@ -3026,7 +2945,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="16" t="str">
-        <f>IF(ISNUMBER($K44),"insert into M_CD_GRP values ("&amp;$K44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G44)&amp;"', '"&amp;$L44&amp;"', '"&amp;$M44&amp;"');","")</f>
+        <f>IF(ISNUMBER($K44),"insert into M_CD_VAL_LANG values ("&amp;$K44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G44)&amp;"', '"&amp;$L44&amp;"', '"&amp;$M44&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3053,7 +2972,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="16" t="str">
-        <f>IF(ISNUMBER($G45),"insert into M_CD_GRP values ("&amp;$G45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B45)&amp;"', '"&amp;$H45&amp;"', '"&amp;$I45&amp;"');","")</f>
+        <f>IF(ISNUMBER($G45),"insert into M_CD_VAL values ("&amp;$G45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B45)&amp;"', '"&amp;$H45&amp;"', '"&amp;$I45&amp;"');","")</f>
         <v/>
       </c>
       <c r="K45" s="16" t="str">
@@ -3063,7 +2982,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="16" t="str">
-        <f>IF(ISNUMBER($K45),"insert into M_CD_GRP values ("&amp;$K45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G45)&amp;"', '"&amp;$L45&amp;"', '"&amp;$M45&amp;"');","")</f>
+        <f>IF(ISNUMBER($K45),"insert into M_CD_VAL_LANG values ("&amp;$K45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G45)&amp;"', '"&amp;$L45&amp;"', '"&amp;$M45&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3090,7 +3009,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="16" t="str">
-        <f>IF(ISNUMBER($G46),"insert into M_CD_GRP values ("&amp;$G46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B46)&amp;"', '"&amp;$H46&amp;"', '"&amp;$I46&amp;"');","")</f>
+        <f>IF(ISNUMBER($G46),"insert into M_CD_VAL values ("&amp;$G46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B46)&amp;"', '"&amp;$H46&amp;"', '"&amp;$I46&amp;"');","")</f>
         <v/>
       </c>
       <c r="K46" s="16" t="str">
@@ -3100,7 +3019,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="16" t="str">
-        <f>IF(ISNUMBER($K46),"insert into M_CD_GRP values ("&amp;$K46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G46)&amp;"', '"&amp;$L46&amp;"', '"&amp;$M46&amp;"');","")</f>
+        <f>IF(ISNUMBER($K46),"insert into M_CD_VAL_LANG values ("&amp;$K46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G46)&amp;"', '"&amp;$L46&amp;"', '"&amp;$M46&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3127,7 +3046,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="16" t="str">
-        <f>IF(ISNUMBER($G47),"insert into M_CD_GRP values ("&amp;$G47&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B47)&amp;"', '"&amp;$H47&amp;"', '"&amp;$I47&amp;"');","")</f>
+        <f>IF(ISNUMBER($G47),"insert into M_CD_VAL values ("&amp;$G47&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B47)&amp;"', '"&amp;$H47&amp;"', '"&amp;$I47&amp;"');","")</f>
         <v/>
       </c>
       <c r="K47" s="16" t="str">
@@ -3137,7 +3056,7 @@
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="16" t="str">
-        <f>IF(ISNUMBER($K47),"insert into M_CD_GRP values ("&amp;$K47&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G47)&amp;"', '"&amp;$L47&amp;"', '"&amp;$M47&amp;"');","")</f>
+        <f>IF(ISNUMBER($K47),"insert into M_CD_VAL_LANG values ("&amp;$K47&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G47)&amp;"', '"&amp;$L47&amp;"', '"&amp;$M47&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3164,7 +3083,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="16" t="str">
-        <f>IF(ISNUMBER($G48),"insert into M_CD_GRP values ("&amp;$G48&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B48)&amp;"', '"&amp;$H48&amp;"', '"&amp;$I48&amp;"');","")</f>
+        <f>IF(ISNUMBER($G48),"insert into M_CD_VAL values ("&amp;$G48&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B48)&amp;"', '"&amp;$H48&amp;"', '"&amp;$I48&amp;"');","")</f>
         <v/>
       </c>
       <c r="K48" s="16" t="str">
@@ -3174,7 +3093,7 @@
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="16" t="str">
-        <f>IF(ISNUMBER($K48),"insert into M_CD_GRP values ("&amp;$K48&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G48)&amp;"', '"&amp;$L48&amp;"', '"&amp;$M48&amp;"');","")</f>
+        <f>IF(ISNUMBER($K48),"insert into M_CD_VAL_LANG values ("&amp;$K48&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G48)&amp;"', '"&amp;$L48&amp;"', '"&amp;$M48&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3201,7 +3120,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="16" t="str">
-        <f>IF(ISNUMBER($G49),"insert into M_CD_GRP values ("&amp;$G49&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B49)&amp;"', '"&amp;$H49&amp;"', '"&amp;$I49&amp;"');","")</f>
+        <f>IF(ISNUMBER($G49),"insert into M_CD_VAL values ("&amp;$G49&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B49)&amp;"', '"&amp;$H49&amp;"', '"&amp;$I49&amp;"');","")</f>
         <v/>
       </c>
       <c r="K49" s="16" t="str">
@@ -3211,7 +3130,7 @@
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="16" t="str">
-        <f>IF(ISNUMBER($K49),"insert into M_CD_GRP values ("&amp;$K49&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G49)&amp;"', '"&amp;$L49&amp;"', '"&amp;$M49&amp;"');","")</f>
+        <f>IF(ISNUMBER($K49),"insert into M_CD_VAL_LANG values ("&amp;$K49&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G49)&amp;"', '"&amp;$L49&amp;"', '"&amp;$M49&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3238,7 +3157,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="16" t="str">
-        <f>IF(ISNUMBER($G50),"insert into M_CD_GRP values ("&amp;$G50&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B50)&amp;"', '"&amp;$H50&amp;"', '"&amp;$I50&amp;"');","")</f>
+        <f>IF(ISNUMBER($G50),"insert into M_CD_VAL values ("&amp;$G50&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B50)&amp;"', '"&amp;$H50&amp;"', '"&amp;$I50&amp;"');","")</f>
         <v/>
       </c>
       <c r="K50" s="16" t="str">
@@ -3248,7 +3167,7 @@
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="16" t="str">
-        <f>IF(ISNUMBER($K50),"insert into M_CD_GRP values ("&amp;$K50&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G50)&amp;"', '"&amp;$L50&amp;"', '"&amp;$M50&amp;"');","")</f>
+        <f>IF(ISNUMBER($K50),"insert into M_CD_VAL_LANG values ("&amp;$K50&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G50)&amp;"', '"&amp;$L50&amp;"', '"&amp;$M50&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3275,7 +3194,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="16" t="str">
-        <f>IF(ISNUMBER($G51),"insert into M_CD_GRP values ("&amp;$G51&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B51)&amp;"', '"&amp;$H51&amp;"', '"&amp;$I51&amp;"');","")</f>
+        <f>IF(ISNUMBER($G51),"insert into M_CD_VAL values ("&amp;$G51&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B51)&amp;"', '"&amp;$H51&amp;"', '"&amp;$I51&amp;"');","")</f>
         <v/>
       </c>
       <c r="K51" s="16" t="str">
@@ -3285,7 +3204,7 @@
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="16" t="str">
-        <f>IF(ISNUMBER($K51),"insert into M_CD_GRP values ("&amp;$K51&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G51)&amp;"', '"&amp;$L51&amp;"', '"&amp;$M51&amp;"');","")</f>
+        <f>IF(ISNUMBER($K51),"insert into M_CD_VAL_LANG values ("&amp;$K51&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G51)&amp;"', '"&amp;$L51&amp;"', '"&amp;$M51&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3312,7 +3231,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="16" t="str">
-        <f>IF(ISNUMBER($G52),"insert into M_CD_GRP values ("&amp;$G52&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B52)&amp;"', '"&amp;$H52&amp;"', '"&amp;$I52&amp;"');","")</f>
+        <f>IF(ISNUMBER($G52),"insert into M_CD_VAL values ("&amp;$G52&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B52)&amp;"', '"&amp;$H52&amp;"', '"&amp;$I52&amp;"');","")</f>
         <v/>
       </c>
       <c r="K52" s="16" t="str">
@@ -3322,7 +3241,7 @@
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="16" t="str">
-        <f>IF(ISNUMBER($K52),"insert into M_CD_GRP values ("&amp;$K52&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G52)&amp;"', '"&amp;$L52&amp;"', '"&amp;$M52&amp;"');","")</f>
+        <f>IF(ISNUMBER($K52),"insert into M_CD_VAL_LANG values ("&amp;$K52&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G52)&amp;"', '"&amp;$L52&amp;"', '"&amp;$M52&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3349,7 +3268,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="16" t="str">
-        <f>IF(ISNUMBER($G53),"insert into M_CD_GRP values ("&amp;$G53&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B53)&amp;"', '"&amp;$H53&amp;"', '"&amp;$I53&amp;"');","")</f>
+        <f>IF(ISNUMBER($G53),"insert into M_CD_VAL values ("&amp;$G53&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B53)&amp;"', '"&amp;$H53&amp;"', '"&amp;$I53&amp;"');","")</f>
         <v/>
       </c>
       <c r="K53" s="16" t="str">
@@ -3359,7 +3278,7 @@
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
       <c r="N53" s="16" t="str">
-        <f>IF(ISNUMBER($K53),"insert into M_CD_GRP values ("&amp;$K53&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G53)&amp;"', '"&amp;$L53&amp;"', '"&amp;$M53&amp;"');","")</f>
+        <f>IF(ISNUMBER($K53),"insert into M_CD_VAL_LANG values ("&amp;$K53&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G53)&amp;"', '"&amp;$L53&amp;"', '"&amp;$M53&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3386,7 +3305,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="16" t="str">
-        <f>IF(ISNUMBER($G54),"insert into M_CD_GRP values ("&amp;$G54&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B54)&amp;"', '"&amp;$H54&amp;"', '"&amp;$I54&amp;"');","")</f>
+        <f>IF(ISNUMBER($G54),"insert into M_CD_VAL values ("&amp;$G54&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B54)&amp;"', '"&amp;$H54&amp;"', '"&amp;$I54&amp;"');","")</f>
         <v/>
       </c>
       <c r="K54" s="16" t="str">
@@ -3396,7 +3315,7 @@
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="16" t="str">
-        <f>IF(ISNUMBER($K54),"insert into M_CD_GRP values ("&amp;$K54&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G54)&amp;"', '"&amp;$L54&amp;"', '"&amp;$M54&amp;"');","")</f>
+        <f>IF(ISNUMBER($K54),"insert into M_CD_VAL_LANG values ("&amp;$K54&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G54)&amp;"', '"&amp;$L54&amp;"', '"&amp;$M54&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3423,7 +3342,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="16" t="str">
-        <f>IF(ISNUMBER($G55),"insert into M_CD_GRP values ("&amp;$G55&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B55)&amp;"', '"&amp;$H55&amp;"', '"&amp;$I55&amp;"');","")</f>
+        <f>IF(ISNUMBER($G55),"insert into M_CD_VAL values ("&amp;$G55&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B55)&amp;"', '"&amp;$H55&amp;"', '"&amp;$I55&amp;"');","")</f>
         <v/>
       </c>
       <c r="K55" s="16" t="str">
@@ -3433,7 +3352,7 @@
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
       <c r="N55" s="16" t="str">
-        <f>IF(ISNUMBER($K55),"insert into M_CD_GRP values ("&amp;$K55&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G55)&amp;"', '"&amp;$L55&amp;"', '"&amp;$M55&amp;"');","")</f>
+        <f>IF(ISNUMBER($K55),"insert into M_CD_VAL_LANG values ("&amp;$K55&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G55)&amp;"', '"&amp;$L55&amp;"', '"&amp;$M55&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3460,7 +3379,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="16" t="str">
-        <f>IF(ISNUMBER($G56),"insert into M_CD_GRP values ("&amp;$G56&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B56)&amp;"', '"&amp;$H56&amp;"', '"&amp;$I56&amp;"');","")</f>
+        <f>IF(ISNUMBER($G56),"insert into M_CD_VAL values ("&amp;$G56&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B56)&amp;"', '"&amp;$H56&amp;"', '"&amp;$I56&amp;"');","")</f>
         <v/>
       </c>
       <c r="K56" s="16" t="str">
@@ -3470,7 +3389,7 @@
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="16" t="str">
-        <f>IF(ISNUMBER($K56),"insert into M_CD_GRP values ("&amp;$K56&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G56)&amp;"', '"&amp;$L56&amp;"', '"&amp;$M56&amp;"');","")</f>
+        <f>IF(ISNUMBER($K56),"insert into M_CD_VAL_LANG values ("&amp;$K56&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G56)&amp;"', '"&amp;$L56&amp;"', '"&amp;$M56&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3497,7 +3416,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="16" t="str">
-        <f>IF(ISNUMBER($G57),"insert into M_CD_GRP values ("&amp;$G57&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B57)&amp;"', '"&amp;$H57&amp;"', '"&amp;$I57&amp;"');","")</f>
+        <f>IF(ISNUMBER($G57),"insert into M_CD_VAL values ("&amp;$G57&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B57)&amp;"', '"&amp;$H57&amp;"', '"&amp;$I57&amp;"');","")</f>
         <v/>
       </c>
       <c r="K57" s="16" t="str">
@@ -3507,7 +3426,7 @@
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="16" t="str">
-        <f>IF(ISNUMBER($K57),"insert into M_CD_GRP values ("&amp;$K57&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G57)&amp;"', '"&amp;$L57&amp;"', '"&amp;$M57&amp;"');","")</f>
+        <f>IF(ISNUMBER($K57),"insert into M_CD_VAL_LANG values ("&amp;$K57&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G57)&amp;"', '"&amp;$L57&amp;"', '"&amp;$M57&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3534,7 +3453,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="16" t="str">
-        <f>IF(ISNUMBER($G58),"insert into M_CD_GRP values ("&amp;$G58&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B58)&amp;"', '"&amp;$H58&amp;"', '"&amp;$I58&amp;"');","")</f>
+        <f>IF(ISNUMBER($G58),"insert into M_CD_VAL values ("&amp;$G58&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B58)&amp;"', '"&amp;$H58&amp;"', '"&amp;$I58&amp;"');","")</f>
         <v/>
       </c>
       <c r="K58" s="16" t="str">
@@ -3544,7 +3463,7 @@
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="16" t="str">
-        <f>IF(ISNUMBER($K58),"insert into M_CD_GRP values ("&amp;$K58&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G58)&amp;"', '"&amp;$L58&amp;"', '"&amp;$M58&amp;"');","")</f>
+        <f>IF(ISNUMBER($K58),"insert into M_CD_VAL_LANG values ("&amp;$K58&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G58)&amp;"', '"&amp;$L58&amp;"', '"&amp;$M58&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3571,7 +3490,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="16" t="str">
-        <f>IF(ISNUMBER($G59),"insert into M_CD_GRP values ("&amp;$G59&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B59)&amp;"', '"&amp;$H59&amp;"', '"&amp;$I59&amp;"');","")</f>
+        <f>IF(ISNUMBER($G59),"insert into M_CD_VAL values ("&amp;$G59&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B59)&amp;"', '"&amp;$H59&amp;"', '"&amp;$I59&amp;"');","")</f>
         <v/>
       </c>
       <c r="K59" s="16" t="str">
@@ -3581,7 +3500,7 @@
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="16" t="str">
-        <f>IF(ISNUMBER($K59),"insert into M_CD_GRP values ("&amp;$K59&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G59)&amp;"', '"&amp;$L59&amp;"', '"&amp;$M59&amp;"');","")</f>
+        <f>IF(ISNUMBER($K59),"insert into M_CD_VAL_LANG values ("&amp;$K59&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G59)&amp;"', '"&amp;$L59&amp;"', '"&amp;$M59&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3608,7 +3527,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="16" t="str">
-        <f>IF(ISNUMBER($G60),"insert into M_CD_GRP values ("&amp;$G60&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B60)&amp;"', '"&amp;$H60&amp;"', '"&amp;$I60&amp;"');","")</f>
+        <f>IF(ISNUMBER($G60),"insert into M_CD_VAL values ("&amp;$G60&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B60)&amp;"', '"&amp;$H60&amp;"', '"&amp;$I60&amp;"');","")</f>
         <v/>
       </c>
       <c r="K60" s="16" t="str">
@@ -3618,7 +3537,7 @@
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="16" t="str">
-        <f>IF(ISNUMBER($K60),"insert into M_CD_GRP values ("&amp;$K60&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G60)&amp;"', '"&amp;$L60&amp;"', '"&amp;$M60&amp;"');","")</f>
+        <f>IF(ISNUMBER($K60),"insert into M_CD_VAL_LANG values ("&amp;$K60&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G60)&amp;"', '"&amp;$L60&amp;"', '"&amp;$M60&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3645,7 +3564,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="16" t="str">
-        <f>IF(ISNUMBER($G61),"insert into M_CD_GRP values ("&amp;$G61&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B61)&amp;"', '"&amp;$H61&amp;"', '"&amp;$I61&amp;"');","")</f>
+        <f>IF(ISNUMBER($G61),"insert into M_CD_VAL values ("&amp;$G61&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B61)&amp;"', '"&amp;$H61&amp;"', '"&amp;$I61&amp;"');","")</f>
         <v/>
       </c>
       <c r="K61" s="16" t="str">
@@ -3655,7 +3574,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="16" t="str">
-        <f>IF(ISNUMBER($K61),"insert into M_CD_GRP values ("&amp;$K61&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G61)&amp;"', '"&amp;$L61&amp;"', '"&amp;$M61&amp;"');","")</f>
+        <f>IF(ISNUMBER($K61),"insert into M_CD_VAL_LANG values ("&amp;$K61&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G61)&amp;"', '"&amp;$L61&amp;"', '"&amp;$M61&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3682,7 +3601,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="16" t="str">
-        <f>IF(ISNUMBER($G62),"insert into M_CD_GRP values ("&amp;$G62&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B62)&amp;"', '"&amp;$H62&amp;"', '"&amp;$I62&amp;"');","")</f>
+        <f>IF(ISNUMBER($G62),"insert into M_CD_VAL values ("&amp;$G62&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B62)&amp;"', '"&amp;$H62&amp;"', '"&amp;$I62&amp;"');","")</f>
         <v/>
       </c>
       <c r="K62" s="16" t="str">
@@ -3692,7 +3611,7 @@
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="16" t="str">
-        <f>IF(ISNUMBER($K62),"insert into M_CD_GRP values ("&amp;$K62&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G62)&amp;"', '"&amp;$L62&amp;"', '"&amp;$M62&amp;"');","")</f>
+        <f>IF(ISNUMBER($K62),"insert into M_CD_VAL_LANG values ("&amp;$K62&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G62)&amp;"', '"&amp;$L62&amp;"', '"&amp;$M62&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3719,7 +3638,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="16" t="str">
-        <f>IF(ISNUMBER($G63),"insert into M_CD_GRP values ("&amp;$G63&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B63)&amp;"', '"&amp;$H63&amp;"', '"&amp;$I63&amp;"');","")</f>
+        <f>IF(ISNUMBER($G63),"insert into M_CD_VAL values ("&amp;$G63&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B63)&amp;"', '"&amp;$H63&amp;"', '"&amp;$I63&amp;"');","")</f>
         <v/>
       </c>
       <c r="K63" s="16" t="str">
@@ -3729,7 +3648,7 @@
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="16" t="str">
-        <f>IF(ISNUMBER($K63),"insert into M_CD_GRP values ("&amp;$K63&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G63)&amp;"', '"&amp;$L63&amp;"', '"&amp;$M63&amp;"');","")</f>
+        <f>IF(ISNUMBER($K63),"insert into M_CD_VAL_LANG values ("&amp;$K63&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G63)&amp;"', '"&amp;$L63&amp;"', '"&amp;$M63&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3756,7 +3675,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="16" t="str">
-        <f>IF(ISNUMBER($G64),"insert into M_CD_GRP values ("&amp;$G64&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B64)&amp;"', '"&amp;$H64&amp;"', '"&amp;$I64&amp;"');","")</f>
+        <f>IF(ISNUMBER($G64),"insert into M_CD_VAL values ("&amp;$G64&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B64)&amp;"', '"&amp;$H64&amp;"', '"&amp;$I64&amp;"');","")</f>
         <v/>
       </c>
       <c r="K64" s="16" t="str">
@@ -3766,7 +3685,7 @@
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="16" t="str">
-        <f>IF(ISNUMBER($K64),"insert into M_CD_GRP values ("&amp;$K64&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G64)&amp;"', '"&amp;$L64&amp;"', '"&amp;$M64&amp;"');","")</f>
+        <f>IF(ISNUMBER($K64),"insert into M_CD_VAL_LANG values ("&amp;$K64&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G64)&amp;"', '"&amp;$L64&amp;"', '"&amp;$M64&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3793,7 +3712,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="16" t="str">
-        <f>IF(ISNUMBER($G65),"insert into M_CD_GRP values ("&amp;$G65&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B65)&amp;"', '"&amp;$H65&amp;"', '"&amp;$I65&amp;"');","")</f>
+        <f>IF(ISNUMBER($G65),"insert into M_CD_VAL values ("&amp;$G65&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B65)&amp;"', '"&amp;$H65&amp;"', '"&amp;$I65&amp;"');","")</f>
         <v/>
       </c>
       <c r="K65" s="16" t="str">
@@ -3803,7 +3722,7 @@
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="16" t="str">
-        <f>IF(ISNUMBER($K65),"insert into M_CD_GRP values ("&amp;$K65&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G65)&amp;"', '"&amp;$L65&amp;"', '"&amp;$M65&amp;"');","")</f>
+        <f>IF(ISNUMBER($K65),"insert into M_CD_VAL_LANG values ("&amp;$K65&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G65)&amp;"', '"&amp;$L65&amp;"', '"&amp;$M65&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3830,7 +3749,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="16" t="str">
-        <f>IF(ISNUMBER($G66),"insert into M_CD_GRP values ("&amp;$G66&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B66)&amp;"', '"&amp;$H66&amp;"', '"&amp;$I66&amp;"');","")</f>
+        <f>IF(ISNUMBER($G66),"insert into M_CD_VAL values ("&amp;$G66&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B66)&amp;"', '"&amp;$H66&amp;"', '"&amp;$I66&amp;"');","")</f>
         <v/>
       </c>
       <c r="K66" s="16" t="str">
@@ -3840,7 +3759,7 @@
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
       <c r="N66" s="16" t="str">
-        <f>IF(ISNUMBER($K66),"insert into M_CD_GRP values ("&amp;$K66&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G66)&amp;"', '"&amp;$L66&amp;"', '"&amp;$M66&amp;"');","")</f>
+        <f>IF(ISNUMBER($K66),"insert into M_CD_VAL_LANG values ("&amp;$K66&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G66)&amp;"', '"&amp;$L66&amp;"', '"&amp;$M66&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3867,7 +3786,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="16" t="str">
-        <f>IF(ISNUMBER($G67),"insert into M_CD_GRP values ("&amp;$G67&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B67)&amp;"', '"&amp;$H67&amp;"', '"&amp;$I67&amp;"');","")</f>
+        <f>IF(ISNUMBER($G67),"insert into M_CD_VAL values ("&amp;$G67&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B67)&amp;"', '"&amp;$H67&amp;"', '"&amp;$I67&amp;"');","")</f>
         <v/>
       </c>
       <c r="K67" s="16" t="str">
@@ -3877,7 +3796,7 @@
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="16" t="str">
-        <f>IF(ISNUMBER($K67),"insert into M_CD_GRP values ("&amp;$K67&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G67)&amp;"', '"&amp;$L67&amp;"', '"&amp;$M67&amp;"');","")</f>
+        <f>IF(ISNUMBER($K67),"insert into M_CD_VAL_LANG values ("&amp;$K67&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G67)&amp;"', '"&amp;$L67&amp;"', '"&amp;$M67&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3904,7 +3823,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="16" t="str">
-        <f>IF(ISNUMBER($G68),"insert into M_CD_GRP values ("&amp;$G68&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B68)&amp;"', '"&amp;$H68&amp;"', '"&amp;$I68&amp;"');","")</f>
+        <f>IF(ISNUMBER($G68),"insert into M_CD_VAL values ("&amp;$G68&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B68)&amp;"', '"&amp;$H68&amp;"', '"&amp;$I68&amp;"');","")</f>
         <v/>
       </c>
       <c r="K68" s="16" t="str">
@@ -3914,7 +3833,7 @@
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
       <c r="N68" s="16" t="str">
-        <f>IF(ISNUMBER($K68),"insert into M_CD_GRP values ("&amp;$K68&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G68)&amp;"', '"&amp;$L68&amp;"', '"&amp;$M68&amp;"');","")</f>
+        <f>IF(ISNUMBER($K68),"insert into M_CD_VAL_LANG values ("&amp;$K68&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G68)&amp;"', '"&amp;$L68&amp;"', '"&amp;$M68&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3941,7 +3860,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="16" t="str">
-        <f>IF(ISNUMBER($G69),"insert into M_CD_GRP values ("&amp;$G69&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B69)&amp;"', '"&amp;$H69&amp;"', '"&amp;$I69&amp;"');","")</f>
+        <f>IF(ISNUMBER($G69),"insert into M_CD_VAL values ("&amp;$G69&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B69)&amp;"', '"&amp;$H69&amp;"', '"&amp;$I69&amp;"');","")</f>
         <v/>
       </c>
       <c r="K69" s="16" t="str">
@@ -3951,7 +3870,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
       <c r="N69" s="16" t="str">
-        <f>IF(ISNUMBER($K69),"insert into M_CD_GRP values ("&amp;$K69&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G69)&amp;"', '"&amp;$L69&amp;"', '"&amp;$M69&amp;"');","")</f>
+        <f>IF(ISNUMBER($K69),"insert into M_CD_VAL_LANG values ("&amp;$K69&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G69)&amp;"', '"&amp;$L69&amp;"', '"&amp;$M69&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -3978,7 +3897,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="16" t="str">
-        <f>IF(ISNUMBER($G70),"insert into M_CD_GRP values ("&amp;$G70&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B70)&amp;"', '"&amp;$H70&amp;"', '"&amp;$I70&amp;"');","")</f>
+        <f>IF(ISNUMBER($G70),"insert into M_CD_VAL values ("&amp;$G70&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B70)&amp;"', '"&amp;$H70&amp;"', '"&amp;$I70&amp;"');","")</f>
         <v/>
       </c>
       <c r="K70" s="16" t="str">
@@ -3988,7 +3907,7 @@
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
       <c r="N70" s="16" t="str">
-        <f>IF(ISNUMBER($K70),"insert into M_CD_GRP values ("&amp;$K70&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G70)&amp;"', '"&amp;$L70&amp;"', '"&amp;$M70&amp;"');","")</f>
+        <f>IF(ISNUMBER($K70),"insert into M_CD_VAL_LANG values ("&amp;$K70&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G70)&amp;"', '"&amp;$L70&amp;"', '"&amp;$M70&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4015,7 +3934,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="16" t="str">
-        <f>IF(ISNUMBER($G71),"insert into M_CD_GRP values ("&amp;$G71&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B71)&amp;"', '"&amp;$H71&amp;"', '"&amp;$I71&amp;"');","")</f>
+        <f>IF(ISNUMBER($G71),"insert into M_CD_VAL values ("&amp;$G71&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B71)&amp;"', '"&amp;$H71&amp;"', '"&amp;$I71&amp;"');","")</f>
         <v/>
       </c>
       <c r="K71" s="16" t="str">
@@ -4025,7 +3944,7 @@
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
       <c r="N71" s="16" t="str">
-        <f>IF(ISNUMBER($K71),"insert into M_CD_GRP values ("&amp;$K71&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G71)&amp;"', '"&amp;$L71&amp;"', '"&amp;$M71&amp;"');","")</f>
+        <f>IF(ISNUMBER($K71),"insert into M_CD_VAL_LANG values ("&amp;$K71&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G71)&amp;"', '"&amp;$L71&amp;"', '"&amp;$M71&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4052,7 +3971,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="16" t="str">
-        <f>IF(ISNUMBER($G72),"insert into M_CD_GRP values ("&amp;$G72&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B72)&amp;"', '"&amp;$H72&amp;"', '"&amp;$I72&amp;"');","")</f>
+        <f>IF(ISNUMBER($G72),"insert into M_CD_VAL values ("&amp;$G72&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B72)&amp;"', '"&amp;$H72&amp;"', '"&amp;$I72&amp;"');","")</f>
         <v/>
       </c>
       <c r="K72" s="16" t="str">
@@ -4062,7 +3981,7 @@
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
       <c r="N72" s="16" t="str">
-        <f>IF(ISNUMBER($K72),"insert into M_CD_GRP values ("&amp;$K72&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G72)&amp;"', '"&amp;$L72&amp;"', '"&amp;$M72&amp;"');","")</f>
+        <f>IF(ISNUMBER($K72),"insert into M_CD_VAL_LANG values ("&amp;$K72&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G72)&amp;"', '"&amp;$L72&amp;"', '"&amp;$M72&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4089,7 +4008,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="16" t="str">
-        <f>IF(ISNUMBER($G73),"insert into M_CD_GRP values ("&amp;$G73&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B73)&amp;"', '"&amp;$H73&amp;"', '"&amp;$I73&amp;"');","")</f>
+        <f>IF(ISNUMBER($G73),"insert into M_CD_VAL values ("&amp;$G73&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B73)&amp;"', '"&amp;$H73&amp;"', '"&amp;$I73&amp;"');","")</f>
         <v/>
       </c>
       <c r="K73" s="16" t="str">
@@ -4099,7 +4018,7 @@
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="16" t="str">
-        <f>IF(ISNUMBER($K73),"insert into M_CD_GRP values ("&amp;$K73&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G73)&amp;"', '"&amp;$L73&amp;"', '"&amp;$M73&amp;"');","")</f>
+        <f>IF(ISNUMBER($K73),"insert into M_CD_VAL_LANG values ("&amp;$K73&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G73)&amp;"', '"&amp;$L73&amp;"', '"&amp;$M73&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4126,7 +4045,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="16" t="str">
-        <f>IF(ISNUMBER($G74),"insert into M_CD_GRP values ("&amp;$G74&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B74)&amp;"', '"&amp;$H74&amp;"', '"&amp;$I74&amp;"');","")</f>
+        <f>IF(ISNUMBER($G74),"insert into M_CD_VAL values ("&amp;$G74&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B74)&amp;"', '"&amp;$H74&amp;"', '"&amp;$I74&amp;"');","")</f>
         <v/>
       </c>
       <c r="K74" s="16" t="str">
@@ -4136,7 +4055,7 @@
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
       <c r="N74" s="16" t="str">
-        <f>IF(ISNUMBER($K74),"insert into M_CD_GRP values ("&amp;$K74&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G74)&amp;"', '"&amp;$L74&amp;"', '"&amp;$M74&amp;"');","")</f>
+        <f>IF(ISNUMBER($K74),"insert into M_CD_VAL_LANG values ("&amp;$K74&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G74)&amp;"', '"&amp;$L74&amp;"', '"&amp;$M74&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4163,7 +4082,7 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="16" t="str">
-        <f>IF(ISNUMBER($G75),"insert into M_CD_GRP values ("&amp;$G75&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B75)&amp;"', '"&amp;$H75&amp;"', '"&amp;$I75&amp;"');","")</f>
+        <f>IF(ISNUMBER($G75),"insert into M_CD_VAL values ("&amp;$G75&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B75)&amp;"', '"&amp;$H75&amp;"', '"&amp;$I75&amp;"');","")</f>
         <v/>
       </c>
       <c r="K75" s="16" t="str">
@@ -4173,7 +4092,7 @@
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
       <c r="N75" s="16" t="str">
-        <f>IF(ISNUMBER($K75),"insert into M_CD_GRP values ("&amp;$K75&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G75)&amp;"', '"&amp;$L75&amp;"', '"&amp;$M75&amp;"');","")</f>
+        <f>IF(ISNUMBER($K75),"insert into M_CD_VAL_LANG values ("&amp;$K75&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G75)&amp;"', '"&amp;$L75&amp;"', '"&amp;$M75&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4200,7 +4119,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="16" t="str">
-        <f>IF(ISNUMBER($G76),"insert into M_CD_GRP values ("&amp;$G76&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B76)&amp;"', '"&amp;$H76&amp;"', '"&amp;$I76&amp;"');","")</f>
+        <f>IF(ISNUMBER($G76),"insert into M_CD_VAL values ("&amp;$G76&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B76)&amp;"', '"&amp;$H76&amp;"', '"&amp;$I76&amp;"');","")</f>
         <v/>
       </c>
       <c r="K76" s="16" t="str">
@@ -4210,7 +4129,7 @@
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
       <c r="N76" s="16" t="str">
-        <f>IF(ISNUMBER($K76),"insert into M_CD_GRP values ("&amp;$K76&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G76)&amp;"', '"&amp;$L76&amp;"', '"&amp;$M76&amp;"');","")</f>
+        <f>IF(ISNUMBER($K76),"insert into M_CD_VAL_LANG values ("&amp;$K76&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G76)&amp;"', '"&amp;$L76&amp;"', '"&amp;$M76&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4237,7 +4156,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="16" t="str">
-        <f>IF(ISNUMBER($G77),"insert into M_CD_GRP values ("&amp;$G77&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B77)&amp;"', '"&amp;$H77&amp;"', '"&amp;$I77&amp;"');","")</f>
+        <f>IF(ISNUMBER($G77),"insert into M_CD_VAL values ("&amp;$G77&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B77)&amp;"', '"&amp;$H77&amp;"', '"&amp;$I77&amp;"');","")</f>
         <v/>
       </c>
       <c r="K77" s="16" t="str">
@@ -4247,7 +4166,7 @@
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
       <c r="N77" s="16" t="str">
-        <f>IF(ISNUMBER($K77),"insert into M_CD_GRP values ("&amp;$K77&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G77)&amp;"', '"&amp;$L77&amp;"', '"&amp;$M77&amp;"');","")</f>
+        <f>IF(ISNUMBER($K77),"insert into M_CD_VAL_LANG values ("&amp;$K77&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G77)&amp;"', '"&amp;$L77&amp;"', '"&amp;$M77&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4274,7 +4193,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="16" t="str">
-        <f>IF(ISNUMBER($G78),"insert into M_CD_GRP values ("&amp;$G78&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B78)&amp;"', '"&amp;$H78&amp;"', '"&amp;$I78&amp;"');","")</f>
+        <f>IF(ISNUMBER($G78),"insert into M_CD_VAL values ("&amp;$G78&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B78)&amp;"', '"&amp;$H78&amp;"', '"&amp;$I78&amp;"');","")</f>
         <v/>
       </c>
       <c r="K78" s="16" t="str">
@@ -4284,7 +4203,7 @@
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="16" t="str">
-        <f>IF(ISNUMBER($K78),"insert into M_CD_GRP values ("&amp;$K78&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G78)&amp;"', '"&amp;$L78&amp;"', '"&amp;$M78&amp;"');","")</f>
+        <f>IF(ISNUMBER($K78),"insert into M_CD_VAL_LANG values ("&amp;$K78&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G78)&amp;"', '"&amp;$L78&amp;"', '"&amp;$M78&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4311,7 +4230,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="16" t="str">
-        <f>IF(ISNUMBER($G79),"insert into M_CD_GRP values ("&amp;$G79&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B79)&amp;"', '"&amp;$H79&amp;"', '"&amp;$I79&amp;"');","")</f>
+        <f>IF(ISNUMBER($G79),"insert into M_CD_VAL values ("&amp;$G79&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B79)&amp;"', '"&amp;$H79&amp;"', '"&amp;$I79&amp;"');","")</f>
         <v/>
       </c>
       <c r="K79" s="16" t="str">
@@ -4321,7 +4240,7 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="N79" s="16" t="str">
-        <f>IF(ISNUMBER($K79),"insert into M_CD_GRP values ("&amp;$K79&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G79)&amp;"', '"&amp;$L79&amp;"', '"&amp;$M79&amp;"');","")</f>
+        <f>IF(ISNUMBER($K79),"insert into M_CD_VAL_LANG values ("&amp;$K79&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G79)&amp;"', '"&amp;$L79&amp;"', '"&amp;$M79&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4348,7 +4267,7 @@
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="16" t="str">
-        <f>IF(ISNUMBER($G80),"insert into M_CD_GRP values ("&amp;$G80&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B80)&amp;"', '"&amp;$H80&amp;"', '"&amp;$I80&amp;"');","")</f>
+        <f>IF(ISNUMBER($G80),"insert into M_CD_VAL values ("&amp;$G80&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B80)&amp;"', '"&amp;$H80&amp;"', '"&amp;$I80&amp;"');","")</f>
         <v/>
       </c>
       <c r="K80" s="16" t="str">
@@ -4358,7 +4277,7 @@
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
       <c r="N80" s="16" t="str">
-        <f>IF(ISNUMBER($K80),"insert into M_CD_GRP values ("&amp;$K80&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G80)&amp;"', '"&amp;$L80&amp;"', '"&amp;$M80&amp;"');","")</f>
+        <f>IF(ISNUMBER($K80),"insert into M_CD_VAL_LANG values ("&amp;$K80&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G80)&amp;"', '"&amp;$L80&amp;"', '"&amp;$M80&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4385,7 +4304,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="16" t="str">
-        <f>IF(ISNUMBER($G81),"insert into M_CD_GRP values ("&amp;$G81&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B81)&amp;"', '"&amp;$H81&amp;"', '"&amp;$I81&amp;"');","")</f>
+        <f>IF(ISNUMBER($G81),"insert into M_CD_VAL values ("&amp;$G81&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B81)&amp;"', '"&amp;$H81&amp;"', '"&amp;$I81&amp;"');","")</f>
         <v/>
       </c>
       <c r="K81" s="16" t="str">
@@ -4395,7 +4314,7 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="16" t="str">
-        <f>IF(ISNUMBER($K81),"insert into M_CD_GRP values ("&amp;$K81&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G81)&amp;"', '"&amp;$L81&amp;"', '"&amp;$M81&amp;"');","")</f>
+        <f>IF(ISNUMBER($K81),"insert into M_CD_VAL_LANG values ("&amp;$K81&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G81)&amp;"', '"&amp;$L81&amp;"', '"&amp;$M81&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4422,7 +4341,7 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="16" t="str">
-        <f>IF(ISNUMBER($G82),"insert into M_CD_GRP values ("&amp;$G82&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B82)&amp;"', '"&amp;$H82&amp;"', '"&amp;$I82&amp;"');","")</f>
+        <f>IF(ISNUMBER($G82),"insert into M_CD_VAL values ("&amp;$G82&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B82)&amp;"', '"&amp;$H82&amp;"', '"&amp;$I82&amp;"');","")</f>
         <v/>
       </c>
       <c r="K82" s="16" t="str">
@@ -4432,7 +4351,7 @@
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
       <c r="N82" s="16" t="str">
-        <f>IF(ISNUMBER($K82),"insert into M_CD_GRP values ("&amp;$K82&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G82)&amp;"', '"&amp;$L82&amp;"', '"&amp;$M82&amp;"');","")</f>
+        <f>IF(ISNUMBER($K82),"insert into M_CD_VAL_LANG values ("&amp;$K82&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G82)&amp;"', '"&amp;$L82&amp;"', '"&amp;$M82&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4459,7 +4378,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="16" t="str">
-        <f>IF(ISNUMBER($G83),"insert into M_CD_GRP values ("&amp;$G83&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B83)&amp;"', '"&amp;$H83&amp;"', '"&amp;$I83&amp;"');","")</f>
+        <f>IF(ISNUMBER($G83),"insert into M_CD_VAL values ("&amp;$G83&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B83)&amp;"', '"&amp;$H83&amp;"', '"&amp;$I83&amp;"');","")</f>
         <v/>
       </c>
       <c r="K83" s="16" t="str">
@@ -4469,7 +4388,7 @@
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="16" t="str">
-        <f>IF(ISNUMBER($K83),"insert into M_CD_GRP values ("&amp;$K83&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G83)&amp;"', '"&amp;$L83&amp;"', '"&amp;$M83&amp;"');","")</f>
+        <f>IF(ISNUMBER($K83),"insert into M_CD_VAL_LANG values ("&amp;$K83&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G83)&amp;"', '"&amp;$L83&amp;"', '"&amp;$M83&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4496,7 +4415,7 @@
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="16" t="str">
-        <f>IF(ISNUMBER($G84),"insert into M_CD_GRP values ("&amp;$G84&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B84)&amp;"', '"&amp;$H84&amp;"', '"&amp;$I84&amp;"');","")</f>
+        <f>IF(ISNUMBER($G84),"insert into M_CD_VAL values ("&amp;$G84&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B84)&amp;"', '"&amp;$H84&amp;"', '"&amp;$I84&amp;"');","")</f>
         <v/>
       </c>
       <c r="K84" s="16" t="str">
@@ -4506,7 +4425,7 @@
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="16" t="str">
-        <f>IF(ISNUMBER($K84),"insert into M_CD_GRP values ("&amp;$K84&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G84)&amp;"', '"&amp;$L84&amp;"', '"&amp;$M84&amp;"');","")</f>
+        <f>IF(ISNUMBER($K84),"insert into M_CD_VAL_LANG values ("&amp;$K84&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G84)&amp;"', '"&amp;$L84&amp;"', '"&amp;$M84&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4533,7 +4452,7 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="16" t="str">
-        <f>IF(ISNUMBER($G85),"insert into M_CD_GRP values ("&amp;$G85&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B85)&amp;"', '"&amp;$H85&amp;"', '"&amp;$I85&amp;"');","")</f>
+        <f>IF(ISNUMBER($G85),"insert into M_CD_VAL values ("&amp;$G85&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B85)&amp;"', '"&amp;$H85&amp;"', '"&amp;$I85&amp;"');","")</f>
         <v/>
       </c>
       <c r="K85" s="16" t="str">
@@ -4543,7 +4462,7 @@
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="16" t="str">
-        <f>IF(ISNUMBER($K85),"insert into M_CD_GRP values ("&amp;$K85&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G85)&amp;"', '"&amp;$L85&amp;"', '"&amp;$M85&amp;"');","")</f>
+        <f>IF(ISNUMBER($K85),"insert into M_CD_VAL_LANG values ("&amp;$K85&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G85)&amp;"', '"&amp;$L85&amp;"', '"&amp;$M85&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4570,7 +4489,7 @@
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="16" t="str">
-        <f>IF(ISNUMBER($G86),"insert into M_CD_GRP values ("&amp;$G86&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B86)&amp;"', '"&amp;$H86&amp;"', '"&amp;$I86&amp;"');","")</f>
+        <f>IF(ISNUMBER($G86),"insert into M_CD_VAL values ("&amp;$G86&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B86)&amp;"', '"&amp;$H86&amp;"', '"&amp;$I86&amp;"');","")</f>
         <v/>
       </c>
       <c r="K86" s="16" t="str">
@@ -4580,7 +4499,7 @@
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="16" t="str">
-        <f>IF(ISNUMBER($K86),"insert into M_CD_GRP values ("&amp;$K86&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G86)&amp;"', '"&amp;$L86&amp;"', '"&amp;$M86&amp;"');","")</f>
+        <f>IF(ISNUMBER($K86),"insert into M_CD_VAL_LANG values ("&amp;$K86&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G86)&amp;"', '"&amp;$L86&amp;"', '"&amp;$M86&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4607,7 +4526,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="16" t="str">
-        <f>IF(ISNUMBER($G87),"insert into M_CD_GRP values ("&amp;$G87&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B87)&amp;"', '"&amp;$H87&amp;"', '"&amp;$I87&amp;"');","")</f>
+        <f>IF(ISNUMBER($G87),"insert into M_CD_VAL values ("&amp;$G87&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B87)&amp;"', '"&amp;$H87&amp;"', '"&amp;$I87&amp;"');","")</f>
         <v/>
       </c>
       <c r="K87" s="16" t="str">
@@ -4617,7 +4536,7 @@
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="16" t="str">
-        <f>IF(ISNUMBER($K87),"insert into M_CD_GRP values ("&amp;$K87&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G87)&amp;"', '"&amp;$L87&amp;"', '"&amp;$M87&amp;"');","")</f>
+        <f>IF(ISNUMBER($K87),"insert into M_CD_VAL_LANG values ("&amp;$K87&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G87)&amp;"', '"&amp;$L87&amp;"', '"&amp;$M87&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4644,7 +4563,7 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="16" t="str">
-        <f>IF(ISNUMBER($G88),"insert into M_CD_GRP values ("&amp;$G88&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B88)&amp;"', '"&amp;$H88&amp;"', '"&amp;$I88&amp;"');","")</f>
+        <f>IF(ISNUMBER($G88),"insert into M_CD_VAL values ("&amp;$G88&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B88)&amp;"', '"&amp;$H88&amp;"', '"&amp;$I88&amp;"');","")</f>
         <v/>
       </c>
       <c r="K88" s="16" t="str">
@@ -4654,7 +4573,7 @@
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
       <c r="N88" s="16" t="str">
-        <f>IF(ISNUMBER($K88),"insert into M_CD_GRP values ("&amp;$K88&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G88)&amp;"', '"&amp;$L88&amp;"', '"&amp;$M88&amp;"');","")</f>
+        <f>IF(ISNUMBER($K88),"insert into M_CD_VAL_LANG values ("&amp;$K88&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G88)&amp;"', '"&amp;$L88&amp;"', '"&amp;$M88&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4681,7 +4600,7 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="16" t="str">
-        <f>IF(ISNUMBER($G89),"insert into M_CD_GRP values ("&amp;$G89&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B89)&amp;"', '"&amp;$H89&amp;"', '"&amp;$I89&amp;"');","")</f>
+        <f>IF(ISNUMBER($G89),"insert into M_CD_VAL values ("&amp;$G89&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B89)&amp;"', '"&amp;$H89&amp;"', '"&amp;$I89&amp;"');","")</f>
         <v/>
       </c>
       <c r="K89" s="16" t="str">
@@ -4691,7 +4610,7 @@
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
       <c r="N89" s="16" t="str">
-        <f>IF(ISNUMBER($K89),"insert into M_CD_GRP values ("&amp;$K89&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G89)&amp;"', '"&amp;$L89&amp;"', '"&amp;$M89&amp;"');","")</f>
+        <f>IF(ISNUMBER($K89),"insert into M_CD_VAL_LANG values ("&amp;$K89&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G89)&amp;"', '"&amp;$L89&amp;"', '"&amp;$M89&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4718,7 +4637,7 @@
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="16" t="str">
-        <f>IF(ISNUMBER($G90),"insert into M_CD_GRP values ("&amp;$G90&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B90)&amp;"', '"&amp;$H90&amp;"', '"&amp;$I90&amp;"');","")</f>
+        <f>IF(ISNUMBER($G90),"insert into M_CD_VAL values ("&amp;$G90&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B90)&amp;"', '"&amp;$H90&amp;"', '"&amp;$I90&amp;"');","")</f>
         <v/>
       </c>
       <c r="K90" s="16" t="str">
@@ -4728,7 +4647,7 @@
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
       <c r="N90" s="16" t="str">
-        <f>IF(ISNUMBER($K90),"insert into M_CD_GRP values ("&amp;$K90&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G90)&amp;"', '"&amp;$L90&amp;"', '"&amp;$M90&amp;"');","")</f>
+        <f>IF(ISNUMBER($K90),"insert into M_CD_VAL_LANG values ("&amp;$K90&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G90)&amp;"', '"&amp;$L90&amp;"', '"&amp;$M90&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4755,7 +4674,7 @@
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
       <c r="J91" s="16" t="str">
-        <f>IF(ISNUMBER($G91),"insert into M_CD_GRP values ("&amp;$G91&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B91)&amp;"', '"&amp;$H91&amp;"', '"&amp;$I91&amp;"');","")</f>
+        <f>IF(ISNUMBER($G91),"insert into M_CD_VAL values ("&amp;$G91&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B91)&amp;"', '"&amp;$H91&amp;"', '"&amp;$I91&amp;"');","")</f>
         <v/>
       </c>
       <c r="K91" s="16" t="str">
@@ -4765,7 +4684,7 @@
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
       <c r="N91" s="16" t="str">
-        <f>IF(ISNUMBER($K91),"insert into M_CD_GRP values ("&amp;$K91&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G91)&amp;"', '"&amp;$L91&amp;"', '"&amp;$M91&amp;"');","")</f>
+        <f>IF(ISNUMBER($K91),"insert into M_CD_VAL_LANG values ("&amp;$K91&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G91)&amp;"', '"&amp;$L91&amp;"', '"&amp;$M91&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4792,7 +4711,7 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="16" t="str">
-        <f>IF(ISNUMBER($G92),"insert into M_CD_GRP values ("&amp;$G92&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B92)&amp;"', '"&amp;$H92&amp;"', '"&amp;$I92&amp;"');","")</f>
+        <f>IF(ISNUMBER($G92),"insert into M_CD_VAL values ("&amp;$G92&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B92)&amp;"', '"&amp;$H92&amp;"', '"&amp;$I92&amp;"');","")</f>
         <v/>
       </c>
       <c r="K92" s="16" t="str">
@@ -4802,7 +4721,7 @@
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="16" t="str">
-        <f>IF(ISNUMBER($K92),"insert into M_CD_GRP values ("&amp;$K92&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G92)&amp;"', '"&amp;$L92&amp;"', '"&amp;$M92&amp;"');","")</f>
+        <f>IF(ISNUMBER($K92),"insert into M_CD_VAL_LANG values ("&amp;$K92&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G92)&amp;"', '"&amp;$L92&amp;"', '"&amp;$M92&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4829,7 +4748,7 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="16" t="str">
-        <f>IF(ISNUMBER($G93),"insert into M_CD_GRP values ("&amp;$G93&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B93)&amp;"', '"&amp;$H93&amp;"', '"&amp;$I93&amp;"');","")</f>
+        <f>IF(ISNUMBER($G93),"insert into M_CD_VAL values ("&amp;$G93&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B93)&amp;"', '"&amp;$H93&amp;"', '"&amp;$I93&amp;"');","")</f>
         <v/>
       </c>
       <c r="K93" s="16" t="str">
@@ -4839,7 +4758,7 @@
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="16" t="str">
-        <f>IF(ISNUMBER($K93),"insert into M_CD_GRP values ("&amp;$K93&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G93)&amp;"', '"&amp;$L93&amp;"', '"&amp;$M93&amp;"');","")</f>
+        <f>IF(ISNUMBER($K93),"insert into M_CD_VAL_LANG values ("&amp;$K93&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G93)&amp;"', '"&amp;$L93&amp;"', '"&amp;$M93&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4866,7 +4785,7 @@
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="16" t="str">
-        <f>IF(ISNUMBER($G94),"insert into M_CD_GRP values ("&amp;$G94&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B94)&amp;"', '"&amp;$H94&amp;"', '"&amp;$I94&amp;"');","")</f>
+        <f>IF(ISNUMBER($G94),"insert into M_CD_VAL values ("&amp;$G94&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B94)&amp;"', '"&amp;$H94&amp;"', '"&amp;$I94&amp;"');","")</f>
         <v/>
       </c>
       <c r="K94" s="16" t="str">
@@ -4876,7 +4795,7 @@
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
       <c r="N94" s="16" t="str">
-        <f>IF(ISNUMBER($K94),"insert into M_CD_GRP values ("&amp;$K94&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G94)&amp;"', '"&amp;$L94&amp;"', '"&amp;$M94&amp;"');","")</f>
+        <f>IF(ISNUMBER($K94),"insert into M_CD_VAL_LANG values ("&amp;$K94&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G94)&amp;"', '"&amp;$L94&amp;"', '"&amp;$M94&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4903,7 +4822,7 @@
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
       <c r="J95" s="16" t="str">
-        <f>IF(ISNUMBER($G95),"insert into M_CD_GRP values ("&amp;$G95&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B95)&amp;"', '"&amp;$H95&amp;"', '"&amp;$I95&amp;"');","")</f>
+        <f>IF(ISNUMBER($G95),"insert into M_CD_VAL values ("&amp;$G95&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B95)&amp;"', '"&amp;$H95&amp;"', '"&amp;$I95&amp;"');","")</f>
         <v/>
       </c>
       <c r="K95" s="16" t="str">
@@ -4913,7 +4832,7 @@
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
       <c r="N95" s="16" t="str">
-        <f>IF(ISNUMBER($K95),"insert into M_CD_GRP values ("&amp;$K95&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G95)&amp;"', '"&amp;$L95&amp;"', '"&amp;$M95&amp;"');","")</f>
+        <f>IF(ISNUMBER($K95),"insert into M_CD_VAL_LANG values ("&amp;$K95&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G95)&amp;"', '"&amp;$L95&amp;"', '"&amp;$M95&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4940,7 +4859,7 @@
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="16" t="str">
-        <f>IF(ISNUMBER($G96),"insert into M_CD_GRP values ("&amp;$G96&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B96)&amp;"', '"&amp;$H96&amp;"', '"&amp;$I96&amp;"');","")</f>
+        <f>IF(ISNUMBER($G96),"insert into M_CD_VAL values ("&amp;$G96&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B96)&amp;"', '"&amp;$H96&amp;"', '"&amp;$I96&amp;"');","")</f>
         <v/>
       </c>
       <c r="K96" s="16" t="str">
@@ -4950,7 +4869,7 @@
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
       <c r="N96" s="16" t="str">
-        <f>IF(ISNUMBER($K96),"insert into M_CD_GRP values ("&amp;$K96&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G96)&amp;"', '"&amp;$L96&amp;"', '"&amp;$M96&amp;"');","")</f>
+        <f>IF(ISNUMBER($K96),"insert into M_CD_VAL_LANG values ("&amp;$K96&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G96)&amp;"', '"&amp;$L96&amp;"', '"&amp;$M96&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -4977,7 +4896,7 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="16" t="str">
-        <f>IF(ISNUMBER($G97),"insert into M_CD_GRP values ("&amp;$G97&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B97)&amp;"', '"&amp;$H97&amp;"', '"&amp;$I97&amp;"');","")</f>
+        <f>IF(ISNUMBER($G97),"insert into M_CD_VAL values ("&amp;$G97&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B97)&amp;"', '"&amp;$H97&amp;"', '"&amp;$I97&amp;"');","")</f>
         <v/>
       </c>
       <c r="K97" s="16" t="str">
@@ -4987,7 +4906,7 @@
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
       <c r="N97" s="16" t="str">
-        <f>IF(ISNUMBER($K97),"insert into M_CD_GRP values ("&amp;$K97&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G97)&amp;"', '"&amp;$L97&amp;"', '"&amp;$M97&amp;"');","")</f>
+        <f>IF(ISNUMBER($K97),"insert into M_CD_VAL_LANG values ("&amp;$K97&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G97)&amp;"', '"&amp;$L97&amp;"', '"&amp;$M97&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5014,7 +4933,7 @@
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="16" t="str">
-        <f>IF(ISNUMBER($G98),"insert into M_CD_GRP values ("&amp;$G98&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B98)&amp;"', '"&amp;$H98&amp;"', '"&amp;$I98&amp;"');","")</f>
+        <f>IF(ISNUMBER($G98),"insert into M_CD_VAL values ("&amp;$G98&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B98)&amp;"', '"&amp;$H98&amp;"', '"&amp;$I98&amp;"');","")</f>
         <v/>
       </c>
       <c r="K98" s="16" t="str">
@@ -5024,7 +4943,7 @@
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
       <c r="N98" s="16" t="str">
-        <f>IF(ISNUMBER($K98),"insert into M_CD_GRP values ("&amp;$K98&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G98)&amp;"', '"&amp;$L98&amp;"', '"&amp;$M98&amp;"');","")</f>
+        <f>IF(ISNUMBER($K98),"insert into M_CD_VAL_LANG values ("&amp;$K98&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G98)&amp;"', '"&amp;$L98&amp;"', '"&amp;$M98&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5051,7 +4970,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="16" t="str">
-        <f>IF(ISNUMBER($G99),"insert into M_CD_GRP values ("&amp;$G99&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B99)&amp;"', '"&amp;$H99&amp;"', '"&amp;$I99&amp;"');","")</f>
+        <f>IF(ISNUMBER($G99),"insert into M_CD_VAL values ("&amp;$G99&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B99)&amp;"', '"&amp;$H99&amp;"', '"&amp;$I99&amp;"');","")</f>
         <v/>
       </c>
       <c r="K99" s="16" t="str">
@@ -5061,7 +4980,7 @@
       <c r="L99" s="13"/>
       <c r="M99" s="13"/>
       <c r="N99" s="16" t="str">
-        <f>IF(ISNUMBER($K99),"insert into M_CD_GRP values ("&amp;$K99&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G99)&amp;"', '"&amp;$L99&amp;"', '"&amp;$M99&amp;"');","")</f>
+        <f>IF(ISNUMBER($K99),"insert into M_CD_VAL_LANG values ("&amp;$K99&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G99)&amp;"', '"&amp;$L99&amp;"', '"&amp;$M99&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5088,7 +5007,7 @@
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="16" t="str">
-        <f>IF(ISNUMBER($G100),"insert into M_CD_GRP values ("&amp;$G100&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B100)&amp;"', '"&amp;$H100&amp;"', '"&amp;$I100&amp;"');","")</f>
+        <f>IF(ISNUMBER($G100),"insert into M_CD_VAL values ("&amp;$G100&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B100)&amp;"', '"&amp;$H100&amp;"', '"&amp;$I100&amp;"');","")</f>
         <v/>
       </c>
       <c r="K100" s="16" t="str">
@@ -5098,7 +5017,7 @@
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
       <c r="N100" s="16" t="str">
-        <f>IF(ISNUMBER($K100),"insert into M_CD_GRP values ("&amp;$K100&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G100)&amp;"', '"&amp;$L100&amp;"', '"&amp;$M100&amp;"');","")</f>
+        <f>IF(ISNUMBER($K100),"insert into M_CD_VAL_LANG values ("&amp;$K100&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G100)&amp;"', '"&amp;$L100&amp;"', '"&amp;$M100&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5125,7 +5044,7 @@
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
       <c r="J101" s="16" t="str">
-        <f>IF(ISNUMBER($G101),"insert into M_CD_GRP values ("&amp;$G101&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B101)&amp;"', '"&amp;$H101&amp;"', '"&amp;$I101&amp;"');","")</f>
+        <f>IF(ISNUMBER($G101),"insert into M_CD_VAL values ("&amp;$G101&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B101)&amp;"', '"&amp;$H101&amp;"', '"&amp;$I101&amp;"');","")</f>
         <v/>
       </c>
       <c r="K101" s="16" t="str">
@@ -5135,7 +5054,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
       <c r="N101" s="16" t="str">
-        <f>IF(ISNUMBER($K101),"insert into M_CD_GRP values ("&amp;$K101&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G101)&amp;"', '"&amp;$L101&amp;"', '"&amp;$M101&amp;"');","")</f>
+        <f>IF(ISNUMBER($K101),"insert into M_CD_VAL_LANG values ("&amp;$K101&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G101)&amp;"', '"&amp;$L101&amp;"', '"&amp;$M101&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5162,7 +5081,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="16" t="str">
-        <f>IF(ISNUMBER($G102),"insert into M_CD_GRP values ("&amp;$G102&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B102)&amp;"', '"&amp;$H102&amp;"', '"&amp;$I102&amp;"');","")</f>
+        <f>IF(ISNUMBER($G102),"insert into M_CD_VAL values ("&amp;$G102&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B102)&amp;"', '"&amp;$H102&amp;"', '"&amp;$I102&amp;"');","")</f>
         <v/>
       </c>
       <c r="K102" s="16" t="str">
@@ -5172,7 +5091,7 @@
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
       <c r="N102" s="16" t="str">
-        <f>IF(ISNUMBER($K102),"insert into M_CD_GRP values ("&amp;$K102&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G102)&amp;"', '"&amp;$L102&amp;"', '"&amp;$M102&amp;"');","")</f>
+        <f>IF(ISNUMBER($K102),"insert into M_CD_VAL_LANG values ("&amp;$K102&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G102)&amp;"', '"&amp;$L102&amp;"', '"&amp;$M102&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5199,7 +5118,7 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="16" t="str">
-        <f>IF(ISNUMBER($G103),"insert into M_CD_GRP values ("&amp;$G103&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B103)&amp;"', '"&amp;$H103&amp;"', '"&amp;$I103&amp;"');","")</f>
+        <f>IF(ISNUMBER($G103),"insert into M_CD_VAL values ("&amp;$G103&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B103)&amp;"', '"&amp;$H103&amp;"', '"&amp;$I103&amp;"');","")</f>
         <v/>
       </c>
       <c r="K103" s="16" t="str">
@@ -5209,7 +5128,7 @@
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="16" t="str">
-        <f>IF(ISNUMBER($K103),"insert into M_CD_GRP values ("&amp;$K103&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G103)&amp;"', '"&amp;$L103&amp;"', '"&amp;$M103&amp;"');","")</f>
+        <f>IF(ISNUMBER($K103),"insert into M_CD_VAL_LANG values ("&amp;$K103&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G103)&amp;"', '"&amp;$L103&amp;"', '"&amp;$M103&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5236,7 +5155,7 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="16" t="str">
-        <f>IF(ISNUMBER($G104),"insert into M_CD_GRP values ("&amp;$G104&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B104)&amp;"', '"&amp;$H104&amp;"', '"&amp;$I104&amp;"');","")</f>
+        <f>IF(ISNUMBER($G104),"insert into M_CD_VAL values ("&amp;$G104&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B104)&amp;"', '"&amp;$H104&amp;"', '"&amp;$I104&amp;"');","")</f>
         <v/>
       </c>
       <c r="K104" s="16" t="str">
@@ -5246,7 +5165,7 @@
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
       <c r="N104" s="16" t="str">
-        <f>IF(ISNUMBER($K104),"insert into M_CD_GRP values ("&amp;$K104&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G104)&amp;"', '"&amp;$L104&amp;"', '"&amp;$M104&amp;"');","")</f>
+        <f>IF(ISNUMBER($K104),"insert into M_CD_VAL_LANG values ("&amp;$K104&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G104)&amp;"', '"&amp;$L104&amp;"', '"&amp;$M104&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5273,7 +5192,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="16" t="str">
-        <f>IF(ISNUMBER($G105),"insert into M_CD_GRP values ("&amp;$G105&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B105)&amp;"', '"&amp;$H105&amp;"', '"&amp;$I105&amp;"');","")</f>
+        <f>IF(ISNUMBER($G105),"insert into M_CD_VAL values ("&amp;$G105&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B105)&amp;"', '"&amp;$H105&amp;"', '"&amp;$I105&amp;"');","")</f>
         <v/>
       </c>
       <c r="K105" s="16" t="str">
@@ -5283,7 +5202,7 @@
       <c r="L105" s="13"/>
       <c r="M105" s="13"/>
       <c r="N105" s="16" t="str">
-        <f>IF(ISNUMBER($K105),"insert into M_CD_GRP values ("&amp;$K105&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G105)&amp;"', '"&amp;$L105&amp;"', '"&amp;$M105&amp;"');","")</f>
+        <f>IF(ISNUMBER($K105),"insert into M_CD_VAL_LANG values ("&amp;$K105&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G105)&amp;"', '"&amp;$L105&amp;"', '"&amp;$M105&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5310,7 +5229,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="16" t="str">
-        <f>IF(ISNUMBER($G106),"insert into M_CD_GRP values ("&amp;$G106&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B106)&amp;"', '"&amp;$H106&amp;"', '"&amp;$I106&amp;"');","")</f>
+        <f>IF(ISNUMBER($G106),"insert into M_CD_VAL values ("&amp;$G106&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B106)&amp;"', '"&amp;$H106&amp;"', '"&amp;$I106&amp;"');","")</f>
         <v/>
       </c>
       <c r="K106" s="16" t="str">
@@ -5320,7 +5239,7 @@
       <c r="L106" s="13"/>
       <c r="M106" s="13"/>
       <c r="N106" s="16" t="str">
-        <f>IF(ISNUMBER($K106),"insert into M_CD_GRP values ("&amp;$K106&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G106)&amp;"', '"&amp;$L106&amp;"', '"&amp;$M106&amp;"');","")</f>
+        <f>IF(ISNUMBER($K106),"insert into M_CD_VAL_LANG values ("&amp;$K106&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G106)&amp;"', '"&amp;$L106&amp;"', '"&amp;$M106&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5347,7 +5266,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="16" t="str">
-        <f>IF(ISNUMBER($G107),"insert into M_CD_GRP values ("&amp;$G107&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B107)&amp;"', '"&amp;$H107&amp;"', '"&amp;$I107&amp;"');","")</f>
+        <f>IF(ISNUMBER($G107),"insert into M_CD_VAL values ("&amp;$G107&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B107)&amp;"', '"&amp;$H107&amp;"', '"&amp;$I107&amp;"');","")</f>
         <v/>
       </c>
       <c r="K107" s="16" t="str">
@@ -5357,7 +5276,7 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="16" t="str">
-        <f>IF(ISNUMBER($K107),"insert into M_CD_GRP values ("&amp;$K107&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G107)&amp;"', '"&amp;$L107&amp;"', '"&amp;$M107&amp;"');","")</f>
+        <f>IF(ISNUMBER($K107),"insert into M_CD_VAL_LANG values ("&amp;$K107&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G107)&amp;"', '"&amp;$L107&amp;"', '"&amp;$M107&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5384,7 +5303,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="16" t="str">
-        <f>IF(ISNUMBER($G108),"insert into M_CD_GRP values ("&amp;$G108&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B108)&amp;"', '"&amp;$H108&amp;"', '"&amp;$I108&amp;"');","")</f>
+        <f>IF(ISNUMBER($G108),"insert into M_CD_VAL values ("&amp;$G108&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B108)&amp;"', '"&amp;$H108&amp;"', '"&amp;$I108&amp;"');","")</f>
         <v/>
       </c>
       <c r="K108" s="16" t="str">
@@ -5394,7 +5313,7 @@
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="16" t="str">
-        <f>IF(ISNUMBER($K108),"insert into M_CD_GRP values ("&amp;$K108&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G108)&amp;"', '"&amp;$L108&amp;"', '"&amp;$M108&amp;"');","")</f>
+        <f>IF(ISNUMBER($K108),"insert into M_CD_VAL_LANG values ("&amp;$K108&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G108)&amp;"', '"&amp;$L108&amp;"', '"&amp;$M108&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5421,7 +5340,7 @@
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
       <c r="J109" s="16" t="str">
-        <f>IF(ISNUMBER($G109),"insert into M_CD_GRP values ("&amp;$G109&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B109)&amp;"', '"&amp;$H109&amp;"', '"&amp;$I109&amp;"');","")</f>
+        <f>IF(ISNUMBER($G109),"insert into M_CD_VAL values ("&amp;$G109&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B109)&amp;"', '"&amp;$H109&amp;"', '"&amp;$I109&amp;"');","")</f>
         <v/>
       </c>
       <c r="K109" s="16" t="str">
@@ -5431,7 +5350,7 @@
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
       <c r="N109" s="16" t="str">
-        <f>IF(ISNUMBER($K109),"insert into M_CD_GRP values ("&amp;$K109&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G109)&amp;"', '"&amp;$L109&amp;"', '"&amp;$M109&amp;"');","")</f>
+        <f>IF(ISNUMBER($K109),"insert into M_CD_VAL_LANG values ("&amp;$K109&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G109)&amp;"', '"&amp;$L109&amp;"', '"&amp;$M109&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5458,7 +5377,7 @@
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="16" t="str">
-        <f>IF(ISNUMBER($G110),"insert into M_CD_GRP values ("&amp;$G110&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B110)&amp;"', '"&amp;$H110&amp;"', '"&amp;$I110&amp;"');","")</f>
+        <f>IF(ISNUMBER($G110),"insert into M_CD_VAL values ("&amp;$G110&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B110)&amp;"', '"&amp;$H110&amp;"', '"&amp;$I110&amp;"');","")</f>
         <v/>
       </c>
       <c r="K110" s="16" t="str">
@@ -5468,7 +5387,7 @@
       <c r="L110" s="13"/>
       <c r="M110" s="13"/>
       <c r="N110" s="16" t="str">
-        <f>IF(ISNUMBER($K110),"insert into M_CD_GRP values ("&amp;$K110&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G110)&amp;"', '"&amp;$L110&amp;"', '"&amp;$M110&amp;"');","")</f>
+        <f>IF(ISNUMBER($K110),"insert into M_CD_VAL_LANG values ("&amp;$K110&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G110)&amp;"', '"&amp;$L110&amp;"', '"&amp;$M110&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5495,7 +5414,7 @@
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
       <c r="J111" s="16" t="str">
-        <f>IF(ISNUMBER($G111),"insert into M_CD_GRP values ("&amp;$G111&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B111)&amp;"', '"&amp;$H111&amp;"', '"&amp;$I111&amp;"');","")</f>
+        <f>IF(ISNUMBER($G111),"insert into M_CD_VAL values ("&amp;$G111&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B111)&amp;"', '"&amp;$H111&amp;"', '"&amp;$I111&amp;"');","")</f>
         <v/>
       </c>
       <c r="K111" s="16" t="str">
@@ -5505,7 +5424,7 @@
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
       <c r="N111" s="16" t="str">
-        <f>IF(ISNUMBER($K111),"insert into M_CD_GRP values ("&amp;$K111&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G111)&amp;"', '"&amp;$L111&amp;"', '"&amp;$M111&amp;"');","")</f>
+        <f>IF(ISNUMBER($K111),"insert into M_CD_VAL_LANG values ("&amp;$K111&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G111)&amp;"', '"&amp;$L111&amp;"', '"&amp;$M111&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5532,7 +5451,7 @@
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="16" t="str">
-        <f>IF(ISNUMBER($G112),"insert into M_CD_GRP values ("&amp;$G112&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B112)&amp;"', '"&amp;$H112&amp;"', '"&amp;$I112&amp;"');","")</f>
+        <f>IF(ISNUMBER($G112),"insert into M_CD_VAL values ("&amp;$G112&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B112)&amp;"', '"&amp;$H112&amp;"', '"&amp;$I112&amp;"');","")</f>
         <v/>
       </c>
       <c r="K112" s="16" t="str">
@@ -5542,7 +5461,7 @@
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
       <c r="N112" s="16" t="str">
-        <f>IF(ISNUMBER($K112),"insert into M_CD_GRP values ("&amp;$K112&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G112)&amp;"', '"&amp;$L112&amp;"', '"&amp;$M112&amp;"');","")</f>
+        <f>IF(ISNUMBER($K112),"insert into M_CD_VAL_LANG values ("&amp;$K112&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G112)&amp;"', '"&amp;$L112&amp;"', '"&amp;$M112&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5569,7 +5488,7 @@
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
       <c r="J113" s="16" t="str">
-        <f>IF(ISNUMBER($G113),"insert into M_CD_GRP values ("&amp;$G113&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B113)&amp;"', '"&amp;$H113&amp;"', '"&amp;$I113&amp;"');","")</f>
+        <f>IF(ISNUMBER($G113),"insert into M_CD_VAL values ("&amp;$G113&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B113)&amp;"', '"&amp;$H113&amp;"', '"&amp;$I113&amp;"');","")</f>
         <v/>
       </c>
       <c r="K113" s="16" t="str">
@@ -5579,7 +5498,7 @@
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
       <c r="N113" s="16" t="str">
-        <f>IF(ISNUMBER($K113),"insert into M_CD_GRP values ("&amp;$K113&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G113)&amp;"', '"&amp;$L113&amp;"', '"&amp;$M113&amp;"');","")</f>
+        <f>IF(ISNUMBER($K113),"insert into M_CD_VAL_LANG values ("&amp;$K113&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G113)&amp;"', '"&amp;$L113&amp;"', '"&amp;$M113&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5606,7 +5525,7 @@
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="16" t="str">
-        <f>IF(ISNUMBER($G114),"insert into M_CD_GRP values ("&amp;$G114&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B114)&amp;"', '"&amp;$H114&amp;"', '"&amp;$I114&amp;"');","")</f>
+        <f>IF(ISNUMBER($G114),"insert into M_CD_VAL values ("&amp;$G114&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B114)&amp;"', '"&amp;$H114&amp;"', '"&amp;$I114&amp;"');","")</f>
         <v/>
       </c>
       <c r="K114" s="16" t="str">
@@ -5616,7 +5535,7 @@
       <c r="L114" s="13"/>
       <c r="M114" s="13"/>
       <c r="N114" s="16" t="str">
-        <f>IF(ISNUMBER($K114),"insert into M_CD_GRP values ("&amp;$K114&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G114)&amp;"', '"&amp;$L114&amp;"', '"&amp;$M114&amp;"');","")</f>
+        <f>IF(ISNUMBER($K114),"insert into M_CD_VAL_LANG values ("&amp;$K114&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G114)&amp;"', '"&amp;$L114&amp;"', '"&amp;$M114&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5643,7 +5562,7 @@
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
       <c r="J115" s="16" t="str">
-        <f>IF(ISNUMBER($G115),"insert into M_CD_GRP values ("&amp;$G115&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B115)&amp;"', '"&amp;$H115&amp;"', '"&amp;$I115&amp;"');","")</f>
+        <f>IF(ISNUMBER($G115),"insert into M_CD_VAL values ("&amp;$G115&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B115)&amp;"', '"&amp;$H115&amp;"', '"&amp;$I115&amp;"');","")</f>
         <v/>
       </c>
       <c r="K115" s="16" t="str">
@@ -5653,7 +5572,7 @@
       <c r="L115" s="13"/>
       <c r="M115" s="13"/>
       <c r="N115" s="16" t="str">
-        <f>IF(ISNUMBER($K115),"insert into M_CD_GRP values ("&amp;$K115&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G115)&amp;"', '"&amp;$L115&amp;"', '"&amp;$M115&amp;"');","")</f>
+        <f>IF(ISNUMBER($K115),"insert into M_CD_VAL_LANG values ("&amp;$K115&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G115)&amp;"', '"&amp;$L115&amp;"', '"&amp;$M115&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5680,7 +5599,7 @@
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="16" t="str">
-        <f>IF(ISNUMBER($G116),"insert into M_CD_GRP values ("&amp;$G116&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B116)&amp;"', '"&amp;$H116&amp;"', '"&amp;$I116&amp;"');","")</f>
+        <f>IF(ISNUMBER($G116),"insert into M_CD_VAL values ("&amp;$G116&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B116)&amp;"', '"&amp;$H116&amp;"', '"&amp;$I116&amp;"');","")</f>
         <v/>
       </c>
       <c r="K116" s="16" t="str">
@@ -5690,7 +5609,7 @@
       <c r="L116" s="13"/>
       <c r="M116" s="13"/>
       <c r="N116" s="16" t="str">
-        <f>IF(ISNUMBER($K116),"insert into M_CD_GRP values ("&amp;$K116&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G116)&amp;"', '"&amp;$L116&amp;"', '"&amp;$M116&amp;"');","")</f>
+        <f>IF(ISNUMBER($K116),"insert into M_CD_VAL_LANG values ("&amp;$K116&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G116)&amp;"', '"&amp;$L116&amp;"', '"&amp;$M116&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5717,7 +5636,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="16" t="str">
-        <f>IF(ISNUMBER($G117),"insert into M_CD_GRP values ("&amp;$G117&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B117)&amp;"', '"&amp;$H117&amp;"', '"&amp;$I117&amp;"');","")</f>
+        <f>IF(ISNUMBER($G117),"insert into M_CD_VAL values ("&amp;$G117&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B117)&amp;"', '"&amp;$H117&amp;"', '"&amp;$I117&amp;"');","")</f>
         <v/>
       </c>
       <c r="K117" s="16" t="str">
@@ -5727,7 +5646,7 @@
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
       <c r="N117" s="16" t="str">
-        <f>IF(ISNUMBER($K117),"insert into M_CD_GRP values ("&amp;$K117&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G117)&amp;"', '"&amp;$L117&amp;"', '"&amp;$M117&amp;"');","")</f>
+        <f>IF(ISNUMBER($K117),"insert into M_CD_VAL_LANG values ("&amp;$K117&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G117)&amp;"', '"&amp;$L117&amp;"', '"&amp;$M117&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5754,7 +5673,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="16" t="str">
-        <f>IF(ISNUMBER($G118),"insert into M_CD_GRP values ("&amp;$G118&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B118)&amp;"', '"&amp;$H118&amp;"', '"&amp;$I118&amp;"');","")</f>
+        <f>IF(ISNUMBER($G118),"insert into M_CD_VAL values ("&amp;$G118&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B118)&amp;"', '"&amp;$H118&amp;"', '"&amp;$I118&amp;"');","")</f>
         <v/>
       </c>
       <c r="K118" s="16" t="str">
@@ -5764,7 +5683,7 @@
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
       <c r="N118" s="16" t="str">
-        <f>IF(ISNUMBER($K118),"insert into M_CD_GRP values ("&amp;$K118&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G118)&amp;"', '"&amp;$L118&amp;"', '"&amp;$M118&amp;"');","")</f>
+        <f>IF(ISNUMBER($K118),"insert into M_CD_VAL_LANG values ("&amp;$K118&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G118)&amp;"', '"&amp;$L118&amp;"', '"&amp;$M118&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5791,7 +5710,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="16" t="str">
-        <f>IF(ISNUMBER($G119),"insert into M_CD_GRP values ("&amp;$G119&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B119)&amp;"', '"&amp;$H119&amp;"', '"&amp;$I119&amp;"');","")</f>
+        <f>IF(ISNUMBER($G119),"insert into M_CD_VAL values ("&amp;$G119&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B119)&amp;"', '"&amp;$H119&amp;"', '"&amp;$I119&amp;"');","")</f>
         <v/>
       </c>
       <c r="K119" s="16" t="str">
@@ -5801,7 +5720,7 @@
       <c r="L119" s="13"/>
       <c r="M119" s="13"/>
       <c r="N119" s="16" t="str">
-        <f>IF(ISNUMBER($K119),"insert into M_CD_GRP values ("&amp;$K119&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G119)&amp;"', '"&amp;$L119&amp;"', '"&amp;$M119&amp;"');","")</f>
+        <f>IF(ISNUMBER($K119),"insert into M_CD_VAL_LANG values ("&amp;$K119&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G119)&amp;"', '"&amp;$L119&amp;"', '"&amp;$M119&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5828,7 +5747,7 @@
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="16" t="str">
-        <f>IF(ISNUMBER($G120),"insert into M_CD_GRP values ("&amp;$G120&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B120)&amp;"', '"&amp;$H120&amp;"', '"&amp;$I120&amp;"');","")</f>
+        <f>IF(ISNUMBER($G120),"insert into M_CD_VAL values ("&amp;$G120&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B120)&amp;"', '"&amp;$H120&amp;"', '"&amp;$I120&amp;"');","")</f>
         <v/>
       </c>
       <c r="K120" s="16" t="str">
@@ -5838,7 +5757,7 @@
       <c r="L120" s="13"/>
       <c r="M120" s="13"/>
       <c r="N120" s="16" t="str">
-        <f>IF(ISNUMBER($K120),"insert into M_CD_GRP values ("&amp;$K120&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G120)&amp;"', '"&amp;$L120&amp;"', '"&amp;$M120&amp;"');","")</f>
+        <f>IF(ISNUMBER($K120),"insert into M_CD_VAL_LANG values ("&amp;$K120&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G120)&amp;"', '"&amp;$L120&amp;"', '"&amp;$M120&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5865,7 +5784,7 @@
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
       <c r="J121" s="16" t="str">
-        <f>IF(ISNUMBER($G121),"insert into M_CD_GRP values ("&amp;$G121&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B121)&amp;"', '"&amp;$H121&amp;"', '"&amp;$I121&amp;"');","")</f>
+        <f>IF(ISNUMBER($G121),"insert into M_CD_VAL values ("&amp;$G121&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B121)&amp;"', '"&amp;$H121&amp;"', '"&amp;$I121&amp;"');","")</f>
         <v/>
       </c>
       <c r="K121" s="16" t="str">
@@ -5875,7 +5794,7 @@
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
       <c r="N121" s="16" t="str">
-        <f>IF(ISNUMBER($K121),"insert into M_CD_GRP values ("&amp;$K121&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G121)&amp;"', '"&amp;$L121&amp;"', '"&amp;$M121&amp;"');","")</f>
+        <f>IF(ISNUMBER($K121),"insert into M_CD_VAL_LANG values ("&amp;$K121&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G121)&amp;"', '"&amp;$L121&amp;"', '"&amp;$M121&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5902,7 +5821,7 @@
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="16" t="str">
-        <f>IF(ISNUMBER($G122),"insert into M_CD_GRP values ("&amp;$G122&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B122)&amp;"', '"&amp;$H122&amp;"', '"&amp;$I122&amp;"');","")</f>
+        <f>IF(ISNUMBER($G122),"insert into M_CD_VAL values ("&amp;$G122&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B122)&amp;"', '"&amp;$H122&amp;"', '"&amp;$I122&amp;"');","")</f>
         <v/>
       </c>
       <c r="K122" s="16" t="str">
@@ -5912,7 +5831,7 @@
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
       <c r="N122" s="16" t="str">
-        <f>IF(ISNUMBER($K122),"insert into M_CD_GRP values ("&amp;$K122&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G122)&amp;"', '"&amp;$L122&amp;"', '"&amp;$M122&amp;"');","")</f>
+        <f>IF(ISNUMBER($K122),"insert into M_CD_VAL_LANG values ("&amp;$K122&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G122)&amp;"', '"&amp;$L122&amp;"', '"&amp;$M122&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5939,7 +5858,7 @@
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
       <c r="J123" s="16" t="str">
-        <f>IF(ISNUMBER($G123),"insert into M_CD_GRP values ("&amp;$G123&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B123)&amp;"', '"&amp;$H123&amp;"', '"&amp;$I123&amp;"');","")</f>
+        <f>IF(ISNUMBER($G123),"insert into M_CD_VAL values ("&amp;$G123&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B123)&amp;"', '"&amp;$H123&amp;"', '"&amp;$I123&amp;"');","")</f>
         <v/>
       </c>
       <c r="K123" s="16" t="str">
@@ -5949,7 +5868,7 @@
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
       <c r="N123" s="16" t="str">
-        <f>IF(ISNUMBER($K123),"insert into M_CD_GRP values ("&amp;$K123&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G123)&amp;"', '"&amp;$L123&amp;"', '"&amp;$M123&amp;"');","")</f>
+        <f>IF(ISNUMBER($K123),"insert into M_CD_VAL_LANG values ("&amp;$K123&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G123)&amp;"', '"&amp;$L123&amp;"', '"&amp;$M123&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -5976,7 +5895,7 @@
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="16" t="str">
-        <f>IF(ISNUMBER($G124),"insert into M_CD_GRP values ("&amp;$G124&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B124)&amp;"', '"&amp;$H124&amp;"', '"&amp;$I124&amp;"');","")</f>
+        <f>IF(ISNUMBER($G124),"insert into M_CD_VAL values ("&amp;$G124&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B124)&amp;"', '"&amp;$H124&amp;"', '"&amp;$I124&amp;"');","")</f>
         <v/>
       </c>
       <c r="K124" s="16" t="str">
@@ -5986,7 +5905,7 @@
       <c r="L124" s="13"/>
       <c r="M124" s="13"/>
       <c r="N124" s="16" t="str">
-        <f>IF(ISNUMBER($K124),"insert into M_CD_GRP values ("&amp;$K124&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G124)&amp;"', '"&amp;$L124&amp;"', '"&amp;$M124&amp;"');","")</f>
+        <f>IF(ISNUMBER($K124),"insert into M_CD_VAL_LANG values ("&amp;$K124&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G124)&amp;"', '"&amp;$L124&amp;"', '"&amp;$M124&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6013,7 +5932,7 @@
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
       <c r="J125" s="16" t="str">
-        <f>IF(ISNUMBER($G125),"insert into M_CD_GRP values ("&amp;$G125&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B125)&amp;"', '"&amp;$H125&amp;"', '"&amp;$I125&amp;"');","")</f>
+        <f>IF(ISNUMBER($G125),"insert into M_CD_VAL values ("&amp;$G125&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B125)&amp;"', '"&amp;$H125&amp;"', '"&amp;$I125&amp;"');","")</f>
         <v/>
       </c>
       <c r="K125" s="16" t="str">
@@ -6023,7 +5942,7 @@
       <c r="L125" s="13"/>
       <c r="M125" s="13"/>
       <c r="N125" s="16" t="str">
-        <f>IF(ISNUMBER($K125),"insert into M_CD_GRP values ("&amp;$K125&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G125)&amp;"', '"&amp;$L125&amp;"', '"&amp;$M125&amp;"');","")</f>
+        <f>IF(ISNUMBER($K125),"insert into M_CD_VAL_LANG values ("&amp;$K125&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G125)&amp;"', '"&amp;$L125&amp;"', '"&amp;$M125&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6050,7 +5969,7 @@
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="16" t="str">
-        <f>IF(ISNUMBER($G126),"insert into M_CD_GRP values ("&amp;$G126&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B126)&amp;"', '"&amp;$H126&amp;"', '"&amp;$I126&amp;"');","")</f>
+        <f>IF(ISNUMBER($G126),"insert into M_CD_VAL values ("&amp;$G126&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B126)&amp;"', '"&amp;$H126&amp;"', '"&amp;$I126&amp;"');","")</f>
         <v/>
       </c>
       <c r="K126" s="16" t="str">
@@ -6060,7 +5979,7 @@
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
       <c r="N126" s="16" t="str">
-        <f>IF(ISNUMBER($K126),"insert into M_CD_GRP values ("&amp;$K126&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G126)&amp;"', '"&amp;$L126&amp;"', '"&amp;$M126&amp;"');","")</f>
+        <f>IF(ISNUMBER($K126),"insert into M_CD_VAL_LANG values ("&amp;$K126&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G126)&amp;"', '"&amp;$L126&amp;"', '"&amp;$M126&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6087,7 +6006,7 @@
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
       <c r="J127" s="16" t="str">
-        <f>IF(ISNUMBER($G127),"insert into M_CD_GRP values ("&amp;$G127&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B127)&amp;"', '"&amp;$H127&amp;"', '"&amp;$I127&amp;"');","")</f>
+        <f>IF(ISNUMBER($G127),"insert into M_CD_VAL values ("&amp;$G127&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B127)&amp;"', '"&amp;$H127&amp;"', '"&amp;$I127&amp;"');","")</f>
         <v/>
       </c>
       <c r="K127" s="16" t="str">
@@ -6097,7 +6016,7 @@
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
       <c r="N127" s="16" t="str">
-        <f>IF(ISNUMBER($K127),"insert into M_CD_GRP values ("&amp;$K127&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G127)&amp;"', '"&amp;$L127&amp;"', '"&amp;$M127&amp;"');","")</f>
+        <f>IF(ISNUMBER($K127),"insert into M_CD_VAL_LANG values ("&amp;$K127&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G127)&amp;"', '"&amp;$L127&amp;"', '"&amp;$M127&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6124,7 +6043,7 @@
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="16" t="str">
-        <f>IF(ISNUMBER($G128),"insert into M_CD_GRP values ("&amp;$G128&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B128)&amp;"', '"&amp;$H128&amp;"', '"&amp;$I128&amp;"');","")</f>
+        <f>IF(ISNUMBER($G128),"insert into M_CD_VAL values ("&amp;$G128&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B128)&amp;"', '"&amp;$H128&amp;"', '"&amp;$I128&amp;"');","")</f>
         <v/>
       </c>
       <c r="K128" s="16" t="str">
@@ -6134,7 +6053,7 @@
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
       <c r="N128" s="16" t="str">
-        <f>IF(ISNUMBER($K128),"insert into M_CD_GRP values ("&amp;$K128&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G128)&amp;"', '"&amp;$L128&amp;"', '"&amp;$M128&amp;"');","")</f>
+        <f>IF(ISNUMBER($K128),"insert into M_CD_VAL_LANG values ("&amp;$K128&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G128)&amp;"', '"&amp;$L128&amp;"', '"&amp;$M128&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6161,7 +6080,7 @@
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
       <c r="J129" s="16" t="str">
-        <f>IF(ISNUMBER($G129),"insert into M_CD_GRP values ("&amp;$G129&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B129)&amp;"', '"&amp;$H129&amp;"', '"&amp;$I129&amp;"');","")</f>
+        <f>IF(ISNUMBER($G129),"insert into M_CD_VAL values ("&amp;$G129&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B129)&amp;"', '"&amp;$H129&amp;"', '"&amp;$I129&amp;"');","")</f>
         <v/>
       </c>
       <c r="K129" s="16" t="str">
@@ -6171,7 +6090,7 @@
       <c r="L129" s="13"/>
       <c r="M129" s="13"/>
       <c r="N129" s="16" t="str">
-        <f>IF(ISNUMBER($K129),"insert into M_CD_GRP values ("&amp;$K129&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G129)&amp;"', '"&amp;$L129&amp;"', '"&amp;$M129&amp;"');","")</f>
+        <f>IF(ISNUMBER($K129),"insert into M_CD_VAL_LANG values ("&amp;$K129&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G129)&amp;"', '"&amp;$L129&amp;"', '"&amp;$M129&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6198,7 +6117,7 @@
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="16" t="str">
-        <f>IF(ISNUMBER($G130),"insert into M_CD_GRP values ("&amp;$G130&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B130)&amp;"', '"&amp;$H130&amp;"', '"&amp;$I130&amp;"');","")</f>
+        <f>IF(ISNUMBER($G130),"insert into M_CD_VAL values ("&amp;$G130&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B130)&amp;"', '"&amp;$H130&amp;"', '"&amp;$I130&amp;"');","")</f>
         <v/>
       </c>
       <c r="K130" s="16" t="str">
@@ -6208,7 +6127,7 @@
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
       <c r="N130" s="16" t="str">
-        <f>IF(ISNUMBER($K130),"insert into M_CD_GRP values ("&amp;$K130&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G130)&amp;"', '"&amp;$L130&amp;"', '"&amp;$M130&amp;"');","")</f>
+        <f>IF(ISNUMBER($K130),"insert into M_CD_VAL_LANG values ("&amp;$K130&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G130)&amp;"', '"&amp;$L130&amp;"', '"&amp;$M130&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6235,7 +6154,7 @@
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
       <c r="J131" s="16" t="str">
-        <f>IF(ISNUMBER($G131),"insert into M_CD_GRP values ("&amp;$G131&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B131)&amp;"', '"&amp;$H131&amp;"', '"&amp;$I131&amp;"');","")</f>
+        <f>IF(ISNUMBER($G131),"insert into M_CD_VAL values ("&amp;$G131&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B131)&amp;"', '"&amp;$H131&amp;"', '"&amp;$I131&amp;"');","")</f>
         <v/>
       </c>
       <c r="K131" s="16" t="str">
@@ -6245,7 +6164,7 @@
       <c r="L131" s="13"/>
       <c r="M131" s="13"/>
       <c r="N131" s="16" t="str">
-        <f>IF(ISNUMBER($K131),"insert into M_CD_GRP values ("&amp;$K131&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G131)&amp;"', '"&amp;$L131&amp;"', '"&amp;$M131&amp;"');","")</f>
+        <f>IF(ISNUMBER($K131),"insert into M_CD_VAL_LANG values ("&amp;$K131&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G131)&amp;"', '"&amp;$L131&amp;"', '"&amp;$M131&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6272,7 +6191,7 @@
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="16" t="str">
-        <f>IF(ISNUMBER($G132),"insert into M_CD_GRP values ("&amp;$G132&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B132)&amp;"', '"&amp;$H132&amp;"', '"&amp;$I132&amp;"');","")</f>
+        <f>IF(ISNUMBER($G132),"insert into M_CD_VAL values ("&amp;$G132&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B132)&amp;"', '"&amp;$H132&amp;"', '"&amp;$I132&amp;"');","")</f>
         <v/>
       </c>
       <c r="K132" s="16" t="str">
@@ -6282,7 +6201,7 @@
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
       <c r="N132" s="16" t="str">
-        <f>IF(ISNUMBER($K132),"insert into M_CD_GRP values ("&amp;$K132&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G132)&amp;"', '"&amp;$L132&amp;"', '"&amp;$M132&amp;"');","")</f>
+        <f>IF(ISNUMBER($K132),"insert into M_CD_VAL_LANG values ("&amp;$K132&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G132)&amp;"', '"&amp;$L132&amp;"', '"&amp;$M132&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6309,7 +6228,7 @@
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
       <c r="J133" s="16" t="str">
-        <f>IF(ISNUMBER($G133),"insert into M_CD_GRP values ("&amp;$G133&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B133)&amp;"', '"&amp;$H133&amp;"', '"&amp;$I133&amp;"');","")</f>
+        <f>IF(ISNUMBER($G133),"insert into M_CD_VAL values ("&amp;$G133&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B133)&amp;"', '"&amp;$H133&amp;"', '"&amp;$I133&amp;"');","")</f>
         <v/>
       </c>
       <c r="K133" s="16" t="str">
@@ -6319,7 +6238,7 @@
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
       <c r="N133" s="16" t="str">
-        <f>IF(ISNUMBER($K133),"insert into M_CD_GRP values ("&amp;$K133&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G133)&amp;"', '"&amp;$L133&amp;"', '"&amp;$M133&amp;"');","")</f>
+        <f>IF(ISNUMBER($K133),"insert into M_CD_VAL_LANG values ("&amp;$K133&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G133)&amp;"', '"&amp;$L133&amp;"', '"&amp;$M133&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6346,7 +6265,7 @@
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="16" t="str">
-        <f>IF(ISNUMBER($G134),"insert into M_CD_GRP values ("&amp;$G134&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B134)&amp;"', '"&amp;$H134&amp;"', '"&amp;$I134&amp;"');","")</f>
+        <f>IF(ISNUMBER($G134),"insert into M_CD_VAL values ("&amp;$G134&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B134)&amp;"', '"&amp;$H134&amp;"', '"&amp;$I134&amp;"');","")</f>
         <v/>
       </c>
       <c r="K134" s="16" t="str">
@@ -6356,7 +6275,7 @@
       <c r="L134" s="13"/>
       <c r="M134" s="13"/>
       <c r="N134" s="16" t="str">
-        <f>IF(ISNUMBER($K134),"insert into M_CD_GRP values ("&amp;$K134&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G134)&amp;"', '"&amp;$L134&amp;"', '"&amp;$M134&amp;"');","")</f>
+        <f>IF(ISNUMBER($K134),"insert into M_CD_VAL_LANG values ("&amp;$K134&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G134)&amp;"', '"&amp;$L134&amp;"', '"&amp;$M134&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6383,7 +6302,7 @@
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
       <c r="J135" s="16" t="str">
-        <f>IF(ISNUMBER($G135),"insert into M_CD_GRP values ("&amp;$G135&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B135)&amp;"', '"&amp;$H135&amp;"', '"&amp;$I135&amp;"');","")</f>
+        <f>IF(ISNUMBER($G135),"insert into M_CD_VAL values ("&amp;$G135&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B135)&amp;"', '"&amp;$H135&amp;"', '"&amp;$I135&amp;"');","")</f>
         <v/>
       </c>
       <c r="K135" s="16" t="str">
@@ -6393,7 +6312,7 @@
       <c r="L135" s="13"/>
       <c r="M135" s="13"/>
       <c r="N135" s="16" t="str">
-        <f>IF(ISNUMBER($K135),"insert into M_CD_GRP values ("&amp;$K135&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G135)&amp;"', '"&amp;$L135&amp;"', '"&amp;$M135&amp;"');","")</f>
+        <f>IF(ISNUMBER($K135),"insert into M_CD_VAL_LANG values ("&amp;$K135&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G135)&amp;"', '"&amp;$L135&amp;"', '"&amp;$M135&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6420,7 +6339,7 @@
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="16" t="str">
-        <f>IF(ISNUMBER($G136),"insert into M_CD_GRP values ("&amp;$G136&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B136)&amp;"', '"&amp;$H136&amp;"', '"&amp;$I136&amp;"');","")</f>
+        <f>IF(ISNUMBER($G136),"insert into M_CD_VAL values ("&amp;$G136&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B136)&amp;"', '"&amp;$H136&amp;"', '"&amp;$I136&amp;"');","")</f>
         <v/>
       </c>
       <c r="K136" s="16" t="str">
@@ -6430,7 +6349,7 @@
       <c r="L136" s="13"/>
       <c r="M136" s="13"/>
       <c r="N136" s="16" t="str">
-        <f>IF(ISNUMBER($K136),"insert into M_CD_GRP values ("&amp;$K136&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G136)&amp;"', '"&amp;$L136&amp;"', '"&amp;$M136&amp;"');","")</f>
+        <f>IF(ISNUMBER($K136),"insert into M_CD_VAL_LANG values ("&amp;$K136&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G136)&amp;"', '"&amp;$L136&amp;"', '"&amp;$M136&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6457,7 +6376,7 @@
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
       <c r="J137" s="16" t="str">
-        <f>IF(ISNUMBER($G137),"insert into M_CD_GRP values ("&amp;$G137&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B137)&amp;"', '"&amp;$H137&amp;"', '"&amp;$I137&amp;"');","")</f>
+        <f>IF(ISNUMBER($G137),"insert into M_CD_VAL values ("&amp;$G137&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B137)&amp;"', '"&amp;$H137&amp;"', '"&amp;$I137&amp;"');","")</f>
         <v/>
       </c>
       <c r="K137" s="16" t="str">
@@ -6467,7 +6386,7 @@
       <c r="L137" s="13"/>
       <c r="M137" s="13"/>
       <c r="N137" s="16" t="str">
-        <f>IF(ISNUMBER($K137),"insert into M_CD_GRP values ("&amp;$K137&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G137)&amp;"', '"&amp;$L137&amp;"', '"&amp;$M137&amp;"');","")</f>
+        <f>IF(ISNUMBER($K137),"insert into M_CD_VAL_LANG values ("&amp;$K137&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G137)&amp;"', '"&amp;$L137&amp;"', '"&amp;$M137&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6494,7 +6413,7 @@
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="16" t="str">
-        <f>IF(ISNUMBER($G138),"insert into M_CD_GRP values ("&amp;$G138&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B138)&amp;"', '"&amp;$H138&amp;"', '"&amp;$I138&amp;"');","")</f>
+        <f>IF(ISNUMBER($G138),"insert into M_CD_VAL values ("&amp;$G138&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B138)&amp;"', '"&amp;$H138&amp;"', '"&amp;$I138&amp;"');","")</f>
         <v/>
       </c>
       <c r="K138" s="16" t="str">
@@ -6504,7 +6423,7 @@
       <c r="L138" s="13"/>
       <c r="M138" s="13"/>
       <c r="N138" s="16" t="str">
-        <f>IF(ISNUMBER($K138),"insert into M_CD_GRP values ("&amp;$K138&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G138)&amp;"', '"&amp;$L138&amp;"', '"&amp;$M138&amp;"');","")</f>
+        <f>IF(ISNUMBER($K138),"insert into M_CD_VAL_LANG values ("&amp;$K138&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G138)&amp;"', '"&amp;$L138&amp;"', '"&amp;$M138&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6531,7 +6450,7 @@
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
       <c r="J139" s="16" t="str">
-        <f>IF(ISNUMBER($G139),"insert into M_CD_GRP values ("&amp;$G139&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B139)&amp;"', '"&amp;$H139&amp;"', '"&amp;$I139&amp;"');","")</f>
+        <f>IF(ISNUMBER($G139),"insert into M_CD_VAL values ("&amp;$G139&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B139)&amp;"', '"&amp;$H139&amp;"', '"&amp;$I139&amp;"');","")</f>
         <v/>
       </c>
       <c r="K139" s="16" t="str">
@@ -6541,7 +6460,7 @@
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
       <c r="N139" s="16" t="str">
-        <f>IF(ISNUMBER($K139),"insert into M_CD_GRP values ("&amp;$K139&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G139)&amp;"', '"&amp;$L139&amp;"', '"&amp;$M139&amp;"');","")</f>
+        <f>IF(ISNUMBER($K139),"insert into M_CD_VAL_LANG values ("&amp;$K139&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G139)&amp;"', '"&amp;$L139&amp;"', '"&amp;$M139&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6568,7 +6487,7 @@
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="16" t="str">
-        <f>IF(ISNUMBER($G140),"insert into M_CD_GRP values ("&amp;$G140&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B140)&amp;"', '"&amp;$H140&amp;"', '"&amp;$I140&amp;"');","")</f>
+        <f>IF(ISNUMBER($G140),"insert into M_CD_VAL values ("&amp;$G140&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B140)&amp;"', '"&amp;$H140&amp;"', '"&amp;$I140&amp;"');","")</f>
         <v/>
       </c>
       <c r="K140" s="16" t="str">
@@ -6578,7 +6497,7 @@
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
       <c r="N140" s="16" t="str">
-        <f>IF(ISNUMBER($K140),"insert into M_CD_GRP values ("&amp;$K140&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G140)&amp;"', '"&amp;$L140&amp;"', '"&amp;$M140&amp;"');","")</f>
+        <f>IF(ISNUMBER($K140),"insert into M_CD_VAL_LANG values ("&amp;$K140&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G140)&amp;"', '"&amp;$L140&amp;"', '"&amp;$M140&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6605,7 +6524,7 @@
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
       <c r="J141" s="16" t="str">
-        <f>IF(ISNUMBER($G141),"insert into M_CD_GRP values ("&amp;$G141&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B141)&amp;"', '"&amp;$H141&amp;"', '"&amp;$I141&amp;"');","")</f>
+        <f>IF(ISNUMBER($G141),"insert into M_CD_VAL values ("&amp;$G141&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B141)&amp;"', '"&amp;$H141&amp;"', '"&amp;$I141&amp;"');","")</f>
         <v/>
       </c>
       <c r="K141" s="16" t="str">
@@ -6615,7 +6534,7 @@
       <c r="L141" s="13"/>
       <c r="M141" s="13"/>
       <c r="N141" s="16" t="str">
-        <f>IF(ISNUMBER($K141),"insert into M_CD_GRP values ("&amp;$K141&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G141)&amp;"', '"&amp;$L141&amp;"', '"&amp;$M141&amp;"');","")</f>
+        <f>IF(ISNUMBER($K141),"insert into M_CD_VAL_LANG values ("&amp;$K141&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G141)&amp;"', '"&amp;$L141&amp;"', '"&amp;$M141&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6642,7 +6561,7 @@
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="16" t="str">
-        <f>IF(ISNUMBER($G142),"insert into M_CD_GRP values ("&amp;$G142&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B142)&amp;"', '"&amp;$H142&amp;"', '"&amp;$I142&amp;"');","")</f>
+        <f>IF(ISNUMBER($G142),"insert into M_CD_VAL values ("&amp;$G142&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B142)&amp;"', '"&amp;$H142&amp;"', '"&amp;$I142&amp;"');","")</f>
         <v/>
       </c>
       <c r="K142" s="16" t="str">
@@ -6652,7 +6571,7 @@
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
       <c r="N142" s="16" t="str">
-        <f>IF(ISNUMBER($K142),"insert into M_CD_GRP values ("&amp;$K142&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G142)&amp;"', '"&amp;$L142&amp;"', '"&amp;$M142&amp;"');","")</f>
+        <f>IF(ISNUMBER($K142),"insert into M_CD_VAL_LANG values ("&amp;$K142&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G142)&amp;"', '"&amp;$L142&amp;"', '"&amp;$M142&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6679,7 +6598,7 @@
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
       <c r="J143" s="16" t="str">
-        <f>IF(ISNUMBER($G143),"insert into M_CD_GRP values ("&amp;$G143&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B143)&amp;"', '"&amp;$H143&amp;"', '"&amp;$I143&amp;"');","")</f>
+        <f>IF(ISNUMBER($G143),"insert into M_CD_VAL values ("&amp;$G143&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B143)&amp;"', '"&amp;$H143&amp;"', '"&amp;$I143&amp;"');","")</f>
         <v/>
       </c>
       <c r="K143" s="16" t="str">
@@ -6689,7 +6608,7 @@
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
       <c r="N143" s="16" t="str">
-        <f>IF(ISNUMBER($K143),"insert into M_CD_GRP values ("&amp;$K143&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G143)&amp;"', '"&amp;$L143&amp;"', '"&amp;$M143&amp;"');","")</f>
+        <f>IF(ISNUMBER($K143),"insert into M_CD_VAL_LANG values ("&amp;$K143&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G143)&amp;"', '"&amp;$L143&amp;"', '"&amp;$M143&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6716,7 +6635,7 @@
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="16" t="str">
-        <f>IF(ISNUMBER($G144),"insert into M_CD_GRP values ("&amp;$G144&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B144)&amp;"', '"&amp;$H144&amp;"', '"&amp;$I144&amp;"');","")</f>
+        <f>IF(ISNUMBER($G144),"insert into M_CD_VAL values ("&amp;$G144&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B144)&amp;"', '"&amp;$H144&amp;"', '"&amp;$I144&amp;"');","")</f>
         <v/>
       </c>
       <c r="K144" s="16" t="str">
@@ -6726,7 +6645,7 @@
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
       <c r="N144" s="16" t="str">
-        <f>IF(ISNUMBER($K144),"insert into M_CD_GRP values ("&amp;$K144&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G144)&amp;"', '"&amp;$L144&amp;"', '"&amp;$M144&amp;"');","")</f>
+        <f>IF(ISNUMBER($K144),"insert into M_CD_VAL_LANG values ("&amp;$K144&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G144)&amp;"', '"&amp;$L144&amp;"', '"&amp;$M144&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6753,7 +6672,7 @@
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
       <c r="J145" s="16" t="str">
-        <f>IF(ISNUMBER($G145),"insert into M_CD_GRP values ("&amp;$G145&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B145)&amp;"', '"&amp;$H145&amp;"', '"&amp;$I145&amp;"');","")</f>
+        <f>IF(ISNUMBER($G145),"insert into M_CD_VAL values ("&amp;$G145&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B145)&amp;"', '"&amp;$H145&amp;"', '"&amp;$I145&amp;"');","")</f>
         <v/>
       </c>
       <c r="K145" s="16" t="str">
@@ -6763,7 +6682,7 @@
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
       <c r="N145" s="16" t="str">
-        <f>IF(ISNUMBER($K145),"insert into M_CD_GRP values ("&amp;$K145&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G145)&amp;"', '"&amp;$L145&amp;"', '"&amp;$M145&amp;"');","")</f>
+        <f>IF(ISNUMBER($K145),"insert into M_CD_VAL_LANG values ("&amp;$K145&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G145)&amp;"', '"&amp;$L145&amp;"', '"&amp;$M145&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6790,7 +6709,7 @@
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="16" t="str">
-        <f>IF(ISNUMBER($G146),"insert into M_CD_GRP values ("&amp;$G146&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B146)&amp;"', '"&amp;$H146&amp;"', '"&amp;$I146&amp;"');","")</f>
+        <f>IF(ISNUMBER($G146),"insert into M_CD_VAL values ("&amp;$G146&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B146)&amp;"', '"&amp;$H146&amp;"', '"&amp;$I146&amp;"');","")</f>
         <v/>
       </c>
       <c r="K146" s="16" t="str">
@@ -6800,7 +6719,7 @@
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
       <c r="N146" s="16" t="str">
-        <f>IF(ISNUMBER($K146),"insert into M_CD_GRP values ("&amp;$K146&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G146)&amp;"', '"&amp;$L146&amp;"', '"&amp;$M146&amp;"');","")</f>
+        <f>IF(ISNUMBER($K146),"insert into M_CD_VAL_LANG values ("&amp;$K146&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G146)&amp;"', '"&amp;$L146&amp;"', '"&amp;$M146&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6827,7 +6746,7 @@
       <c r="H147" s="13"/>
       <c r="I147" s="13"/>
       <c r="J147" s="16" t="str">
-        <f>IF(ISNUMBER($G147),"insert into M_CD_GRP values ("&amp;$G147&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B147)&amp;"', '"&amp;$H147&amp;"', '"&amp;$I147&amp;"');","")</f>
+        <f>IF(ISNUMBER($G147),"insert into M_CD_VAL values ("&amp;$G147&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B147)&amp;"', '"&amp;$H147&amp;"', '"&amp;$I147&amp;"');","")</f>
         <v/>
       </c>
       <c r="K147" s="16" t="str">
@@ -6837,7 +6756,7 @@
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
       <c r="N147" s="16" t="str">
-        <f>IF(ISNUMBER($K147),"insert into M_CD_GRP values ("&amp;$K147&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G147)&amp;"', '"&amp;$L147&amp;"', '"&amp;$M147&amp;"');","")</f>
+        <f>IF(ISNUMBER($K147),"insert into M_CD_VAL_LANG values ("&amp;$K147&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G147)&amp;"', '"&amp;$L147&amp;"', '"&amp;$M147&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6864,7 +6783,7 @@
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="16" t="str">
-        <f>IF(ISNUMBER($G148),"insert into M_CD_GRP values ("&amp;$G148&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B148)&amp;"', '"&amp;$H148&amp;"', '"&amp;$I148&amp;"');","")</f>
+        <f>IF(ISNUMBER($G148),"insert into M_CD_VAL values ("&amp;$G148&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B148)&amp;"', '"&amp;$H148&amp;"', '"&amp;$I148&amp;"');","")</f>
         <v/>
       </c>
       <c r="K148" s="16" t="str">
@@ -6874,7 +6793,7 @@
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
       <c r="N148" s="16" t="str">
-        <f>IF(ISNUMBER($K148),"insert into M_CD_GRP values ("&amp;$K148&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G148)&amp;"', '"&amp;$L148&amp;"', '"&amp;$M148&amp;"');","")</f>
+        <f>IF(ISNUMBER($K148),"insert into M_CD_VAL_LANG values ("&amp;$K148&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G148)&amp;"', '"&amp;$L148&amp;"', '"&amp;$M148&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6901,7 +6820,7 @@
       <c r="H149" s="13"/>
       <c r="I149" s="13"/>
       <c r="J149" s="16" t="str">
-        <f>IF(ISNUMBER($G149),"insert into M_CD_GRP values ("&amp;$G149&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B149)&amp;"', '"&amp;$H149&amp;"', '"&amp;$I149&amp;"');","")</f>
+        <f>IF(ISNUMBER($G149),"insert into M_CD_VAL values ("&amp;$G149&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B149)&amp;"', '"&amp;$H149&amp;"', '"&amp;$I149&amp;"');","")</f>
         <v/>
       </c>
       <c r="K149" s="16" t="str">
@@ -6911,7 +6830,7 @@
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
       <c r="N149" s="16" t="str">
-        <f>IF(ISNUMBER($K149),"insert into M_CD_GRP values ("&amp;$K149&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G149)&amp;"', '"&amp;$L149&amp;"', '"&amp;$M149&amp;"');","")</f>
+        <f>IF(ISNUMBER($K149),"insert into M_CD_VAL_LANG values ("&amp;$K149&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G149)&amp;"', '"&amp;$L149&amp;"', '"&amp;$M149&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6938,7 +6857,7 @@
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="16" t="str">
-        <f>IF(ISNUMBER($G150),"insert into M_CD_GRP values ("&amp;$G150&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B150)&amp;"', '"&amp;$H150&amp;"', '"&amp;$I150&amp;"');","")</f>
+        <f>IF(ISNUMBER($G150),"insert into M_CD_VAL values ("&amp;$G150&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B150)&amp;"', '"&amp;$H150&amp;"', '"&amp;$I150&amp;"');","")</f>
         <v/>
       </c>
       <c r="K150" s="16" t="str">
@@ -6948,7 +6867,7 @@
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
       <c r="N150" s="16" t="str">
-        <f>IF(ISNUMBER($K150),"insert into M_CD_GRP values ("&amp;$K150&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G150)&amp;"', '"&amp;$L150&amp;"', '"&amp;$M150&amp;"');","")</f>
+        <f>IF(ISNUMBER($K150),"insert into M_CD_VAL_LANG values ("&amp;$K150&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G150)&amp;"', '"&amp;$L150&amp;"', '"&amp;$M150&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -6975,7 +6894,7 @@
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
       <c r="J151" s="16" t="str">
-        <f>IF(ISNUMBER($G151),"insert into M_CD_GRP values ("&amp;$G151&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B151)&amp;"', '"&amp;$H151&amp;"', '"&amp;$I151&amp;"');","")</f>
+        <f>IF(ISNUMBER($G151),"insert into M_CD_VAL values ("&amp;$G151&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B151)&amp;"', '"&amp;$H151&amp;"', '"&amp;$I151&amp;"');","")</f>
         <v/>
       </c>
       <c r="K151" s="16" t="str">
@@ -6985,7 +6904,7 @@
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
       <c r="N151" s="16" t="str">
-        <f>IF(ISNUMBER($K151),"insert into M_CD_GRP values ("&amp;$K151&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G151)&amp;"', '"&amp;$L151&amp;"', '"&amp;$M151&amp;"');","")</f>
+        <f>IF(ISNUMBER($K151),"insert into M_CD_VAL_LANG values ("&amp;$K151&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G151)&amp;"', '"&amp;$L151&amp;"', '"&amp;$M151&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7012,7 +6931,7 @@
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="16" t="str">
-        <f>IF(ISNUMBER($G152),"insert into M_CD_GRP values ("&amp;$G152&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B152)&amp;"', '"&amp;$H152&amp;"', '"&amp;$I152&amp;"');","")</f>
+        <f>IF(ISNUMBER($G152),"insert into M_CD_VAL values ("&amp;$G152&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B152)&amp;"', '"&amp;$H152&amp;"', '"&amp;$I152&amp;"');","")</f>
         <v/>
       </c>
       <c r="K152" s="16" t="str">
@@ -7022,7 +6941,7 @@
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
       <c r="N152" s="16" t="str">
-        <f>IF(ISNUMBER($K152),"insert into M_CD_GRP values ("&amp;$K152&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G152)&amp;"', '"&amp;$L152&amp;"', '"&amp;$M152&amp;"');","")</f>
+        <f>IF(ISNUMBER($K152),"insert into M_CD_VAL_LANG values ("&amp;$K152&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G152)&amp;"', '"&amp;$L152&amp;"', '"&amp;$M152&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7049,7 +6968,7 @@
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
       <c r="J153" s="16" t="str">
-        <f>IF(ISNUMBER($G153),"insert into M_CD_GRP values ("&amp;$G153&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B153)&amp;"', '"&amp;$H153&amp;"', '"&amp;$I153&amp;"');","")</f>
+        <f>IF(ISNUMBER($G153),"insert into M_CD_VAL values ("&amp;$G153&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B153)&amp;"', '"&amp;$H153&amp;"', '"&amp;$I153&amp;"');","")</f>
         <v/>
       </c>
       <c r="K153" s="16" t="str">
@@ -7059,7 +6978,7 @@
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
       <c r="N153" s="16" t="str">
-        <f>IF(ISNUMBER($K153),"insert into M_CD_GRP values ("&amp;$K153&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G153)&amp;"', '"&amp;$L153&amp;"', '"&amp;$M153&amp;"');","")</f>
+        <f>IF(ISNUMBER($K153),"insert into M_CD_VAL_LANG values ("&amp;$K153&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G153)&amp;"', '"&amp;$L153&amp;"', '"&amp;$M153&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7086,7 +7005,7 @@
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="16" t="str">
-        <f>IF(ISNUMBER($G154),"insert into M_CD_GRP values ("&amp;$G154&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B154)&amp;"', '"&amp;$H154&amp;"', '"&amp;$I154&amp;"');","")</f>
+        <f>IF(ISNUMBER($G154),"insert into M_CD_VAL values ("&amp;$G154&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B154)&amp;"', '"&amp;$H154&amp;"', '"&amp;$I154&amp;"');","")</f>
         <v/>
       </c>
       <c r="K154" s="16" t="str">
@@ -7096,7 +7015,7 @@
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
       <c r="N154" s="16" t="str">
-        <f>IF(ISNUMBER($K154),"insert into M_CD_GRP values ("&amp;$K154&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G154)&amp;"', '"&amp;$L154&amp;"', '"&amp;$M154&amp;"');","")</f>
+        <f>IF(ISNUMBER($K154),"insert into M_CD_VAL_LANG values ("&amp;$K154&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G154)&amp;"', '"&amp;$L154&amp;"', '"&amp;$M154&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7123,7 +7042,7 @@
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
       <c r="J155" s="16" t="str">
-        <f>IF(ISNUMBER($G155),"insert into M_CD_GRP values ("&amp;$G155&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B155)&amp;"', '"&amp;$H155&amp;"', '"&amp;$I155&amp;"');","")</f>
+        <f>IF(ISNUMBER($G155),"insert into M_CD_VAL values ("&amp;$G155&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B155)&amp;"', '"&amp;$H155&amp;"', '"&amp;$I155&amp;"');","")</f>
         <v/>
       </c>
       <c r="K155" s="16" t="str">
@@ -7133,7 +7052,7 @@
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
       <c r="N155" s="16" t="str">
-        <f>IF(ISNUMBER($K155),"insert into M_CD_GRP values ("&amp;$K155&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G155)&amp;"', '"&amp;$L155&amp;"', '"&amp;$M155&amp;"');","")</f>
+        <f>IF(ISNUMBER($K155),"insert into M_CD_VAL_LANG values ("&amp;$K155&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G155)&amp;"', '"&amp;$L155&amp;"', '"&amp;$M155&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7160,7 +7079,7 @@
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="16" t="str">
-        <f>IF(ISNUMBER($G156),"insert into M_CD_GRP values ("&amp;$G156&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B156)&amp;"', '"&amp;$H156&amp;"', '"&amp;$I156&amp;"');","")</f>
+        <f>IF(ISNUMBER($G156),"insert into M_CD_VAL values ("&amp;$G156&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B156)&amp;"', '"&amp;$H156&amp;"', '"&amp;$I156&amp;"');","")</f>
         <v/>
       </c>
       <c r="K156" s="16" t="str">
@@ -7170,7 +7089,7 @@
       <c r="L156" s="13"/>
       <c r="M156" s="13"/>
       <c r="N156" s="16" t="str">
-        <f>IF(ISNUMBER($K156),"insert into M_CD_GRP values ("&amp;$K156&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G156)&amp;"', '"&amp;$L156&amp;"', '"&amp;$M156&amp;"');","")</f>
+        <f>IF(ISNUMBER($K156),"insert into M_CD_VAL_LANG values ("&amp;$K156&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G156)&amp;"', '"&amp;$L156&amp;"', '"&amp;$M156&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7197,7 +7116,7 @@
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
       <c r="J157" s="16" t="str">
-        <f>IF(ISNUMBER($G157),"insert into M_CD_GRP values ("&amp;$G157&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B157)&amp;"', '"&amp;$H157&amp;"', '"&amp;$I157&amp;"');","")</f>
+        <f>IF(ISNUMBER($G157),"insert into M_CD_VAL values ("&amp;$G157&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B157)&amp;"', '"&amp;$H157&amp;"', '"&amp;$I157&amp;"');","")</f>
         <v/>
       </c>
       <c r="K157" s="16" t="str">
@@ -7207,7 +7126,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
       <c r="N157" s="16" t="str">
-        <f>IF(ISNUMBER($K157),"insert into M_CD_GRP values ("&amp;$K157&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G157)&amp;"', '"&amp;$L157&amp;"', '"&amp;$M157&amp;"');","")</f>
+        <f>IF(ISNUMBER($K157),"insert into M_CD_VAL_LANG values ("&amp;$K157&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G157)&amp;"', '"&amp;$L157&amp;"', '"&amp;$M157&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7234,7 +7153,7 @@
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="16" t="str">
-        <f>IF(ISNUMBER($G158),"insert into M_CD_GRP values ("&amp;$G158&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B158)&amp;"', '"&amp;$H158&amp;"', '"&amp;$I158&amp;"');","")</f>
+        <f>IF(ISNUMBER($G158),"insert into M_CD_VAL values ("&amp;$G158&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B158)&amp;"', '"&amp;$H158&amp;"', '"&amp;$I158&amp;"');","")</f>
         <v/>
       </c>
       <c r="K158" s="16" t="str">
@@ -7244,7 +7163,7 @@
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
       <c r="N158" s="16" t="str">
-        <f>IF(ISNUMBER($K158),"insert into M_CD_GRP values ("&amp;$K158&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G158)&amp;"', '"&amp;$L158&amp;"', '"&amp;$M158&amp;"');","")</f>
+        <f>IF(ISNUMBER($K158),"insert into M_CD_VAL_LANG values ("&amp;$K158&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G158)&amp;"', '"&amp;$L158&amp;"', '"&amp;$M158&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7271,7 +7190,7 @@
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
       <c r="J159" s="16" t="str">
-        <f>IF(ISNUMBER($G159),"insert into M_CD_GRP values ("&amp;$G159&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B159)&amp;"', '"&amp;$H159&amp;"', '"&amp;$I159&amp;"');","")</f>
+        <f>IF(ISNUMBER($G159),"insert into M_CD_VAL values ("&amp;$G159&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B159)&amp;"', '"&amp;$H159&amp;"', '"&amp;$I159&amp;"');","")</f>
         <v/>
       </c>
       <c r="K159" s="16" t="str">
@@ -7281,7 +7200,7 @@
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
       <c r="N159" s="16" t="str">
-        <f>IF(ISNUMBER($K159),"insert into M_CD_GRP values ("&amp;$K159&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G159)&amp;"', '"&amp;$L159&amp;"', '"&amp;$M159&amp;"');","")</f>
+        <f>IF(ISNUMBER($K159),"insert into M_CD_VAL_LANG values ("&amp;$K159&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G159)&amp;"', '"&amp;$L159&amp;"', '"&amp;$M159&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7308,7 +7227,7 @@
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="16" t="str">
-        <f>IF(ISNUMBER($G160),"insert into M_CD_GRP values ("&amp;$G160&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B160)&amp;"', '"&amp;$H160&amp;"', '"&amp;$I160&amp;"');","")</f>
+        <f>IF(ISNUMBER($G160),"insert into M_CD_VAL values ("&amp;$G160&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B160)&amp;"', '"&amp;$H160&amp;"', '"&amp;$I160&amp;"');","")</f>
         <v/>
       </c>
       <c r="K160" s="16" t="str">
@@ -7318,7 +7237,7 @@
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
       <c r="N160" s="16" t="str">
-        <f>IF(ISNUMBER($K160),"insert into M_CD_GRP values ("&amp;$K160&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G160)&amp;"', '"&amp;$L160&amp;"', '"&amp;$M160&amp;"');","")</f>
+        <f>IF(ISNUMBER($K160),"insert into M_CD_VAL_LANG values ("&amp;$K160&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G160)&amp;"', '"&amp;$L160&amp;"', '"&amp;$M160&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7345,7 +7264,7 @@
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
       <c r="J161" s="16" t="str">
-        <f>IF(ISNUMBER($G161),"insert into M_CD_GRP values ("&amp;$G161&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B161)&amp;"', '"&amp;$H161&amp;"', '"&amp;$I161&amp;"');","")</f>
+        <f>IF(ISNUMBER($G161),"insert into M_CD_VAL values ("&amp;$G161&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B161)&amp;"', '"&amp;$H161&amp;"', '"&amp;$I161&amp;"');","")</f>
         <v/>
       </c>
       <c r="K161" s="16" t="str">
@@ -7355,7 +7274,7 @@
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
       <c r="N161" s="16" t="str">
-        <f>IF(ISNUMBER($K161),"insert into M_CD_GRP values ("&amp;$K161&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G161)&amp;"', '"&amp;$L161&amp;"', '"&amp;$M161&amp;"');","")</f>
+        <f>IF(ISNUMBER($K161),"insert into M_CD_VAL_LANG values ("&amp;$K161&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G161)&amp;"', '"&amp;$L161&amp;"', '"&amp;$M161&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7382,7 +7301,7 @@
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="16" t="str">
-        <f>IF(ISNUMBER($G162),"insert into M_CD_GRP values ("&amp;$G162&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B162)&amp;"', '"&amp;$H162&amp;"', '"&amp;$I162&amp;"');","")</f>
+        <f>IF(ISNUMBER($G162),"insert into M_CD_VAL values ("&amp;$G162&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B162)&amp;"', '"&amp;$H162&amp;"', '"&amp;$I162&amp;"');","")</f>
         <v/>
       </c>
       <c r="K162" s="16" t="str">
@@ -7392,7 +7311,7 @@
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
       <c r="N162" s="16" t="str">
-        <f>IF(ISNUMBER($K162),"insert into M_CD_GRP values ("&amp;$K162&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G162)&amp;"', '"&amp;$L162&amp;"', '"&amp;$M162&amp;"');","")</f>
+        <f>IF(ISNUMBER($K162),"insert into M_CD_VAL_LANG values ("&amp;$K162&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G162)&amp;"', '"&amp;$L162&amp;"', '"&amp;$M162&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7419,7 +7338,7 @@
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
       <c r="J163" s="16" t="str">
-        <f>IF(ISNUMBER($G163),"insert into M_CD_GRP values ("&amp;$G163&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B163)&amp;"', '"&amp;$H163&amp;"', '"&amp;$I163&amp;"');","")</f>
+        <f>IF(ISNUMBER($G163),"insert into M_CD_VAL values ("&amp;$G163&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B163)&amp;"', '"&amp;$H163&amp;"', '"&amp;$I163&amp;"');","")</f>
         <v/>
       </c>
       <c r="K163" s="16" t="str">
@@ -7429,7 +7348,7 @@
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
       <c r="N163" s="16" t="str">
-        <f>IF(ISNUMBER($K163),"insert into M_CD_GRP values ("&amp;$K163&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G163)&amp;"', '"&amp;$L163&amp;"', '"&amp;$M163&amp;"');","")</f>
+        <f>IF(ISNUMBER($K163),"insert into M_CD_VAL_LANG values ("&amp;$K163&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G163)&amp;"', '"&amp;$L163&amp;"', '"&amp;$M163&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7456,7 +7375,7 @@
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="16" t="str">
-        <f>IF(ISNUMBER($G164),"insert into M_CD_GRP values ("&amp;$G164&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B164)&amp;"', '"&amp;$H164&amp;"', '"&amp;$I164&amp;"');","")</f>
+        <f>IF(ISNUMBER($G164),"insert into M_CD_VAL values ("&amp;$G164&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B164)&amp;"', '"&amp;$H164&amp;"', '"&amp;$I164&amp;"');","")</f>
         <v/>
       </c>
       <c r="K164" s="16" t="str">
@@ -7466,7 +7385,7 @@
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
       <c r="N164" s="16" t="str">
-        <f>IF(ISNUMBER($K164),"insert into M_CD_GRP values ("&amp;$K164&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G164)&amp;"', '"&amp;$L164&amp;"', '"&amp;$M164&amp;"');","")</f>
+        <f>IF(ISNUMBER($K164),"insert into M_CD_VAL_LANG values ("&amp;$K164&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G164)&amp;"', '"&amp;$L164&amp;"', '"&amp;$M164&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7493,7 +7412,7 @@
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
       <c r="J165" s="16" t="str">
-        <f>IF(ISNUMBER($G165),"insert into M_CD_GRP values ("&amp;$G165&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B165)&amp;"', '"&amp;$H165&amp;"', '"&amp;$I165&amp;"');","")</f>
+        <f>IF(ISNUMBER($G165),"insert into M_CD_VAL values ("&amp;$G165&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B165)&amp;"', '"&amp;$H165&amp;"', '"&amp;$I165&amp;"');","")</f>
         <v/>
       </c>
       <c r="K165" s="16" t="str">
@@ -7503,7 +7422,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
       <c r="N165" s="16" t="str">
-        <f>IF(ISNUMBER($K165),"insert into M_CD_GRP values ("&amp;$K165&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G165)&amp;"', '"&amp;$L165&amp;"', '"&amp;$M165&amp;"');","")</f>
+        <f>IF(ISNUMBER($K165),"insert into M_CD_VAL_LANG values ("&amp;$K165&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G165)&amp;"', '"&amp;$L165&amp;"', '"&amp;$M165&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7530,7 +7449,7 @@
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="16" t="str">
-        <f>IF(ISNUMBER($G166),"insert into M_CD_GRP values ("&amp;$G166&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B166)&amp;"', '"&amp;$H166&amp;"', '"&amp;$I166&amp;"');","")</f>
+        <f>IF(ISNUMBER($G166),"insert into M_CD_VAL values ("&amp;$G166&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B166)&amp;"', '"&amp;$H166&amp;"', '"&amp;$I166&amp;"');","")</f>
         <v/>
       </c>
       <c r="K166" s="16" t="str">
@@ -7540,7 +7459,7 @@
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
       <c r="N166" s="16" t="str">
-        <f>IF(ISNUMBER($K166),"insert into M_CD_GRP values ("&amp;$K166&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G166)&amp;"', '"&amp;$L166&amp;"', '"&amp;$M166&amp;"');","")</f>
+        <f>IF(ISNUMBER($K166),"insert into M_CD_VAL_LANG values ("&amp;$K166&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G166)&amp;"', '"&amp;$L166&amp;"', '"&amp;$M166&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7567,7 +7486,7 @@
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
       <c r="J167" s="16" t="str">
-        <f>IF(ISNUMBER($G167),"insert into M_CD_GRP values ("&amp;$G167&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B167)&amp;"', '"&amp;$H167&amp;"', '"&amp;$I167&amp;"');","")</f>
+        <f>IF(ISNUMBER($G167),"insert into M_CD_VAL values ("&amp;$G167&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B167)&amp;"', '"&amp;$H167&amp;"', '"&amp;$I167&amp;"');","")</f>
         <v/>
       </c>
       <c r="K167" s="16" t="str">
@@ -7577,7 +7496,7 @@
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
       <c r="N167" s="16" t="str">
-        <f>IF(ISNUMBER($K167),"insert into M_CD_GRP values ("&amp;$K167&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G167)&amp;"', '"&amp;$L167&amp;"', '"&amp;$M167&amp;"');","")</f>
+        <f>IF(ISNUMBER($K167),"insert into M_CD_VAL_LANG values ("&amp;$K167&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G167)&amp;"', '"&amp;$L167&amp;"', '"&amp;$M167&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7604,7 +7523,7 @@
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="16" t="str">
-        <f>IF(ISNUMBER($G168),"insert into M_CD_GRP values ("&amp;$G168&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B168)&amp;"', '"&amp;$H168&amp;"', '"&amp;$I168&amp;"');","")</f>
+        <f>IF(ISNUMBER($G168),"insert into M_CD_VAL values ("&amp;$G168&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B168)&amp;"', '"&amp;$H168&amp;"', '"&amp;$I168&amp;"');","")</f>
         <v/>
       </c>
       <c r="K168" s="16" t="str">
@@ -7614,7 +7533,7 @@
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
       <c r="N168" s="16" t="str">
-        <f>IF(ISNUMBER($K168),"insert into M_CD_GRP values ("&amp;$K168&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G168)&amp;"', '"&amp;$L168&amp;"', '"&amp;$M168&amp;"');","")</f>
+        <f>IF(ISNUMBER($K168),"insert into M_CD_VAL_LANG values ("&amp;$K168&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G168)&amp;"', '"&amp;$L168&amp;"', '"&amp;$M168&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7641,7 +7560,7 @@
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
       <c r="J169" s="16" t="str">
-        <f>IF(ISNUMBER($G169),"insert into M_CD_GRP values ("&amp;$G169&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B169)&amp;"', '"&amp;$H169&amp;"', '"&amp;$I169&amp;"');","")</f>
+        <f>IF(ISNUMBER($G169),"insert into M_CD_VAL values ("&amp;$G169&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B169)&amp;"', '"&amp;$H169&amp;"', '"&amp;$I169&amp;"');","")</f>
         <v/>
       </c>
       <c r="K169" s="16" t="str">
@@ -7651,7 +7570,7 @@
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
       <c r="N169" s="16" t="str">
-        <f>IF(ISNUMBER($K169),"insert into M_CD_GRP values ("&amp;$K169&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G169)&amp;"', '"&amp;$L169&amp;"', '"&amp;$M169&amp;"');","")</f>
+        <f>IF(ISNUMBER($K169),"insert into M_CD_VAL_LANG values ("&amp;$K169&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G169)&amp;"', '"&amp;$L169&amp;"', '"&amp;$M169&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7678,7 +7597,7 @@
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="16" t="str">
-        <f>IF(ISNUMBER($G170),"insert into M_CD_GRP values ("&amp;$G170&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B170)&amp;"', '"&amp;$H170&amp;"', '"&amp;$I170&amp;"');","")</f>
+        <f>IF(ISNUMBER($G170),"insert into M_CD_VAL values ("&amp;$G170&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B170)&amp;"', '"&amp;$H170&amp;"', '"&amp;$I170&amp;"');","")</f>
         <v/>
       </c>
       <c r="K170" s="16" t="str">
@@ -7688,7 +7607,7 @@
       <c r="L170" s="13"/>
       <c r="M170" s="13"/>
       <c r="N170" s="16" t="str">
-        <f>IF(ISNUMBER($K170),"insert into M_CD_GRP values ("&amp;$K170&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G170)&amp;"', '"&amp;$L170&amp;"', '"&amp;$M170&amp;"');","")</f>
+        <f>IF(ISNUMBER($K170),"insert into M_CD_VAL_LANG values ("&amp;$K170&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G170)&amp;"', '"&amp;$L170&amp;"', '"&amp;$M170&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7715,7 +7634,7 @@
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
       <c r="J171" s="16" t="str">
-        <f>IF(ISNUMBER($G171),"insert into M_CD_GRP values ("&amp;$G171&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B171)&amp;"', '"&amp;$H171&amp;"', '"&amp;$I171&amp;"');","")</f>
+        <f>IF(ISNUMBER($G171),"insert into M_CD_VAL values ("&amp;$G171&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B171)&amp;"', '"&amp;$H171&amp;"', '"&amp;$I171&amp;"');","")</f>
         <v/>
       </c>
       <c r="K171" s="16" t="str">
@@ -7725,7 +7644,7 @@
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
       <c r="N171" s="16" t="str">
-        <f>IF(ISNUMBER($K171),"insert into M_CD_GRP values ("&amp;$K171&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G171)&amp;"', '"&amp;$L171&amp;"', '"&amp;$M171&amp;"');","")</f>
+        <f>IF(ISNUMBER($K171),"insert into M_CD_VAL_LANG values ("&amp;$K171&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G171)&amp;"', '"&amp;$L171&amp;"', '"&amp;$M171&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7752,7 +7671,7 @@
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="16" t="str">
-        <f>IF(ISNUMBER($G172),"insert into M_CD_GRP values ("&amp;$G172&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B172)&amp;"', '"&amp;$H172&amp;"', '"&amp;$I172&amp;"');","")</f>
+        <f>IF(ISNUMBER($G172),"insert into M_CD_VAL values ("&amp;$G172&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B172)&amp;"', '"&amp;$H172&amp;"', '"&amp;$I172&amp;"');","")</f>
         <v/>
       </c>
       <c r="K172" s="16" t="str">
@@ -7762,7 +7681,7 @@
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
       <c r="N172" s="16" t="str">
-        <f>IF(ISNUMBER($K172),"insert into M_CD_GRP values ("&amp;$K172&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G172)&amp;"', '"&amp;$L172&amp;"', '"&amp;$M172&amp;"');","")</f>
+        <f>IF(ISNUMBER($K172),"insert into M_CD_VAL_LANG values ("&amp;$K172&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G172)&amp;"', '"&amp;$L172&amp;"', '"&amp;$M172&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7789,7 +7708,7 @@
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
       <c r="J173" s="16" t="str">
-        <f>IF(ISNUMBER($G173),"insert into M_CD_GRP values ("&amp;$G173&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B173)&amp;"', '"&amp;$H173&amp;"', '"&amp;$I173&amp;"');","")</f>
+        <f>IF(ISNUMBER($G173),"insert into M_CD_VAL values ("&amp;$G173&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B173)&amp;"', '"&amp;$H173&amp;"', '"&amp;$I173&amp;"');","")</f>
         <v/>
       </c>
       <c r="K173" s="16" t="str">
@@ -7799,7 +7718,7 @@
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
       <c r="N173" s="16" t="str">
-        <f>IF(ISNUMBER($K173),"insert into M_CD_GRP values ("&amp;$K173&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G173)&amp;"', '"&amp;$L173&amp;"', '"&amp;$M173&amp;"');","")</f>
+        <f>IF(ISNUMBER($K173),"insert into M_CD_VAL_LANG values ("&amp;$K173&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G173)&amp;"', '"&amp;$L173&amp;"', '"&amp;$M173&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7826,7 +7745,7 @@
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="16" t="str">
-        <f>IF(ISNUMBER($G174),"insert into M_CD_GRP values ("&amp;$G174&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B174)&amp;"', '"&amp;$H174&amp;"', '"&amp;$I174&amp;"');","")</f>
+        <f>IF(ISNUMBER($G174),"insert into M_CD_VAL values ("&amp;$G174&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B174)&amp;"', '"&amp;$H174&amp;"', '"&amp;$I174&amp;"');","")</f>
         <v/>
       </c>
       <c r="K174" s="16" t="str">
@@ -7836,7 +7755,7 @@
       <c r="L174" s="13"/>
       <c r="M174" s="13"/>
       <c r="N174" s="16" t="str">
-        <f>IF(ISNUMBER($K174),"insert into M_CD_GRP values ("&amp;$K174&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G174)&amp;"', '"&amp;$L174&amp;"', '"&amp;$M174&amp;"');","")</f>
+        <f>IF(ISNUMBER($K174),"insert into M_CD_VAL_LANG values ("&amp;$K174&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G174)&amp;"', '"&amp;$L174&amp;"', '"&amp;$M174&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7863,7 +7782,7 @@
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
       <c r="J175" s="16" t="str">
-        <f>IF(ISNUMBER($G175),"insert into M_CD_GRP values ("&amp;$G175&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B175)&amp;"', '"&amp;$H175&amp;"', '"&amp;$I175&amp;"');","")</f>
+        <f>IF(ISNUMBER($G175),"insert into M_CD_VAL values ("&amp;$G175&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B175)&amp;"', '"&amp;$H175&amp;"', '"&amp;$I175&amp;"');","")</f>
         <v/>
       </c>
       <c r="K175" s="16" t="str">
@@ -7873,7 +7792,7 @@
       <c r="L175" s="13"/>
       <c r="M175" s="13"/>
       <c r="N175" s="16" t="str">
-        <f>IF(ISNUMBER($K175),"insert into M_CD_GRP values ("&amp;$K175&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G175)&amp;"', '"&amp;$L175&amp;"', '"&amp;$M175&amp;"');","")</f>
+        <f>IF(ISNUMBER($K175),"insert into M_CD_VAL_LANG values ("&amp;$K175&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G175)&amp;"', '"&amp;$L175&amp;"', '"&amp;$M175&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7900,7 +7819,7 @@
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="16" t="str">
-        <f>IF(ISNUMBER($G176),"insert into M_CD_GRP values ("&amp;$G176&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B176)&amp;"', '"&amp;$H176&amp;"', '"&amp;$I176&amp;"');","")</f>
+        <f>IF(ISNUMBER($G176),"insert into M_CD_VAL values ("&amp;$G176&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B176)&amp;"', '"&amp;$H176&amp;"', '"&amp;$I176&amp;"');","")</f>
         <v/>
       </c>
       <c r="K176" s="16" t="str">
@@ -7910,7 +7829,7 @@
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
       <c r="N176" s="16" t="str">
-        <f>IF(ISNUMBER($K176),"insert into M_CD_GRP values ("&amp;$K176&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G176)&amp;"', '"&amp;$L176&amp;"', '"&amp;$M176&amp;"');","")</f>
+        <f>IF(ISNUMBER($K176),"insert into M_CD_VAL_LANG values ("&amp;$K176&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G176)&amp;"', '"&amp;$L176&amp;"', '"&amp;$M176&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7937,7 +7856,7 @@
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
       <c r="J177" s="16" t="str">
-        <f>IF(ISNUMBER($G177),"insert into M_CD_GRP values ("&amp;$G177&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B177)&amp;"', '"&amp;$H177&amp;"', '"&amp;$I177&amp;"');","")</f>
+        <f>IF(ISNUMBER($G177),"insert into M_CD_VAL values ("&amp;$G177&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B177)&amp;"', '"&amp;$H177&amp;"', '"&amp;$I177&amp;"');","")</f>
         <v/>
       </c>
       <c r="K177" s="16" t="str">
@@ -7947,7 +7866,7 @@
       <c r="L177" s="13"/>
       <c r="M177" s="13"/>
       <c r="N177" s="16" t="str">
-        <f>IF(ISNUMBER($K177),"insert into M_CD_GRP values ("&amp;$K177&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G177)&amp;"', '"&amp;$L177&amp;"', '"&amp;$M177&amp;"');","")</f>
+        <f>IF(ISNUMBER($K177),"insert into M_CD_VAL_LANG values ("&amp;$K177&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G177)&amp;"', '"&amp;$L177&amp;"', '"&amp;$M177&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -7974,7 +7893,7 @@
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="16" t="str">
-        <f>IF(ISNUMBER($G178),"insert into M_CD_GRP values ("&amp;$G178&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B178)&amp;"', '"&amp;$H178&amp;"', '"&amp;$I178&amp;"');","")</f>
+        <f>IF(ISNUMBER($G178),"insert into M_CD_VAL values ("&amp;$G178&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B178)&amp;"', '"&amp;$H178&amp;"', '"&amp;$I178&amp;"');","")</f>
         <v/>
       </c>
       <c r="K178" s="16" t="str">
@@ -7984,7 +7903,7 @@
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
       <c r="N178" s="16" t="str">
-        <f>IF(ISNUMBER($K178),"insert into M_CD_GRP values ("&amp;$K178&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G178)&amp;"', '"&amp;$L178&amp;"', '"&amp;$M178&amp;"');","")</f>
+        <f>IF(ISNUMBER($K178),"insert into M_CD_VAL_LANG values ("&amp;$K178&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G178)&amp;"', '"&amp;$L178&amp;"', '"&amp;$M178&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8011,7 +7930,7 @@
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
       <c r="J179" s="16" t="str">
-        <f>IF(ISNUMBER($G179),"insert into M_CD_GRP values ("&amp;$G179&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B179)&amp;"', '"&amp;$H179&amp;"', '"&amp;$I179&amp;"');","")</f>
+        <f>IF(ISNUMBER($G179),"insert into M_CD_VAL values ("&amp;$G179&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B179)&amp;"', '"&amp;$H179&amp;"', '"&amp;$I179&amp;"');","")</f>
         <v/>
       </c>
       <c r="K179" s="16" t="str">
@@ -8021,7 +7940,7 @@
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
       <c r="N179" s="16" t="str">
-        <f>IF(ISNUMBER($K179),"insert into M_CD_GRP values ("&amp;$K179&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G179)&amp;"', '"&amp;$L179&amp;"', '"&amp;$M179&amp;"');","")</f>
+        <f>IF(ISNUMBER($K179),"insert into M_CD_VAL_LANG values ("&amp;$K179&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G179)&amp;"', '"&amp;$L179&amp;"', '"&amp;$M179&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8048,7 +7967,7 @@
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="16" t="str">
-        <f>IF(ISNUMBER($G180),"insert into M_CD_GRP values ("&amp;$G180&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B180)&amp;"', '"&amp;$H180&amp;"', '"&amp;$I180&amp;"');","")</f>
+        <f>IF(ISNUMBER($G180),"insert into M_CD_VAL values ("&amp;$G180&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B180)&amp;"', '"&amp;$H180&amp;"', '"&amp;$I180&amp;"');","")</f>
         <v/>
       </c>
       <c r="K180" s="16" t="str">
@@ -8058,7 +7977,7 @@
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
       <c r="N180" s="16" t="str">
-        <f>IF(ISNUMBER($K180),"insert into M_CD_GRP values ("&amp;$K180&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G180)&amp;"', '"&amp;$L180&amp;"', '"&amp;$M180&amp;"');","")</f>
+        <f>IF(ISNUMBER($K180),"insert into M_CD_VAL_LANG values ("&amp;$K180&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G180)&amp;"', '"&amp;$L180&amp;"', '"&amp;$M180&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8085,7 +8004,7 @@
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
       <c r="J181" s="16" t="str">
-        <f>IF(ISNUMBER($G181),"insert into M_CD_GRP values ("&amp;$G181&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B181)&amp;"', '"&amp;$H181&amp;"', '"&amp;$I181&amp;"');","")</f>
+        <f>IF(ISNUMBER($G181),"insert into M_CD_VAL values ("&amp;$G181&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B181)&amp;"', '"&amp;$H181&amp;"', '"&amp;$I181&amp;"');","")</f>
         <v/>
       </c>
       <c r="K181" s="16" t="str">
@@ -8095,7 +8014,7 @@
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
       <c r="N181" s="16" t="str">
-        <f>IF(ISNUMBER($K181),"insert into M_CD_GRP values ("&amp;$K181&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G181)&amp;"', '"&amp;$L181&amp;"', '"&amp;$M181&amp;"');","")</f>
+        <f>IF(ISNUMBER($K181),"insert into M_CD_VAL_LANG values ("&amp;$K181&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G181)&amp;"', '"&amp;$L181&amp;"', '"&amp;$M181&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8122,7 +8041,7 @@
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="16" t="str">
-        <f>IF(ISNUMBER($G182),"insert into M_CD_GRP values ("&amp;$G182&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B182)&amp;"', '"&amp;$H182&amp;"', '"&amp;$I182&amp;"');","")</f>
+        <f>IF(ISNUMBER($G182),"insert into M_CD_VAL values ("&amp;$G182&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B182)&amp;"', '"&amp;$H182&amp;"', '"&amp;$I182&amp;"');","")</f>
         <v/>
       </c>
       <c r="K182" s="16" t="str">
@@ -8132,7 +8051,7 @@
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
       <c r="N182" s="16" t="str">
-        <f>IF(ISNUMBER($K182),"insert into M_CD_GRP values ("&amp;$K182&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G182)&amp;"', '"&amp;$L182&amp;"', '"&amp;$M182&amp;"');","")</f>
+        <f>IF(ISNUMBER($K182),"insert into M_CD_VAL_LANG values ("&amp;$K182&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G182)&amp;"', '"&amp;$L182&amp;"', '"&amp;$M182&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8159,7 +8078,7 @@
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
       <c r="J183" s="16" t="str">
-        <f>IF(ISNUMBER($G183),"insert into M_CD_GRP values ("&amp;$G183&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B183)&amp;"', '"&amp;$H183&amp;"', '"&amp;$I183&amp;"');","")</f>
+        <f>IF(ISNUMBER($G183),"insert into M_CD_VAL values ("&amp;$G183&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B183)&amp;"', '"&amp;$H183&amp;"', '"&amp;$I183&amp;"');","")</f>
         <v/>
       </c>
       <c r="K183" s="16" t="str">
@@ -8169,7 +8088,7 @@
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
       <c r="N183" s="16" t="str">
-        <f>IF(ISNUMBER($K183),"insert into M_CD_GRP values ("&amp;$K183&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G183)&amp;"', '"&amp;$L183&amp;"', '"&amp;$M183&amp;"');","")</f>
+        <f>IF(ISNUMBER($K183),"insert into M_CD_VAL_LANG values ("&amp;$K183&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G183)&amp;"', '"&amp;$L183&amp;"', '"&amp;$M183&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8196,7 +8115,7 @@
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="16" t="str">
-        <f>IF(ISNUMBER($G184),"insert into M_CD_GRP values ("&amp;$G184&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B184)&amp;"', '"&amp;$H184&amp;"', '"&amp;$I184&amp;"');","")</f>
+        <f>IF(ISNUMBER($G184),"insert into M_CD_VAL values ("&amp;$G184&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B184)&amp;"', '"&amp;$H184&amp;"', '"&amp;$I184&amp;"');","")</f>
         <v/>
       </c>
       <c r="K184" s="16" t="str">
@@ -8206,7 +8125,7 @@
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
       <c r="N184" s="16" t="str">
-        <f>IF(ISNUMBER($K184),"insert into M_CD_GRP values ("&amp;$K184&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G184)&amp;"', '"&amp;$L184&amp;"', '"&amp;$M184&amp;"');","")</f>
+        <f>IF(ISNUMBER($K184),"insert into M_CD_VAL_LANG values ("&amp;$K184&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G184)&amp;"', '"&amp;$L184&amp;"', '"&amp;$M184&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8233,7 +8152,7 @@
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
       <c r="J185" s="16" t="str">
-        <f>IF(ISNUMBER($G185),"insert into M_CD_GRP values ("&amp;$G185&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B185)&amp;"', '"&amp;$H185&amp;"', '"&amp;$I185&amp;"');","")</f>
+        <f>IF(ISNUMBER($G185),"insert into M_CD_VAL values ("&amp;$G185&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B185)&amp;"', '"&amp;$H185&amp;"', '"&amp;$I185&amp;"');","")</f>
         <v/>
       </c>
       <c r="K185" s="16" t="str">
@@ -8243,7 +8162,7 @@
       <c r="L185" s="13"/>
       <c r="M185" s="13"/>
       <c r="N185" s="16" t="str">
-        <f>IF(ISNUMBER($K185),"insert into M_CD_GRP values ("&amp;$K185&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G185)&amp;"', '"&amp;$L185&amp;"', '"&amp;$M185&amp;"');","")</f>
+        <f>IF(ISNUMBER($K185),"insert into M_CD_VAL_LANG values ("&amp;$K185&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G185)&amp;"', '"&amp;$L185&amp;"', '"&amp;$M185&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8270,7 +8189,7 @@
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
       <c r="J186" s="16" t="str">
-        <f>IF(ISNUMBER($G186),"insert into M_CD_GRP values ("&amp;$G186&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B186)&amp;"', '"&amp;$H186&amp;"', '"&amp;$I186&amp;"');","")</f>
+        <f>IF(ISNUMBER($G186),"insert into M_CD_VAL values ("&amp;$G186&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B186)&amp;"', '"&amp;$H186&amp;"', '"&amp;$I186&amp;"');","")</f>
         <v/>
       </c>
       <c r="K186" s="16" t="str">
@@ -8280,7 +8199,7 @@
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
       <c r="N186" s="16" t="str">
-        <f>IF(ISNUMBER($K186),"insert into M_CD_GRP values ("&amp;$K186&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G186)&amp;"', '"&amp;$L186&amp;"', '"&amp;$M186&amp;"');","")</f>
+        <f>IF(ISNUMBER($K186),"insert into M_CD_VAL_LANG values ("&amp;$K186&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G186)&amp;"', '"&amp;$L186&amp;"', '"&amp;$M186&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8307,7 +8226,7 @@
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
       <c r="J187" s="16" t="str">
-        <f>IF(ISNUMBER($G187),"insert into M_CD_GRP values ("&amp;$G187&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B187)&amp;"', '"&amp;$H187&amp;"', '"&amp;$I187&amp;"');","")</f>
+        <f>IF(ISNUMBER($G187),"insert into M_CD_VAL values ("&amp;$G187&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B187)&amp;"', '"&amp;$H187&amp;"', '"&amp;$I187&amp;"');","")</f>
         <v/>
       </c>
       <c r="K187" s="16" t="str">
@@ -8317,7 +8236,7 @@
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
       <c r="N187" s="16" t="str">
-        <f>IF(ISNUMBER($K187),"insert into M_CD_GRP values ("&amp;$K187&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G187)&amp;"', '"&amp;$L187&amp;"', '"&amp;$M187&amp;"');","")</f>
+        <f>IF(ISNUMBER($K187),"insert into M_CD_VAL_LANG values ("&amp;$K187&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G187)&amp;"', '"&amp;$L187&amp;"', '"&amp;$M187&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8344,7 +8263,7 @@
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
       <c r="J188" s="16" t="str">
-        <f>IF(ISNUMBER($G188),"insert into M_CD_GRP values ("&amp;$G188&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B188)&amp;"', '"&amp;$H188&amp;"', '"&amp;$I188&amp;"');","")</f>
+        <f>IF(ISNUMBER($G188),"insert into M_CD_VAL values ("&amp;$G188&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B188)&amp;"', '"&amp;$H188&amp;"', '"&amp;$I188&amp;"');","")</f>
         <v/>
       </c>
       <c r="K188" s="16" t="str">
@@ -8354,7 +8273,7 @@
       <c r="L188" s="13"/>
       <c r="M188" s="13"/>
       <c r="N188" s="16" t="str">
-        <f>IF(ISNUMBER($K188),"insert into M_CD_GRP values ("&amp;$K188&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G188)&amp;"', '"&amp;$L188&amp;"', '"&amp;$M188&amp;"');","")</f>
+        <f>IF(ISNUMBER($K188),"insert into M_CD_VAL_LANG values ("&amp;$K188&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G188)&amp;"', '"&amp;$L188&amp;"', '"&amp;$M188&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8381,7 +8300,7 @@
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
       <c r="J189" s="16" t="str">
-        <f>IF(ISNUMBER($G189),"insert into M_CD_GRP values ("&amp;$G189&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B189)&amp;"', '"&amp;$H189&amp;"', '"&amp;$I189&amp;"');","")</f>
+        <f>IF(ISNUMBER($G189),"insert into M_CD_VAL values ("&amp;$G189&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B189)&amp;"', '"&amp;$H189&amp;"', '"&amp;$I189&amp;"');","")</f>
         <v/>
       </c>
       <c r="K189" s="16" t="str">
@@ -8391,7 +8310,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="13"/>
       <c r="N189" s="16" t="str">
-        <f>IF(ISNUMBER($K189),"insert into M_CD_GRP values ("&amp;$K189&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G189)&amp;"', '"&amp;$L189&amp;"', '"&amp;$M189&amp;"');","")</f>
+        <f>IF(ISNUMBER($K189),"insert into M_CD_VAL_LANG values ("&amp;$K189&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G189)&amp;"', '"&amp;$L189&amp;"', '"&amp;$M189&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8418,7 +8337,7 @@
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
       <c r="J190" s="16" t="str">
-        <f>IF(ISNUMBER($G190),"insert into M_CD_GRP values ("&amp;$G190&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B190)&amp;"', '"&amp;$H190&amp;"', '"&amp;$I190&amp;"');","")</f>
+        <f>IF(ISNUMBER($G190),"insert into M_CD_VAL values ("&amp;$G190&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B190)&amp;"', '"&amp;$H190&amp;"', '"&amp;$I190&amp;"');","")</f>
         <v/>
       </c>
       <c r="K190" s="16" t="str">
@@ -8428,7 +8347,7 @@
       <c r="L190" s="13"/>
       <c r="M190" s="13"/>
       <c r="N190" s="16" t="str">
-        <f>IF(ISNUMBER($K190),"insert into M_CD_GRP values ("&amp;$K190&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G190)&amp;"', '"&amp;$L190&amp;"', '"&amp;$M190&amp;"');","")</f>
+        <f>IF(ISNUMBER($K190),"insert into M_CD_VAL_LANG values ("&amp;$K190&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G190)&amp;"', '"&amp;$L190&amp;"', '"&amp;$M190&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8455,7 +8374,7 @@
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
       <c r="J191" s="16" t="str">
-        <f>IF(ISNUMBER($G191),"insert into M_CD_GRP values ("&amp;$G191&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B191)&amp;"', '"&amp;$H191&amp;"', '"&amp;$I191&amp;"');","")</f>
+        <f>IF(ISNUMBER($G191),"insert into M_CD_VAL values ("&amp;$G191&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B191)&amp;"', '"&amp;$H191&amp;"', '"&amp;$I191&amp;"');","")</f>
         <v/>
       </c>
       <c r="K191" s="16" t="str">
@@ -8465,7 +8384,7 @@
       <c r="L191" s="13"/>
       <c r="M191" s="13"/>
       <c r="N191" s="16" t="str">
-        <f>IF(ISNUMBER($K191),"insert into M_CD_GRP values ("&amp;$K191&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G191)&amp;"', '"&amp;$L191&amp;"', '"&amp;$M191&amp;"');","")</f>
+        <f>IF(ISNUMBER($K191),"insert into M_CD_VAL_LANG values ("&amp;$K191&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G191)&amp;"', '"&amp;$L191&amp;"', '"&amp;$M191&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8492,7 +8411,7 @@
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
       <c r="J192" s="16" t="str">
-        <f>IF(ISNUMBER($G192),"insert into M_CD_GRP values ("&amp;$G192&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B192)&amp;"', '"&amp;$H192&amp;"', '"&amp;$I192&amp;"');","")</f>
+        <f>IF(ISNUMBER($G192),"insert into M_CD_VAL values ("&amp;$G192&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B192)&amp;"', '"&amp;$H192&amp;"', '"&amp;$I192&amp;"');","")</f>
         <v/>
       </c>
       <c r="K192" s="16" t="str">
@@ -8502,7 +8421,7 @@
       <c r="L192" s="13"/>
       <c r="M192" s="13"/>
       <c r="N192" s="16" t="str">
-        <f>IF(ISNUMBER($K192),"insert into M_CD_GRP values ("&amp;$K192&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G192)&amp;"', '"&amp;$L192&amp;"', '"&amp;$M192&amp;"');","")</f>
+        <f>IF(ISNUMBER($K192),"insert into M_CD_VAL_LANG values ("&amp;$K192&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G192)&amp;"', '"&amp;$L192&amp;"', '"&amp;$M192&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8529,7 +8448,7 @@
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
       <c r="J193" s="16" t="str">
-        <f>IF(ISNUMBER($G193),"insert into M_CD_GRP values ("&amp;$G193&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B193)&amp;"', '"&amp;$H193&amp;"', '"&amp;$I193&amp;"');","")</f>
+        <f>IF(ISNUMBER($G193),"insert into M_CD_VAL values ("&amp;$G193&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B193)&amp;"', '"&amp;$H193&amp;"', '"&amp;$I193&amp;"');","")</f>
         <v/>
       </c>
       <c r="K193" s="16" t="str">
@@ -8539,7 +8458,7 @@
       <c r="L193" s="13"/>
       <c r="M193" s="13"/>
       <c r="N193" s="16" t="str">
-        <f>IF(ISNUMBER($K193),"insert into M_CD_GRP values ("&amp;$K193&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G193)&amp;"', '"&amp;$L193&amp;"', '"&amp;$M193&amp;"');","")</f>
+        <f>IF(ISNUMBER($K193),"insert into M_CD_VAL_LANG values ("&amp;$K193&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G193)&amp;"', '"&amp;$L193&amp;"', '"&amp;$M193&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8566,7 +8485,7 @@
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
       <c r="J194" s="16" t="str">
-        <f>IF(ISNUMBER($G194),"insert into M_CD_GRP values ("&amp;$G194&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B194)&amp;"', '"&amp;$H194&amp;"', '"&amp;$I194&amp;"');","")</f>
+        <f>IF(ISNUMBER($G194),"insert into M_CD_VAL values ("&amp;$G194&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B194)&amp;"', '"&amp;$H194&amp;"', '"&amp;$I194&amp;"');","")</f>
         <v/>
       </c>
       <c r="K194" s="16" t="str">
@@ -8576,7 +8495,7 @@
       <c r="L194" s="13"/>
       <c r="M194" s="13"/>
       <c r="N194" s="16" t="str">
-        <f>IF(ISNUMBER($K194),"insert into M_CD_GRP values ("&amp;$K194&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G194)&amp;"', '"&amp;$L194&amp;"', '"&amp;$M194&amp;"');","")</f>
+        <f>IF(ISNUMBER($K194),"insert into M_CD_VAL_LANG values ("&amp;$K194&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G194)&amp;"', '"&amp;$L194&amp;"', '"&amp;$M194&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8603,7 +8522,7 @@
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
       <c r="J195" s="16" t="str">
-        <f>IF(ISNUMBER($G195),"insert into M_CD_GRP values ("&amp;$G195&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B195)&amp;"', '"&amp;$H195&amp;"', '"&amp;$I195&amp;"');","")</f>
+        <f>IF(ISNUMBER($G195),"insert into M_CD_VAL values ("&amp;$G195&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B195)&amp;"', '"&amp;$H195&amp;"', '"&amp;$I195&amp;"');","")</f>
         <v/>
       </c>
       <c r="K195" s="16" t="str">
@@ -8613,7 +8532,7 @@
       <c r="L195" s="13"/>
       <c r="M195" s="13"/>
       <c r="N195" s="16" t="str">
-        <f>IF(ISNUMBER($K195),"insert into M_CD_GRP values ("&amp;$K195&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G195)&amp;"', '"&amp;$L195&amp;"', '"&amp;$M195&amp;"');","")</f>
+        <f>IF(ISNUMBER($K195),"insert into M_CD_VAL_LANG values ("&amp;$K195&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G195)&amp;"', '"&amp;$L195&amp;"', '"&amp;$M195&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8640,7 +8559,7 @@
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
       <c r="J196" s="16" t="str">
-        <f>IF(ISNUMBER($G196),"insert into M_CD_GRP values ("&amp;$G196&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B196)&amp;"', '"&amp;$H196&amp;"', '"&amp;$I196&amp;"');","")</f>
+        <f>IF(ISNUMBER($G196),"insert into M_CD_VAL values ("&amp;$G196&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B196)&amp;"', '"&amp;$H196&amp;"', '"&amp;$I196&amp;"');","")</f>
         <v/>
       </c>
       <c r="K196" s="16" t="str">
@@ -8650,7 +8569,7 @@
       <c r="L196" s="13"/>
       <c r="M196" s="13"/>
       <c r="N196" s="16" t="str">
-        <f>IF(ISNUMBER($K196),"insert into M_CD_GRP values ("&amp;$K196&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G196)&amp;"', '"&amp;$L196&amp;"', '"&amp;$M196&amp;"');","")</f>
+        <f>IF(ISNUMBER($K196),"insert into M_CD_VAL_LANG values ("&amp;$K196&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G196)&amp;"', '"&amp;$L196&amp;"', '"&amp;$M196&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8677,7 +8596,7 @@
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
       <c r="J197" s="16" t="str">
-        <f>IF(ISNUMBER($G197),"insert into M_CD_GRP values ("&amp;$G197&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B197)&amp;"', '"&amp;$H197&amp;"', '"&amp;$I197&amp;"');","")</f>
+        <f>IF(ISNUMBER($G197),"insert into M_CD_VAL values ("&amp;$G197&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B197)&amp;"', '"&amp;$H197&amp;"', '"&amp;$I197&amp;"');","")</f>
         <v/>
       </c>
       <c r="K197" s="16" t="str">
@@ -8687,7 +8606,7 @@
       <c r="L197" s="13"/>
       <c r="M197" s="13"/>
       <c r="N197" s="16" t="str">
-        <f>IF(ISNUMBER($K197),"insert into M_CD_GRP values ("&amp;$K197&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G197)&amp;"', '"&amp;$L197&amp;"', '"&amp;$M197&amp;"');","")</f>
+        <f>IF(ISNUMBER($K197),"insert into M_CD_VAL_LANG values ("&amp;$K197&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G197)&amp;"', '"&amp;$L197&amp;"', '"&amp;$M197&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8714,7 +8633,7 @@
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
       <c r="J198" s="16" t="str">
-        <f>IF(ISNUMBER($G198),"insert into M_CD_GRP values ("&amp;$G198&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B198)&amp;"', '"&amp;$H198&amp;"', '"&amp;$I198&amp;"');","")</f>
+        <f>IF(ISNUMBER($G198),"insert into M_CD_VAL values ("&amp;$G198&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B198)&amp;"', '"&amp;$H198&amp;"', '"&amp;$I198&amp;"');","")</f>
         <v/>
       </c>
       <c r="K198" s="16" t="str">
@@ -8724,7 +8643,7 @@
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
       <c r="N198" s="16" t="str">
-        <f>IF(ISNUMBER($K198),"insert into M_CD_GRP values ("&amp;$K198&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G198)&amp;"', '"&amp;$L198&amp;"', '"&amp;$M198&amp;"');","")</f>
+        <f>IF(ISNUMBER($K198),"insert into M_CD_VAL_LANG values ("&amp;$K198&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G198)&amp;"', '"&amp;$L198&amp;"', '"&amp;$M198&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8751,7 +8670,7 @@
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
       <c r="J199" s="16" t="str">
-        <f>IF(ISNUMBER($G199),"insert into M_CD_GRP values ("&amp;$G199&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B199)&amp;"', '"&amp;$H199&amp;"', '"&amp;$I199&amp;"');","")</f>
+        <f>IF(ISNUMBER($G199),"insert into M_CD_VAL values ("&amp;$G199&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B199)&amp;"', '"&amp;$H199&amp;"', '"&amp;$I199&amp;"');","")</f>
         <v/>
       </c>
       <c r="K199" s="16" t="str">
@@ -8761,7 +8680,7 @@
       <c r="L199" s="13"/>
       <c r="M199" s="13"/>
       <c r="N199" s="16" t="str">
-        <f>IF(ISNUMBER($K199),"insert into M_CD_GRP values ("&amp;$K199&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G199)&amp;"', '"&amp;$L199&amp;"', '"&amp;$M199&amp;"');","")</f>
+        <f>IF(ISNUMBER($K199),"insert into M_CD_VAL_LANG values ("&amp;$K199&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G199)&amp;"', '"&amp;$L199&amp;"', '"&amp;$M199&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8788,7 +8707,7 @@
       <c r="H200" s="13"/>
       <c r="I200" s="13"/>
       <c r="J200" s="16" t="str">
-        <f>IF(ISNUMBER($G200),"insert into M_CD_GRP values ("&amp;$G200&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B200)&amp;"', '"&amp;$H200&amp;"', '"&amp;$I200&amp;"');","")</f>
+        <f>IF(ISNUMBER($G200),"insert into M_CD_VAL values ("&amp;$G200&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B200)&amp;"', '"&amp;$H200&amp;"', '"&amp;$I200&amp;"');","")</f>
         <v/>
       </c>
       <c r="K200" s="16" t="str">
@@ -8798,7 +8717,7 @@
       <c r="L200" s="13"/>
       <c r="M200" s="13"/>
       <c r="N200" s="16" t="str">
-        <f>IF(ISNUMBER($K200),"insert into M_CD_GRP values ("&amp;$K200&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G200)&amp;"', '"&amp;$L200&amp;"', '"&amp;$M200&amp;"');","")</f>
+        <f>IF(ISNUMBER($K200),"insert into M_CD_VAL_LANG values ("&amp;$K200&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G200)&amp;"', '"&amp;$L200&amp;"', '"&amp;$M200&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8825,7 +8744,7 @@
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
       <c r="J201" s="16" t="str">
-        <f>IF(ISNUMBER($G201),"insert into M_CD_GRP values ("&amp;$G201&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B201)&amp;"', '"&amp;$H201&amp;"', '"&amp;$I201&amp;"');","")</f>
+        <f>IF(ISNUMBER($G201),"insert into M_CD_VAL values ("&amp;$G201&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B201)&amp;"', '"&amp;$H201&amp;"', '"&amp;$I201&amp;"');","")</f>
         <v/>
       </c>
       <c r="K201" s="16" t="str">
@@ -8835,7 +8754,7 @@
       <c r="L201" s="13"/>
       <c r="M201" s="13"/>
       <c r="N201" s="16" t="str">
-        <f>IF(ISNUMBER($K201),"insert into M_CD_GRP values ("&amp;$K201&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G201)&amp;"', '"&amp;$L201&amp;"', '"&amp;$M201&amp;"');","")</f>
+        <f>IF(ISNUMBER($K201),"insert into M_CD_VAL_LANG values ("&amp;$K201&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G201)&amp;"', '"&amp;$L201&amp;"', '"&amp;$M201&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8862,7 +8781,7 @@
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
       <c r="J202" s="16" t="str">
-        <f>IF(ISNUMBER($G202),"insert into M_CD_GRP values ("&amp;$G202&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B202)&amp;"', '"&amp;$H202&amp;"', '"&amp;$I202&amp;"');","")</f>
+        <f>IF(ISNUMBER($G202),"insert into M_CD_VAL values ("&amp;$G202&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B202)&amp;"', '"&amp;$H202&amp;"', '"&amp;$I202&amp;"');","")</f>
         <v/>
       </c>
       <c r="K202" s="16" t="str">
@@ -8872,7 +8791,7 @@
       <c r="L202" s="13"/>
       <c r="M202" s="13"/>
       <c r="N202" s="16" t="str">
-        <f>IF(ISNUMBER($K202),"insert into M_CD_GRP values ("&amp;$K202&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G202)&amp;"', '"&amp;$L202&amp;"', '"&amp;$M202&amp;"');","")</f>
+        <f>IF(ISNUMBER($K202),"insert into M_CD_VAL_LANG values ("&amp;$K202&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G202)&amp;"', '"&amp;$L202&amp;"', '"&amp;$M202&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8899,7 +8818,7 @@
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
       <c r="J203" s="16" t="str">
-        <f>IF(ISNUMBER($G203),"insert into M_CD_GRP values ("&amp;$G203&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B203)&amp;"', '"&amp;$H203&amp;"', '"&amp;$I203&amp;"');","")</f>
+        <f>IF(ISNUMBER($G203),"insert into M_CD_VAL values ("&amp;$G203&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B203)&amp;"', '"&amp;$H203&amp;"', '"&amp;$I203&amp;"');","")</f>
         <v/>
       </c>
       <c r="K203" s="16" t="str">
@@ -8909,7 +8828,7 @@
       <c r="L203" s="13"/>
       <c r="M203" s="13"/>
       <c r="N203" s="16" t="str">
-        <f>IF(ISNUMBER($K203),"insert into M_CD_GRP values ("&amp;$K203&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G203)&amp;"', '"&amp;$L203&amp;"', '"&amp;$M203&amp;"');","")</f>
+        <f>IF(ISNUMBER($K203),"insert into M_CD_VAL_LANG values ("&amp;$K203&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G203)&amp;"', '"&amp;$L203&amp;"', '"&amp;$M203&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8936,7 +8855,7 @@
       <c r="H204" s="13"/>
       <c r="I204" s="13"/>
       <c r="J204" s="16" t="str">
-        <f>IF(ISNUMBER($G204),"insert into M_CD_GRP values ("&amp;$G204&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B204)&amp;"', '"&amp;$H204&amp;"', '"&amp;$I204&amp;"');","")</f>
+        <f>IF(ISNUMBER($G204),"insert into M_CD_VAL values ("&amp;$G204&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B204)&amp;"', '"&amp;$H204&amp;"', '"&amp;$I204&amp;"');","")</f>
         <v/>
       </c>
       <c r="K204" s="16" t="str">
@@ -8946,7 +8865,7 @@
       <c r="L204" s="13"/>
       <c r="M204" s="13"/>
       <c r="N204" s="16" t="str">
-        <f>IF(ISNUMBER($K204),"insert into M_CD_GRP values ("&amp;$K204&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G204)&amp;"', '"&amp;$L204&amp;"', '"&amp;$M204&amp;"');","")</f>
+        <f>IF(ISNUMBER($K204),"insert into M_CD_VAL_LANG values ("&amp;$K204&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G204)&amp;"', '"&amp;$L204&amp;"', '"&amp;$M204&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -8973,7 +8892,7 @@
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
       <c r="J205" s="16" t="str">
-        <f>IF(ISNUMBER($G205),"insert into M_CD_GRP values ("&amp;$G205&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B205)&amp;"', '"&amp;$H205&amp;"', '"&amp;$I205&amp;"');","")</f>
+        <f>IF(ISNUMBER($G205),"insert into M_CD_VAL values ("&amp;$G205&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B205)&amp;"', '"&amp;$H205&amp;"', '"&amp;$I205&amp;"');","")</f>
         <v/>
       </c>
       <c r="K205" s="16" t="str">
@@ -8983,7 +8902,7 @@
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>
       <c r="N205" s="16" t="str">
-        <f>IF(ISNUMBER($K205),"insert into M_CD_GRP values ("&amp;$K205&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G205)&amp;"', '"&amp;$L205&amp;"', '"&amp;$M205&amp;"');","")</f>
+        <f>IF(ISNUMBER($K205),"insert into M_CD_VAL_LANG values ("&amp;$K205&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G205)&amp;"', '"&amp;$L205&amp;"', '"&amp;$M205&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9010,7 +8929,7 @@
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
       <c r="J206" s="16" t="str">
-        <f>IF(ISNUMBER($G206),"insert into M_CD_GRP values ("&amp;$G206&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B206)&amp;"', '"&amp;$H206&amp;"', '"&amp;$I206&amp;"');","")</f>
+        <f>IF(ISNUMBER($G206),"insert into M_CD_VAL values ("&amp;$G206&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B206)&amp;"', '"&amp;$H206&amp;"', '"&amp;$I206&amp;"');","")</f>
         <v/>
       </c>
       <c r="K206" s="16" t="str">
@@ -9020,7 +8939,7 @@
       <c r="L206" s="13"/>
       <c r="M206" s="13"/>
       <c r="N206" s="16" t="str">
-        <f>IF(ISNUMBER($K206),"insert into M_CD_GRP values ("&amp;$K206&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G206)&amp;"', '"&amp;$L206&amp;"', '"&amp;$M206&amp;"');","")</f>
+        <f>IF(ISNUMBER($K206),"insert into M_CD_VAL_LANG values ("&amp;$K206&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G206)&amp;"', '"&amp;$L206&amp;"', '"&amp;$M206&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9047,7 +8966,7 @@
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
       <c r="J207" s="16" t="str">
-        <f>IF(ISNUMBER($G207),"insert into M_CD_GRP values ("&amp;$G207&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B207)&amp;"', '"&amp;$H207&amp;"', '"&amp;$I207&amp;"');","")</f>
+        <f>IF(ISNUMBER($G207),"insert into M_CD_VAL values ("&amp;$G207&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B207)&amp;"', '"&amp;$H207&amp;"', '"&amp;$I207&amp;"');","")</f>
         <v/>
       </c>
       <c r="K207" s="16" t="str">
@@ -9057,7 +8976,7 @@
       <c r="L207" s="13"/>
       <c r="M207" s="13"/>
       <c r="N207" s="16" t="str">
-        <f>IF(ISNUMBER($K207),"insert into M_CD_GRP values ("&amp;$K207&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G207)&amp;"', '"&amp;$L207&amp;"', '"&amp;$M207&amp;"');","")</f>
+        <f>IF(ISNUMBER($K207),"insert into M_CD_VAL_LANG values ("&amp;$K207&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G207)&amp;"', '"&amp;$L207&amp;"', '"&amp;$M207&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9084,7 +9003,7 @@
       <c r="H208" s="13"/>
       <c r="I208" s="13"/>
       <c r="J208" s="16" t="str">
-        <f>IF(ISNUMBER($G208),"insert into M_CD_GRP values ("&amp;$G208&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B208)&amp;"', '"&amp;$H208&amp;"', '"&amp;$I208&amp;"');","")</f>
+        <f>IF(ISNUMBER($G208),"insert into M_CD_VAL values ("&amp;$G208&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B208)&amp;"', '"&amp;$H208&amp;"', '"&amp;$I208&amp;"');","")</f>
         <v/>
       </c>
       <c r="K208" s="16" t="str">
@@ -9094,7 +9013,7 @@
       <c r="L208" s="13"/>
       <c r="M208" s="13"/>
       <c r="N208" s="16" t="str">
-        <f>IF(ISNUMBER($K208),"insert into M_CD_GRP values ("&amp;$K208&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G208)&amp;"', '"&amp;$L208&amp;"', '"&amp;$M208&amp;"');","")</f>
+        <f>IF(ISNUMBER($K208),"insert into M_CD_VAL_LANG values ("&amp;$K208&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G208)&amp;"', '"&amp;$L208&amp;"', '"&amp;$M208&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9121,7 +9040,7 @@
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
       <c r="J209" s="16" t="str">
-        <f>IF(ISNUMBER($G209),"insert into M_CD_GRP values ("&amp;$G209&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B209)&amp;"', '"&amp;$H209&amp;"', '"&amp;$I209&amp;"');","")</f>
+        <f>IF(ISNUMBER($G209),"insert into M_CD_VAL values ("&amp;$G209&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B209)&amp;"', '"&amp;$H209&amp;"', '"&amp;$I209&amp;"');","")</f>
         <v/>
       </c>
       <c r="K209" s="16" t="str">
@@ -9131,7 +9050,7 @@
       <c r="L209" s="13"/>
       <c r="M209" s="13"/>
       <c r="N209" s="16" t="str">
-        <f>IF(ISNUMBER($K209),"insert into M_CD_GRP values ("&amp;$K209&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G209)&amp;"', '"&amp;$L209&amp;"', '"&amp;$M209&amp;"');","")</f>
+        <f>IF(ISNUMBER($K209),"insert into M_CD_VAL_LANG values ("&amp;$K209&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G209)&amp;"', '"&amp;$L209&amp;"', '"&amp;$M209&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9158,7 +9077,7 @@
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
       <c r="J210" s="16" t="str">
-        <f>IF(ISNUMBER($G210),"insert into M_CD_GRP values ("&amp;$G210&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B210)&amp;"', '"&amp;$H210&amp;"', '"&amp;$I210&amp;"');","")</f>
+        <f>IF(ISNUMBER($G210),"insert into M_CD_VAL values ("&amp;$G210&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B210)&amp;"', '"&amp;$H210&amp;"', '"&amp;$I210&amp;"');","")</f>
         <v/>
       </c>
       <c r="K210" s="16" t="str">
@@ -9168,7 +9087,7 @@
       <c r="L210" s="13"/>
       <c r="M210" s="13"/>
       <c r="N210" s="16" t="str">
-        <f>IF(ISNUMBER($K210),"insert into M_CD_GRP values ("&amp;$K210&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G210)&amp;"', '"&amp;$L210&amp;"', '"&amp;$M210&amp;"');","")</f>
+        <f>IF(ISNUMBER($K210),"insert into M_CD_VAL_LANG values ("&amp;$K210&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G210)&amp;"', '"&amp;$L210&amp;"', '"&amp;$M210&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9195,7 +9114,7 @@
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
       <c r="J211" s="16" t="str">
-        <f>IF(ISNUMBER($G211),"insert into M_CD_GRP values ("&amp;$G211&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B211)&amp;"', '"&amp;$H211&amp;"', '"&amp;$I211&amp;"');","")</f>
+        <f>IF(ISNUMBER($G211),"insert into M_CD_VAL values ("&amp;$G211&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B211)&amp;"', '"&amp;$H211&amp;"', '"&amp;$I211&amp;"');","")</f>
         <v/>
       </c>
       <c r="K211" s="16" t="str">
@@ -9205,7 +9124,7 @@
       <c r="L211" s="13"/>
       <c r="M211" s="13"/>
       <c r="N211" s="16" t="str">
-        <f>IF(ISNUMBER($K211),"insert into M_CD_GRP values ("&amp;$K211&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G211)&amp;"', '"&amp;$L211&amp;"', '"&amp;$M211&amp;"');","")</f>
+        <f>IF(ISNUMBER($K211),"insert into M_CD_VAL_LANG values ("&amp;$K211&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G211)&amp;"', '"&amp;$L211&amp;"', '"&amp;$M211&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9232,7 +9151,7 @@
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
       <c r="J212" s="16" t="str">
-        <f>IF(ISNUMBER($G212),"insert into M_CD_GRP values ("&amp;$G212&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B212)&amp;"', '"&amp;$H212&amp;"', '"&amp;$I212&amp;"');","")</f>
+        <f>IF(ISNUMBER($G212),"insert into M_CD_VAL values ("&amp;$G212&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B212)&amp;"', '"&amp;$H212&amp;"', '"&amp;$I212&amp;"');","")</f>
         <v/>
       </c>
       <c r="K212" s="16" t="str">
@@ -9242,7 +9161,7 @@
       <c r="L212" s="13"/>
       <c r="M212" s="13"/>
       <c r="N212" s="16" t="str">
-        <f>IF(ISNUMBER($K212),"insert into M_CD_GRP values ("&amp;$K212&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G212)&amp;"', '"&amp;$L212&amp;"', '"&amp;$M212&amp;"');","")</f>
+        <f>IF(ISNUMBER($K212),"insert into M_CD_VAL_LANG values ("&amp;$K212&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G212)&amp;"', '"&amp;$L212&amp;"', '"&amp;$M212&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9269,7 +9188,7 @@
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
       <c r="J213" s="16" t="str">
-        <f>IF(ISNUMBER($G213),"insert into M_CD_GRP values ("&amp;$G213&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B213)&amp;"', '"&amp;$H213&amp;"', '"&amp;$I213&amp;"');","")</f>
+        <f>IF(ISNUMBER($G213),"insert into M_CD_VAL values ("&amp;$G213&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B213)&amp;"', '"&amp;$H213&amp;"', '"&amp;$I213&amp;"');","")</f>
         <v/>
       </c>
       <c r="K213" s="16" t="str">
@@ -9279,7 +9198,7 @@
       <c r="L213" s="13"/>
       <c r="M213" s="13"/>
       <c r="N213" s="16" t="str">
-        <f>IF(ISNUMBER($K213),"insert into M_CD_GRP values ("&amp;$K213&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G213)&amp;"', '"&amp;$L213&amp;"', '"&amp;$M213&amp;"');","")</f>
+        <f>IF(ISNUMBER($K213),"insert into M_CD_VAL_LANG values ("&amp;$K213&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G213)&amp;"', '"&amp;$L213&amp;"', '"&amp;$M213&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9306,7 +9225,7 @@
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
       <c r="J214" s="16" t="str">
-        <f>IF(ISNUMBER($G214),"insert into M_CD_GRP values ("&amp;$G214&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B214)&amp;"', '"&amp;$H214&amp;"', '"&amp;$I214&amp;"');","")</f>
+        <f>IF(ISNUMBER($G214),"insert into M_CD_VAL values ("&amp;$G214&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B214)&amp;"', '"&amp;$H214&amp;"', '"&amp;$I214&amp;"');","")</f>
         <v/>
       </c>
       <c r="K214" s="16" t="str">
@@ -9316,7 +9235,7 @@
       <c r="L214" s="13"/>
       <c r="M214" s="13"/>
       <c r="N214" s="16" t="str">
-        <f>IF(ISNUMBER($K214),"insert into M_CD_GRP values ("&amp;$K214&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G214)&amp;"', '"&amp;$L214&amp;"', '"&amp;$M214&amp;"');","")</f>
+        <f>IF(ISNUMBER($K214),"insert into M_CD_VAL_LANG values ("&amp;$K214&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G214)&amp;"', '"&amp;$L214&amp;"', '"&amp;$M214&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9343,7 +9262,7 @@
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
       <c r="J215" s="16" t="str">
-        <f>IF(ISNUMBER($G215),"insert into M_CD_GRP values ("&amp;$G215&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B215)&amp;"', '"&amp;$H215&amp;"', '"&amp;$I215&amp;"');","")</f>
+        <f>IF(ISNUMBER($G215),"insert into M_CD_VAL values ("&amp;$G215&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B215)&amp;"', '"&amp;$H215&amp;"', '"&amp;$I215&amp;"');","")</f>
         <v/>
       </c>
       <c r="K215" s="16" t="str">
@@ -9353,7 +9272,7 @@
       <c r="L215" s="13"/>
       <c r="M215" s="13"/>
       <c r="N215" s="16" t="str">
-        <f>IF(ISNUMBER($K215),"insert into M_CD_GRP values ("&amp;$K215&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G215)&amp;"', '"&amp;$L215&amp;"', '"&amp;$M215&amp;"');","")</f>
+        <f>IF(ISNUMBER($K215),"insert into M_CD_VAL_LANG values ("&amp;$K215&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G215)&amp;"', '"&amp;$L215&amp;"', '"&amp;$M215&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9380,7 +9299,7 @@
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
       <c r="J216" s="16" t="str">
-        <f>IF(ISNUMBER($G216),"insert into M_CD_GRP values ("&amp;$G216&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B216)&amp;"', '"&amp;$H216&amp;"', '"&amp;$I216&amp;"');","")</f>
+        <f>IF(ISNUMBER($G216),"insert into M_CD_VAL values ("&amp;$G216&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B216)&amp;"', '"&amp;$H216&amp;"', '"&amp;$I216&amp;"');","")</f>
         <v/>
       </c>
       <c r="K216" s="16" t="str">
@@ -9390,7 +9309,7 @@
       <c r="L216" s="13"/>
       <c r="M216" s="13"/>
       <c r="N216" s="16" t="str">
-        <f>IF(ISNUMBER($K216),"insert into M_CD_GRP values ("&amp;$K216&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G216)&amp;"', '"&amp;$L216&amp;"', '"&amp;$M216&amp;"');","")</f>
+        <f>IF(ISNUMBER($K216),"insert into M_CD_VAL_LANG values ("&amp;$K216&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G216)&amp;"', '"&amp;$L216&amp;"', '"&amp;$M216&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9417,7 +9336,7 @@
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
       <c r="J217" s="16" t="str">
-        <f>IF(ISNUMBER($G217),"insert into M_CD_GRP values ("&amp;$G217&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B217)&amp;"', '"&amp;$H217&amp;"', '"&amp;$I217&amp;"');","")</f>
+        <f>IF(ISNUMBER($G217),"insert into M_CD_VAL values ("&amp;$G217&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B217)&amp;"', '"&amp;$H217&amp;"', '"&amp;$I217&amp;"');","")</f>
         <v/>
       </c>
       <c r="K217" s="16" t="str">
@@ -9427,7 +9346,7 @@
       <c r="L217" s="13"/>
       <c r="M217" s="13"/>
       <c r="N217" s="16" t="str">
-        <f>IF(ISNUMBER($K217),"insert into M_CD_GRP values ("&amp;$K217&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G217)&amp;"', '"&amp;$L217&amp;"', '"&amp;$M217&amp;"');","")</f>
+        <f>IF(ISNUMBER($K217),"insert into M_CD_VAL_LANG values ("&amp;$K217&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G217)&amp;"', '"&amp;$L217&amp;"', '"&amp;$M217&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9454,7 +9373,7 @@
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
       <c r="J218" s="16" t="str">
-        <f>IF(ISNUMBER($G218),"insert into M_CD_GRP values ("&amp;$G218&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B218)&amp;"', '"&amp;$H218&amp;"', '"&amp;$I218&amp;"');","")</f>
+        <f>IF(ISNUMBER($G218),"insert into M_CD_VAL values ("&amp;$G218&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B218)&amp;"', '"&amp;$H218&amp;"', '"&amp;$I218&amp;"');","")</f>
         <v/>
       </c>
       <c r="K218" s="16" t="str">
@@ -9464,7 +9383,7 @@
       <c r="L218" s="13"/>
       <c r="M218" s="13"/>
       <c r="N218" s="16" t="str">
-        <f>IF(ISNUMBER($K218),"insert into M_CD_GRP values ("&amp;$K218&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G218)&amp;"', '"&amp;$L218&amp;"', '"&amp;$M218&amp;"');","")</f>
+        <f>IF(ISNUMBER($K218),"insert into M_CD_VAL_LANG values ("&amp;$K218&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G218)&amp;"', '"&amp;$L218&amp;"', '"&amp;$M218&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9491,7 +9410,7 @@
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
       <c r="J219" s="16" t="str">
-        <f>IF(ISNUMBER($G219),"insert into M_CD_GRP values ("&amp;$G219&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B219)&amp;"', '"&amp;$H219&amp;"', '"&amp;$I219&amp;"');","")</f>
+        <f>IF(ISNUMBER($G219),"insert into M_CD_VAL values ("&amp;$G219&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B219)&amp;"', '"&amp;$H219&amp;"', '"&amp;$I219&amp;"');","")</f>
         <v/>
       </c>
       <c r="K219" s="16" t="str">
@@ -9501,7 +9420,7 @@
       <c r="L219" s="13"/>
       <c r="M219" s="13"/>
       <c r="N219" s="16" t="str">
-        <f>IF(ISNUMBER($K219),"insert into M_CD_GRP values ("&amp;$K219&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G219)&amp;"', '"&amp;$L219&amp;"', '"&amp;$M219&amp;"');","")</f>
+        <f>IF(ISNUMBER($K219),"insert into M_CD_VAL_LANG values ("&amp;$K219&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G219)&amp;"', '"&amp;$L219&amp;"', '"&amp;$M219&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9528,7 +9447,7 @@
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
       <c r="J220" s="16" t="str">
-        <f>IF(ISNUMBER($G220),"insert into M_CD_GRP values ("&amp;$G220&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B220)&amp;"', '"&amp;$H220&amp;"', '"&amp;$I220&amp;"');","")</f>
+        <f>IF(ISNUMBER($G220),"insert into M_CD_VAL values ("&amp;$G220&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B220)&amp;"', '"&amp;$H220&amp;"', '"&amp;$I220&amp;"');","")</f>
         <v/>
       </c>
       <c r="K220" s="16" t="str">
@@ -9538,7 +9457,7 @@
       <c r="L220" s="13"/>
       <c r="M220" s="13"/>
       <c r="N220" s="16" t="str">
-        <f>IF(ISNUMBER($K220),"insert into M_CD_GRP values ("&amp;$K220&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G220)&amp;"', '"&amp;$L220&amp;"', '"&amp;$M220&amp;"');","")</f>
+        <f>IF(ISNUMBER($K220),"insert into M_CD_VAL_LANG values ("&amp;$K220&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G220)&amp;"', '"&amp;$L220&amp;"', '"&amp;$M220&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9565,7 +9484,7 @@
       <c r="H221" s="13"/>
       <c r="I221" s="13"/>
       <c r="J221" s="16" t="str">
-        <f>IF(ISNUMBER($G221),"insert into M_CD_GRP values ("&amp;$G221&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B221)&amp;"', '"&amp;$H221&amp;"', '"&amp;$I221&amp;"');","")</f>
+        <f>IF(ISNUMBER($G221),"insert into M_CD_VAL values ("&amp;$G221&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B221)&amp;"', '"&amp;$H221&amp;"', '"&amp;$I221&amp;"');","")</f>
         <v/>
       </c>
       <c r="K221" s="16" t="str">
@@ -9575,7 +9494,7 @@
       <c r="L221" s="13"/>
       <c r="M221" s="13"/>
       <c r="N221" s="16" t="str">
-        <f>IF(ISNUMBER($K221),"insert into M_CD_GRP values ("&amp;$K221&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G221)&amp;"', '"&amp;$L221&amp;"', '"&amp;$M221&amp;"');","")</f>
+        <f>IF(ISNUMBER($K221),"insert into M_CD_VAL_LANG values ("&amp;$K221&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G221)&amp;"', '"&amp;$L221&amp;"', '"&amp;$M221&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9602,7 +9521,7 @@
       <c r="H222" s="13"/>
       <c r="I222" s="13"/>
       <c r="J222" s="16" t="str">
-        <f>IF(ISNUMBER($G222),"insert into M_CD_GRP values ("&amp;$G222&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B222)&amp;"', '"&amp;$H222&amp;"', '"&amp;$I222&amp;"');","")</f>
+        <f>IF(ISNUMBER($G222),"insert into M_CD_VAL values ("&amp;$G222&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B222)&amp;"', '"&amp;$H222&amp;"', '"&amp;$I222&amp;"');","")</f>
         <v/>
       </c>
       <c r="K222" s="16" t="str">
@@ -9612,7 +9531,7 @@
       <c r="L222" s="13"/>
       <c r="M222" s="13"/>
       <c r="N222" s="16" t="str">
-        <f>IF(ISNUMBER($K222),"insert into M_CD_GRP values ("&amp;$K222&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G222)&amp;"', '"&amp;$L222&amp;"', '"&amp;$M222&amp;"');","")</f>
+        <f>IF(ISNUMBER($K222),"insert into M_CD_VAL_LANG values ("&amp;$K222&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G222)&amp;"', '"&amp;$L222&amp;"', '"&amp;$M222&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9639,7 +9558,7 @@
       <c r="H223" s="13"/>
       <c r="I223" s="13"/>
       <c r="J223" s="16" t="str">
-        <f>IF(ISNUMBER($G223),"insert into M_CD_GRP values ("&amp;$G223&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B223)&amp;"', '"&amp;$H223&amp;"', '"&amp;$I223&amp;"');","")</f>
+        <f>IF(ISNUMBER($G223),"insert into M_CD_VAL values ("&amp;$G223&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B223)&amp;"', '"&amp;$H223&amp;"', '"&amp;$I223&amp;"');","")</f>
         <v/>
       </c>
       <c r="K223" s="16" t="str">
@@ -9649,7 +9568,7 @@
       <c r="L223" s="13"/>
       <c r="M223" s="13"/>
       <c r="N223" s="16" t="str">
-        <f>IF(ISNUMBER($K223),"insert into M_CD_GRP values ("&amp;$K223&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G223)&amp;"', '"&amp;$L223&amp;"', '"&amp;$M223&amp;"');","")</f>
+        <f>IF(ISNUMBER($K223),"insert into M_CD_VAL_LANG values ("&amp;$K223&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G223)&amp;"', '"&amp;$L223&amp;"', '"&amp;$M223&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9676,7 +9595,7 @@
       <c r="H224" s="13"/>
       <c r="I224" s="13"/>
       <c r="J224" s="16" t="str">
-        <f>IF(ISNUMBER($G224),"insert into M_CD_GRP values ("&amp;$G224&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B224)&amp;"', '"&amp;$H224&amp;"', '"&amp;$I224&amp;"');","")</f>
+        <f>IF(ISNUMBER($G224),"insert into M_CD_VAL values ("&amp;$G224&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B224)&amp;"', '"&amp;$H224&amp;"', '"&amp;$I224&amp;"');","")</f>
         <v/>
       </c>
       <c r="K224" s="16" t="str">
@@ -9686,7 +9605,7 @@
       <c r="L224" s="13"/>
       <c r="M224" s="13"/>
       <c r="N224" s="16" t="str">
-        <f>IF(ISNUMBER($K224),"insert into M_CD_GRP values ("&amp;$K224&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G224)&amp;"', '"&amp;$L224&amp;"', '"&amp;$M224&amp;"');","")</f>
+        <f>IF(ISNUMBER($K224),"insert into M_CD_VAL_LANG values ("&amp;$K224&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G224)&amp;"', '"&amp;$L224&amp;"', '"&amp;$M224&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9713,7 +9632,7 @@
       <c r="H225" s="13"/>
       <c r="I225" s="13"/>
       <c r="J225" s="16" t="str">
-        <f>IF(ISNUMBER($G225),"insert into M_CD_GRP values ("&amp;$G225&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B225)&amp;"', '"&amp;$H225&amp;"', '"&amp;$I225&amp;"');","")</f>
+        <f>IF(ISNUMBER($G225),"insert into M_CD_VAL values ("&amp;$G225&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B225)&amp;"', '"&amp;$H225&amp;"', '"&amp;$I225&amp;"');","")</f>
         <v/>
       </c>
       <c r="K225" s="16" t="str">
@@ -9723,7 +9642,7 @@
       <c r="L225" s="13"/>
       <c r="M225" s="13"/>
       <c r="N225" s="16" t="str">
-        <f>IF(ISNUMBER($K225),"insert into M_CD_GRP values ("&amp;$K225&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G225)&amp;"', '"&amp;$L225&amp;"', '"&amp;$M225&amp;"');","")</f>
+        <f>IF(ISNUMBER($K225),"insert into M_CD_VAL_LANG values ("&amp;$K225&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G225)&amp;"', '"&amp;$L225&amp;"', '"&amp;$M225&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9750,7 +9669,7 @@
       <c r="H226" s="13"/>
       <c r="I226" s="13"/>
       <c r="J226" s="16" t="str">
-        <f>IF(ISNUMBER($G226),"insert into M_CD_GRP values ("&amp;$G226&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B226)&amp;"', '"&amp;$H226&amp;"', '"&amp;$I226&amp;"');","")</f>
+        <f>IF(ISNUMBER($G226),"insert into M_CD_VAL values ("&amp;$G226&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B226)&amp;"', '"&amp;$H226&amp;"', '"&amp;$I226&amp;"');","")</f>
         <v/>
       </c>
       <c r="K226" s="16" t="str">
@@ -9760,7 +9679,7 @@
       <c r="L226" s="13"/>
       <c r="M226" s="13"/>
       <c r="N226" s="16" t="str">
-        <f>IF(ISNUMBER($K226),"insert into M_CD_GRP values ("&amp;$K226&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G226)&amp;"', '"&amp;$L226&amp;"', '"&amp;$M226&amp;"');","")</f>
+        <f>IF(ISNUMBER($K226),"insert into M_CD_VAL_LANG values ("&amp;$K226&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G226)&amp;"', '"&amp;$L226&amp;"', '"&amp;$M226&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9787,7 +9706,7 @@
       <c r="H227" s="13"/>
       <c r="I227" s="13"/>
       <c r="J227" s="16" t="str">
-        <f>IF(ISNUMBER($G227),"insert into M_CD_GRP values ("&amp;$G227&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B227)&amp;"', '"&amp;$H227&amp;"', '"&amp;$I227&amp;"');","")</f>
+        <f>IF(ISNUMBER($G227),"insert into M_CD_VAL values ("&amp;$G227&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B227)&amp;"', '"&amp;$H227&amp;"', '"&amp;$I227&amp;"');","")</f>
         <v/>
       </c>
       <c r="K227" s="16" t="str">
@@ -9797,7 +9716,7 @@
       <c r="L227" s="13"/>
       <c r="M227" s="13"/>
       <c r="N227" s="16" t="str">
-        <f>IF(ISNUMBER($K227),"insert into M_CD_GRP values ("&amp;$K227&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G227)&amp;"', '"&amp;$L227&amp;"', '"&amp;$M227&amp;"');","")</f>
+        <f>IF(ISNUMBER($K227),"insert into M_CD_VAL_LANG values ("&amp;$K227&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G227)&amp;"', '"&amp;$L227&amp;"', '"&amp;$M227&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9824,7 +9743,7 @@
       <c r="H228" s="13"/>
       <c r="I228" s="13"/>
       <c r="J228" s="16" t="str">
-        <f>IF(ISNUMBER($G228),"insert into M_CD_GRP values ("&amp;$G228&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B228)&amp;"', '"&amp;$H228&amp;"', '"&amp;$I228&amp;"');","")</f>
+        <f>IF(ISNUMBER($G228),"insert into M_CD_VAL values ("&amp;$G228&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B228)&amp;"', '"&amp;$H228&amp;"', '"&amp;$I228&amp;"');","")</f>
         <v/>
       </c>
       <c r="K228" s="16" t="str">
@@ -9834,7 +9753,7 @@
       <c r="L228" s="13"/>
       <c r="M228" s="13"/>
       <c r="N228" s="16" t="str">
-        <f>IF(ISNUMBER($K228),"insert into M_CD_GRP values ("&amp;$K228&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G228)&amp;"', '"&amp;$L228&amp;"', '"&amp;$M228&amp;"');","")</f>
+        <f>IF(ISNUMBER($K228),"insert into M_CD_VAL_LANG values ("&amp;$K228&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G228)&amp;"', '"&amp;$L228&amp;"', '"&amp;$M228&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9861,7 +9780,7 @@
       <c r="H229" s="13"/>
       <c r="I229" s="13"/>
       <c r="J229" s="16" t="str">
-        <f>IF(ISNUMBER($G229),"insert into M_CD_GRP values ("&amp;$G229&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B229)&amp;"', '"&amp;$H229&amp;"', '"&amp;$I229&amp;"');","")</f>
+        <f>IF(ISNUMBER($G229),"insert into M_CD_VAL values ("&amp;$G229&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B229)&amp;"', '"&amp;$H229&amp;"', '"&amp;$I229&amp;"');","")</f>
         <v/>
       </c>
       <c r="K229" s="16" t="str">
@@ -9871,7 +9790,7 @@
       <c r="L229" s="13"/>
       <c r="M229" s="13"/>
       <c r="N229" s="16" t="str">
-        <f>IF(ISNUMBER($K229),"insert into M_CD_GRP values ("&amp;$K229&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G229)&amp;"', '"&amp;$L229&amp;"', '"&amp;$M229&amp;"');","")</f>
+        <f>IF(ISNUMBER($K229),"insert into M_CD_VAL_LANG values ("&amp;$K229&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G229)&amp;"', '"&amp;$L229&amp;"', '"&amp;$M229&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9898,7 +9817,7 @@
       <c r="H230" s="13"/>
       <c r="I230" s="13"/>
       <c r="J230" s="16" t="str">
-        <f>IF(ISNUMBER($G230),"insert into M_CD_GRP values ("&amp;$G230&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B230)&amp;"', '"&amp;$H230&amp;"', '"&amp;$I230&amp;"');","")</f>
+        <f>IF(ISNUMBER($G230),"insert into M_CD_VAL values ("&amp;$G230&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B230)&amp;"', '"&amp;$H230&amp;"', '"&amp;$I230&amp;"');","")</f>
         <v/>
       </c>
       <c r="K230" s="16" t="str">
@@ -9908,7 +9827,7 @@
       <c r="L230" s="13"/>
       <c r="M230" s="13"/>
       <c r="N230" s="16" t="str">
-        <f>IF(ISNUMBER($K230),"insert into M_CD_GRP values ("&amp;$K230&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G230)&amp;"', '"&amp;$L230&amp;"', '"&amp;$M230&amp;"');","")</f>
+        <f>IF(ISNUMBER($K230),"insert into M_CD_VAL_LANG values ("&amp;$K230&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G230)&amp;"', '"&amp;$L230&amp;"', '"&amp;$M230&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9935,7 +9854,7 @@
       <c r="H231" s="13"/>
       <c r="I231" s="13"/>
       <c r="J231" s="16" t="str">
-        <f>IF(ISNUMBER($G231),"insert into M_CD_GRP values ("&amp;$G231&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B231)&amp;"', '"&amp;$H231&amp;"', '"&amp;$I231&amp;"');","")</f>
+        <f>IF(ISNUMBER($G231),"insert into M_CD_VAL values ("&amp;$G231&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B231)&amp;"', '"&amp;$H231&amp;"', '"&amp;$I231&amp;"');","")</f>
         <v/>
       </c>
       <c r="K231" s="16" t="str">
@@ -9945,7 +9864,7 @@
       <c r="L231" s="13"/>
       <c r="M231" s="13"/>
       <c r="N231" s="16" t="str">
-        <f>IF(ISNUMBER($K231),"insert into M_CD_GRP values ("&amp;$K231&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G231)&amp;"', '"&amp;$L231&amp;"', '"&amp;$M231&amp;"');","")</f>
+        <f>IF(ISNUMBER($K231),"insert into M_CD_VAL_LANG values ("&amp;$K231&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G231)&amp;"', '"&amp;$L231&amp;"', '"&amp;$M231&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -9972,7 +9891,7 @@
       <c r="H232" s="13"/>
       <c r="I232" s="13"/>
       <c r="J232" s="16" t="str">
-        <f>IF(ISNUMBER($G232),"insert into M_CD_GRP values ("&amp;$G232&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B232)&amp;"', '"&amp;$H232&amp;"', '"&amp;$I232&amp;"');","")</f>
+        <f>IF(ISNUMBER($G232),"insert into M_CD_VAL values ("&amp;$G232&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B232)&amp;"', '"&amp;$H232&amp;"', '"&amp;$I232&amp;"');","")</f>
         <v/>
       </c>
       <c r="K232" s="16" t="str">
@@ -9982,7 +9901,7 @@
       <c r="L232" s="13"/>
       <c r="M232" s="13"/>
       <c r="N232" s="16" t="str">
-        <f>IF(ISNUMBER($K232),"insert into M_CD_GRP values ("&amp;$K232&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G232)&amp;"', '"&amp;$L232&amp;"', '"&amp;$M232&amp;"');","")</f>
+        <f>IF(ISNUMBER($K232),"insert into M_CD_VAL_LANG values ("&amp;$K232&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G232)&amp;"', '"&amp;$L232&amp;"', '"&amp;$M232&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10009,7 +9928,7 @@
       <c r="H233" s="13"/>
       <c r="I233" s="13"/>
       <c r="J233" s="16" t="str">
-        <f>IF(ISNUMBER($G233),"insert into M_CD_GRP values ("&amp;$G233&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B233)&amp;"', '"&amp;$H233&amp;"', '"&amp;$I233&amp;"');","")</f>
+        <f>IF(ISNUMBER($G233),"insert into M_CD_VAL values ("&amp;$G233&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B233)&amp;"', '"&amp;$H233&amp;"', '"&amp;$I233&amp;"');","")</f>
         <v/>
       </c>
       <c r="K233" s="16" t="str">
@@ -10019,7 +9938,7 @@
       <c r="L233" s="13"/>
       <c r="M233" s="13"/>
       <c r="N233" s="16" t="str">
-        <f>IF(ISNUMBER($K233),"insert into M_CD_GRP values ("&amp;$K233&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G233)&amp;"', '"&amp;$L233&amp;"', '"&amp;$M233&amp;"');","")</f>
+        <f>IF(ISNUMBER($K233),"insert into M_CD_VAL_LANG values ("&amp;$K233&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G233)&amp;"', '"&amp;$L233&amp;"', '"&amp;$M233&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10046,7 +9965,7 @@
       <c r="H234" s="13"/>
       <c r="I234" s="13"/>
       <c r="J234" s="16" t="str">
-        <f>IF(ISNUMBER($G234),"insert into M_CD_GRP values ("&amp;$G234&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B234)&amp;"', '"&amp;$H234&amp;"', '"&amp;$I234&amp;"');","")</f>
+        <f>IF(ISNUMBER($G234),"insert into M_CD_VAL values ("&amp;$G234&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B234)&amp;"', '"&amp;$H234&amp;"', '"&amp;$I234&amp;"');","")</f>
         <v/>
       </c>
       <c r="K234" s="16" t="str">
@@ -10056,7 +9975,7 @@
       <c r="L234" s="13"/>
       <c r="M234" s="13"/>
       <c r="N234" s="16" t="str">
-        <f>IF(ISNUMBER($K234),"insert into M_CD_GRP values ("&amp;$K234&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G234)&amp;"', '"&amp;$L234&amp;"', '"&amp;$M234&amp;"');","")</f>
+        <f>IF(ISNUMBER($K234),"insert into M_CD_VAL_LANG values ("&amp;$K234&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G234)&amp;"', '"&amp;$L234&amp;"', '"&amp;$M234&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10083,7 +10002,7 @@
       <c r="H235" s="13"/>
       <c r="I235" s="13"/>
       <c r="J235" s="16" t="str">
-        <f>IF(ISNUMBER($G235),"insert into M_CD_GRP values ("&amp;$G235&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B235)&amp;"', '"&amp;$H235&amp;"', '"&amp;$I235&amp;"');","")</f>
+        <f>IF(ISNUMBER($G235),"insert into M_CD_VAL values ("&amp;$G235&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B235)&amp;"', '"&amp;$H235&amp;"', '"&amp;$I235&amp;"');","")</f>
         <v/>
       </c>
       <c r="K235" s="16" t="str">
@@ -10093,7 +10012,7 @@
       <c r="L235" s="13"/>
       <c r="M235" s="13"/>
       <c r="N235" s="16" t="str">
-        <f>IF(ISNUMBER($K235),"insert into M_CD_GRP values ("&amp;$K235&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G235)&amp;"', '"&amp;$L235&amp;"', '"&amp;$M235&amp;"');","")</f>
+        <f>IF(ISNUMBER($K235),"insert into M_CD_VAL_LANG values ("&amp;$K235&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G235)&amp;"', '"&amp;$L235&amp;"', '"&amp;$M235&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10120,7 +10039,7 @@
       <c r="H236" s="13"/>
       <c r="I236" s="13"/>
       <c r="J236" s="16" t="str">
-        <f>IF(ISNUMBER($G236),"insert into M_CD_GRP values ("&amp;$G236&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B236)&amp;"', '"&amp;$H236&amp;"', '"&amp;$I236&amp;"');","")</f>
+        <f>IF(ISNUMBER($G236),"insert into M_CD_VAL values ("&amp;$G236&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B236)&amp;"', '"&amp;$H236&amp;"', '"&amp;$I236&amp;"');","")</f>
         <v/>
       </c>
       <c r="K236" s="16" t="str">
@@ -10130,7 +10049,7 @@
       <c r="L236" s="13"/>
       <c r="M236" s="13"/>
       <c r="N236" s="16" t="str">
-        <f>IF(ISNUMBER($K236),"insert into M_CD_GRP values ("&amp;$K236&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G236)&amp;"', '"&amp;$L236&amp;"', '"&amp;$M236&amp;"');","")</f>
+        <f>IF(ISNUMBER($K236),"insert into M_CD_VAL_LANG values ("&amp;$K236&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G236)&amp;"', '"&amp;$L236&amp;"', '"&amp;$M236&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10157,7 +10076,7 @@
       <c r="H237" s="13"/>
       <c r="I237" s="13"/>
       <c r="J237" s="16" t="str">
-        <f>IF(ISNUMBER($G237),"insert into M_CD_GRP values ("&amp;$G237&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B237)&amp;"', '"&amp;$H237&amp;"', '"&amp;$I237&amp;"');","")</f>
+        <f>IF(ISNUMBER($G237),"insert into M_CD_VAL values ("&amp;$G237&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B237)&amp;"', '"&amp;$H237&amp;"', '"&amp;$I237&amp;"');","")</f>
         <v/>
       </c>
       <c r="K237" s="16" t="str">
@@ -10167,7 +10086,7 @@
       <c r="L237" s="13"/>
       <c r="M237" s="13"/>
       <c r="N237" s="16" t="str">
-        <f>IF(ISNUMBER($K237),"insert into M_CD_GRP values ("&amp;$K237&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G237)&amp;"', '"&amp;$L237&amp;"', '"&amp;$M237&amp;"');","")</f>
+        <f>IF(ISNUMBER($K237),"insert into M_CD_VAL_LANG values ("&amp;$K237&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G237)&amp;"', '"&amp;$L237&amp;"', '"&amp;$M237&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10194,7 +10113,7 @@
       <c r="H238" s="13"/>
       <c r="I238" s="13"/>
       <c r="J238" s="16" t="str">
-        <f>IF(ISNUMBER($G238),"insert into M_CD_GRP values ("&amp;$G238&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B238)&amp;"', '"&amp;$H238&amp;"', '"&amp;$I238&amp;"');","")</f>
+        <f>IF(ISNUMBER($G238),"insert into M_CD_VAL values ("&amp;$G238&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B238)&amp;"', '"&amp;$H238&amp;"', '"&amp;$I238&amp;"');","")</f>
         <v/>
       </c>
       <c r="K238" s="16" t="str">
@@ -10204,7 +10123,7 @@
       <c r="L238" s="13"/>
       <c r="M238" s="13"/>
       <c r="N238" s="16" t="str">
-        <f>IF(ISNUMBER($K238),"insert into M_CD_GRP values ("&amp;$K238&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G238)&amp;"', '"&amp;$L238&amp;"', '"&amp;$M238&amp;"');","")</f>
+        <f>IF(ISNUMBER($K238),"insert into M_CD_VAL_LANG values ("&amp;$K238&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G238)&amp;"', '"&amp;$L238&amp;"', '"&amp;$M238&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10231,7 +10150,7 @@
       <c r="H239" s="13"/>
       <c r="I239" s="13"/>
       <c r="J239" s="16" t="str">
-        <f>IF(ISNUMBER($G239),"insert into M_CD_GRP values ("&amp;$G239&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B239)&amp;"', '"&amp;$H239&amp;"', '"&amp;$I239&amp;"');","")</f>
+        <f>IF(ISNUMBER($G239),"insert into M_CD_VAL values ("&amp;$G239&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B239)&amp;"', '"&amp;$H239&amp;"', '"&amp;$I239&amp;"');","")</f>
         <v/>
       </c>
       <c r="K239" s="16" t="str">
@@ -10241,7 +10160,7 @@
       <c r="L239" s="13"/>
       <c r="M239" s="13"/>
       <c r="N239" s="16" t="str">
-        <f>IF(ISNUMBER($K239),"insert into M_CD_GRP values ("&amp;$K239&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G239)&amp;"', '"&amp;$L239&amp;"', '"&amp;$M239&amp;"');","")</f>
+        <f>IF(ISNUMBER($K239),"insert into M_CD_VAL_LANG values ("&amp;$K239&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G239)&amp;"', '"&amp;$L239&amp;"', '"&amp;$M239&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10268,7 +10187,7 @@
       <c r="H240" s="13"/>
       <c r="I240" s="13"/>
       <c r="J240" s="16" t="str">
-        <f>IF(ISNUMBER($G240),"insert into M_CD_GRP values ("&amp;$G240&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B240)&amp;"', '"&amp;$H240&amp;"', '"&amp;$I240&amp;"');","")</f>
+        <f>IF(ISNUMBER($G240),"insert into M_CD_VAL values ("&amp;$G240&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B240)&amp;"', '"&amp;$H240&amp;"', '"&amp;$I240&amp;"');","")</f>
         <v/>
       </c>
       <c r="K240" s="16" t="str">
@@ -10278,7 +10197,7 @@
       <c r="L240" s="13"/>
       <c r="M240" s="13"/>
       <c r="N240" s="16" t="str">
-        <f>IF(ISNUMBER($K240),"insert into M_CD_GRP values ("&amp;$K240&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G240)&amp;"', '"&amp;$L240&amp;"', '"&amp;$M240&amp;"');","")</f>
+        <f>IF(ISNUMBER($K240),"insert into M_CD_VAL_LANG values ("&amp;$K240&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G240)&amp;"', '"&amp;$L240&amp;"', '"&amp;$M240&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10305,7 +10224,7 @@
       <c r="H241" s="13"/>
       <c r="I241" s="13"/>
       <c r="J241" s="16" t="str">
-        <f>IF(ISNUMBER($G241),"insert into M_CD_GRP values ("&amp;$G241&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B241)&amp;"', '"&amp;$H241&amp;"', '"&amp;$I241&amp;"');","")</f>
+        <f>IF(ISNUMBER($G241),"insert into M_CD_VAL values ("&amp;$G241&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B241)&amp;"', '"&amp;$H241&amp;"', '"&amp;$I241&amp;"');","")</f>
         <v/>
       </c>
       <c r="K241" s="16" t="str">
@@ -10315,7 +10234,7 @@
       <c r="L241" s="13"/>
       <c r="M241" s="13"/>
       <c r="N241" s="16" t="str">
-        <f>IF(ISNUMBER($K241),"insert into M_CD_GRP values ("&amp;$K241&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G241)&amp;"', '"&amp;$L241&amp;"', '"&amp;$M241&amp;"');","")</f>
+        <f>IF(ISNUMBER($K241),"insert into M_CD_VAL_LANG values ("&amp;$K241&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G241)&amp;"', '"&amp;$L241&amp;"', '"&amp;$M241&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10342,7 +10261,7 @@
       <c r="H242" s="13"/>
       <c r="I242" s="13"/>
       <c r="J242" s="16" t="str">
-        <f>IF(ISNUMBER($G242),"insert into M_CD_GRP values ("&amp;$G242&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B242)&amp;"', '"&amp;$H242&amp;"', '"&amp;$I242&amp;"');","")</f>
+        <f>IF(ISNUMBER($G242),"insert into M_CD_VAL values ("&amp;$G242&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B242)&amp;"', '"&amp;$H242&amp;"', '"&amp;$I242&amp;"');","")</f>
         <v/>
       </c>
       <c r="K242" s="16" t="str">
@@ -10352,7 +10271,7 @@
       <c r="L242" s="13"/>
       <c r="M242" s="13"/>
       <c r="N242" s="16" t="str">
-        <f>IF(ISNUMBER($K242),"insert into M_CD_GRP values ("&amp;$K242&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G242)&amp;"', '"&amp;$L242&amp;"', '"&amp;$M242&amp;"');","")</f>
+        <f>IF(ISNUMBER($K242),"insert into M_CD_VAL_LANG values ("&amp;$K242&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G242)&amp;"', '"&amp;$L242&amp;"', '"&amp;$M242&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10379,7 +10298,7 @@
       <c r="H243" s="13"/>
       <c r="I243" s="13"/>
       <c r="J243" s="16" t="str">
-        <f>IF(ISNUMBER($G243),"insert into M_CD_GRP values ("&amp;$G243&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B243)&amp;"', '"&amp;$H243&amp;"', '"&amp;$I243&amp;"');","")</f>
+        <f>IF(ISNUMBER($G243),"insert into M_CD_VAL values ("&amp;$G243&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B243)&amp;"', '"&amp;$H243&amp;"', '"&amp;$I243&amp;"');","")</f>
         <v/>
       </c>
       <c r="K243" s="16" t="str">
@@ -10389,7 +10308,7 @@
       <c r="L243" s="13"/>
       <c r="M243" s="13"/>
       <c r="N243" s="16" t="str">
-        <f>IF(ISNUMBER($K243),"insert into M_CD_GRP values ("&amp;$K243&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G243)&amp;"', '"&amp;$L243&amp;"', '"&amp;$M243&amp;"');","")</f>
+        <f>IF(ISNUMBER($K243),"insert into M_CD_VAL_LANG values ("&amp;$K243&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G243)&amp;"', '"&amp;$L243&amp;"', '"&amp;$M243&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10416,7 +10335,7 @@
       <c r="H244" s="13"/>
       <c r="I244" s="13"/>
       <c r="J244" s="16" t="str">
-        <f>IF(ISNUMBER($G244),"insert into M_CD_GRP values ("&amp;$G244&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B244)&amp;"', '"&amp;$H244&amp;"', '"&amp;$I244&amp;"');","")</f>
+        <f>IF(ISNUMBER($G244),"insert into M_CD_VAL values ("&amp;$G244&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B244)&amp;"', '"&amp;$H244&amp;"', '"&amp;$I244&amp;"');","")</f>
         <v/>
       </c>
       <c r="K244" s="16" t="str">
@@ -10426,7 +10345,7 @@
       <c r="L244" s="13"/>
       <c r="M244" s="13"/>
       <c r="N244" s="16" t="str">
-        <f>IF(ISNUMBER($K244),"insert into M_CD_GRP values ("&amp;$K244&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G244)&amp;"', '"&amp;$L244&amp;"', '"&amp;$M244&amp;"');","")</f>
+        <f>IF(ISNUMBER($K244),"insert into M_CD_VAL_LANG values ("&amp;$K244&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G244)&amp;"', '"&amp;$L244&amp;"', '"&amp;$M244&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10453,7 +10372,7 @@
       <c r="H245" s="13"/>
       <c r="I245" s="13"/>
       <c r="J245" s="16" t="str">
-        <f>IF(ISNUMBER($G245),"insert into M_CD_GRP values ("&amp;$G245&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B245)&amp;"', '"&amp;$H245&amp;"', '"&amp;$I245&amp;"');","")</f>
+        <f>IF(ISNUMBER($G245),"insert into M_CD_VAL values ("&amp;$G245&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B245)&amp;"', '"&amp;$H245&amp;"', '"&amp;$I245&amp;"');","")</f>
         <v/>
       </c>
       <c r="K245" s="16" t="str">
@@ -10463,7 +10382,7 @@
       <c r="L245" s="13"/>
       <c r="M245" s="13"/>
       <c r="N245" s="16" t="str">
-        <f>IF(ISNUMBER($K245),"insert into M_CD_GRP values ("&amp;$K245&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G245)&amp;"', '"&amp;$L245&amp;"', '"&amp;$M245&amp;"');","")</f>
+        <f>IF(ISNUMBER($K245),"insert into M_CD_VAL_LANG values ("&amp;$K245&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G245)&amp;"', '"&amp;$L245&amp;"', '"&amp;$M245&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10490,7 +10409,7 @@
       <c r="H246" s="13"/>
       <c r="I246" s="13"/>
       <c r="J246" s="16" t="str">
-        <f>IF(ISNUMBER($G246),"insert into M_CD_GRP values ("&amp;$G246&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B246)&amp;"', '"&amp;$H246&amp;"', '"&amp;$I246&amp;"');","")</f>
+        <f>IF(ISNUMBER($G246),"insert into M_CD_VAL values ("&amp;$G246&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B246)&amp;"', '"&amp;$H246&amp;"', '"&amp;$I246&amp;"');","")</f>
         <v/>
       </c>
       <c r="K246" s="16" t="str">
@@ -10500,7 +10419,7 @@
       <c r="L246" s="13"/>
       <c r="M246" s="13"/>
       <c r="N246" s="16" t="str">
-        <f>IF(ISNUMBER($K246),"insert into M_CD_GRP values ("&amp;$K246&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G246)&amp;"', '"&amp;$L246&amp;"', '"&amp;$M246&amp;"');","")</f>
+        <f>IF(ISNUMBER($K246),"insert into M_CD_VAL_LANG values ("&amp;$K246&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G246)&amp;"', '"&amp;$L246&amp;"', '"&amp;$M246&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10527,7 +10446,7 @@
       <c r="H247" s="13"/>
       <c r="I247" s="13"/>
       <c r="J247" s="16" t="str">
-        <f>IF(ISNUMBER($G247),"insert into M_CD_GRP values ("&amp;$G247&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B247)&amp;"', '"&amp;$H247&amp;"', '"&amp;$I247&amp;"');","")</f>
+        <f>IF(ISNUMBER($G247),"insert into M_CD_VAL values ("&amp;$G247&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B247)&amp;"', '"&amp;$H247&amp;"', '"&amp;$I247&amp;"');","")</f>
         <v/>
       </c>
       <c r="K247" s="16" t="str">
@@ -10537,7 +10456,7 @@
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
       <c r="N247" s="16" t="str">
-        <f>IF(ISNUMBER($K247),"insert into M_CD_GRP values ("&amp;$K247&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G247)&amp;"', '"&amp;$L247&amp;"', '"&amp;$M247&amp;"');","")</f>
+        <f>IF(ISNUMBER($K247),"insert into M_CD_VAL_LANG values ("&amp;$K247&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G247)&amp;"', '"&amp;$L247&amp;"', '"&amp;$M247&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10564,7 +10483,7 @@
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
       <c r="J248" s="16" t="str">
-        <f>IF(ISNUMBER($G248),"insert into M_CD_GRP values ("&amp;$G248&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B248)&amp;"', '"&amp;$H248&amp;"', '"&amp;$I248&amp;"');","")</f>
+        <f>IF(ISNUMBER($G248),"insert into M_CD_VAL values ("&amp;$G248&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B248)&amp;"', '"&amp;$H248&amp;"', '"&amp;$I248&amp;"');","")</f>
         <v/>
       </c>
       <c r="K248" s="16" t="str">
@@ -10574,7 +10493,7 @@
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
       <c r="N248" s="16" t="str">
-        <f>IF(ISNUMBER($K248),"insert into M_CD_GRP values ("&amp;$K248&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G248)&amp;"', '"&amp;$L248&amp;"', '"&amp;$M248&amp;"');","")</f>
+        <f>IF(ISNUMBER($K248),"insert into M_CD_VAL_LANG values ("&amp;$K248&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G248)&amp;"', '"&amp;$L248&amp;"', '"&amp;$M248&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10601,7 +10520,7 @@
       <c r="H249" s="13"/>
       <c r="I249" s="13"/>
       <c r="J249" s="16" t="str">
-        <f>IF(ISNUMBER($G249),"insert into M_CD_GRP values ("&amp;$G249&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B249)&amp;"', '"&amp;$H249&amp;"', '"&amp;$I249&amp;"');","")</f>
+        <f>IF(ISNUMBER($G249),"insert into M_CD_VAL values ("&amp;$G249&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B249)&amp;"', '"&amp;$H249&amp;"', '"&amp;$I249&amp;"');","")</f>
         <v/>
       </c>
       <c r="K249" s="16" t="str">
@@ -10611,7 +10530,7 @@
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
       <c r="N249" s="16" t="str">
-        <f>IF(ISNUMBER($K249),"insert into M_CD_GRP values ("&amp;$K249&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G249)&amp;"', '"&amp;$L249&amp;"', '"&amp;$M249&amp;"');","")</f>
+        <f>IF(ISNUMBER($K249),"insert into M_CD_VAL_LANG values ("&amp;$K249&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G249)&amp;"', '"&amp;$L249&amp;"', '"&amp;$M249&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10638,7 +10557,7 @@
       <c r="H250" s="13"/>
       <c r="I250" s="13"/>
       <c r="J250" s="16" t="str">
-        <f>IF(ISNUMBER($G250),"insert into M_CD_GRP values ("&amp;$G250&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B250)&amp;"', '"&amp;$H250&amp;"', '"&amp;$I250&amp;"');","")</f>
+        <f>IF(ISNUMBER($G250),"insert into M_CD_VAL values ("&amp;$G250&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B250)&amp;"', '"&amp;$H250&amp;"', '"&amp;$I250&amp;"');","")</f>
         <v/>
       </c>
       <c r="K250" s="16" t="str">
@@ -10648,7 +10567,7 @@
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
       <c r="N250" s="16" t="str">
-        <f>IF(ISNUMBER($K250),"insert into M_CD_GRP values ("&amp;$K250&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G250)&amp;"', '"&amp;$L250&amp;"', '"&amp;$M250&amp;"');","")</f>
+        <f>IF(ISNUMBER($K250),"insert into M_CD_VAL_LANG values ("&amp;$K250&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G250)&amp;"', '"&amp;$L250&amp;"', '"&amp;$M250&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10675,7 +10594,7 @@
       <c r="H251" s="13"/>
       <c r="I251" s="13"/>
       <c r="J251" s="16" t="str">
-        <f>IF(ISNUMBER($G251),"insert into M_CD_GRP values ("&amp;$G251&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B251)&amp;"', '"&amp;$H251&amp;"', '"&amp;$I251&amp;"');","")</f>
+        <f>IF(ISNUMBER($G251),"insert into M_CD_VAL values ("&amp;$G251&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B251)&amp;"', '"&amp;$H251&amp;"', '"&amp;$I251&amp;"');","")</f>
         <v/>
       </c>
       <c r="K251" s="16" t="str">
@@ -10685,7 +10604,7 @@
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
       <c r="N251" s="16" t="str">
-        <f>IF(ISNUMBER($K251),"insert into M_CD_GRP values ("&amp;$K251&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G251)&amp;"', '"&amp;$L251&amp;"', '"&amp;$M251&amp;"');","")</f>
+        <f>IF(ISNUMBER($K251),"insert into M_CD_VAL_LANG values ("&amp;$K251&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G251)&amp;"', '"&amp;$L251&amp;"', '"&amp;$M251&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10712,7 +10631,7 @@
       <c r="H252" s="13"/>
       <c r="I252" s="13"/>
       <c r="J252" s="16" t="str">
-        <f>IF(ISNUMBER($G252),"insert into M_CD_GRP values ("&amp;$G252&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B252)&amp;"', '"&amp;$H252&amp;"', '"&amp;$I252&amp;"');","")</f>
+        <f>IF(ISNUMBER($G252),"insert into M_CD_VAL values ("&amp;$G252&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B252)&amp;"', '"&amp;$H252&amp;"', '"&amp;$I252&amp;"');","")</f>
         <v/>
       </c>
       <c r="K252" s="16" t="str">
@@ -10722,7 +10641,7 @@
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
       <c r="N252" s="16" t="str">
-        <f>IF(ISNUMBER($K252),"insert into M_CD_GRP values ("&amp;$K252&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G252)&amp;"', '"&amp;$L252&amp;"', '"&amp;$M252&amp;"');","")</f>
+        <f>IF(ISNUMBER($K252),"insert into M_CD_VAL_LANG values ("&amp;$K252&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G252)&amp;"', '"&amp;$L252&amp;"', '"&amp;$M252&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10749,7 +10668,7 @@
       <c r="H253" s="13"/>
       <c r="I253" s="13"/>
       <c r="J253" s="16" t="str">
-        <f>IF(ISNUMBER($G253),"insert into M_CD_GRP values ("&amp;$G253&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B253)&amp;"', '"&amp;$H253&amp;"', '"&amp;$I253&amp;"');","")</f>
+        <f>IF(ISNUMBER($G253),"insert into M_CD_VAL values ("&amp;$G253&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B253)&amp;"', '"&amp;$H253&amp;"', '"&amp;$I253&amp;"');","")</f>
         <v/>
       </c>
       <c r="K253" s="16" t="str">
@@ -10759,7 +10678,7 @@
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
       <c r="N253" s="16" t="str">
-        <f>IF(ISNUMBER($K253),"insert into M_CD_GRP values ("&amp;$K253&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G253)&amp;"', '"&amp;$L253&amp;"', '"&amp;$M253&amp;"');","")</f>
+        <f>IF(ISNUMBER($K253),"insert into M_CD_VAL_LANG values ("&amp;$K253&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G253)&amp;"', '"&amp;$L253&amp;"', '"&amp;$M253&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10786,7 +10705,7 @@
       <c r="H254" s="13"/>
       <c r="I254" s="13"/>
       <c r="J254" s="16" t="str">
-        <f>IF(ISNUMBER($G254),"insert into M_CD_GRP values ("&amp;$G254&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B254)&amp;"', '"&amp;$H254&amp;"', '"&amp;$I254&amp;"');","")</f>
+        <f>IF(ISNUMBER($G254),"insert into M_CD_VAL values ("&amp;$G254&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B254)&amp;"', '"&amp;$H254&amp;"', '"&amp;$I254&amp;"');","")</f>
         <v/>
       </c>
       <c r="K254" s="16" t="str">
@@ -10796,7 +10715,7 @@
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
       <c r="N254" s="16" t="str">
-        <f>IF(ISNUMBER($K254),"insert into M_CD_GRP values ("&amp;$K254&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G254)&amp;"', '"&amp;$L254&amp;"', '"&amp;$M254&amp;"');","")</f>
+        <f>IF(ISNUMBER($K254),"insert into M_CD_VAL_LANG values ("&amp;$K254&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G254)&amp;"', '"&amp;$L254&amp;"', '"&amp;$M254&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10823,7 +10742,7 @@
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
       <c r="J255" s="16" t="str">
-        <f>IF(ISNUMBER($G255),"insert into M_CD_GRP values ("&amp;$G255&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B255)&amp;"', '"&amp;$H255&amp;"', '"&amp;$I255&amp;"');","")</f>
+        <f>IF(ISNUMBER($G255),"insert into M_CD_VAL values ("&amp;$G255&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B255)&amp;"', '"&amp;$H255&amp;"', '"&amp;$I255&amp;"');","")</f>
         <v/>
       </c>
       <c r="K255" s="16" t="str">
@@ -10833,7 +10752,7 @@
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
       <c r="N255" s="16" t="str">
-        <f>IF(ISNUMBER($K255),"insert into M_CD_GRP values ("&amp;$K255&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G255)&amp;"', '"&amp;$L255&amp;"', '"&amp;$M255&amp;"');","")</f>
+        <f>IF(ISNUMBER($K255),"insert into M_CD_VAL_LANG values ("&amp;$K255&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G255)&amp;"', '"&amp;$L255&amp;"', '"&amp;$M255&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10860,7 +10779,7 @@
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
       <c r="J256" s="16" t="str">
-        <f>IF(ISNUMBER($G256),"insert into M_CD_GRP values ("&amp;$G256&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B256)&amp;"', '"&amp;$H256&amp;"', '"&amp;$I256&amp;"');","")</f>
+        <f>IF(ISNUMBER($G256),"insert into M_CD_VAL values ("&amp;$G256&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B256)&amp;"', '"&amp;$H256&amp;"', '"&amp;$I256&amp;"');","")</f>
         <v/>
       </c>
       <c r="K256" s="16" t="str">
@@ -10870,7 +10789,7 @@
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
       <c r="N256" s="16" t="str">
-        <f>IF(ISNUMBER($K256),"insert into M_CD_GRP values ("&amp;$K256&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G256)&amp;"', '"&amp;$L256&amp;"', '"&amp;$M256&amp;"');","")</f>
+        <f>IF(ISNUMBER($K256),"insert into M_CD_VAL_LANG values ("&amp;$K256&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G256)&amp;"', '"&amp;$L256&amp;"', '"&amp;$M256&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10897,7 +10816,7 @@
       <c r="H257" s="13"/>
       <c r="I257" s="13"/>
       <c r="J257" s="16" t="str">
-        <f>IF(ISNUMBER($G257),"insert into M_CD_GRP values ("&amp;$G257&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B257)&amp;"', '"&amp;$H257&amp;"', '"&amp;$I257&amp;"');","")</f>
+        <f>IF(ISNUMBER($G257),"insert into M_CD_VAL values ("&amp;$G257&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B257)&amp;"', '"&amp;$H257&amp;"', '"&amp;$I257&amp;"');","")</f>
         <v/>
       </c>
       <c r="K257" s="16" t="str">
@@ -10907,7 +10826,7 @@
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
       <c r="N257" s="16" t="str">
-        <f>IF(ISNUMBER($K257),"insert into M_CD_GRP values ("&amp;$K257&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G257)&amp;"', '"&amp;$L257&amp;"', '"&amp;$M257&amp;"');","")</f>
+        <f>IF(ISNUMBER($K257),"insert into M_CD_VAL_LANG values ("&amp;$K257&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G257)&amp;"', '"&amp;$L257&amp;"', '"&amp;$M257&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10934,7 +10853,7 @@
       <c r="H258" s="13"/>
       <c r="I258" s="13"/>
       <c r="J258" s="16" t="str">
-        <f>IF(ISNUMBER($G258),"insert into M_CD_GRP values ("&amp;$G258&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B258)&amp;"', '"&amp;$H258&amp;"', '"&amp;$I258&amp;"');","")</f>
+        <f>IF(ISNUMBER($G258),"insert into M_CD_VAL values ("&amp;$G258&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B258)&amp;"', '"&amp;$H258&amp;"', '"&amp;$I258&amp;"');","")</f>
         <v/>
       </c>
       <c r="K258" s="16" t="str">
@@ -10944,7 +10863,7 @@
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
       <c r="N258" s="16" t="str">
-        <f>IF(ISNUMBER($K258),"insert into M_CD_GRP values ("&amp;$K258&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G258)&amp;"', '"&amp;$L258&amp;"', '"&amp;$M258&amp;"');","")</f>
+        <f>IF(ISNUMBER($K258),"insert into M_CD_VAL_LANG values ("&amp;$K258&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G258)&amp;"', '"&amp;$L258&amp;"', '"&amp;$M258&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -10971,7 +10890,7 @@
       <c r="H259" s="13"/>
       <c r="I259" s="13"/>
       <c r="J259" s="16" t="str">
-        <f>IF(ISNUMBER($G259),"insert into M_CD_GRP values ("&amp;$G259&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B259)&amp;"', '"&amp;$H259&amp;"', '"&amp;$I259&amp;"');","")</f>
+        <f>IF(ISNUMBER($G259),"insert into M_CD_VAL values ("&amp;$G259&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B259)&amp;"', '"&amp;$H259&amp;"', '"&amp;$I259&amp;"');","")</f>
         <v/>
       </c>
       <c r="K259" s="16" t="str">
@@ -10981,7 +10900,7 @@
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
       <c r="N259" s="16" t="str">
-        <f>IF(ISNUMBER($K259),"insert into M_CD_GRP values ("&amp;$K259&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G259)&amp;"', '"&amp;$L259&amp;"', '"&amp;$M259&amp;"');","")</f>
+        <f>IF(ISNUMBER($K259),"insert into M_CD_VAL_LANG values ("&amp;$K259&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G259)&amp;"', '"&amp;$L259&amp;"', '"&amp;$M259&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11008,7 +10927,7 @@
       <c r="H260" s="13"/>
       <c r="I260" s="13"/>
       <c r="J260" s="16" t="str">
-        <f>IF(ISNUMBER($G260),"insert into M_CD_GRP values ("&amp;$G260&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B260)&amp;"', '"&amp;$H260&amp;"', '"&amp;$I260&amp;"');","")</f>
+        <f>IF(ISNUMBER($G260),"insert into M_CD_VAL values ("&amp;$G260&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B260)&amp;"', '"&amp;$H260&amp;"', '"&amp;$I260&amp;"');","")</f>
         <v/>
       </c>
       <c r="K260" s="16" t="str">
@@ -11018,7 +10937,7 @@
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
       <c r="N260" s="16" t="str">
-        <f>IF(ISNUMBER($K260),"insert into M_CD_GRP values ("&amp;$K260&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G260)&amp;"', '"&amp;$L260&amp;"', '"&amp;$M260&amp;"');","")</f>
+        <f>IF(ISNUMBER($K260),"insert into M_CD_VAL_LANG values ("&amp;$K260&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G260)&amp;"', '"&amp;$L260&amp;"', '"&amp;$M260&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11045,7 +10964,7 @@
       <c r="H261" s="13"/>
       <c r="I261" s="13"/>
       <c r="J261" s="16" t="str">
-        <f>IF(ISNUMBER($G261),"insert into M_CD_GRP values ("&amp;$G261&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B261)&amp;"', '"&amp;$H261&amp;"', '"&amp;$I261&amp;"');","")</f>
+        <f>IF(ISNUMBER($G261),"insert into M_CD_VAL values ("&amp;$G261&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B261)&amp;"', '"&amp;$H261&amp;"', '"&amp;$I261&amp;"');","")</f>
         <v/>
       </c>
       <c r="K261" s="16" t="str">
@@ -11055,7 +10974,7 @@
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
       <c r="N261" s="16" t="str">
-        <f>IF(ISNUMBER($K261),"insert into M_CD_GRP values ("&amp;$K261&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G261)&amp;"', '"&amp;$L261&amp;"', '"&amp;$M261&amp;"');","")</f>
+        <f>IF(ISNUMBER($K261),"insert into M_CD_VAL_LANG values ("&amp;$K261&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G261)&amp;"', '"&amp;$L261&amp;"', '"&amp;$M261&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11082,7 +11001,7 @@
       <c r="H262" s="13"/>
       <c r="I262" s="13"/>
       <c r="J262" s="16" t="str">
-        <f>IF(ISNUMBER($G262),"insert into M_CD_GRP values ("&amp;$G262&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B262)&amp;"', '"&amp;$H262&amp;"', '"&amp;$I262&amp;"');","")</f>
+        <f>IF(ISNUMBER($G262),"insert into M_CD_VAL values ("&amp;$G262&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B262)&amp;"', '"&amp;$H262&amp;"', '"&amp;$I262&amp;"');","")</f>
         <v/>
       </c>
       <c r="K262" s="16" t="str">
@@ -11092,7 +11011,7 @@
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
       <c r="N262" s="16" t="str">
-        <f>IF(ISNUMBER($K262),"insert into M_CD_GRP values ("&amp;$K262&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G262)&amp;"', '"&amp;$L262&amp;"', '"&amp;$M262&amp;"');","")</f>
+        <f>IF(ISNUMBER($K262),"insert into M_CD_VAL_LANG values ("&amp;$K262&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G262)&amp;"', '"&amp;$L262&amp;"', '"&amp;$M262&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11119,7 +11038,7 @@
       <c r="H263" s="13"/>
       <c r="I263" s="13"/>
       <c r="J263" s="16" t="str">
-        <f>IF(ISNUMBER($G263),"insert into M_CD_GRP values ("&amp;$G263&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B263)&amp;"', '"&amp;$H263&amp;"', '"&amp;$I263&amp;"');","")</f>
+        <f>IF(ISNUMBER($G263),"insert into M_CD_VAL values ("&amp;$G263&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B263)&amp;"', '"&amp;$H263&amp;"', '"&amp;$I263&amp;"');","")</f>
         <v/>
       </c>
       <c r="K263" s="16" t="str">
@@ -11129,7 +11048,7 @@
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
       <c r="N263" s="16" t="str">
-        <f>IF(ISNUMBER($K263),"insert into M_CD_GRP values ("&amp;$K263&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G263)&amp;"', '"&amp;$L263&amp;"', '"&amp;$M263&amp;"');","")</f>
+        <f>IF(ISNUMBER($K263),"insert into M_CD_VAL_LANG values ("&amp;$K263&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G263)&amp;"', '"&amp;$L263&amp;"', '"&amp;$M263&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11156,7 +11075,7 @@
       <c r="H264" s="13"/>
       <c r="I264" s="13"/>
       <c r="J264" s="16" t="str">
-        <f>IF(ISNUMBER($G264),"insert into M_CD_GRP values ("&amp;$G264&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B264)&amp;"', '"&amp;$H264&amp;"', '"&amp;$I264&amp;"');","")</f>
+        <f>IF(ISNUMBER($G264),"insert into M_CD_VAL values ("&amp;$G264&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B264)&amp;"', '"&amp;$H264&amp;"', '"&amp;$I264&amp;"');","")</f>
         <v/>
       </c>
       <c r="K264" s="16" t="str">
@@ -11166,7 +11085,7 @@
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
       <c r="N264" s="16" t="str">
-        <f>IF(ISNUMBER($K264),"insert into M_CD_GRP values ("&amp;$K264&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G264)&amp;"', '"&amp;$L264&amp;"', '"&amp;$M264&amp;"');","")</f>
+        <f>IF(ISNUMBER($K264),"insert into M_CD_VAL_LANG values ("&amp;$K264&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G264)&amp;"', '"&amp;$L264&amp;"', '"&amp;$M264&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11193,7 +11112,7 @@
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
       <c r="J265" s="16" t="str">
-        <f>IF(ISNUMBER($G265),"insert into M_CD_GRP values ("&amp;$G265&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B265)&amp;"', '"&amp;$H265&amp;"', '"&amp;$I265&amp;"');","")</f>
+        <f>IF(ISNUMBER($G265),"insert into M_CD_VAL values ("&amp;$G265&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B265)&amp;"', '"&amp;$H265&amp;"', '"&amp;$I265&amp;"');","")</f>
         <v/>
       </c>
       <c r="K265" s="16" t="str">
@@ -11203,7 +11122,7 @@
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
       <c r="N265" s="16" t="str">
-        <f>IF(ISNUMBER($K265),"insert into M_CD_GRP values ("&amp;$K265&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G265)&amp;"', '"&amp;$L265&amp;"', '"&amp;$M265&amp;"');","")</f>
+        <f>IF(ISNUMBER($K265),"insert into M_CD_VAL_LANG values ("&amp;$K265&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G265)&amp;"', '"&amp;$L265&amp;"', '"&amp;$M265&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11230,7 +11149,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
       <c r="J266" s="16" t="str">
-        <f>IF(ISNUMBER($G266),"insert into M_CD_GRP values ("&amp;$G266&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B266)&amp;"', '"&amp;$H266&amp;"', '"&amp;$I266&amp;"');","")</f>
+        <f>IF(ISNUMBER($G266),"insert into M_CD_VAL values ("&amp;$G266&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B266)&amp;"', '"&amp;$H266&amp;"', '"&amp;$I266&amp;"');","")</f>
         <v/>
       </c>
       <c r="K266" s="16" t="str">
@@ -11240,7 +11159,7 @@
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
       <c r="N266" s="16" t="str">
-        <f>IF(ISNUMBER($K266),"insert into M_CD_GRP values ("&amp;$K266&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G266)&amp;"', '"&amp;$L266&amp;"', '"&amp;$M266&amp;"');","")</f>
+        <f>IF(ISNUMBER($K266),"insert into M_CD_VAL_LANG values ("&amp;$K266&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G266)&amp;"', '"&amp;$L266&amp;"', '"&amp;$M266&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11267,7 +11186,7 @@
       <c r="H267" s="13"/>
       <c r="I267" s="13"/>
       <c r="J267" s="16" t="str">
-        <f>IF(ISNUMBER($G267),"insert into M_CD_GRP values ("&amp;$G267&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B267)&amp;"', '"&amp;$H267&amp;"', '"&amp;$I267&amp;"');","")</f>
+        <f>IF(ISNUMBER($G267),"insert into M_CD_VAL values ("&amp;$G267&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B267)&amp;"', '"&amp;$H267&amp;"', '"&amp;$I267&amp;"');","")</f>
         <v/>
       </c>
       <c r="K267" s="16" t="str">
@@ -11277,7 +11196,7 @@
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
       <c r="N267" s="16" t="str">
-        <f>IF(ISNUMBER($K267),"insert into M_CD_GRP values ("&amp;$K267&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G267)&amp;"', '"&amp;$L267&amp;"', '"&amp;$M267&amp;"');","")</f>
+        <f>IF(ISNUMBER($K267),"insert into M_CD_VAL_LANG values ("&amp;$K267&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G267)&amp;"', '"&amp;$L267&amp;"', '"&amp;$M267&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11304,7 +11223,7 @@
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
       <c r="J268" s="16" t="str">
-        <f>IF(ISNUMBER($G268),"insert into M_CD_GRP values ("&amp;$G268&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B268)&amp;"', '"&amp;$H268&amp;"', '"&amp;$I268&amp;"');","")</f>
+        <f>IF(ISNUMBER($G268),"insert into M_CD_VAL values ("&amp;$G268&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B268)&amp;"', '"&amp;$H268&amp;"', '"&amp;$I268&amp;"');","")</f>
         <v/>
       </c>
       <c r="K268" s="16" t="str">
@@ -11314,7 +11233,7 @@
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
       <c r="N268" s="16" t="str">
-        <f>IF(ISNUMBER($K268),"insert into M_CD_GRP values ("&amp;$K268&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G268)&amp;"', '"&amp;$L268&amp;"', '"&amp;$M268&amp;"');","")</f>
+        <f>IF(ISNUMBER($K268),"insert into M_CD_VAL_LANG values ("&amp;$K268&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G268)&amp;"', '"&amp;$L268&amp;"', '"&amp;$M268&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11341,7 +11260,7 @@
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
       <c r="J269" s="16" t="str">
-        <f>IF(ISNUMBER($G269),"insert into M_CD_GRP values ("&amp;$G269&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B269)&amp;"', '"&amp;$H269&amp;"', '"&amp;$I269&amp;"');","")</f>
+        <f>IF(ISNUMBER($G269),"insert into M_CD_VAL values ("&amp;$G269&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B269)&amp;"', '"&amp;$H269&amp;"', '"&amp;$I269&amp;"');","")</f>
         <v/>
       </c>
       <c r="K269" s="16" t="str">
@@ -11351,7 +11270,7 @@
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
       <c r="N269" s="16" t="str">
-        <f>IF(ISNUMBER($K269),"insert into M_CD_GRP values ("&amp;$K269&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G269)&amp;"', '"&amp;$L269&amp;"', '"&amp;$M269&amp;"');","")</f>
+        <f>IF(ISNUMBER($K269),"insert into M_CD_VAL_LANG values ("&amp;$K269&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G269)&amp;"', '"&amp;$L269&amp;"', '"&amp;$M269&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11378,7 +11297,7 @@
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
       <c r="J270" s="16" t="str">
-        <f>IF(ISNUMBER($G270),"insert into M_CD_GRP values ("&amp;$G270&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B270)&amp;"', '"&amp;$H270&amp;"', '"&amp;$I270&amp;"');","")</f>
+        <f>IF(ISNUMBER($G270),"insert into M_CD_VAL values ("&amp;$G270&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B270)&amp;"', '"&amp;$H270&amp;"', '"&amp;$I270&amp;"');","")</f>
         <v/>
       </c>
       <c r="K270" s="16" t="str">
@@ -11388,7 +11307,7 @@
       <c r="L270" s="13"/>
       <c r="M270" s="13"/>
       <c r="N270" s="16" t="str">
-        <f>IF(ISNUMBER($K270),"insert into M_CD_GRP values ("&amp;$K270&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G270)&amp;"', '"&amp;$L270&amp;"', '"&amp;$M270&amp;"');","")</f>
+        <f>IF(ISNUMBER($K270),"insert into M_CD_VAL_LANG values ("&amp;$K270&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G270)&amp;"', '"&amp;$L270&amp;"', '"&amp;$M270&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11415,7 +11334,7 @@
       <c r="H271" s="13"/>
       <c r="I271" s="13"/>
       <c r="J271" s="16" t="str">
-        <f>IF(ISNUMBER($G271),"insert into M_CD_GRP values ("&amp;$G271&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B271)&amp;"', '"&amp;$H271&amp;"', '"&amp;$I271&amp;"');","")</f>
+        <f>IF(ISNUMBER($G271),"insert into M_CD_VAL values ("&amp;$G271&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B271)&amp;"', '"&amp;$H271&amp;"', '"&amp;$I271&amp;"');","")</f>
         <v/>
       </c>
       <c r="K271" s="16" t="str">
@@ -11425,7 +11344,7 @@
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
       <c r="N271" s="16" t="str">
-        <f>IF(ISNUMBER($K271),"insert into M_CD_GRP values ("&amp;$K271&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G271)&amp;"', '"&amp;$L271&amp;"', '"&amp;$M271&amp;"');","")</f>
+        <f>IF(ISNUMBER($K271),"insert into M_CD_VAL_LANG values ("&amp;$K271&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G271)&amp;"', '"&amp;$L271&amp;"', '"&amp;$M271&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11452,7 +11371,7 @@
       <c r="H272" s="13"/>
       <c r="I272" s="13"/>
       <c r="J272" s="16" t="str">
-        <f>IF(ISNUMBER($G272),"insert into M_CD_GRP values ("&amp;$G272&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B272)&amp;"', '"&amp;$H272&amp;"', '"&amp;$I272&amp;"');","")</f>
+        <f>IF(ISNUMBER($G272),"insert into M_CD_VAL values ("&amp;$G272&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B272)&amp;"', '"&amp;$H272&amp;"', '"&amp;$I272&amp;"');","")</f>
         <v/>
       </c>
       <c r="K272" s="16" t="str">
@@ -11462,7 +11381,7 @@
       <c r="L272" s="13"/>
       <c r="M272" s="13"/>
       <c r="N272" s="16" t="str">
-        <f>IF(ISNUMBER($K272),"insert into M_CD_GRP values ("&amp;$K272&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G272)&amp;"', '"&amp;$L272&amp;"', '"&amp;$M272&amp;"');","")</f>
+        <f>IF(ISNUMBER($K272),"insert into M_CD_VAL_LANG values ("&amp;$K272&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G272)&amp;"', '"&amp;$L272&amp;"', '"&amp;$M272&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11489,7 +11408,7 @@
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
       <c r="J273" s="16" t="str">
-        <f>IF(ISNUMBER($G273),"insert into M_CD_GRP values ("&amp;$G273&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B273)&amp;"', '"&amp;$H273&amp;"', '"&amp;$I273&amp;"');","")</f>
+        <f>IF(ISNUMBER($G273),"insert into M_CD_VAL values ("&amp;$G273&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B273)&amp;"', '"&amp;$H273&amp;"', '"&amp;$I273&amp;"');","")</f>
         <v/>
       </c>
       <c r="K273" s="16" t="str">
@@ -11499,7 +11418,7 @@
       <c r="L273" s="13"/>
       <c r="M273" s="13"/>
       <c r="N273" s="16" t="str">
-        <f>IF(ISNUMBER($K273),"insert into M_CD_GRP values ("&amp;$K273&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G273)&amp;"', '"&amp;$L273&amp;"', '"&amp;$M273&amp;"');","")</f>
+        <f>IF(ISNUMBER($K273),"insert into M_CD_VAL_LANG values ("&amp;$K273&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G273)&amp;"', '"&amp;$L273&amp;"', '"&amp;$M273&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11526,7 +11445,7 @@
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
       <c r="J274" s="16" t="str">
-        <f>IF(ISNUMBER($G274),"insert into M_CD_GRP values ("&amp;$G274&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B274)&amp;"', '"&amp;$H274&amp;"', '"&amp;$I274&amp;"');","")</f>
+        <f>IF(ISNUMBER($G274),"insert into M_CD_VAL values ("&amp;$G274&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B274)&amp;"', '"&amp;$H274&amp;"', '"&amp;$I274&amp;"');","")</f>
         <v/>
       </c>
       <c r="K274" s="16" t="str">
@@ -11536,7 +11455,7 @@
       <c r="L274" s="13"/>
       <c r="M274" s="13"/>
       <c r="N274" s="16" t="str">
-        <f>IF(ISNUMBER($K274),"insert into M_CD_GRP values ("&amp;$K274&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G274)&amp;"', '"&amp;$L274&amp;"', '"&amp;$M274&amp;"');","")</f>
+        <f>IF(ISNUMBER($K274),"insert into M_CD_VAL_LANG values ("&amp;$K274&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G274)&amp;"', '"&amp;$L274&amp;"', '"&amp;$M274&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11563,7 +11482,7 @@
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
       <c r="J275" s="16" t="str">
-        <f>IF(ISNUMBER($G275),"insert into M_CD_GRP values ("&amp;$G275&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B275)&amp;"', '"&amp;$H275&amp;"', '"&amp;$I275&amp;"');","")</f>
+        <f>IF(ISNUMBER($G275),"insert into M_CD_VAL values ("&amp;$G275&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B275)&amp;"', '"&amp;$H275&amp;"', '"&amp;$I275&amp;"');","")</f>
         <v/>
       </c>
       <c r="K275" s="16" t="str">
@@ -11573,7 +11492,7 @@
       <c r="L275" s="13"/>
       <c r="M275" s="13"/>
       <c r="N275" s="16" t="str">
-        <f>IF(ISNUMBER($K275),"insert into M_CD_GRP values ("&amp;$K275&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G275)&amp;"', '"&amp;$L275&amp;"', '"&amp;$M275&amp;"');","")</f>
+        <f>IF(ISNUMBER($K275),"insert into M_CD_VAL_LANG values ("&amp;$K275&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G275)&amp;"', '"&amp;$L275&amp;"', '"&amp;$M275&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11600,7 +11519,7 @@
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
       <c r="J276" s="16" t="str">
-        <f>IF(ISNUMBER($G276),"insert into M_CD_GRP values ("&amp;$G276&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B276)&amp;"', '"&amp;$H276&amp;"', '"&amp;$I276&amp;"');","")</f>
+        <f>IF(ISNUMBER($G276),"insert into M_CD_VAL values ("&amp;$G276&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B276)&amp;"', '"&amp;$H276&amp;"', '"&amp;$I276&amp;"');","")</f>
         <v/>
       </c>
       <c r="K276" s="16" t="str">
@@ -11610,7 +11529,7 @@
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
       <c r="N276" s="16" t="str">
-        <f>IF(ISNUMBER($K276),"insert into M_CD_GRP values ("&amp;$K276&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G276)&amp;"', '"&amp;$L276&amp;"', '"&amp;$M276&amp;"');","")</f>
+        <f>IF(ISNUMBER($K276),"insert into M_CD_VAL_LANG values ("&amp;$K276&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G276)&amp;"', '"&amp;$L276&amp;"', '"&amp;$M276&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11637,7 +11556,7 @@
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
       <c r="J277" s="16" t="str">
-        <f>IF(ISNUMBER($G277),"insert into M_CD_GRP values ("&amp;$G277&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B277)&amp;"', '"&amp;$H277&amp;"', '"&amp;$I277&amp;"');","")</f>
+        <f>IF(ISNUMBER($G277),"insert into M_CD_VAL values ("&amp;$G277&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B277)&amp;"', '"&amp;$H277&amp;"', '"&amp;$I277&amp;"');","")</f>
         <v/>
       </c>
       <c r="K277" s="16" t="str">
@@ -11647,7 +11566,7 @@
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
       <c r="N277" s="16" t="str">
-        <f>IF(ISNUMBER($K277),"insert into M_CD_GRP values ("&amp;$K277&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G277)&amp;"', '"&amp;$L277&amp;"', '"&amp;$M277&amp;"');","")</f>
+        <f>IF(ISNUMBER($K277),"insert into M_CD_VAL_LANG values ("&amp;$K277&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G277)&amp;"', '"&amp;$L277&amp;"', '"&amp;$M277&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11674,7 +11593,7 @@
       <c r="H278" s="13"/>
       <c r="I278" s="13"/>
       <c r="J278" s="16" t="str">
-        <f>IF(ISNUMBER($G278),"insert into M_CD_GRP values ("&amp;$G278&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B278)&amp;"', '"&amp;$H278&amp;"', '"&amp;$I278&amp;"');","")</f>
+        <f>IF(ISNUMBER($G278),"insert into M_CD_VAL values ("&amp;$G278&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B278)&amp;"', '"&amp;$H278&amp;"', '"&amp;$I278&amp;"');","")</f>
         <v/>
       </c>
       <c r="K278" s="16" t="str">
@@ -11684,7 +11603,7 @@
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
       <c r="N278" s="16" t="str">
-        <f>IF(ISNUMBER($K278),"insert into M_CD_GRP values ("&amp;$K278&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G278)&amp;"', '"&amp;$L278&amp;"', '"&amp;$M278&amp;"');","")</f>
+        <f>IF(ISNUMBER($K278),"insert into M_CD_VAL_LANG values ("&amp;$K278&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G278)&amp;"', '"&amp;$L278&amp;"', '"&amp;$M278&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11711,7 +11630,7 @@
       <c r="H279" s="13"/>
       <c r="I279" s="13"/>
       <c r="J279" s="16" t="str">
-        <f>IF(ISNUMBER($G279),"insert into M_CD_GRP values ("&amp;$G279&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B279)&amp;"', '"&amp;$H279&amp;"', '"&amp;$I279&amp;"');","")</f>
+        <f>IF(ISNUMBER($G279),"insert into M_CD_VAL values ("&amp;$G279&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B279)&amp;"', '"&amp;$H279&amp;"', '"&amp;$I279&amp;"');","")</f>
         <v/>
       </c>
       <c r="K279" s="16" t="str">
@@ -11721,7 +11640,7 @@
       <c r="L279" s="13"/>
       <c r="M279" s="13"/>
       <c r="N279" s="16" t="str">
-        <f>IF(ISNUMBER($K279),"insert into M_CD_GRP values ("&amp;$K279&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G279)&amp;"', '"&amp;$L279&amp;"', '"&amp;$M279&amp;"');","")</f>
+        <f>IF(ISNUMBER($K279),"insert into M_CD_VAL_LANG values ("&amp;$K279&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G279)&amp;"', '"&amp;$L279&amp;"', '"&amp;$M279&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11748,7 +11667,7 @@
       <c r="H280" s="13"/>
       <c r="I280" s="13"/>
       <c r="J280" s="16" t="str">
-        <f>IF(ISNUMBER($G280),"insert into M_CD_GRP values ("&amp;$G280&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B280)&amp;"', '"&amp;$H280&amp;"', '"&amp;$I280&amp;"');","")</f>
+        <f>IF(ISNUMBER($G280),"insert into M_CD_VAL values ("&amp;$G280&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B280)&amp;"', '"&amp;$H280&amp;"', '"&amp;$I280&amp;"');","")</f>
         <v/>
       </c>
       <c r="K280" s="16" t="str">
@@ -11758,7 +11677,7 @@
       <c r="L280" s="13"/>
       <c r="M280" s="13"/>
       <c r="N280" s="16" t="str">
-        <f>IF(ISNUMBER($K280),"insert into M_CD_GRP values ("&amp;$K280&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G280)&amp;"', '"&amp;$L280&amp;"', '"&amp;$M280&amp;"');","")</f>
+        <f>IF(ISNUMBER($K280),"insert into M_CD_VAL_LANG values ("&amp;$K280&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G280)&amp;"', '"&amp;$L280&amp;"', '"&amp;$M280&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11785,7 +11704,7 @@
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
       <c r="J281" s="16" t="str">
-        <f>IF(ISNUMBER($G281),"insert into M_CD_GRP values ("&amp;$G281&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B281)&amp;"', '"&amp;$H281&amp;"', '"&amp;$I281&amp;"');","")</f>
+        <f>IF(ISNUMBER($G281),"insert into M_CD_VAL values ("&amp;$G281&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B281)&amp;"', '"&amp;$H281&amp;"', '"&amp;$I281&amp;"');","")</f>
         <v/>
       </c>
       <c r="K281" s="16" t="str">
@@ -11795,7 +11714,7 @@
       <c r="L281" s="13"/>
       <c r="M281" s="13"/>
       <c r="N281" s="16" t="str">
-        <f>IF(ISNUMBER($K281),"insert into M_CD_GRP values ("&amp;$K281&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G281)&amp;"', '"&amp;$L281&amp;"', '"&amp;$M281&amp;"');","")</f>
+        <f>IF(ISNUMBER($K281),"insert into M_CD_VAL_LANG values ("&amp;$K281&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G281)&amp;"', '"&amp;$L281&amp;"', '"&amp;$M281&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11822,7 +11741,7 @@
       <c r="H282" s="13"/>
       <c r="I282" s="13"/>
       <c r="J282" s="16" t="str">
-        <f>IF(ISNUMBER($G282),"insert into M_CD_GRP values ("&amp;$G282&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B282)&amp;"', '"&amp;$H282&amp;"', '"&amp;$I282&amp;"');","")</f>
+        <f>IF(ISNUMBER($G282),"insert into M_CD_VAL values ("&amp;$G282&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B282)&amp;"', '"&amp;$H282&amp;"', '"&amp;$I282&amp;"');","")</f>
         <v/>
       </c>
       <c r="K282" s="16" t="str">
@@ -11832,7 +11751,7 @@
       <c r="L282" s="13"/>
       <c r="M282" s="13"/>
       <c r="N282" s="16" t="str">
-        <f>IF(ISNUMBER($K282),"insert into M_CD_GRP values ("&amp;$K282&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G282)&amp;"', '"&amp;$L282&amp;"', '"&amp;$M282&amp;"');","")</f>
+        <f>IF(ISNUMBER($K282),"insert into M_CD_VAL_LANG values ("&amp;$K282&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G282)&amp;"', '"&amp;$L282&amp;"', '"&amp;$M282&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11859,7 +11778,7 @@
       <c r="H283" s="13"/>
       <c r="I283" s="13"/>
       <c r="J283" s="16" t="str">
-        <f>IF(ISNUMBER($G283),"insert into M_CD_GRP values ("&amp;$G283&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B283)&amp;"', '"&amp;$H283&amp;"', '"&amp;$I283&amp;"');","")</f>
+        <f>IF(ISNUMBER($G283),"insert into M_CD_VAL values ("&amp;$G283&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B283)&amp;"', '"&amp;$H283&amp;"', '"&amp;$I283&amp;"');","")</f>
         <v/>
       </c>
       <c r="K283" s="16" t="str">
@@ -11869,7 +11788,7 @@
       <c r="L283" s="13"/>
       <c r="M283" s="13"/>
       <c r="N283" s="16" t="str">
-        <f>IF(ISNUMBER($K283),"insert into M_CD_GRP values ("&amp;$K283&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G283)&amp;"', '"&amp;$L283&amp;"', '"&amp;$M283&amp;"');","")</f>
+        <f>IF(ISNUMBER($K283),"insert into M_CD_VAL_LANG values ("&amp;$K283&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G283)&amp;"', '"&amp;$L283&amp;"', '"&amp;$M283&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11896,7 +11815,7 @@
       <c r="H284" s="13"/>
       <c r="I284" s="13"/>
       <c r="J284" s="16" t="str">
-        <f>IF(ISNUMBER($G284),"insert into M_CD_GRP values ("&amp;$G284&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B284)&amp;"', '"&amp;$H284&amp;"', '"&amp;$I284&amp;"');","")</f>
+        <f>IF(ISNUMBER($G284),"insert into M_CD_VAL values ("&amp;$G284&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B284)&amp;"', '"&amp;$H284&amp;"', '"&amp;$I284&amp;"');","")</f>
         <v/>
       </c>
       <c r="K284" s="16" t="str">
@@ -11906,7 +11825,7 @@
       <c r="L284" s="13"/>
       <c r="M284" s="13"/>
       <c r="N284" s="16" t="str">
-        <f>IF(ISNUMBER($K284),"insert into M_CD_GRP values ("&amp;$K284&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G284)&amp;"', '"&amp;$L284&amp;"', '"&amp;$M284&amp;"');","")</f>
+        <f>IF(ISNUMBER($K284),"insert into M_CD_VAL_LANG values ("&amp;$K284&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G284)&amp;"', '"&amp;$L284&amp;"', '"&amp;$M284&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11933,7 +11852,7 @@
       <c r="H285" s="13"/>
       <c r="I285" s="13"/>
       <c r="J285" s="16" t="str">
-        <f>IF(ISNUMBER($G285),"insert into M_CD_GRP values ("&amp;$G285&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B285)&amp;"', '"&amp;$H285&amp;"', '"&amp;$I285&amp;"');","")</f>
+        <f>IF(ISNUMBER($G285),"insert into M_CD_VAL values ("&amp;$G285&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B285)&amp;"', '"&amp;$H285&amp;"', '"&amp;$I285&amp;"');","")</f>
         <v/>
       </c>
       <c r="K285" s="16" t="str">
@@ -11943,7 +11862,7 @@
       <c r="L285" s="13"/>
       <c r="M285" s="13"/>
       <c r="N285" s="16" t="str">
-        <f>IF(ISNUMBER($K285),"insert into M_CD_GRP values ("&amp;$K285&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G285)&amp;"', '"&amp;$L285&amp;"', '"&amp;$M285&amp;"');","")</f>
+        <f>IF(ISNUMBER($K285),"insert into M_CD_VAL_LANG values ("&amp;$K285&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G285)&amp;"', '"&amp;$L285&amp;"', '"&amp;$M285&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -11970,7 +11889,7 @@
       <c r="H286" s="13"/>
       <c r="I286" s="13"/>
       <c r="J286" s="16" t="str">
-        <f>IF(ISNUMBER($G286),"insert into M_CD_GRP values ("&amp;$G286&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B286)&amp;"', '"&amp;$H286&amp;"', '"&amp;$I286&amp;"');","")</f>
+        <f>IF(ISNUMBER($G286),"insert into M_CD_VAL values ("&amp;$G286&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B286)&amp;"', '"&amp;$H286&amp;"', '"&amp;$I286&amp;"');","")</f>
         <v/>
       </c>
       <c r="K286" s="16" t="str">
@@ -11980,7 +11899,7 @@
       <c r="L286" s="13"/>
       <c r="M286" s="13"/>
       <c r="N286" s="16" t="str">
-        <f>IF(ISNUMBER($K286),"insert into M_CD_GRP values ("&amp;$K286&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G286)&amp;"', '"&amp;$L286&amp;"', '"&amp;$M286&amp;"');","")</f>
+        <f>IF(ISNUMBER($K286),"insert into M_CD_VAL_LANG values ("&amp;$K286&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G286)&amp;"', '"&amp;$L286&amp;"', '"&amp;$M286&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12007,7 +11926,7 @@
       <c r="H287" s="13"/>
       <c r="I287" s="13"/>
       <c r="J287" s="16" t="str">
-        <f>IF(ISNUMBER($G287),"insert into M_CD_GRP values ("&amp;$G287&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B287)&amp;"', '"&amp;$H287&amp;"', '"&amp;$I287&amp;"');","")</f>
+        <f>IF(ISNUMBER($G287),"insert into M_CD_VAL values ("&amp;$G287&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B287)&amp;"', '"&amp;$H287&amp;"', '"&amp;$I287&amp;"');","")</f>
         <v/>
       </c>
       <c r="K287" s="16" t="str">
@@ -12017,7 +11936,7 @@
       <c r="L287" s="13"/>
       <c r="M287" s="13"/>
       <c r="N287" s="16" t="str">
-        <f>IF(ISNUMBER($K287),"insert into M_CD_GRP values ("&amp;$K287&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G287)&amp;"', '"&amp;$L287&amp;"', '"&amp;$M287&amp;"');","")</f>
+        <f>IF(ISNUMBER($K287),"insert into M_CD_VAL_LANG values ("&amp;$K287&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G287)&amp;"', '"&amp;$L287&amp;"', '"&amp;$M287&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12044,7 +11963,7 @@
       <c r="H288" s="13"/>
       <c r="I288" s="13"/>
       <c r="J288" s="16" t="str">
-        <f>IF(ISNUMBER($G288),"insert into M_CD_GRP values ("&amp;$G288&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B288)&amp;"', '"&amp;$H288&amp;"', '"&amp;$I288&amp;"');","")</f>
+        <f>IF(ISNUMBER($G288),"insert into M_CD_VAL values ("&amp;$G288&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B288)&amp;"', '"&amp;$H288&amp;"', '"&amp;$I288&amp;"');","")</f>
         <v/>
       </c>
       <c r="K288" s="16" t="str">
@@ -12054,7 +11973,7 @@
       <c r="L288" s="13"/>
       <c r="M288" s="13"/>
       <c r="N288" s="16" t="str">
-        <f>IF(ISNUMBER($K288),"insert into M_CD_GRP values ("&amp;$K288&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G288)&amp;"', '"&amp;$L288&amp;"', '"&amp;$M288&amp;"');","")</f>
+        <f>IF(ISNUMBER($K288),"insert into M_CD_VAL_LANG values ("&amp;$K288&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G288)&amp;"', '"&amp;$L288&amp;"', '"&amp;$M288&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12081,7 +12000,7 @@
       <c r="H289" s="13"/>
       <c r="I289" s="13"/>
       <c r="J289" s="16" t="str">
-        <f>IF(ISNUMBER($G289),"insert into M_CD_GRP values ("&amp;$G289&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B289)&amp;"', '"&amp;$H289&amp;"', '"&amp;$I289&amp;"');","")</f>
+        <f>IF(ISNUMBER($G289),"insert into M_CD_VAL values ("&amp;$G289&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B289)&amp;"', '"&amp;$H289&amp;"', '"&amp;$I289&amp;"');","")</f>
         <v/>
       </c>
       <c r="K289" s="16" t="str">
@@ -12091,7 +12010,7 @@
       <c r="L289" s="13"/>
       <c r="M289" s="13"/>
       <c r="N289" s="16" t="str">
-        <f>IF(ISNUMBER($K289),"insert into M_CD_GRP values ("&amp;$K289&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G289)&amp;"', '"&amp;$L289&amp;"', '"&amp;$M289&amp;"');","")</f>
+        <f>IF(ISNUMBER($K289),"insert into M_CD_VAL_LANG values ("&amp;$K289&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G289)&amp;"', '"&amp;$L289&amp;"', '"&amp;$M289&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12118,7 +12037,7 @@
       <c r="H290" s="13"/>
       <c r="I290" s="13"/>
       <c r="J290" s="16" t="str">
-        <f>IF(ISNUMBER($G290),"insert into M_CD_GRP values ("&amp;$G290&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B290)&amp;"', '"&amp;$H290&amp;"', '"&amp;$I290&amp;"');","")</f>
+        <f>IF(ISNUMBER($G290),"insert into M_CD_VAL values ("&amp;$G290&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B290)&amp;"', '"&amp;$H290&amp;"', '"&amp;$I290&amp;"');","")</f>
         <v/>
       </c>
       <c r="K290" s="16" t="str">
@@ -12128,7 +12047,7 @@
       <c r="L290" s="13"/>
       <c r="M290" s="13"/>
       <c r="N290" s="16" t="str">
-        <f>IF(ISNUMBER($K290),"insert into M_CD_GRP values ("&amp;$K290&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G290)&amp;"', '"&amp;$L290&amp;"', '"&amp;$M290&amp;"');","")</f>
+        <f>IF(ISNUMBER($K290),"insert into M_CD_VAL_LANG values ("&amp;$K290&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G290)&amp;"', '"&amp;$L290&amp;"', '"&amp;$M290&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12155,7 +12074,7 @@
       <c r="H291" s="13"/>
       <c r="I291" s="13"/>
       <c r="J291" s="16" t="str">
-        <f>IF(ISNUMBER($G291),"insert into M_CD_GRP values ("&amp;$G291&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B291)&amp;"', '"&amp;$H291&amp;"', '"&amp;$I291&amp;"');","")</f>
+        <f>IF(ISNUMBER($G291),"insert into M_CD_VAL values ("&amp;$G291&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B291)&amp;"', '"&amp;$H291&amp;"', '"&amp;$I291&amp;"');","")</f>
         <v/>
       </c>
       <c r="K291" s="16" t="str">
@@ -12165,7 +12084,7 @@
       <c r="L291" s="13"/>
       <c r="M291" s="13"/>
       <c r="N291" s="16" t="str">
-        <f>IF(ISNUMBER($K291),"insert into M_CD_GRP values ("&amp;$K291&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G291)&amp;"', '"&amp;$L291&amp;"', '"&amp;$M291&amp;"');","")</f>
+        <f>IF(ISNUMBER($K291),"insert into M_CD_VAL_LANG values ("&amp;$K291&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G291)&amp;"', '"&amp;$L291&amp;"', '"&amp;$M291&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12192,7 +12111,7 @@
       <c r="H292" s="13"/>
       <c r="I292" s="13"/>
       <c r="J292" s="16" t="str">
-        <f>IF(ISNUMBER($G292),"insert into M_CD_GRP values ("&amp;$G292&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B292)&amp;"', '"&amp;$H292&amp;"', '"&amp;$I292&amp;"');","")</f>
+        <f>IF(ISNUMBER($G292),"insert into M_CD_VAL values ("&amp;$G292&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B292)&amp;"', '"&amp;$H292&amp;"', '"&amp;$I292&amp;"');","")</f>
         <v/>
       </c>
       <c r="K292" s="16" t="str">
@@ -12202,7 +12121,7 @@
       <c r="L292" s="13"/>
       <c r="M292" s="13"/>
       <c r="N292" s="16" t="str">
-        <f>IF(ISNUMBER($K292),"insert into M_CD_GRP values ("&amp;$K292&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G292)&amp;"', '"&amp;$L292&amp;"', '"&amp;$M292&amp;"');","")</f>
+        <f>IF(ISNUMBER($K292),"insert into M_CD_VAL_LANG values ("&amp;$K292&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G292)&amp;"', '"&amp;$L292&amp;"', '"&amp;$M292&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12229,7 +12148,7 @@
       <c r="H293" s="13"/>
       <c r="I293" s="13"/>
       <c r="J293" s="16" t="str">
-        <f>IF(ISNUMBER($G293),"insert into M_CD_GRP values ("&amp;$G293&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B293)&amp;"', '"&amp;$H293&amp;"', '"&amp;$I293&amp;"');","")</f>
+        <f>IF(ISNUMBER($G293),"insert into M_CD_VAL values ("&amp;$G293&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B293)&amp;"', '"&amp;$H293&amp;"', '"&amp;$I293&amp;"');","")</f>
         <v/>
       </c>
       <c r="K293" s="16" t="str">
@@ -12239,7 +12158,7 @@
       <c r="L293" s="13"/>
       <c r="M293" s="13"/>
       <c r="N293" s="16" t="str">
-        <f>IF(ISNUMBER($K293),"insert into M_CD_GRP values ("&amp;$K293&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G293)&amp;"', '"&amp;$L293&amp;"', '"&amp;$M293&amp;"');","")</f>
+        <f>IF(ISNUMBER($K293),"insert into M_CD_VAL_LANG values ("&amp;$K293&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G293)&amp;"', '"&amp;$L293&amp;"', '"&amp;$M293&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12266,7 +12185,7 @@
       <c r="H294" s="13"/>
       <c r="I294" s="13"/>
       <c r="J294" s="16" t="str">
-        <f>IF(ISNUMBER($G294),"insert into M_CD_GRP values ("&amp;$G294&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B294)&amp;"', '"&amp;$H294&amp;"', '"&amp;$I294&amp;"');","")</f>
+        <f>IF(ISNUMBER($G294),"insert into M_CD_VAL values ("&amp;$G294&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B294)&amp;"', '"&amp;$H294&amp;"', '"&amp;$I294&amp;"');","")</f>
         <v/>
       </c>
       <c r="K294" s="16" t="str">
@@ -12276,7 +12195,7 @@
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
       <c r="N294" s="16" t="str">
-        <f>IF(ISNUMBER($K294),"insert into M_CD_GRP values ("&amp;$K294&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G294)&amp;"', '"&amp;$L294&amp;"', '"&amp;$M294&amp;"');","")</f>
+        <f>IF(ISNUMBER($K294),"insert into M_CD_VAL_LANG values ("&amp;$K294&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G294)&amp;"', '"&amp;$L294&amp;"', '"&amp;$M294&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12303,7 +12222,7 @@
       <c r="H295" s="13"/>
       <c r="I295" s="13"/>
       <c r="J295" s="16" t="str">
-        <f>IF(ISNUMBER($G295),"insert into M_CD_GRP values ("&amp;$G295&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B295)&amp;"', '"&amp;$H295&amp;"', '"&amp;$I295&amp;"');","")</f>
+        <f>IF(ISNUMBER($G295),"insert into M_CD_VAL values ("&amp;$G295&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B295)&amp;"', '"&amp;$H295&amp;"', '"&amp;$I295&amp;"');","")</f>
         <v/>
       </c>
       <c r="K295" s="16" t="str">
@@ -12313,7 +12232,7 @@
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
       <c r="N295" s="16" t="str">
-        <f>IF(ISNUMBER($K295),"insert into M_CD_GRP values ("&amp;$K295&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G295)&amp;"', '"&amp;$L295&amp;"', '"&amp;$M295&amp;"');","")</f>
+        <f>IF(ISNUMBER($K295),"insert into M_CD_VAL_LANG values ("&amp;$K295&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G295)&amp;"', '"&amp;$L295&amp;"', '"&amp;$M295&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12340,7 +12259,7 @@
       <c r="H296" s="13"/>
       <c r="I296" s="13"/>
       <c r="J296" s="16" t="str">
-        <f>IF(ISNUMBER($G296),"insert into M_CD_GRP values ("&amp;$G296&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B296)&amp;"', '"&amp;$H296&amp;"', '"&amp;$I296&amp;"');","")</f>
+        <f>IF(ISNUMBER($G296),"insert into M_CD_VAL values ("&amp;$G296&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B296)&amp;"', '"&amp;$H296&amp;"', '"&amp;$I296&amp;"');","")</f>
         <v/>
       </c>
       <c r="K296" s="16" t="str">
@@ -12350,7 +12269,7 @@
       <c r="L296" s="13"/>
       <c r="M296" s="13"/>
       <c r="N296" s="16" t="str">
-        <f>IF(ISNUMBER($K296),"insert into M_CD_GRP values ("&amp;$K296&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G296)&amp;"', '"&amp;$L296&amp;"', '"&amp;$M296&amp;"');","")</f>
+        <f>IF(ISNUMBER($K296),"insert into M_CD_VAL_LANG values ("&amp;$K296&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G296)&amp;"', '"&amp;$L296&amp;"', '"&amp;$M296&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12377,7 +12296,7 @@
       <c r="H297" s="13"/>
       <c r="I297" s="13"/>
       <c r="J297" s="16" t="str">
-        <f>IF(ISNUMBER($G297),"insert into M_CD_GRP values ("&amp;$G297&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B297)&amp;"', '"&amp;$H297&amp;"', '"&amp;$I297&amp;"');","")</f>
+        <f>IF(ISNUMBER($G297),"insert into M_CD_VAL values ("&amp;$G297&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B297)&amp;"', '"&amp;$H297&amp;"', '"&amp;$I297&amp;"');","")</f>
         <v/>
       </c>
       <c r="K297" s="16" t="str">
@@ -12387,7 +12306,7 @@
       <c r="L297" s="13"/>
       <c r="M297" s="13"/>
       <c r="N297" s="16" t="str">
-        <f>IF(ISNUMBER($K297),"insert into M_CD_GRP values ("&amp;$K297&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G297)&amp;"', '"&amp;$L297&amp;"', '"&amp;$M297&amp;"');","")</f>
+        <f>IF(ISNUMBER($K297),"insert into M_CD_VAL_LANG values ("&amp;$K297&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G297)&amp;"', '"&amp;$L297&amp;"', '"&amp;$M297&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12414,7 +12333,7 @@
       <c r="H298" s="13"/>
       <c r="I298" s="13"/>
       <c r="J298" s="16" t="str">
-        <f>IF(ISNUMBER($G298),"insert into M_CD_GRP values ("&amp;$G298&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B298)&amp;"', '"&amp;$H298&amp;"', '"&amp;$I298&amp;"');","")</f>
+        <f>IF(ISNUMBER($G298),"insert into M_CD_VAL values ("&amp;$G298&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B298)&amp;"', '"&amp;$H298&amp;"', '"&amp;$I298&amp;"');","")</f>
         <v/>
       </c>
       <c r="K298" s="16" t="str">
@@ -12424,7 +12343,7 @@
       <c r="L298" s="13"/>
       <c r="M298" s="13"/>
       <c r="N298" s="16" t="str">
-        <f>IF(ISNUMBER($K298),"insert into M_CD_GRP values ("&amp;$K298&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G298)&amp;"', '"&amp;$L298&amp;"', '"&amp;$M298&amp;"');","")</f>
+        <f>IF(ISNUMBER($K298),"insert into M_CD_VAL_LANG values ("&amp;$K298&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G298)&amp;"', '"&amp;$L298&amp;"', '"&amp;$M298&amp;"');","")</f>
         <v/>
       </c>
     </row>
@@ -12451,7 +12370,7 @@
       <c r="H299" s="13"/>
       <c r="I299" s="13"/>
       <c r="J299" s="16" t="str">
-        <f>IF(ISNUMBER($G299),"insert into M_CD_GRP values ("&amp;$G299&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B299)&amp;"', '"&amp;$H299&amp;"', '"&amp;$I299&amp;"');","")</f>
+        <f>IF(ISNUMBER($G299),"insert into M_CD_VAL values ("&amp;$G299&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B299)&amp;"', '"&amp;$H299&amp;"', '"&amp;$I299&amp;"');","")</f>
         <v/>
       </c>
       <c r="K299" s="16" t="str">
@@ -12461,35 +12380,35 @@
       <c r="L299" s="13"/>
       <c r="M299" s="13"/>
       <c r="N299" s="16" t="str">
-        <f>IF(ISNUMBER($K299),"insert into M_CD_GRP values ("&amp;$K299&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G299)&amp;"', '"&amp;$L299&amp;"', '"&amp;$M299&amp;"');","")</f>
+        <f>IF(ISNUMBER($K299),"insert into M_CD_VAL_LANG values ("&amp;$K299&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G299)&amp;"', '"&amp;$L299&amp;"', '"&amp;$M299&amp;"');","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:F1000">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:N1000">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>AND(ISNUMBER($K2),NOT(ISNUMBER($K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:J1000">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>ISNUMBER($G3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1000 K3:N1000">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>ISNUMBER($K3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/03_設計/05_コード/コード定義一覧.xlsx
+++ b/03_設計/05_コード/コード定義一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
   <si>
     <t>langDiv</t>
     <phoneticPr fontId="1"/>
@@ -699,6 +699,63 @@
     <rPh sb="3" eb="5">
       <t>シセツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設種別</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店</t>
+    <rPh sb="0" eb="1">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レストラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Restaurant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shop</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -947,7 +1004,52 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <border>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="hair">
@@ -3327,37 +3429,51 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="16" t="str">
+      <c r="B43" s="16">
         <f>IF(ISBLANK($C43),"",MAX($B$1:$B42)+1)</f>
-        <v/>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="E43" s="13"/>
       <c r="F43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G43" s="16" t="str">
+        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'facilityType', '施設種別', '');</v>
+      </c>
+      <c r="G43" s="16">
         <f>IF(ISBLANK($H43),"",MAX($G$1:$G42)+1)</f>
-        <v/>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="13">
+        <v>1</v>
+      </c>
       <c r="K43" s="16" t="str">
         <f>IF(ISNUMBER($G43),"insert into M_CD_VAL values ("&amp;$G43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B43)&amp;"', '"&amp;$H43&amp;"', '"&amp;$I43&amp;"', "&amp;J43&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L43" s="16" t="str">
+        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'shp', 'shop', 1);</v>
+      </c>
+      <c r="L43" s="16">
         <f>IF(ISBLANK($M43),"",MAX($L$1:$L42)+1)</f>
-        <v/>
-      </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="O43" s="16" t="str">
         <f>IF(ISNUMBER($L43),"insert into M_CD_VAL_LANG values ("&amp;$L43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G43)&amp;"', '"&amp;$M43&amp;"', '"&amp;$N43&amp;"');","")</f>
-        <v/>
+        <v>insert into M_CD_VAL_LANG values (41, now(), 1, now(), 1, 0, '33', 'ja', '店');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
@@ -3376,10 +3492,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G44" s="16" t="str">
-        <f>IF(ISBLANK($H44),"",MAX($G$1:$G43)+1)</f>
-        <v/>
-      </c>
+      <c r="G44" s="16"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -3387,15 +3500,19 @@
         <f>IF(ISNUMBER($G44),"insert into M_CD_VAL values ("&amp;$G44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B44)&amp;"', '"&amp;$H44&amp;"', '"&amp;$I44&amp;"', "&amp;J44&amp;");","")</f>
         <v/>
       </c>
-      <c r="L44" s="16" t="str">
+      <c r="L44" s="16">
         <f>IF(ISBLANK($M44),"",MAX($L$1:$L43)+1)</f>
-        <v/>
-      </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="O44" s="16" t="str">
         <f>IF(ISNUMBER($L44),"insert into M_CD_VAL_LANG values ("&amp;$L44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G44)&amp;"', '"&amp;$M44&amp;"', '"&amp;$N44&amp;"');","")</f>
-        <v/>
+        <v>insert into M_CD_VAL_LANG values (42, now(), 1, now(), 1, 0, '33', 'en', 'Shop');</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -3414,26 +3531,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G45" s="16" t="str">
+      <c r="G45" s="16">
         <f>IF(ISBLANK($H45),"",MAX($G$1:$G44)+1)</f>
-        <v/>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" s="13">
+        <v>2</v>
+      </c>
       <c r="K45" s="16" t="str">
         <f>IF(ISNUMBER($G45),"insert into M_CD_VAL values ("&amp;$G45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B45)&amp;"', '"&amp;$H45&amp;"', '"&amp;$I45&amp;"', "&amp;J45&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L45" s="16" t="str">
+        <v>insert into M_CD_VAL values (34, now(), 1, now(), 1, 0, '10', 'res', 'restaurant', 2);</v>
+      </c>
+      <c r="L45" s="16">
         <f>IF(ISBLANK($M45),"",MAX($L$1:$L44)+1)</f>
-        <v/>
-      </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="O45" s="16" t="str">
         <f>IF(ISNUMBER($L45),"insert into M_CD_VAL_LANG values ("&amp;$L45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G45)&amp;"', '"&amp;$M45&amp;"', '"&amp;$N45&amp;"');","")</f>
-        <v/>
+        <v>insert into M_CD_VAL_LANG values (43, now(), 1, now(), 1, 0, '34', 'ja', 'レストラン');</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
@@ -3463,15 +3590,19 @@
         <f>IF(ISNUMBER($G46),"insert into M_CD_VAL values ("&amp;$G46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B46)&amp;"', '"&amp;$H46&amp;"', '"&amp;$I46&amp;"', "&amp;J46&amp;");","")</f>
         <v/>
       </c>
-      <c r="L46" s="16" t="str">
+      <c r="L46" s="16">
         <f>IF(ISBLANK($M46),"",MAX($L$1:$L45)+1)</f>
-        <v/>
-      </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="O46" s="16" t="str">
         <f>IF(ISNUMBER($L46),"insert into M_CD_VAL_LANG values ("&amp;$L46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G46)&amp;"', '"&amp;$M46&amp;"', '"&amp;$N46&amp;"');","")</f>
-        <v/>
+        <v>insert into M_CD_VAL_LANG values (44, now(), 1, now(), 1, 0, '34', 'en', 'Restaurant');</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
@@ -13091,28 +13222,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:F1000">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:O1000">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>AND(ISNUMBER($L2),NOT(ISNUMBER($L3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:K1000">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>ISNUMBER($G3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1000 L3:O1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>ISNUMBER($L3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/03_設計/05_コード/コード定義一覧.xlsx
+++ b/03_設計/05_コード/コード定義一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\05_コード\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\05_コード\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
   <si>
     <t>langDiv</t>
     <phoneticPr fontId="1"/>
@@ -283,37 +283,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>img</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mov</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movie</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動画</t>
-    <rPh sb="0" eb="2">
-      <t>ドウガ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -559,19 +529,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lnk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンク</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -756,6 +714,36 @@
   </si>
   <si>
     <t>Shop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像パス</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画パス</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imgp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie path</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -942,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,11 +988,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <border>
         <top style="hair">
@@ -1026,6 +1017,15 @@
     <dxf>
       <border>
         <top style="hair">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
           <color auto="1"/>
         </top>
         <vertical/>
@@ -1391,7 +1391,7 @@
   </sheetPr>
   <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1405,11 +1405,12 @@
     <col min="5" max="5" width="12.5" style="5" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="6.25" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="6.25" style="5" customWidth="1"/>
-    <col min="8" max="9" width="9" style="5"/>
+    <col min="8" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="18" style="5" customWidth="1"/>
     <col min="10" max="10" width="9" style="5" collapsed="1"/>
     <col min="11" max="11" width="6.25" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="13" width="6.25" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9" style="5" collapsed="1"/>
+    <col min="14" max="14" width="19.625" style="5" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="6.25" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16384" width="9" style="5"/>
   </cols>
@@ -1439,7 +1440,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="8"/>
       <c r="P1" s="18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1469,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>32</v>
@@ -1512,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>24</v>
@@ -1604,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>25</v>
@@ -1696,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>26</v>
@@ -2072,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>36</v>
@@ -2121,7 +2122,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>37</v>
@@ -2170,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>38</v>
@@ -2219,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>39</v>
@@ -2256,43 +2257,43 @@
         <f>IF(ISBLANK($C19),"",MAX($B$1:$B18)+1)</f>
         <v>4</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="16" t="str">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="str">
         <f t="shared" ref="F19:F82" si="2">IF(ISNUMBER($B19),"insert into M_CD_GRP values ("&amp;$B19&amp;", now(), 1, now(), 1, 0, '"&amp;$C19&amp;"', '"&amp;$D19&amp;"', '"&amp;$E19&amp;"');","")</f>
         <v>insert into M_CD_GRP values (4, now(), 1, now(), 1, 0, 'attGrpType', '属性グループ種別', '');</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="19">
         <f>IF(ISBLANK($H19),"",MAX($G$1:$G18)+1)</f>
         <v>11</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="19">
         <v>1</v>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="19" t="str">
         <f>IF(ISNUMBER($G19),"insert into M_CD_VAL values ("&amp;$G19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B19)&amp;"', '"&amp;$H19&amp;"', '"&amp;$I19&amp;"', "&amp;J19&amp;");","")</f>
         <v>insert into M_CD_VAL values (11, now(), 1, now(), 1, 0, '4', 'txt', 'text', 1);</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="19">
         <f>IF(ISBLANK($M19),"",MAX($L$1:$L18)+1)</f>
         <v>17</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="13" t="s">
-        <v>54</v>
+      <c r="N19" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="O19" s="16" t="str">
         <f>IF(ISNUMBER($L19),"insert into M_CD_VAL_LANG values ("&amp;$L19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G19)&amp;"', '"&amp;$M19&amp;"', '"&amp;$N19&amp;"');","")</f>
@@ -2309,38 +2310,38 @@
         <f>IF(ISBLANK($C20),"",MAX($B$1:$B19)+1)</f>
         <v/>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="16" t="str">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="19">
         <f>IF(ISBLANK($H20),"",MAX($G$1:$G19)+1)</f>
         <v>12</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="19">
         <v>2</v>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="19" t="str">
         <f>IF(ISNUMBER($G20),"insert into M_CD_VAL values ("&amp;$G20&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B20)&amp;"', '"&amp;$H20&amp;"', '"&amp;$I20&amp;"', "&amp;J20&amp;");","")</f>
         <v>insert into M_CD_VAL values (12, now(), 1, now(), 1, 0, '4', 'cd', 'code', 2);</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="19">
         <f>IF(ISBLANK($M20),"",MAX($L$1:$L19)+1)</f>
         <v>18</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="19" t="s">
         <v>6</v>
       </c>
       <c r="O20" s="16" t="str">
@@ -2358,43 +2359,43 @@
         <f>IF(ISBLANK($C21),"",MAX($B$1:$B20)+1)</f>
         <v/>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16" t="str">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="19">
         <f>IF(ISBLANK($H21),"",MAX($G$1:$G20)+1)</f>
         <v>13</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="H21" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="19">
         <v>3</v>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="19" t="str">
         <f>IF(ISNUMBER($G21),"insert into M_CD_VAL values ("&amp;$G21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B21)&amp;"', '"&amp;$H21&amp;"', '"&amp;$I21&amp;"', "&amp;J21&amp;");","")</f>
-        <v>insert into M_CD_VAL values (13, now(), 1, now(), 1, 0, '4', 'img', 'image', 3);</v>
-      </c>
-      <c r="L21" s="16">
+        <v>insert into M_CD_VAL values (13, now(), 1, now(), 1, 0, '4', 'imgp', 'image path', 3);</v>
+      </c>
+      <c r="L21" s="19">
         <f>IF(ISBLANK($M21),"",MAX($L$1:$L20)+1)</f>
         <v>19</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="13" t="s">
-        <v>55</v>
+      <c r="N21" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="O21" s="16" t="str">
         <f>IF(ISNUMBER($L21),"insert into M_CD_VAL_LANG values ("&amp;$L21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G21)&amp;"', '"&amp;$M21&amp;"', '"&amp;$N21&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (19, now(), 1, now(), 1, 0, '13', 'ja', '画像');</v>
+        <v>insert into M_CD_VAL_LANG values (19, now(), 1, now(), 1, 0, '13', 'ja', '画像パス');</v>
       </c>
       <c r="P21" s="17"/>
     </row>
@@ -2407,43 +2408,43 @@
         <f>IF(ISBLANK($C22),"",MAX($B$1:$B21)+1)</f>
         <v/>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="16" t="str">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="19">
         <f>IF(ISBLANK($H22),"",MAX($G$1:$G21)+1)</f>
         <v>14</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="H22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="19">
         <v>4</v>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="19" t="str">
         <f>IF(ISNUMBER($G22),"insert into M_CD_VAL values ("&amp;$G22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B22)&amp;"', '"&amp;$H22&amp;"', '"&amp;$I22&amp;"', "&amp;J22&amp;");","")</f>
-        <v>insert into M_CD_VAL values (14, now(), 1, now(), 1, 0, '4', 'mov', 'movie', 4);</v>
-      </c>
-      <c r="L22" s="16">
+        <v>insert into M_CD_VAL values (14, now(), 1, now(), 1, 0, '4', 'movp', 'movie path', 4);</v>
+      </c>
+      <c r="L22" s="19">
         <f>IF(ISBLANK($M22),"",MAX($L$1:$L21)+1)</f>
         <v>20</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="13" t="s">
-        <v>56</v>
+      <c r="N22" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="O22" s="16" t="str">
         <f>IF(ISNUMBER($L22),"insert into M_CD_VAL_LANG values ("&amp;$L22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G22)&amp;"', '"&amp;$M22&amp;"', '"&amp;$N22&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (20, now(), 1, now(), 1, 0, '14', 'ja', '動画');</v>
+        <v>insert into M_CD_VAL_LANG values (20, now(), 1, now(), 1, 0, '14', 'ja', '動画パス');</v>
       </c>
       <c r="P22" s="17"/>
     </row>
@@ -2456,39 +2457,39 @@
         <f>IF(ISBLANK($C23),"",MAX($B$1:$B22)+1)</f>
         <v/>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="16" t="str">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="19">
         <f>IF(ISBLANK($H23),"",MAX($G$1:$G22)+1)</f>
         <v>15</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="H23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="19">
         <v>5</v>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="19" t="str">
         <f>IF(ISNUMBER($G23),"insert into M_CD_VAL values ("&amp;$G23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B23)&amp;"', '"&amp;$H23&amp;"', '"&amp;$I23&amp;"', "&amp;J23&amp;");","")</f>
         <v>insert into M_CD_VAL values (15, now(), 1, now(), 1, 0, '4', 'lon', 'longitude', 5);</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="19">
         <f>IF(ISBLANK($M23),"",MAX($L$1:$L22)+1)</f>
         <v>21</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>65</v>
+      <c r="M23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="O23" s="16" t="str">
         <f>IF(ISNUMBER($L23),"insert into M_CD_VAL_LANG values ("&amp;$L23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G23)&amp;"', '"&amp;$M23&amp;"', '"&amp;$N23&amp;"');","")</f>
@@ -2505,39 +2506,39 @@
         <f>IF(ISBLANK($C24),"",MAX($B$1:$B23)+1)</f>
         <v/>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="16" t="str">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="19">
         <f>IF(ISBLANK($H24),"",MAX($G$1:$G23)+1)</f>
         <v>16</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="H24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="19">
         <v>6</v>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="19" t="str">
         <f>IF(ISNUMBER($G24),"insert into M_CD_VAL values ("&amp;$G24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B24)&amp;"', '"&amp;$H24&amp;"', '"&amp;$I24&amp;"', "&amp;J24&amp;");","")</f>
         <v>insert into M_CD_VAL values (16, now(), 1, now(), 1, 0, '4', 'lat', 'latitude', 6);</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="19">
         <f>IF(ISBLANK($M24),"",MAX($L$1:$L23)+1)</f>
         <v>22</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>68</v>
+      <c r="M24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="O24" s="16" t="str">
         <f>IF(ISNUMBER($L24),"insert into M_CD_VAL_LANG values ("&amp;$L24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G24)&amp;"', '"&amp;$M24&amp;"', '"&amp;$N24&amp;"');","")</f>
@@ -2555,10 +2556,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="16" t="str">
@@ -2570,10 +2571,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -2587,10 +2588,10 @@
         <v>23</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O25" s="16" t="str">
         <f>IF(ISNUMBER($L25),"insert into M_CD_VAL_LANG values ("&amp;$L25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G25)&amp;"', '"&amp;$M25&amp;"', '"&amp;$N25&amp;"');","")</f>
@@ -2619,10 +2620,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J26" s="13">
         <v>2</v>
@@ -2636,10 +2637,10 @@
         <v>24</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>IF(ISNUMBER($L26),"insert into M_CD_VAL_LANG values ("&amp;$L26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G26)&amp;"', '"&amp;$M26&amp;"', '"&amp;$N26&amp;"');","")</f>
@@ -2657,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="16" t="str">
@@ -2672,10 +2673,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J27" s="13">
         <v>1</v>
@@ -2689,10 +2690,10 @@
         <v>25</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>IF(ISNUMBER($L27),"insert into M_CD_VAL_LANG values ("&amp;$L27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G27)&amp;"', '"&amp;$M27&amp;"', '"&amp;$N27&amp;"');","")</f>
@@ -2732,10 +2733,10 @@
         <v>26</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O28" s="16" t="str">
         <f>IF(ISNUMBER($L28),"insert into M_CD_VAL_LANG values ("&amp;$L28&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G28)&amp;"', '"&amp;$M28&amp;"', '"&amp;$N28&amp;"');","")</f>
@@ -2764,10 +2765,10 @@
         <v>20</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J29" s="13">
         <v>2</v>
@@ -2781,10 +2782,10 @@
         <v>27</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O29" s="16" t="str">
         <f>IF(ISNUMBER($L29),"insert into M_CD_VAL_LANG values ("&amp;$L29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G29)&amp;"', '"&amp;$M29&amp;"', '"&amp;$N29&amp;"');","")</f>
@@ -2824,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O30" s="16" t="str">
         <f>IF(ISNUMBER($L30),"insert into M_CD_VAL_LANG values ("&amp;$L30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G30)&amp;"', '"&amp;$M30&amp;"', '"&amp;$N30&amp;"');","")</f>
@@ -2844,43 +2845,43 @@
         <f>IF(ISBLANK($C31),"",MAX($B$1:$B30)+1)</f>
         <v>7</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="16" t="str">
+      <c r="C31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="str">
         <f t="shared" si="2"/>
         <v>insert into M_CD_GRP values (7, now(), 1, now(), 1, 0, 'layoutObjType', 'レイアウトオブジェクトタイプ', '');</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="19">
         <f>IF(ISBLANK($H31),"",MAX($G$1:$G30)+1)</f>
         <v>21</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="13">
+      <c r="H31" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="19">
         <v>1</v>
       </c>
-      <c r="K31" s="16" t="str">
+      <c r="K31" s="19" t="str">
         <f>IF(ISNUMBER($G31),"insert into M_CD_VAL values ("&amp;$G31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B31)&amp;"', '"&amp;$H31&amp;"', '"&amp;$I31&amp;"', "&amp;J31&amp;");","")</f>
         <v>insert into M_CD_VAL values (21, now(), 1, now(), 1, 0, '7', 'txt', 'text', 1);</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="19">
         <f>IF(ISBLANK($M31),"",MAX($L$1:$L30)+1)</f>
         <v>29</v>
       </c>
-      <c r="M31" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>101</v>
+      <c r="M31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="O31" s="16" t="str">
         <f>IF(ISNUMBER($L31),"insert into M_CD_VAL_LANG values ("&amp;$L31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G31)&amp;"', '"&amp;$M31&amp;"', '"&amp;$N31&amp;"');","")</f>
@@ -2897,39 +2898,39 @@
         <f>IF(ISBLANK($C32),"",MAX($B$1:$B31)+1)</f>
         <v/>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="16" t="str">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="19">
         <f>IF(ISBLANK($H32),"",MAX($G$1:$G31)+1)</f>
         <v>22</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="13">
+      <c r="H32" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="19">
         <v>2</v>
       </c>
-      <c r="K32" s="16" t="str">
+      <c r="K32" s="19" t="str">
         <f>IF(ISNUMBER($G32),"insert into M_CD_VAL values ("&amp;$G32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B32)&amp;"', '"&amp;$H32&amp;"', '"&amp;$I32&amp;"', "&amp;J32&amp;");","")</f>
         <v>insert into M_CD_VAL values (22, now(), 1, now(), 1, 0, '7', 'img', 'image', 2);</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="19">
         <f>IF(ISBLANK($M32),"",MAX($L$1:$L31)+1)</f>
         <v>30</v>
       </c>
-      <c r="M32" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>102</v>
+      <c r="M32" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>IF(ISNUMBER($L32),"insert into M_CD_VAL_LANG values ("&amp;$L32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G32)&amp;"', '"&amp;$M32&amp;"', '"&amp;$N32&amp;"');","")</f>
@@ -2945,39 +2946,39 @@
         <f>IF(ISBLANK($C33),"",MAX($B$1:$B32)+1)</f>
         <v/>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="16" t="str">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="19">
         <f>IF(ISBLANK($H33),"",MAX($G$1:$G32)+1)</f>
         <v>23</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J33" s="13">
+      <c r="H33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="19">
         <v>3</v>
       </c>
-      <c r="K33" s="16" t="str">
+      <c r="K33" s="19" t="str">
         <f>IF(ISNUMBER($G33),"insert into M_CD_VAL values ("&amp;$G33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B33)&amp;"', '"&amp;$H33&amp;"', '"&amp;$I33&amp;"', "&amp;J33&amp;");","")</f>
         <v>insert into M_CD_VAL values (23, now(), 1, now(), 1, 0, '7', 'mov', 'movie', 3);</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="19">
         <f>IF(ISBLANK($M33),"",MAX($L$1:$L32)+1)</f>
         <v>31</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>IF(ISNUMBER($L33),"insert into M_CD_VAL_LANG values ("&amp;$L33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G33)&amp;"', '"&amp;$M33&amp;"', '"&amp;$N33&amp;"');","")</f>
@@ -2993,39 +2994,39 @@
         <f>IF(ISBLANK($C34),"",MAX($B$1:$B33)+1)</f>
         <v/>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="16" t="str">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="19">
         <f>IF(ISBLANK($H34),"",MAX($G$1:$G33)+1)</f>
         <v>24</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" s="13">
+      <c r="H34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="19">
         <v>4</v>
       </c>
-      <c r="K34" s="16" t="str">
+      <c r="K34" s="19" t="str">
         <f>IF(ISNUMBER($G34),"insert into M_CD_VAL values ("&amp;$G34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B34)&amp;"', '"&amp;$H34&amp;"', '"&amp;$I34&amp;"', "&amp;J34&amp;");","")</f>
         <v>insert into M_CD_VAL values (24, now(), 1, now(), 1, 0, '7', 'map', 'map', 4);</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="19">
         <f>IF(ISBLANK($M34),"",MAX($L$1:$L33)+1)</f>
         <v>32</v>
       </c>
-      <c r="M34" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>108</v>
+      <c r="M34" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="O34" s="16" t="str">
         <f>IF(ISNUMBER($L34),"insert into M_CD_VAL_LANG values ("&amp;$L34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G34)&amp;"', '"&amp;$M34&amp;"', '"&amp;$N34&amp;"');","")</f>
@@ -3041,39 +3042,39 @@
         <f>IF(ISBLANK($C35),"",MAX($B$1:$B34)+1)</f>
         <v/>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="16" t="str">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="19">
         <f>IF(ISBLANK($H35),"",MAX($G$1:$G34)+1)</f>
         <v>25</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="13">
+      <c r="H35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="19">
         <v>5</v>
       </c>
-      <c r="K35" s="16" t="str">
+      <c r="K35" s="19" t="str">
         <f>IF(ISNUMBER($G35),"insert into M_CD_VAL values ("&amp;$G35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B35)&amp;"', '"&amp;$H35&amp;"', '"&amp;$I35&amp;"', "&amp;J35&amp;");","")</f>
         <v>insert into M_CD_VAL values (25, now(), 1, now(), 1, 0, '7', 'button', 'button', 5);</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="19">
         <f>IF(ISBLANK($M35),"",MAX($L$1:$L34)+1)</f>
         <v>33</v>
       </c>
-      <c r="M35" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>106</v>
+      <c r="M35" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="O35" s="16" t="str">
         <f>IF(ISNUMBER($L35),"insert into M_CD_VAL_LANG values ("&amp;$L35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G35)&amp;"', '"&amp;$M35&amp;"', '"&amp;$N35&amp;"');","")</f>
@@ -3085,47 +3086,51 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="16">
         <f>IF(ISBLANK($C36),"",MAX($B$1:$B35)+1)</f>
-        <v/>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="E36" s="13"/>
       <c r="F36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (8, now(), 1, now(), 1, 0, 'layoutMultiplicity', 'レイアウト多重度', '');</v>
       </c>
       <c r="G36" s="16">
         <f>IF(ISBLANK($H36),"",MAX($G$1:$G35)+1)</f>
         <v>26</v>
       </c>
       <c r="H36" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="J36" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K36" s="16" t="str">
         <f>IF(ISNUMBER($G36),"insert into M_CD_VAL values ("&amp;$G36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B36)&amp;"', '"&amp;$H36&amp;"', '"&amp;$I36&amp;"', "&amp;J36&amp;");","")</f>
-        <v>insert into M_CD_VAL values (26, now(), 1, now(), 1, 0, '7', 'lnk', 'link', 6);</v>
+        <v>insert into M_CD_VAL values (26, now(), 1, now(), 1, 0, '8', 'sin', 'single', 1);</v>
       </c>
       <c r="L36" s="16">
         <f>IF(ISBLANK($M36),"",MAX($L$1:$L35)+1)</f>
         <v>34</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N36" s="13" t="s">
         <v>107</v>
       </c>
       <c r="O36" s="16" t="str">
         <f>IF(ISNUMBER($L36),"insert into M_CD_VAL_LANG values ("&amp;$L36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G36)&amp;"', '"&amp;$M36&amp;"', '"&amp;$N36&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (34, now(), 1, now(), 1, 0, '26', 'ja', 'リンク');</v>
+        <v>insert into M_CD_VAL_LANG values (34, now(), 1, now(), 1, 0, '26', 'ja', 'シングル');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -3133,51 +3138,47 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="16" t="str">
         <f>IF(ISBLANK($C37),"",MAX($B$1:$B36)+1)</f>
-        <v>8</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>111</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (8, now(), 1, now(), 1, 0, 'layoutMultiplicity', 'レイアウト多重度', '');</v>
+        <v/>
       </c>
       <c r="G37" s="16">
         <f>IF(ISBLANK($H37),"",MAX($G$1:$G36)+1)</f>
         <v>27</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J37" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="16" t="str">
         <f>IF(ISNUMBER($G37),"insert into M_CD_VAL values ("&amp;$G37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B37)&amp;"', '"&amp;$H37&amp;"', '"&amp;$I37&amp;"', "&amp;J37&amp;");","")</f>
-        <v>insert into M_CD_VAL values (27, now(), 1, now(), 1, 0, '8', 'sin', 'single', 1);</v>
+        <v>insert into M_CD_VAL values (27, now(), 1, now(), 1, 0, '8', 'multi', 'multiple', 2);</v>
       </c>
       <c r="L37" s="16">
         <f>IF(ISBLANK($M37),"",MAX($L$1:$L36)+1)</f>
         <v>35</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O37" s="16" t="str">
         <f>IF(ISNUMBER($L37),"insert into M_CD_VAL_LANG values ("&amp;$L37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G37)&amp;"', '"&amp;$M37&amp;"', '"&amp;$N37&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (35, now(), 1, now(), 1, 0, '27', 'ja', 'シングル');</v>
+        <v>insert into M_CD_VAL_LANG values (35, now(), 1, now(), 1, 0, '27', 'ja', 'マルチ');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -3185,16 +3186,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="16" t="str">
+      <c r="B38" s="16">
         <f>IF(ISBLANK($C38),"",MAX($B$1:$B37)+1)</f>
-        <v/>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="E38" s="13"/>
       <c r="F38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (9, now(), 1, now(), 1, 0, 'entity', 'エンティティ', '');</v>
       </c>
       <c r="G38" s="16">
         <f>IF(ISBLANK($H38),"",MAX($G$1:$G37)+1)</f>
@@ -3204,28 +3209,28 @@
         <v>113</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J38" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="16" t="str">
         <f>IF(ISNUMBER($G38),"insert into M_CD_VAL values ("&amp;$G38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B38)&amp;"', '"&amp;$H38&amp;"', '"&amp;$I38&amp;"', "&amp;J38&amp;");","")</f>
-        <v>insert into M_CD_VAL values (28, now(), 1, now(), 1, 0, '8', 'multi', 'multiple', 2);</v>
+        <v>insert into M_CD_VAL values (28, now(), 1, now(), 1, 0, '9', 'reg', 'region', 1);</v>
       </c>
       <c r="L38" s="16">
         <f>IF(ISBLANK($M38),"",MAX($L$1:$L37)+1)</f>
         <v>36</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O38" s="16" t="str">
         <f>IF(ISNUMBER($L38),"insert into M_CD_VAL_LANG values ("&amp;$L38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G38)&amp;"', '"&amp;$M38&amp;"', '"&amp;$N38&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (36, now(), 1, now(), 1, 0, '28', 'ja', 'マルチ');</v>
+        <v>insert into M_CD_VAL_LANG values (36, now(), 1, now(), 1, 0, '28', 'ja', '地域');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -3233,51 +3238,47 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="16" t="str">
         <f>IF(ISBLANK($C39),"",MAX($B$1:$B38)+1)</f>
-        <v>9</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>119</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (9, now(), 1, now(), 1, 0, 'entity', 'エンティティ', '');</v>
+        <v/>
       </c>
       <c r="G39" s="16">
         <f>IF(ISBLANK($H39),"",MAX($G$1:$G38)+1)</f>
         <v>29</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J39" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="16" t="str">
         <f>IF(ISNUMBER($G39),"insert into M_CD_VAL values ("&amp;$G39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B39)&amp;"', '"&amp;$H39&amp;"', '"&amp;$I39&amp;"', "&amp;J39&amp;");","")</f>
-        <v>insert into M_CD_VAL values (29, now(), 1, now(), 1, 0, '9', 'reg', 'region', 1);</v>
+        <v>insert into M_CD_VAL values (29, now(), 1, now(), 1, 0, '9', 'fac', 'facility', 2);</v>
       </c>
       <c r="L39" s="16">
         <f>IF(ISBLANK($M39),"",MAX($L$1:$L38)+1)</f>
         <v>37</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O39" s="16" t="str">
         <f>IF(ISNUMBER($L39),"insert into M_CD_VAL_LANG values ("&amp;$L39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G39)&amp;"', '"&amp;$M39&amp;"', '"&amp;$N39&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (37, now(), 1, now(), 1, 0, '29', 'ja', '地域');</v>
+        <v>insert into M_CD_VAL_LANG values (37, now(), 1, now(), 1, 0, '29', 'ja', '施設');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
@@ -3301,31 +3302,31 @@
         <v>30</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J40" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" s="16" t="str">
         <f>IF(ISNUMBER($G40),"insert into M_CD_VAL values ("&amp;$G40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B40)&amp;"', '"&amp;$H40&amp;"', '"&amp;$I40&amp;"', "&amp;J40&amp;");","")</f>
-        <v>insert into M_CD_VAL values (30, now(), 1, now(), 1, 0, '9', 'fac', 'facility', 2);</v>
+        <v>insert into M_CD_VAL values (30, now(), 1, now(), 1, 0, '9', 'facgrp', 'facility group', 3);</v>
       </c>
       <c r="L40" s="16">
         <f>IF(ISBLANK($M40),"",MAX($L$1:$L39)+1)</f>
         <v>38</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O40" s="16" t="str">
         <f>IF(ISNUMBER($L40),"insert into M_CD_VAL_LANG values ("&amp;$L40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G40)&amp;"', '"&amp;$M40&amp;"', '"&amp;$N40&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (38, now(), 1, now(), 1, 0, '30', 'ja', '施設');</v>
+        <v>insert into M_CD_VAL_LANG values (38, now(), 1, now(), 1, 0, '30', 'ja', '施設グループ');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
@@ -3349,31 +3350,31 @@
         <v>31</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J41" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K41" s="16" t="str">
         <f>IF(ISNUMBER($G41),"insert into M_CD_VAL values ("&amp;$G41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B41)&amp;"', '"&amp;$H41&amp;"', '"&amp;$I41&amp;"', "&amp;J41&amp;");","")</f>
-        <v>insert into M_CD_VAL values (31, now(), 1, now(), 1, 0, '9', 'facgrp', 'facility group', 3);</v>
+        <v>insert into M_CD_VAL values (31, now(), 1, now(), 1, 0, '9', 'facgrpln', 'faciligy faciligy group link', 4);</v>
       </c>
       <c r="L41" s="16">
         <f>IF(ISBLANK($M41),"",MAX($L$1:$L40)+1)</f>
         <v>39</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O41" s="16" t="str">
         <f>IF(ISNUMBER($L41),"insert into M_CD_VAL_LANG values ("&amp;$L41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G41)&amp;"', '"&amp;$M41&amp;"', '"&amp;$N41&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (39, now(), 1, now(), 1, 0, '31', 'ja', '施設グループ');</v>
+        <v>insert into M_CD_VAL_LANG values (39, now(), 1, now(), 1, 0, '31', 'ja', '施設_施設グループ_リンク');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -3381,47 +3382,51 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="16" t="str">
+      <c r="B42" s="16">
         <f>IF(ISBLANK($C42),"",MAX($B$1:$B41)+1)</f>
-        <v/>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="E42" s="13"/>
       <c r="F42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'facilityType', '施設種別', '');</v>
       </c>
       <c r="G42" s="16">
         <f>IF(ISBLANK($H42),"",MAX($G$1:$G41)+1)</f>
         <v>32</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J42" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42" s="16" t="str">
         <f>IF(ISNUMBER($G42),"insert into M_CD_VAL values ("&amp;$G42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B42)&amp;"', '"&amp;$H42&amp;"', '"&amp;$I42&amp;"', "&amp;J42&amp;");","")</f>
-        <v>insert into M_CD_VAL values (32, now(), 1, now(), 1, 0, '9', 'facgrpln', 'faciligy faciligy group link', 4);</v>
+        <v>insert into M_CD_VAL values (32, now(), 1, now(), 1, 0, '10', 'shp', 'shop', 1);</v>
       </c>
       <c r="L42" s="16">
         <f>IF(ISBLANK($M42),"",MAX($L$1:$L41)+1)</f>
         <v>40</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N42" s="13" t="s">
         <v>132</v>
       </c>
       <c r="O42" s="16" t="str">
         <f>IF(ISNUMBER($L42),"insert into M_CD_VAL_LANG values ("&amp;$L42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G42)&amp;"', '"&amp;$M42&amp;"', '"&amp;$N42&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (40, now(), 1, now(), 1, 0, '32', 'ja', '施設_施設グループ_リンク');</v>
+        <v>insert into M_CD_VAL_LANG values (40, now(), 1, now(), 1, 0, '32', 'ja', '店');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
@@ -3429,51 +3434,38 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="16" t="str">
         <f>IF(ISBLANK($C43),"",MAX($B$1:$B42)+1)</f>
-        <v>10</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>134</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'facilityType', '施設種別', '');</v>
-      </c>
-      <c r="G43" s="16">
-        <f>IF(ISBLANK($H43),"",MAX($G$1:$G42)+1)</f>
-        <v>33</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" s="13">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
       <c r="K43" s="16" t="str">
         <f>IF(ISNUMBER($G43),"insert into M_CD_VAL values ("&amp;$G43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B43)&amp;"', '"&amp;$H43&amp;"', '"&amp;$I43&amp;"', "&amp;J43&amp;");","")</f>
-        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'shp', 'shop', 1);</v>
+        <v/>
       </c>
       <c r="L43" s="16">
         <f>IF(ISBLANK($M43),"",MAX($L$1:$L42)+1)</f>
         <v>41</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O43" s="16" t="str">
         <f>IF(ISNUMBER($L43),"insert into M_CD_VAL_LANG values ("&amp;$L43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G43)&amp;"', '"&amp;$M43&amp;"', '"&amp;$N43&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (41, now(), 1, now(), 1, 0, '33', 'ja', '店');</v>
+        <v>insert into M_CD_VAL_LANG values (41, now(), 1, now(), 1, 0, '32', 'en', 'Shop');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
@@ -3492,27 +3484,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="G44" s="16">
+        <f>IF(ISBLANK($H44),"",MAX($G$1:$G43)+1)</f>
+        <v>33</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" s="13">
+        <v>2</v>
+      </c>
       <c r="K44" s="16" t="str">
         <f>IF(ISNUMBER($G44),"insert into M_CD_VAL values ("&amp;$G44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B44)&amp;"', '"&amp;$H44&amp;"', '"&amp;$I44&amp;"', "&amp;J44&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'res', 'restaurant', 2);</v>
       </c>
       <c r="L44" s="16">
         <f>IF(ISBLANK($M44),"",MAX($L$1:$L43)+1)</f>
         <v>42</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="O44" s="16" t="str">
         <f>IF(ISNUMBER($L44),"insert into M_CD_VAL_LANG values ("&amp;$L44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G44)&amp;"', '"&amp;$M44&amp;"', '"&amp;$N44&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (42, now(), 1, now(), 1, 0, '33', 'en', 'Shop');</v>
+        <v>insert into M_CD_VAL_LANG values (42, now(), 1, now(), 1, 0, '33', 'ja', 'レストラン');</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -3531,36 +3532,30 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="16" t="str">
         <f>IF(ISBLANK($H45),"",MAX($G$1:$G44)+1)</f>
-        <v>34</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J45" s="13">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
       <c r="K45" s="16" t="str">
         <f>IF(ISNUMBER($G45),"insert into M_CD_VAL values ("&amp;$G45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B45)&amp;"', '"&amp;$H45&amp;"', '"&amp;$I45&amp;"', "&amp;J45&amp;");","")</f>
-        <v>insert into M_CD_VAL values (34, now(), 1, now(), 1, 0, '10', 'res', 'restaurant', 2);</v>
+        <v/>
       </c>
       <c r="L45" s="16">
         <f>IF(ISBLANK($M45),"",MAX($L$1:$L44)+1)</f>
         <v>43</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O45" s="16" t="str">
         <f>IF(ISNUMBER($L45),"insert into M_CD_VAL_LANG values ("&amp;$L45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G45)&amp;"', '"&amp;$M45&amp;"', '"&amp;$N45&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (43, now(), 1, now(), 1, 0, '34', 'ja', 'レストラン');</v>
+        <v>insert into M_CD_VAL_LANG values (43, now(), 1, now(), 1, 0, '33', 'en', 'Restaurant');</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
@@ -3590,19 +3585,15 @@
         <f>IF(ISNUMBER($G46),"insert into M_CD_VAL values ("&amp;$G46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B46)&amp;"', '"&amp;$H46&amp;"', '"&amp;$I46&amp;"', "&amp;J46&amp;");","")</f>
         <v/>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="16" t="str">
         <f>IF(ISBLANK($M46),"",MAX($L$1:$L45)+1)</f>
-        <v>44</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>143</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
       <c r="O46" s="16" t="str">
         <f>IF(ISNUMBER($L46),"insert into M_CD_VAL_LANG values ("&amp;$L46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G46)&amp;"', '"&amp;$M46&amp;"', '"&amp;$N46&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (44, now(), 1, now(), 1, 0, '34', 'en', 'Restaurant');</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
@@ -13222,28 +13213,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:F1000">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:O1000">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>AND(ISNUMBER($L2),NOT(ISNUMBER($L3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:K1000">
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>ISNUMBER($G3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1000 L3:O1000">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>ISNUMBER($L3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/03_設計/05_コード/コード定義一覧.xlsx
+++ b/03_設計/05_コード/コード定義一覧.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
-  <si>
-    <t>langDiv</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
   <si>
     <t>コードグループ</t>
     <phoneticPr fontId="1"/>
@@ -100,15 +96,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>japanese</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Japanese</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>english</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -134,10 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -146,18 +130,6 @@
     <rPh sb="0" eb="2">
       <t>ユウコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>valid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>invalid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deleted</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -201,30 +173,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>layoutType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レイアウト種別</t>
     <rPh sb="5" eb="7">
       <t>シュベツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>detail</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -263,23 +215,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>attGrpType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>txt</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -338,10 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>longitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ja</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -357,10 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>経度</t>
     <rPh sb="0" eb="2">
       <t>ケイド</t>
@@ -375,10 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>publishSts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cls</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -401,14 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>disclose</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>close</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>有無</t>
     <rPh sb="0" eb="2">
       <t>ウム</t>
@@ -450,10 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>does not have</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>del</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,18 +386,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hasNotHave</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レイアウトオブジェクトタイプ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>layoutObjType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>txt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -495,18 +403,6 @@
   </si>
   <si>
     <t>map</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movie</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -547,10 +443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>layoutMultiplicity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レイアウト多重度</t>
     <rPh sb="5" eb="8">
       <t>タジュウド</t>
@@ -566,14 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>single</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>multiple</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シングル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -593,10 +477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>entity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fac</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -610,22 +490,6 @@
   </si>
   <si>
     <t>facgrpln</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>region</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>facility</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>facility group</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faciligy faciligy group link</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -660,10 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>facilityType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>施設種別</t>
     <rPh sb="0" eb="2">
       <t>シセツ</t>
@@ -674,19 +534,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>shp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>res</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>restaurant</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -739,11 +591,167 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>image path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movie path</t>
+    <t>Sts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LangDiv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayoutType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttGrpType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PublishSts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HasNotHave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayoutObjType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayoutMultiplicity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacilityType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImagePath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MoviePath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Longitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disclose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Has</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DoesNotHave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Movie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multiple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacilityGroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacilityFacilityGroupLink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Restaurant</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -995,61 +1003,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <border>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <border>
         <top style="hair">
@@ -1417,75 +1371,75 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="8"/>
       <c r="L1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="8"/>
       <c r="P1" s="18" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -1498,42 +1452,42 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="15" t="str">
         <f>IF(ISNUMBER($B3),"insert into M_CD_GRP values ("&amp;$B3&amp;", now(), 1, now(), 1, 0, '"&amp;$C3&amp;"', '"&amp;$D3&amp;"', '"&amp;$E3&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (1, now(), 1, now(), 1, 0, 'sts', 'ステータス', '');</v>
+        <v>insert into M_CD_GRP values (1, now(), 1, now(), 1, 0, 'Sts', 'ステータス', '');</v>
       </c>
       <c r="G3" s="15">
         <f>IF(ISBLANK($H3),"",MAX($G$1:$G2)+1)</f>
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="J3" s="11">
         <v>1</v>
       </c>
       <c r="K3" s="15" t="str">
         <f>IF(ISNUMBER($G3),"insert into M_CD_VAL values ("&amp;$G3&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B3)&amp;"', '"&amp;$H3&amp;"', '"&amp;$I3&amp;"', "&amp;J3&amp;");","")</f>
-        <v>insert into M_CD_VAL values (1, now(), 1, now(), 1, 0, '1', 'val', 'valid', 1);</v>
+        <v>insert into M_CD_VAL values (1, now(), 1, now(), 1, 0, '1', 'val', 'Valid', 1);</v>
       </c>
       <c r="L3" s="15">
         <f>IF(ISBLANK($M3),"",MAX($L$1:$L2)+1)</f>
         <v>1</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="str">
         <f>IF(ISNUMBER($L3),"insert into M_CD_VAL_LANG values ("&amp;$L3&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G3)&amp;"', '"&amp;$M3&amp;"', '"&amp;$N3&amp;"');","")</f>
@@ -1573,10 +1527,10 @@
         <v>2</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O4" s="16" t="str">
         <f>IF(ISNUMBER($L4),"insert into M_CD_VAL_LANG values ("&amp;$L4&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G4)&amp;"', '"&amp;$M4&amp;"', '"&amp;$N4&amp;"');","")</f>
@@ -1605,27 +1559,27 @@
         <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="J5" s="13">
         <v>2</v>
       </c>
       <c r="K5" s="16" t="str">
         <f>IF(ISNUMBER($G5),"insert into M_CD_VAL values ("&amp;$G5&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B5)&amp;"', '"&amp;$H5&amp;"', '"&amp;$I5&amp;"', "&amp;J5&amp;");","")</f>
-        <v>insert into M_CD_VAL values (2, now(), 1, now(), 1, 0, '1', 'inval', 'invalid', 2);</v>
+        <v>insert into M_CD_VAL values (2, now(), 1, now(), 1, 0, '1', 'inval', 'Invalid', 2);</v>
       </c>
       <c r="L5" s="16">
         <f>IF(ISBLANK($M5),"",MAX($L$1:$L4)+1)</f>
         <v>3</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O5" s="16" t="str">
         <f>IF(ISNUMBER($L5),"insert into M_CD_VAL_LANG values ("&amp;$L5&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G5)&amp;"', '"&amp;$M5&amp;"', '"&amp;$N5&amp;"');","")</f>
@@ -1665,10 +1619,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O6" s="16" t="str">
         <f>IF(ISNUMBER($L6),"insert into M_CD_VAL_LANG values ("&amp;$L6&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G6)&amp;"', '"&amp;$M6&amp;"', '"&amp;$N6&amp;"');","")</f>
@@ -1697,27 +1651,27 @@
         <v>3</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="J7" s="13">
         <v>3</v>
       </c>
       <c r="K7" s="16" t="str">
         <f>IF(ISNUMBER($G7),"insert into M_CD_VAL values ("&amp;$G7&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B7)&amp;"', '"&amp;$H7&amp;"', '"&amp;$I7&amp;"', "&amp;J7&amp;");","")</f>
-        <v>insert into M_CD_VAL values (3, now(), 1, now(), 1, 0, '1', 'del', 'deleted', 3);</v>
+        <v>insert into M_CD_VAL values (3, now(), 1, now(), 1, 0, '1', 'del', 'Deleted', 3);</v>
       </c>
       <c r="L7" s="16">
         <f>IF(ISBLANK($M7),"",MAX($L$1:$L6)+1)</f>
         <v>5</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O7" s="16" t="str">
         <f>IF(ISNUMBER($L7),"insert into M_CD_VAL_LANG values ("&amp;$L7&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G7)&amp;"', '"&amp;$M7&amp;"', '"&amp;$N7&amp;"');","")</f>
@@ -1757,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O8" s="16" t="str">
         <f>IF(ISNUMBER($L8),"insert into M_CD_VAL_LANG values ("&amp;$L8&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G8)&amp;"', '"&amp;$M8&amp;"', '"&amp;$N8&amp;"');","")</f>
@@ -1778,42 +1732,42 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into M_CD_GRP values (2, now(), 1, now(), 1, 0, 'langDiv', '言語区分', '');</v>
+        <v>insert into M_CD_GRP values (2, now(), 1, now(), 1, 0, 'LangDiv', '言語区分', '');</v>
       </c>
       <c r="G9" s="16">
         <f>IF(ISBLANK($H9),"",MAX($G$1:$G8)+1)</f>
         <v>4</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="J9" s="13">
         <v>1</v>
       </c>
       <c r="K9" s="16" t="str">
         <f>IF(ISNUMBER($G9),"insert into M_CD_VAL values ("&amp;$G9&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B9)&amp;"', '"&amp;$H9&amp;"', '"&amp;$I9&amp;"', "&amp;J9&amp;");","")</f>
-        <v>insert into M_CD_VAL values (4, now(), 1, now(), 1, 0, '2', 'common', 'common', 1);</v>
+        <v>insert into M_CD_VAL values (4, now(), 1, now(), 1, 0, '2', 'common', 'Common', 1);</v>
       </c>
       <c r="L9" s="16">
         <f>IF(ISBLANK($M9),"",MAX($L$1:$L8)+1)</f>
         <v>7</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O9" s="16" t="str">
         <f>IF(ISNUMBER($L9),"insert into M_CD_VAL_LANG values ("&amp;$L9&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G9)&amp;"', '"&amp;$M9&amp;"', '"&amp;$N9&amp;"');","")</f>
@@ -1853,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O10" s="16" t="str">
         <f>IF(ISNUMBER($L10),"insert into M_CD_VAL_LANG values ("&amp;$L10&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G10)&amp;"', '"&amp;$M10&amp;"', '"&amp;$N10&amp;"');","")</f>
@@ -1885,27 +1839,27 @@
         <v>5</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="J11" s="13">
         <v>2</v>
       </c>
       <c r="K11" s="16" t="str">
         <f>IF(ISNUMBER($G11),"insert into M_CD_VAL values ("&amp;$G11&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B11)&amp;"', '"&amp;$H11&amp;"', '"&amp;$I11&amp;"', "&amp;J11&amp;");","")</f>
-        <v>insert into M_CD_VAL values (5, now(), 1, now(), 1, 0, '2', 'ja', 'japanese', 2);</v>
+        <v>insert into M_CD_VAL values (5, now(), 1, now(), 1, 0, '2', 'ja', 'Japanese', 2);</v>
       </c>
       <c r="L11" s="16">
         <f>IF(ISBLANK($M11),"",MAX($L$1:$L10)+1)</f>
         <v>9</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" s="16" t="str">
         <f>IF(ISNUMBER($L11),"insert into M_CD_VAL_LANG values ("&amp;$L11&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G11)&amp;"', '"&amp;$M11&amp;"', '"&amp;$N11&amp;"');","")</f>
@@ -1945,10 +1899,10 @@
         <v>10</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" s="16" t="str">
         <f>IF(ISNUMBER($L12),"insert into M_CD_VAL_LANG values ("&amp;$L12&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G12)&amp;"', '"&amp;$M12&amp;"', '"&amp;$N12&amp;"');","")</f>
@@ -1977,27 +1931,27 @@
         <v>6</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="J13" s="13">
         <v>3</v>
       </c>
       <c r="K13" s="16" t="str">
         <f>IF(ISNUMBER($G13),"insert into M_CD_VAL values ("&amp;$G13&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B13)&amp;"', '"&amp;$H13&amp;"', '"&amp;$I13&amp;"', "&amp;J13&amp;");","")</f>
-        <v>insert into M_CD_VAL values (6, now(), 1, now(), 1, 0, '2', 'en', 'english', 3);</v>
+        <v>insert into M_CD_VAL values (6, now(), 1, now(), 1, 0, '2', 'en', 'English', 3);</v>
       </c>
       <c r="L13" s="16">
         <f>IF(ISBLANK($M13),"",MAX($L$1:$L12)+1)</f>
         <v>11</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O13" s="16" t="str">
         <f>IF(ISNUMBER($L13),"insert into M_CD_VAL_LANG values ("&amp;$L13&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G13)&amp;"', '"&amp;$M13&amp;"', '"&amp;$N13&amp;"');","")</f>
@@ -2037,10 +1991,10 @@
         <v>12</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O14" s="16" t="str">
         <f>IF(ISNUMBER($L14),"insert into M_CD_VAL_LANG values ("&amp;$L14&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G14)&amp;"', '"&amp;$M14&amp;"', '"&amp;$N14&amp;"');","")</f>
@@ -2058,42 +2012,42 @@
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into M_CD_GRP values (3, now(), 1, now(), 1, 0, 'layoutType', 'レイアウト種別', '');</v>
+        <v>insert into M_CD_GRP values (3, now(), 1, now(), 1, 0, 'LayoutType', 'レイアウト種別', '');</v>
       </c>
       <c r="G15" s="16">
         <f>IF(ISBLANK($H15),"",MAX($G$1:$G14)+1)</f>
         <v>7</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="J15" s="13">
         <v>1</v>
       </c>
       <c r="K15" s="16" t="str">
         <f>IF(ISNUMBER($G15),"insert into M_CD_VAL values ("&amp;$G15&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B15)&amp;"', '"&amp;$H15&amp;"', '"&amp;$I15&amp;"', "&amp;J15&amp;");","")</f>
-        <v>insert into M_CD_VAL values (7, now(), 1, now(), 1, 0, '3', 'men', 'menu', 1);</v>
+        <v>insert into M_CD_VAL values (7, now(), 1, now(), 1, 0, '3', 'men', 'Menu', 1);</v>
       </c>
       <c r="L15" s="16">
         <f>IF(ISBLANK($M15),"",MAX($L$1:$L14)+1)</f>
         <v>13</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O15" s="16" t="str">
         <f>IF(ISNUMBER($L15),"insert into M_CD_VAL_LANG values ("&amp;$L15&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G15)&amp;"', '"&amp;$M15&amp;"', '"&amp;$N15&amp;"');","")</f>
@@ -2122,27 +2076,27 @@
         <v>8</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="J16" s="13">
         <v>2</v>
       </c>
       <c r="K16" s="16" t="str">
         <f>IF(ISNUMBER($G16),"insert into M_CD_VAL values ("&amp;$G16&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B16)&amp;"', '"&amp;$H16&amp;"', '"&amp;$I16&amp;"', "&amp;J16&amp;");","")</f>
-        <v>insert into M_CD_VAL values (8, now(), 1, now(), 1, 0, '3', 'lst', 'list', 2);</v>
+        <v>insert into M_CD_VAL values (8, now(), 1, now(), 1, 0, '3', 'lst', 'List', 2);</v>
       </c>
       <c r="L16" s="16">
         <f>IF(ISBLANK($M16),"",MAX($L$1:$L15)+1)</f>
         <v>14</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="O16" s="16" t="str">
         <f>IF(ISNUMBER($L16),"insert into M_CD_VAL_LANG values ("&amp;$L16&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G16)&amp;"', '"&amp;$M16&amp;"', '"&amp;$N16&amp;"');","")</f>
@@ -2171,27 +2125,27 @@
         <v>9</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="J17" s="13">
         <v>3</v>
       </c>
       <c r="K17" s="16" t="str">
         <f>IF(ISNUMBER($G17),"insert into M_CD_VAL values ("&amp;$G17&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B17)&amp;"', '"&amp;$H17&amp;"', '"&amp;$I17&amp;"', "&amp;J17&amp;");","")</f>
-        <v>insert into M_CD_VAL values (9, now(), 1, now(), 1, 0, '3', 'map', 'map', 3);</v>
+        <v>insert into M_CD_VAL values (9, now(), 1, now(), 1, 0, '3', 'map', 'Map', 3);</v>
       </c>
       <c r="L17" s="16">
         <f>IF(ISBLANK($M17),"",MAX($L$1:$L16)+1)</f>
         <v>15</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O17" s="16" t="str">
         <f>IF(ISNUMBER($L17),"insert into M_CD_VAL_LANG values ("&amp;$L17&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G17)&amp;"', '"&amp;$M17&amp;"', '"&amp;$N17&amp;"');","")</f>
@@ -2220,27 +2174,27 @@
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="J18" s="13">
         <v>4</v>
       </c>
       <c r="K18" s="16" t="str">
         <f>IF(ISNUMBER($G18),"insert into M_CD_VAL values ("&amp;$G18&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B18)&amp;"', '"&amp;$H18&amp;"', '"&amp;$I18&amp;"', "&amp;J18&amp;");","")</f>
-        <v>insert into M_CD_VAL values (10, now(), 1, now(), 1, 0, '3', 'det', 'detail', 4);</v>
+        <v>insert into M_CD_VAL values (10, now(), 1, now(), 1, 0, '3', 'det', 'Detail', 4);</v>
       </c>
       <c r="L18" s="16">
         <f>IF(ISBLANK($M18),"",MAX($L$1:$L17)+1)</f>
         <v>16</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O18" s="16" t="str">
         <f>IF(ISNUMBER($L18),"insert into M_CD_VAL_LANG values ("&amp;$L18&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G18)&amp;"', '"&amp;$M18&amp;"', '"&amp;$N18&amp;"');","")</f>
@@ -2258,42 +2212,42 @@
         <v>4</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="str">
         <f t="shared" ref="F19:F82" si="2">IF(ISNUMBER($B19),"insert into M_CD_GRP values ("&amp;$B19&amp;", now(), 1, now(), 1, 0, '"&amp;$C19&amp;"', '"&amp;$D19&amp;"', '"&amp;$E19&amp;"');","")</f>
-        <v>insert into M_CD_GRP values (4, now(), 1, now(), 1, 0, 'attGrpType', '属性グループ種別', '');</v>
+        <v>insert into M_CD_GRP values (4, now(), 1, now(), 1, 0, 'AttGrpType', '属性グループ種別', '');</v>
       </c>
       <c r="G19" s="19">
         <f>IF(ISBLANK($H19),"",MAX($G$1:$G18)+1)</f>
         <v>11</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="J19" s="19">
         <v>1</v>
       </c>
       <c r="K19" s="19" t="str">
         <f>IF(ISNUMBER($G19),"insert into M_CD_VAL values ("&amp;$G19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B19)&amp;"', '"&amp;$H19&amp;"', '"&amp;$I19&amp;"', "&amp;J19&amp;");","")</f>
-        <v>insert into M_CD_VAL values (11, now(), 1, now(), 1, 0, '4', 'txt', 'text', 1);</v>
+        <v>insert into M_CD_VAL values (11, now(), 1, now(), 1, 0, '4', 'txt', 'Text', 1);</v>
       </c>
       <c r="L19" s="19">
         <f>IF(ISBLANK($M19),"",MAX($L$1:$L18)+1)</f>
         <v>17</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O19" s="16" t="str">
         <f>IF(ISNUMBER($L19),"insert into M_CD_VAL_LANG values ("&amp;$L19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G19)&amp;"', '"&amp;$M19&amp;"', '"&amp;$N19&amp;"');","")</f>
@@ -2322,27 +2276,27 @@
         <v>12</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="J20" s="19">
         <v>2</v>
       </c>
       <c r="K20" s="19" t="str">
         <f>IF(ISNUMBER($G20),"insert into M_CD_VAL values ("&amp;$G20&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B20)&amp;"', '"&amp;$H20&amp;"', '"&amp;$I20&amp;"', "&amp;J20&amp;");","")</f>
-        <v>insert into M_CD_VAL values (12, now(), 1, now(), 1, 0, '4', 'cd', 'code', 2);</v>
+        <v>insert into M_CD_VAL values (12, now(), 1, now(), 1, 0, '4', 'cd', 'Code', 2);</v>
       </c>
       <c r="L20" s="19">
         <f>IF(ISBLANK($M20),"",MAX($L$1:$L19)+1)</f>
         <v>18</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O20" s="16" t="str">
         <f>IF(ISNUMBER($L20),"insert into M_CD_VAL_LANG values ("&amp;$L20&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G20)&amp;"', '"&amp;$M20&amp;"', '"&amp;$N20&amp;"');","")</f>
@@ -2371,27 +2325,27 @@
         <v>13</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J21" s="19">
         <v>3</v>
       </c>
       <c r="K21" s="19" t="str">
         <f>IF(ISNUMBER($G21),"insert into M_CD_VAL values ("&amp;$G21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B21)&amp;"', '"&amp;$H21&amp;"', '"&amp;$I21&amp;"', "&amp;J21&amp;");","")</f>
-        <v>insert into M_CD_VAL values (13, now(), 1, now(), 1, 0, '4', 'imgp', 'image path', 3);</v>
+        <v>insert into M_CD_VAL values (13, now(), 1, now(), 1, 0, '4', 'imgp', 'ImagePath', 3);</v>
       </c>
       <c r="L21" s="19">
         <f>IF(ISBLANK($M21),"",MAX($L$1:$L20)+1)</f>
         <v>19</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="O21" s="16" t="str">
         <f>IF(ISNUMBER($L21),"insert into M_CD_VAL_LANG values ("&amp;$L21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G21)&amp;"', '"&amp;$M21&amp;"', '"&amp;$N21&amp;"');","")</f>
@@ -2420,27 +2374,27 @@
         <v>14</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="J22" s="19">
         <v>4</v>
       </c>
       <c r="K22" s="19" t="str">
         <f>IF(ISNUMBER($G22),"insert into M_CD_VAL values ("&amp;$G22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B22)&amp;"', '"&amp;$H22&amp;"', '"&amp;$I22&amp;"', "&amp;J22&amp;");","")</f>
-        <v>insert into M_CD_VAL values (14, now(), 1, now(), 1, 0, '4', 'movp', 'movie path', 4);</v>
+        <v>insert into M_CD_VAL values (14, now(), 1, now(), 1, 0, '4', 'movp', 'MoviePath', 4);</v>
       </c>
       <c r="L22" s="19">
         <f>IF(ISBLANK($M22),"",MAX($L$1:$L21)+1)</f>
         <v>20</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="O22" s="16" t="str">
         <f>IF(ISNUMBER($L22),"insert into M_CD_VAL_LANG values ("&amp;$L22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G22)&amp;"', '"&amp;$M22&amp;"', '"&amp;$N22&amp;"');","")</f>
@@ -2469,27 +2423,27 @@
         <v>15</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J23" s="19">
         <v>5</v>
       </c>
       <c r="K23" s="19" t="str">
         <f>IF(ISNUMBER($G23),"insert into M_CD_VAL values ("&amp;$G23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B23)&amp;"', '"&amp;$H23&amp;"', '"&amp;$I23&amp;"', "&amp;J23&amp;");","")</f>
-        <v>insert into M_CD_VAL values (15, now(), 1, now(), 1, 0, '4', 'lon', 'longitude', 5);</v>
+        <v>insert into M_CD_VAL values (15, now(), 1, now(), 1, 0, '4', 'lon', 'Longitude', 5);</v>
       </c>
       <c r="L23" s="19">
         <f>IF(ISBLANK($M23),"",MAX($L$1:$L22)+1)</f>
         <v>21</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O23" s="16" t="str">
         <f>IF(ISNUMBER($L23),"insert into M_CD_VAL_LANG values ("&amp;$L23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G23)&amp;"', '"&amp;$M23&amp;"', '"&amp;$N23&amp;"');","")</f>
@@ -2518,27 +2472,27 @@
         <v>16</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="J24" s="19">
         <v>6</v>
       </c>
       <c r="K24" s="19" t="str">
         <f>IF(ISNUMBER($G24),"insert into M_CD_VAL values ("&amp;$G24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B24)&amp;"', '"&amp;$H24&amp;"', '"&amp;$I24&amp;"', "&amp;J24&amp;");","")</f>
-        <v>insert into M_CD_VAL values (16, now(), 1, now(), 1, 0, '4', 'lat', 'latitude', 6);</v>
+        <v>insert into M_CD_VAL values (16, now(), 1, now(), 1, 0, '4', 'lat', 'Latitude', 6);</v>
       </c>
       <c r="L24" s="19">
         <f>IF(ISBLANK($M24),"",MAX($L$1:$L23)+1)</f>
         <v>22</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O24" s="16" t="str">
         <f>IF(ISNUMBER($L24),"insert into M_CD_VAL_LANG values ("&amp;$L24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G24)&amp;"', '"&amp;$M24&amp;"', '"&amp;$N24&amp;"');","")</f>
@@ -2556,42 +2510,42 @@
         <v>5</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (5, now(), 1, now(), 1, 0, 'publishSts', '公開ステータス', '');</v>
+        <v>insert into M_CD_GRP values (5, now(), 1, now(), 1, 0, 'PublishSts', '公開ステータス', '');</v>
       </c>
       <c r="G25" s="16">
         <f>IF(ISBLANK($H25),"",MAX($G$1:$G24)+1)</f>
         <v>17</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="16" t="str">
         <f>IF(ISNUMBER($G25),"insert into M_CD_VAL values ("&amp;$G25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B25)&amp;"', '"&amp;$H25&amp;"', '"&amp;$I25&amp;"', "&amp;J25&amp;");","")</f>
-        <v>insert into M_CD_VAL values (17, now(), 1, now(), 1, 0, '5', 'dcls', 'disclose', 1);</v>
+        <v>insert into M_CD_VAL values (17, now(), 1, now(), 1, 0, '5', 'dcls', 'Disclose', 1);</v>
       </c>
       <c r="L25" s="16">
         <f>IF(ISBLANK($M25),"",MAX($L$1:$L24)+1)</f>
         <v>23</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="O25" s="16" t="str">
         <f>IF(ISNUMBER($L25),"insert into M_CD_VAL_LANG values ("&amp;$L25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G25)&amp;"', '"&amp;$M25&amp;"', '"&amp;$N25&amp;"');","")</f>
@@ -2620,27 +2574,27 @@
         <v>18</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="J26" s="13">
         <v>2</v>
       </c>
       <c r="K26" s="16" t="str">
         <f>IF(ISNUMBER($G26),"insert into M_CD_VAL values ("&amp;$G26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B26)&amp;"', '"&amp;$H26&amp;"', '"&amp;$I26&amp;"', "&amp;J26&amp;");","")</f>
-        <v>insert into M_CD_VAL values (18, now(), 1, now(), 1, 0, '5', 'cls', 'close', 2);</v>
+        <v>insert into M_CD_VAL values (18, now(), 1, now(), 1, 0, '5', 'cls', 'Close', 2);</v>
       </c>
       <c r="L26" s="16">
         <f>IF(ISBLANK($M26),"",MAX($L$1:$L25)+1)</f>
         <v>24</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>IF(ISNUMBER($L26),"insert into M_CD_VAL_LANG values ("&amp;$L26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G26)&amp;"', '"&amp;$M26&amp;"', '"&amp;$N26&amp;"');","")</f>
@@ -2658,42 +2612,42 @@
         <v>6</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (6, now(), 1, now(), 1, 0, 'hasNotHave', '有無', '');</v>
+        <v>insert into M_CD_GRP values (6, now(), 1, now(), 1, 0, 'HasNotHave', '有無', '');</v>
       </c>
       <c r="G27" s="16">
         <f>IF(ISBLANK($H27),"",MAX($G$1:$G26)+1)</f>
         <v>19</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J27" s="13">
         <v>1</v>
       </c>
       <c r="K27" s="16" t="str">
         <f>IF(ISNUMBER($G27),"insert into M_CD_VAL values ("&amp;$G27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B27)&amp;"', '"&amp;$H27&amp;"', '"&amp;$I27&amp;"', "&amp;J27&amp;");","")</f>
-        <v>insert into M_CD_VAL values (19, now(), 1, now(), 1, 0, '6', 'has', 'has', 1);</v>
+        <v>insert into M_CD_VAL values (19, now(), 1, now(), 1, 0, '6', 'has', 'Has', 1);</v>
       </c>
       <c r="L27" s="16">
         <f>IF(ISBLANK($M27),"",MAX($L$1:$L26)+1)</f>
         <v>25</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>IF(ISNUMBER($L27),"insert into M_CD_VAL_LANG values ("&amp;$L27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G27)&amp;"', '"&amp;$M27&amp;"', '"&amp;$N27&amp;"');","")</f>
@@ -2733,10 +2687,10 @@
         <v>26</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="O28" s="16" t="str">
         <f>IF(ISNUMBER($L28),"insert into M_CD_VAL_LANG values ("&amp;$L28&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G28)&amp;"', '"&amp;$M28&amp;"', '"&amp;$N28&amp;"');","")</f>
@@ -2765,27 +2719,27 @@
         <v>20</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="J29" s="13">
         <v>2</v>
       </c>
       <c r="K29" s="16" t="str">
         <f>IF(ISNUMBER($G29),"insert into M_CD_VAL values ("&amp;$G29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B29)&amp;"', '"&amp;$H29&amp;"', '"&amp;$I29&amp;"', "&amp;J29&amp;");","")</f>
-        <v>insert into M_CD_VAL values (20, now(), 1, now(), 1, 0, '6', 'nohas', 'does not have', 2);</v>
+        <v>insert into M_CD_VAL values (20, now(), 1, now(), 1, 0, '6', 'nohas', 'DoesNotHave', 2);</v>
       </c>
       <c r="L29" s="16">
         <f>IF(ISBLANK($M29),"",MAX($L$1:$L28)+1)</f>
         <v>27</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="O29" s="16" t="str">
         <f>IF(ISNUMBER($L29),"insert into M_CD_VAL_LANG values ("&amp;$L29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G29)&amp;"', '"&amp;$M29&amp;"', '"&amp;$N29&amp;"');","")</f>
@@ -2825,10 +2779,10 @@
         <v>28</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="O30" s="16" t="str">
         <f>IF(ISNUMBER($L30),"insert into M_CD_VAL_LANG values ("&amp;$L30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G30)&amp;"', '"&amp;$M30&amp;"', '"&amp;$N30&amp;"');","")</f>
@@ -2846,42 +2800,42 @@
         <v>7</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (7, now(), 1, now(), 1, 0, 'layoutObjType', 'レイアウトオブジェクトタイプ', '');</v>
+        <v>insert into M_CD_GRP values (7, now(), 1, now(), 1, 0, 'LayoutObjType', 'レイアウトオブジェクトタイプ', '');</v>
       </c>
       <c r="G31" s="19">
         <f>IF(ISBLANK($H31),"",MAX($G$1:$G30)+1)</f>
         <v>21</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="J31" s="19">
         <v>1</v>
       </c>
       <c r="K31" s="19" t="str">
         <f>IF(ISNUMBER($G31),"insert into M_CD_VAL values ("&amp;$G31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B31)&amp;"', '"&amp;$H31&amp;"', '"&amp;$I31&amp;"', "&amp;J31&amp;");","")</f>
-        <v>insert into M_CD_VAL values (21, now(), 1, now(), 1, 0, '7', 'txt', 'text', 1);</v>
+        <v>insert into M_CD_VAL values (21, now(), 1, now(), 1, 0, '7', 'txt', 'Text', 1);</v>
       </c>
       <c r="L31" s="19">
         <f>IF(ISBLANK($M31),"",MAX($L$1:$L30)+1)</f>
         <v>29</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O31" s="16" t="str">
         <f>IF(ISNUMBER($L31),"insert into M_CD_VAL_LANG values ("&amp;$L31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G31)&amp;"', '"&amp;$M31&amp;"', '"&amp;$N31&amp;"');","")</f>
@@ -2910,27 +2864,27 @@
         <v>22</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="J32" s="19">
         <v>2</v>
       </c>
       <c r="K32" s="19" t="str">
         <f>IF(ISNUMBER($G32),"insert into M_CD_VAL values ("&amp;$G32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B32)&amp;"', '"&amp;$H32&amp;"', '"&amp;$I32&amp;"', "&amp;J32&amp;");","")</f>
-        <v>insert into M_CD_VAL values (22, now(), 1, now(), 1, 0, '7', 'img', 'image', 2);</v>
+        <v>insert into M_CD_VAL values (22, now(), 1, now(), 1, 0, '7', 'img', 'Image', 2);</v>
       </c>
       <c r="L32" s="19">
         <f>IF(ISBLANK($M32),"",MAX($L$1:$L31)+1)</f>
         <v>30</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>IF(ISNUMBER($L32),"insert into M_CD_VAL_LANG values ("&amp;$L32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G32)&amp;"', '"&amp;$M32&amp;"', '"&amp;$N32&amp;"');","")</f>
@@ -2958,27 +2912,27 @@
         <v>23</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="J33" s="19">
         <v>3</v>
       </c>
       <c r="K33" s="19" t="str">
         <f>IF(ISNUMBER($G33),"insert into M_CD_VAL values ("&amp;$G33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B33)&amp;"', '"&amp;$H33&amp;"', '"&amp;$I33&amp;"', "&amp;J33&amp;");","")</f>
-        <v>insert into M_CD_VAL values (23, now(), 1, now(), 1, 0, '7', 'mov', 'movie', 3);</v>
+        <v>insert into M_CD_VAL values (23, now(), 1, now(), 1, 0, '7', 'mov', 'Movie', 3);</v>
       </c>
       <c r="L33" s="19">
         <f>IF(ISBLANK($M33),"",MAX($L$1:$L32)+1)</f>
         <v>31</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>IF(ISNUMBER($L33),"insert into M_CD_VAL_LANG values ("&amp;$L33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G33)&amp;"', '"&amp;$M33&amp;"', '"&amp;$N33&amp;"');","")</f>
@@ -3006,27 +2960,27 @@
         <v>24</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="J34" s="19">
         <v>4</v>
       </c>
       <c r="K34" s="19" t="str">
         <f>IF(ISNUMBER($G34),"insert into M_CD_VAL values ("&amp;$G34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B34)&amp;"', '"&amp;$H34&amp;"', '"&amp;$I34&amp;"', "&amp;J34&amp;");","")</f>
-        <v>insert into M_CD_VAL values (24, now(), 1, now(), 1, 0, '7', 'map', 'map', 4);</v>
+        <v>insert into M_CD_VAL values (24, now(), 1, now(), 1, 0, '7', 'map', 'Map', 4);</v>
       </c>
       <c r="L34" s="19">
         <f>IF(ISBLANK($M34),"",MAX($L$1:$L33)+1)</f>
         <v>32</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="O34" s="16" t="str">
         <f>IF(ISNUMBER($L34),"insert into M_CD_VAL_LANG values ("&amp;$L34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G34)&amp;"', '"&amp;$M34&amp;"', '"&amp;$N34&amp;"');","")</f>
@@ -3054,27 +3008,27 @@
         <v>25</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="J35" s="19">
         <v>5</v>
       </c>
       <c r="K35" s="19" t="str">
         <f>IF(ISNUMBER($G35),"insert into M_CD_VAL values ("&amp;$G35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B35)&amp;"', '"&amp;$H35&amp;"', '"&amp;$I35&amp;"', "&amp;J35&amp;");","")</f>
-        <v>insert into M_CD_VAL values (25, now(), 1, now(), 1, 0, '7', 'button', 'button', 5);</v>
+        <v>insert into M_CD_VAL values (25, now(), 1, now(), 1, 0, '7', 'button', 'Button', 5);</v>
       </c>
       <c r="L35" s="19">
         <f>IF(ISBLANK($M35),"",MAX($L$1:$L34)+1)</f>
         <v>33</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="O35" s="16" t="str">
         <f>IF(ISNUMBER($L35),"insert into M_CD_VAL_LANG values ("&amp;$L35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G35)&amp;"', '"&amp;$M35&amp;"', '"&amp;$N35&amp;"');","")</f>
@@ -3091,42 +3045,42 @@
         <v>8</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (8, now(), 1, now(), 1, 0, 'layoutMultiplicity', 'レイアウト多重度', '');</v>
+        <v>insert into M_CD_GRP values (8, now(), 1, now(), 1, 0, 'LayoutMultiplicity', 'レイアウト多重度', '');</v>
       </c>
       <c r="G36" s="16">
         <f>IF(ISBLANK($H36),"",MAX($G$1:$G35)+1)</f>
         <v>26</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="J36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="16" t="str">
         <f>IF(ISNUMBER($G36),"insert into M_CD_VAL values ("&amp;$G36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B36)&amp;"', '"&amp;$H36&amp;"', '"&amp;$I36&amp;"', "&amp;J36&amp;");","")</f>
-        <v>insert into M_CD_VAL values (26, now(), 1, now(), 1, 0, '8', 'sin', 'single', 1);</v>
+        <v>insert into M_CD_VAL values (26, now(), 1, now(), 1, 0, '8', 'sin', 'Single', 1);</v>
       </c>
       <c r="L36" s="16">
         <f>IF(ISBLANK($M36),"",MAX($L$1:$L35)+1)</f>
         <v>34</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="O36" s="16" t="str">
         <f>IF(ISNUMBER($L36),"insert into M_CD_VAL_LANG values ("&amp;$L36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G36)&amp;"', '"&amp;$M36&amp;"', '"&amp;$N36&amp;"');","")</f>
@@ -3154,27 +3108,27 @@
         <v>27</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="J37" s="13">
         <v>2</v>
       </c>
       <c r="K37" s="16" t="str">
         <f>IF(ISNUMBER($G37),"insert into M_CD_VAL values ("&amp;$G37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B37)&amp;"', '"&amp;$H37&amp;"', '"&amp;$I37&amp;"', "&amp;J37&amp;");","")</f>
-        <v>insert into M_CD_VAL values (27, now(), 1, now(), 1, 0, '8', 'multi', 'multiple', 2);</v>
+        <v>insert into M_CD_VAL values (27, now(), 1, now(), 1, 0, '8', 'multi', 'Multiple', 2);</v>
       </c>
       <c r="L37" s="16">
         <f>IF(ISBLANK($M37),"",MAX($L$1:$L36)+1)</f>
         <v>35</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="O37" s="16" t="str">
         <f>IF(ISNUMBER($L37),"insert into M_CD_VAL_LANG values ("&amp;$L37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G37)&amp;"', '"&amp;$M37&amp;"', '"&amp;$N37&amp;"');","")</f>
@@ -3194,39 +3148,39 @@
         <v>111</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (9, now(), 1, now(), 1, 0, 'entity', 'エンティティ', '');</v>
+        <v>insert into M_CD_GRP values (9, now(), 1, now(), 1, 0, 'Entity', 'エンティティ', '');</v>
       </c>
       <c r="G38" s="16">
         <f>IF(ISBLANK($H38),"",MAX($G$1:$G37)+1)</f>
         <v>28</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="J38" s="13">
         <v>1</v>
       </c>
       <c r="K38" s="16" t="str">
         <f>IF(ISNUMBER($G38),"insert into M_CD_VAL values ("&amp;$G38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B38)&amp;"', '"&amp;$H38&amp;"', '"&amp;$I38&amp;"', "&amp;J38&amp;");","")</f>
-        <v>insert into M_CD_VAL values (28, now(), 1, now(), 1, 0, '9', 'reg', 'region', 1);</v>
+        <v>insert into M_CD_VAL values (28, now(), 1, now(), 1, 0, '9', 'reg', 'Region', 1);</v>
       </c>
       <c r="L38" s="16">
         <f>IF(ISBLANK($M38),"",MAX($L$1:$L37)+1)</f>
         <v>36</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="O38" s="16" t="str">
         <f>IF(ISNUMBER($L38),"insert into M_CD_VAL_LANG values ("&amp;$L38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G38)&amp;"', '"&amp;$M38&amp;"', '"&amp;$N38&amp;"');","")</f>
@@ -3254,27 +3208,27 @@
         <v>29</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="J39" s="13">
         <v>2</v>
       </c>
       <c r="K39" s="16" t="str">
         <f>IF(ISNUMBER($G39),"insert into M_CD_VAL values ("&amp;$G39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B39)&amp;"', '"&amp;$H39&amp;"', '"&amp;$I39&amp;"', "&amp;J39&amp;");","")</f>
-        <v>insert into M_CD_VAL values (29, now(), 1, now(), 1, 0, '9', 'fac', 'facility', 2);</v>
+        <v>insert into M_CD_VAL values (29, now(), 1, now(), 1, 0, '9', 'fac', 'Facility', 2);</v>
       </c>
       <c r="L39" s="16">
         <f>IF(ISBLANK($M39),"",MAX($L$1:$L38)+1)</f>
         <v>37</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="O39" s="16" t="str">
         <f>IF(ISNUMBER($L39),"insert into M_CD_VAL_LANG values ("&amp;$L39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G39)&amp;"', '"&amp;$M39&amp;"', '"&amp;$N39&amp;"');","")</f>
@@ -3302,27 +3256,27 @@
         <v>30</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="J40" s="13">
         <v>3</v>
       </c>
       <c r="K40" s="16" t="str">
         <f>IF(ISNUMBER($G40),"insert into M_CD_VAL values ("&amp;$G40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B40)&amp;"', '"&amp;$H40&amp;"', '"&amp;$I40&amp;"', "&amp;J40&amp;");","")</f>
-        <v>insert into M_CD_VAL values (30, now(), 1, now(), 1, 0, '9', 'facgrp', 'facility group', 3);</v>
+        <v>insert into M_CD_VAL values (30, now(), 1, now(), 1, 0, '9', 'facgrp', 'FacilityGroup', 3);</v>
       </c>
       <c r="L40" s="16">
         <f>IF(ISBLANK($M40),"",MAX($L$1:$L39)+1)</f>
         <v>38</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O40" s="16" t="str">
         <f>IF(ISNUMBER($L40),"insert into M_CD_VAL_LANG values ("&amp;$L40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G40)&amp;"', '"&amp;$M40&amp;"', '"&amp;$N40&amp;"');","")</f>
@@ -3350,27 +3304,27 @@
         <v>31</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="J41" s="13">
         <v>4</v>
       </c>
       <c r="K41" s="16" t="str">
         <f>IF(ISNUMBER($G41),"insert into M_CD_VAL values ("&amp;$G41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B41)&amp;"', '"&amp;$H41&amp;"', '"&amp;$I41&amp;"', "&amp;J41&amp;");","")</f>
-        <v>insert into M_CD_VAL values (31, now(), 1, now(), 1, 0, '9', 'facgrpln', 'faciligy faciligy group link', 4);</v>
+        <v>insert into M_CD_VAL values (31, now(), 1, now(), 1, 0, '9', 'facgrpln', 'FacilityFacilityGroupLink', 4);</v>
       </c>
       <c r="L41" s="16">
         <f>IF(ISBLANK($M41),"",MAX($L$1:$L40)+1)</f>
         <v>39</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="O41" s="16" t="str">
         <f>IF(ISNUMBER($L41),"insert into M_CD_VAL_LANG values ("&amp;$L41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G41)&amp;"', '"&amp;$M41&amp;"', '"&amp;$N41&amp;"');","")</f>
@@ -3387,42 +3341,42 @@
         <v>10</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'facilityType', '施設種別', '');</v>
+        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'FacilityType', '施設種別', '');</v>
       </c>
       <c r="G42" s="16">
         <f>IF(ISBLANK($H42),"",MAX($G$1:$G41)+1)</f>
         <v>32</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J42" s="13">
         <v>1</v>
       </c>
       <c r="K42" s="16" t="str">
         <f>IF(ISNUMBER($G42),"insert into M_CD_VAL values ("&amp;$G42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B42)&amp;"', '"&amp;$H42&amp;"', '"&amp;$I42&amp;"', "&amp;J42&amp;");","")</f>
-        <v>insert into M_CD_VAL values (32, now(), 1, now(), 1, 0, '10', 'shp', 'shop', 1);</v>
+        <v>insert into M_CD_VAL values (32, now(), 1, now(), 1, 0, '10', 'shp', 'Shop', 1);</v>
       </c>
       <c r="L42" s="16">
         <f>IF(ISBLANK($M42),"",MAX($L$1:$L41)+1)</f>
         <v>40</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="O42" s="16" t="str">
         <f>IF(ISNUMBER($L42),"insert into M_CD_VAL_LANG values ("&amp;$L42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G42)&amp;"', '"&amp;$M42&amp;"', '"&amp;$N42&amp;"');","")</f>
@@ -3458,10 +3412,10 @@
         <v>41</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="O43" s="16" t="str">
         <f>IF(ISNUMBER($L43),"insert into M_CD_VAL_LANG values ("&amp;$L43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G43)&amp;"', '"&amp;$M43&amp;"', '"&amp;$N43&amp;"');","")</f>
@@ -3489,27 +3443,27 @@
         <v>33</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J44" s="13">
         <v>2</v>
       </c>
       <c r="K44" s="16" t="str">
         <f>IF(ISNUMBER($G44),"insert into M_CD_VAL values ("&amp;$G44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B44)&amp;"', '"&amp;$H44&amp;"', '"&amp;$I44&amp;"', "&amp;J44&amp;");","")</f>
-        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'res', 'restaurant', 2);</v>
+        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'res', 'Restaurant', 2);</v>
       </c>
       <c r="L44" s="16">
         <f>IF(ISBLANK($M44),"",MAX($L$1:$L43)+1)</f>
         <v>42</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="O44" s="16" t="str">
         <f>IF(ISNUMBER($L44),"insert into M_CD_VAL_LANG values ("&amp;$L44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G44)&amp;"', '"&amp;$M44&amp;"', '"&amp;$N44&amp;"');","")</f>
@@ -3548,10 +3502,10 @@
         <v>43</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="O45" s="16" t="str">
         <f>IF(ISNUMBER($L45),"insert into M_CD_VAL_LANG values ("&amp;$L45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G45)&amp;"', '"&amp;$M45&amp;"', '"&amp;$N45&amp;"');","")</f>
@@ -13213,28 +13167,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:F1000">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:O1000">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>AND(ISNUMBER($L2),NOT(ISNUMBER($L3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:K1000">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>ISNUMBER($G3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1000 L3:O1000">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>ISNUMBER($L3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/03_設計/05_コード/コード定義一覧.xlsx
+++ b/03_設計/05_コード/コード定義一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
   <si>
     <t>コードグループ</t>
     <phoneticPr fontId="1"/>
@@ -215,31 +215,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>men</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>det</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -307,14 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dcls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>公開</t>
     <rPh sb="0" eb="2">
       <t>コウカイ</t>
@@ -370,35 +338,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>del</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>val</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>inval</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>nohas</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レイアウトオブジェクトタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mov</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -450,14 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>multi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シングル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,14 +410,6 @@
   </si>
   <si>
     <t>エンティティ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fac</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -524,51 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>施設種別</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>res</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ja</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>en</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>店</t>
-    <rPh sb="0" eb="1">
-      <t>ミセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レストラン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Restaurant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像パス</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -627,10 +510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FacilityType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Valid</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -747,11 +626,716 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Purpose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べる</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買う</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見る</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泊まる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Shop</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Restaurant</t>
+    <t>Play</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>play</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EatGenre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>see</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>See</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居酒屋</t>
+    <rPh sb="0" eb="3">
+      <t>イザカヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイニングバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>創作料理</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサクリョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和食</t>
+    <rPh sb="0" eb="2">
+      <t>ワショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋食</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イタリアン・フレンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中華</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焼き肉・韓国料理</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カンコクリョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各国料理</t>
+    <rPh sb="0" eb="2">
+      <t>カッッコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラオケ・パーティー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バー・カクテル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラーメン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お好み焼き・もんじゃ・鉄板焼き</t>
+    <rPh sb="1" eb="2">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>テッパンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カフェ・スイーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べるジャンル</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopGenre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買うジャンル</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本・コミック・雑誌</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DVD・ミュージック・ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家電・カメラ・AV機器</t>
+    <rPh sb="0" eb="2">
+      <t>カデン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコン・オフィス用品</t>
+    <rPh sb="9" eb="11">
+      <t>ヨウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム＆キッチン・ペット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品・飲料・お酒</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>インリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルス＆ビューティー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベビー・おもちゃ・ホビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファッション・バッグ・腕時計</t>
+    <rPh sb="11" eb="14">
+      <t>ウデドケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ＆アウトドア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIY・カー＆バイク用品</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayGenre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊ぶジャンル</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公園</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンプ場</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海水浴場</t>
+    <rPh sb="0" eb="4">
+      <t>カイスイヨクジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣り堀</t>
+    <rPh sb="0" eb="3">
+      <t>ツリボリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牧場</t>
+    <rPh sb="0" eb="2">
+      <t>ボクジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊園地・テーマパーク</t>
+    <rPh sb="0" eb="3">
+      <t>ユウエンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラオケ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームセンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラブ・ディスコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボウリング場</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビリヤード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競輪・競馬・競艇</t>
+    <rPh sb="0" eb="2">
+      <t>ケイリン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイバ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オートレース場</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パチンコ・パチスロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雀荘</t>
+    <rPh sb="0" eb="2">
+      <t>ジャンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SeeGenre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見るジャンル</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動物園</t>
+    <rPh sb="0" eb="3">
+      <t>ドウブツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物園</t>
+    <rPh sb="0" eb="3">
+      <t>ショクブツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水族館</t>
+    <rPh sb="0" eb="3">
+      <t>スイゾクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画館</t>
+    <rPh sb="0" eb="3">
+      <t>エイガカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博物館</t>
+    <rPh sb="0" eb="3">
+      <t>ハクブツカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美術館</t>
+    <rPh sb="0" eb="3">
+      <t>ビジュツカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天文台・プラネタリム</t>
+    <rPh sb="0" eb="3">
+      <t>テンモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劇場</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StayGenre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泊まるジャンル</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホテル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅館</t>
+    <rPh sb="0" eb="2">
+      <t>リョカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>民宿</t>
+    <rPh sb="0" eb="2">
+      <t>ミンシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温泉</t>
+    <rPh sb="0" eb="2">
+      <t>オンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルホテル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漫画喫茶</t>
+    <rPh sb="0" eb="2">
+      <t>マンガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キッサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventGenre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>節句・年中行事</t>
+  </si>
+  <si>
+    <t>行列・パレード</t>
+  </si>
+  <si>
+    <t>花見・自然</t>
+  </si>
+  <si>
+    <t>雪・冬祭り</t>
+  </si>
+  <si>
+    <t>スポーツ</t>
+  </si>
+  <si>
+    <t>ペット・動物</t>
+  </si>
+  <si>
+    <t>演劇・舞台</t>
+  </si>
+  <si>
+    <t>記念日</t>
+  </si>
+  <si>
+    <t>神輿・山車など</t>
+  </si>
+  <si>
+    <t>グルメ</t>
+  </si>
+  <si>
+    <t>火と灯の祭り</t>
+  </si>
+  <si>
+    <t>イルミネーション</t>
+  </si>
+  <si>
+    <t>美術展・博物展</t>
+  </si>
+  <si>
+    <t>体験イベント</t>
+  </si>
+  <si>
+    <t>テーマパーク</t>
+  </si>
+  <si>
+    <t>即売会・フェア</t>
+  </si>
+  <si>
+    <t>伝統芸能・舞踊</t>
+  </si>
+  <si>
+    <t>市・縁日</t>
+  </si>
+  <si>
+    <t>花火大会</t>
+  </si>
+  <si>
+    <t>音楽・映画</t>
+  </si>
+  <si>
+    <t>博覧会・フェスティバル</t>
+  </si>
+  <si>
+    <t>講演会・トークショー</t>
+  </si>
+  <si>
+    <t>動物園・水族館</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Museum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>museum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invalid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>japanese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>english</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disclose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facility</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1003,7 +1587,88 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <border>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="hair">
@@ -1343,7 +2008,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P299"/>
+  <dimension ref="A1:Q299"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -1369,7 +2034,7 @@
     <col min="16" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1394,10 +2059,10 @@
       <c r="N1" s="7"/>
       <c r="O1" s="8"/>
       <c r="P1" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1424,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>25</v>
@@ -1442,7 +2107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1452,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -1467,17 +2132,17 @@
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="J3" s="11">
         <v>1</v>
       </c>
       <c r="K3" s="15" t="str">
         <f>IF(ISNUMBER($G3),"insert into M_CD_VAL values ("&amp;$G3&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B3)&amp;"', '"&amp;$H3&amp;"', '"&amp;$I3&amp;"', "&amp;J3&amp;");","")</f>
-        <v>insert into M_CD_VAL values (1, now(), 1, now(), 1, 0, '1', 'val', 'Valid', 1);</v>
+        <v>insert into M_CD_VAL values (1, now(), 1, now(), 1, 0, '1', 'valid', 'Valid', 1);</v>
       </c>
       <c r="L3" s="15">
         <f>IF(ISBLANK($M3),"",MAX($L$1:$L2)+1)</f>
@@ -1494,8 +2159,9 @@
         <v>insert into M_CD_VAL_LANG values (1, now(), 1, now(), 1, 0, '1', 'ja', '有効');</v>
       </c>
       <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <f t="shared" ref="A4:A66" si="0">ROW()-2</f>
         <v>2</v>
@@ -1537,8 +2203,9 @@
         <v>insert into M_CD_VAL_LANG values (2, now(), 1, now(), 1, 0, '1', 'en', 'Valid');</v>
       </c>
       <c r="P4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1559,17 +2226,17 @@
         <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="J5" s="13">
         <v>2</v>
       </c>
       <c r="K5" s="16" t="str">
         <f>IF(ISNUMBER($G5),"insert into M_CD_VAL values ("&amp;$G5&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B5)&amp;"', '"&amp;$H5&amp;"', '"&amp;$I5&amp;"', "&amp;J5&amp;");","")</f>
-        <v>insert into M_CD_VAL values (2, now(), 1, now(), 1, 0, '1', 'inval', 'Invalid', 2);</v>
+        <v>insert into M_CD_VAL values (2, now(), 1, now(), 1, 0, '1', 'invalid', 'Invalid', 2);</v>
       </c>
       <c r="L5" s="16">
         <f>IF(ISBLANK($M5),"",MAX($L$1:$L4)+1)</f>
@@ -1586,8 +2253,9 @@
         <v>insert into M_CD_VAL_LANG values (3, now(), 1, now(), 1, 0, '2', 'ja', '無効');</v>
       </c>
       <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1629,8 +2297,9 @@
         <v>insert into M_CD_VAL_LANG values (4, now(), 1, now(), 1, 0, '2', 'en', 'Invalid');</v>
       </c>
       <c r="P6" s="17"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1651,17 +2320,17 @@
         <v>3</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="J7" s="13">
         <v>3</v>
       </c>
       <c r="K7" s="16" t="str">
         <f>IF(ISNUMBER($G7),"insert into M_CD_VAL values ("&amp;$G7&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B7)&amp;"', '"&amp;$H7&amp;"', '"&amp;$I7&amp;"', "&amp;J7&amp;");","")</f>
-        <v>insert into M_CD_VAL values (3, now(), 1, now(), 1, 0, '1', 'del', 'Deleted', 3);</v>
+        <v>insert into M_CD_VAL values (3, now(), 1, now(), 1, 0, '1', 'deleted', 'Deleted', 3);</v>
       </c>
       <c r="L7" s="16">
         <f>IF(ISBLANK($M7),"",MAX($L$1:$L6)+1)</f>
@@ -1678,8 +2347,9 @@
         <v>insert into M_CD_VAL_LANG values (5, now(), 1, now(), 1, 0, '3', 'ja', '削除');</v>
       </c>
       <c r="P7" s="17"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1721,8 +2391,9 @@
         <v>insert into M_CD_VAL_LANG values (6, now(), 1, now(), 1, 0, '3', 'en', 'Deleted');</v>
       </c>
       <c r="P8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1732,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -1750,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="J9" s="13">
         <v>1</v>
@@ -1774,8 +2445,9 @@
         <v>insert into M_CD_VAL_LANG values (7, now(), 1, now(), 1, 0, '4', 'ja', '共通');</v>
       </c>
       <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1817,8 +2489,9 @@
         <v>insert into M_CD_VAL_LANG values (8, now(), 1, now(), 1, 0, '4', 'en', 'Common');</v>
       </c>
       <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1839,17 +2512,17 @@
         <v>5</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="J11" s="13">
         <v>2</v>
       </c>
       <c r="K11" s="16" t="str">
         <f>IF(ISNUMBER($G11),"insert into M_CD_VAL values ("&amp;$G11&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B11)&amp;"', '"&amp;$H11&amp;"', '"&amp;$I11&amp;"', "&amp;J11&amp;");","")</f>
-        <v>insert into M_CD_VAL values (5, now(), 1, now(), 1, 0, '2', 'ja', 'Japanese', 2);</v>
+        <v>insert into M_CD_VAL values (5, now(), 1, now(), 1, 0, '2', 'japanese', 'Japanese', 2);</v>
       </c>
       <c r="L11" s="16">
         <f>IF(ISBLANK($M11),"",MAX($L$1:$L10)+1)</f>
@@ -1866,8 +2539,9 @@
         <v>insert into M_CD_VAL_LANG values (9, now(), 1, now(), 1, 0, '5', 'ja', '日本語');</v>
       </c>
       <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1909,8 +2583,9 @@
         <v>insert into M_CD_VAL_LANG values (10, now(), 1, now(), 1, 0, '5', 'en', 'Japanese');</v>
       </c>
       <c r="P12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1931,17 +2606,17 @@
         <v>6</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J13" s="13">
         <v>3</v>
       </c>
       <c r="K13" s="16" t="str">
         <f>IF(ISNUMBER($G13),"insert into M_CD_VAL values ("&amp;$G13&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B13)&amp;"', '"&amp;$H13&amp;"', '"&amp;$I13&amp;"', "&amp;J13&amp;");","")</f>
-        <v>insert into M_CD_VAL values (6, now(), 1, now(), 1, 0, '2', 'en', 'English', 3);</v>
+        <v>insert into M_CD_VAL values (6, now(), 1, now(), 1, 0, '2', 'english', 'English', 3);</v>
       </c>
       <c r="L13" s="16">
         <f>IF(ISBLANK($M13),"",MAX($L$1:$L12)+1)</f>
@@ -1958,8 +2633,9 @@
         <v>insert into M_CD_VAL_LANG values (11, now(), 1, now(), 1, 0, '6', 'ja', '英語');</v>
       </c>
       <c r="P13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2001,8 +2677,9 @@
         <v>insert into M_CD_VAL_LANG values (12, now(), 1, now(), 1, 0, '6', 'en', 'English');</v>
       </c>
       <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2012,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>27</v>
@@ -2027,17 +2704,17 @@
         <v>7</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="J15" s="13">
         <v>1</v>
       </c>
       <c r="K15" s="16" t="str">
         <f>IF(ISNUMBER($G15),"insert into M_CD_VAL values ("&amp;$G15&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B15)&amp;"', '"&amp;$H15&amp;"', '"&amp;$I15&amp;"', "&amp;J15&amp;");","")</f>
-        <v>insert into M_CD_VAL values (7, now(), 1, now(), 1, 0, '3', 'men', 'Menu', 1);</v>
+        <v>insert into M_CD_VAL values (7, now(), 1, now(), 1, 0, '3', 'menu', 'Menu', 1);</v>
       </c>
       <c r="L15" s="16">
         <f>IF(ISBLANK($M15),"",MAX($L$1:$L14)+1)</f>
@@ -2054,8 +2731,9 @@
         <v>insert into M_CD_VAL_LANG values (13, now(), 1, now(), 1, 0, '7', 'ja', 'メニュー');</v>
       </c>
       <c r="P15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2076,17 +2754,17 @@
         <v>8</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="J16" s="13">
         <v>2</v>
       </c>
       <c r="K16" s="16" t="str">
         <f>IF(ISNUMBER($G16),"insert into M_CD_VAL values ("&amp;$G16&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B16)&amp;"', '"&amp;$H16&amp;"', '"&amp;$I16&amp;"', "&amp;J16&amp;");","")</f>
-        <v>insert into M_CD_VAL values (8, now(), 1, now(), 1, 0, '3', 'lst', 'List', 2);</v>
+        <v>insert into M_CD_VAL values (8, now(), 1, now(), 1, 0, '3', 'list', 'List', 2);</v>
       </c>
       <c r="L16" s="16">
         <f>IF(ISBLANK($M16),"",MAX($L$1:$L15)+1)</f>
@@ -2103,8 +2781,9 @@
         <v>insert into M_CD_VAL_LANG values (14, now(), 1, now(), 1, 0, '8', 'ja', '一覧');</v>
       </c>
       <c r="P16" s="17"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2125,10 +2804,10 @@
         <v>9</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="J17" s="13">
         <v>3</v>
@@ -2152,8 +2831,9 @@
         <v>insert into M_CD_VAL_LANG values (15, now(), 1, now(), 1, 0, '9', 'ja', '地図');</v>
       </c>
       <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2174,17 +2854,17 @@
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="J18" s="13">
         <v>4</v>
       </c>
       <c r="K18" s="16" t="str">
         <f>IF(ISNUMBER($G18),"insert into M_CD_VAL values ("&amp;$G18&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B18)&amp;"', '"&amp;$H18&amp;"', '"&amp;$I18&amp;"', "&amp;J18&amp;");","")</f>
-        <v>insert into M_CD_VAL values (10, now(), 1, now(), 1, 0, '3', 'det', 'Detail', 4);</v>
+        <v>insert into M_CD_VAL values (10, now(), 1, now(), 1, 0, '3', 'detail', 'Detail', 4);</v>
       </c>
       <c r="L18" s="16">
         <f>IF(ISBLANK($M18),"",MAX($L$1:$L17)+1)</f>
@@ -2201,8 +2881,9 @@
         <v>insert into M_CD_VAL_LANG values (16, now(), 1, now(), 1, 0, '10', 'ja', '詳細');</v>
       </c>
       <c r="P18" s="17"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2212,34 +2893,34 @@
         <v>4</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="str">
-        <f t="shared" ref="F19:F82" si="2">IF(ISNUMBER($B19),"insert into M_CD_GRP values ("&amp;$B19&amp;", now(), 1, now(), 1, 0, '"&amp;$C19&amp;"', '"&amp;$D19&amp;"', '"&amp;$E19&amp;"');","")</f>
+        <f t="shared" ref="F19:F83" si="2">IF(ISNUMBER($B19),"insert into M_CD_GRP values ("&amp;$B19&amp;", now(), 1, now(), 1, 0, '"&amp;$C19&amp;"', '"&amp;$D19&amp;"', '"&amp;$E19&amp;"');","")</f>
         <v>insert into M_CD_GRP values (4, now(), 1, now(), 1, 0, 'AttGrpType', '属性グループ種別', '');</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="16">
         <f>IF(ISBLANK($H19),"",MAX($G$1:$G18)+1)</f>
         <v>11</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="J19" s="19">
         <v>1</v>
       </c>
       <c r="K19" s="19" t="str">
         <f>IF(ISNUMBER($G19),"insert into M_CD_VAL values ("&amp;$G19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B19)&amp;"', '"&amp;$H19&amp;"', '"&amp;$I19&amp;"', "&amp;J19&amp;");","")</f>
-        <v>insert into M_CD_VAL values (11, now(), 1, now(), 1, 0, '4', 'txt', 'Text', 1);</v>
-      </c>
-      <c r="L19" s="19">
+        <v>insert into M_CD_VAL values (11, now(), 1, now(), 1, 0, '4', 'text', 'Text', 1);</v>
+      </c>
+      <c r="L19" s="16">
         <f>IF(ISBLANK($M19),"",MAX($L$1:$L18)+1)</f>
         <v>17</v>
       </c>
@@ -2247,15 +2928,16 @@
         <v>8</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O19" s="16" t="str">
         <f>IF(ISNUMBER($L19),"insert into M_CD_VAL_LANG values ("&amp;$L19&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G19)&amp;"', '"&amp;$M19&amp;"', '"&amp;$N19&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (17, now(), 1, now(), 1, 0, '11', 'ja', 'テキスト');</v>
       </c>
       <c r="P19" s="17"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2271,24 +2953,24 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="16">
         <f>IF(ISBLANK($H20),"",MAX($G$1:$G19)+1)</f>
         <v>12</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="J20" s="19">
         <v>2</v>
       </c>
       <c r="K20" s="19" t="str">
         <f>IF(ISNUMBER($G20),"insert into M_CD_VAL values ("&amp;$G20&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B20)&amp;"', '"&amp;$H20&amp;"', '"&amp;$I20&amp;"', "&amp;J20&amp;");","")</f>
-        <v>insert into M_CD_VAL values (12, now(), 1, now(), 1, 0, '4', 'cd', 'Code', 2);</v>
-      </c>
-      <c r="L20" s="19">
+        <v>insert into M_CD_VAL values (12, now(), 1, now(), 1, 0, '4', 'code', 'Code', 2);</v>
+      </c>
+      <c r="L20" s="16">
         <f>IF(ISBLANK($M20),"",MAX($L$1:$L19)+1)</f>
         <v>18</v>
       </c>
@@ -2303,8 +2985,9 @@
         <v>insert into M_CD_VAL_LANG values (18, now(), 1, now(), 1, 0, '12', 'ja', 'コード');</v>
       </c>
       <c r="P20" s="17"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2320,15 +3003,15 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <f>IF(ISBLANK($H21),"",MAX($G$1:$G20)+1)</f>
         <v>13</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="J21" s="19">
         <v>3</v>
@@ -2337,7 +3020,7 @@
         <f>IF(ISNUMBER($G21),"insert into M_CD_VAL values ("&amp;$G21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B21)&amp;"', '"&amp;$H21&amp;"', '"&amp;$I21&amp;"', "&amp;J21&amp;");","")</f>
         <v>insert into M_CD_VAL values (13, now(), 1, now(), 1, 0, '4', 'imgp', 'ImagePath', 3);</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="16">
         <f>IF(ISBLANK($M21),"",MAX($L$1:$L20)+1)</f>
         <v>19</v>
       </c>
@@ -2345,15 +3028,16 @@
         <v>8</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="O21" s="16" t="str">
         <f>IF(ISNUMBER($L21),"insert into M_CD_VAL_LANG values ("&amp;$L21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G21)&amp;"', '"&amp;$M21&amp;"', '"&amp;$N21&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (19, now(), 1, now(), 1, 0, '13', 'ja', '画像パス');</v>
       </c>
       <c r="P21" s="17"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2369,15 +3053,15 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <f>IF(ISBLANK($H22),"",MAX($G$1:$G21)+1)</f>
         <v>14</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="J22" s="19">
         <v>4</v>
@@ -2386,7 +3070,7 @@
         <f>IF(ISNUMBER($G22),"insert into M_CD_VAL values ("&amp;$G22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B22)&amp;"', '"&amp;$H22&amp;"', '"&amp;$I22&amp;"', "&amp;J22&amp;");","")</f>
         <v>insert into M_CD_VAL values (14, now(), 1, now(), 1, 0, '4', 'movp', 'MoviePath', 4);</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="16">
         <f>IF(ISBLANK($M22),"",MAX($L$1:$L21)+1)</f>
         <v>20</v>
       </c>
@@ -2394,15 +3078,16 @@
         <v>8</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="O22" s="16" t="str">
         <f>IF(ISNUMBER($L22),"insert into M_CD_VAL_LANG values ("&amp;$L22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G22)&amp;"', '"&amp;$M22&amp;"', '"&amp;$N22&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (20, now(), 1, now(), 1, 0, '14', 'ja', '動画パス');</v>
       </c>
       <c r="P22" s="17"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2418,15 +3103,15 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="16">
         <f>IF(ISBLANK($H23),"",MAX($G$1:$G22)+1)</f>
         <v>15</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="J23" s="19">
         <v>5</v>
@@ -2435,23 +3120,24 @@
         <f>IF(ISNUMBER($G23),"insert into M_CD_VAL values ("&amp;$G23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B23)&amp;"', '"&amp;$H23&amp;"', '"&amp;$I23&amp;"', "&amp;J23&amp;");","")</f>
         <v>insert into M_CD_VAL values (15, now(), 1, now(), 1, 0, '4', 'lon', 'Longitude', 5);</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="16">
         <f>IF(ISBLANK($M23),"",MAX($L$1:$L22)+1)</f>
         <v>21</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O23" s="16" t="str">
         <f>IF(ISNUMBER($L23),"insert into M_CD_VAL_LANG values ("&amp;$L23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G23)&amp;"', '"&amp;$M23&amp;"', '"&amp;$N23&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (21, now(), 1, now(), 1, 0, '15', 'ja', '緯度');</v>
       </c>
       <c r="P23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2467,15 +3153,15 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <f>IF(ISBLANK($H24),"",MAX($G$1:$G23)+1)</f>
         <v>16</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="J24" s="19">
         <v>6</v>
@@ -2484,23 +3170,24 @@
         <f>IF(ISNUMBER($G24),"insert into M_CD_VAL values ("&amp;$G24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B24)&amp;"', '"&amp;$H24&amp;"', '"&amp;$I24&amp;"', "&amp;J24&amp;");","")</f>
         <v>insert into M_CD_VAL values (16, now(), 1, now(), 1, 0, '4', 'lat', 'Latitude', 6);</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="16">
         <f>IF(ISBLANK($M24),"",MAX($L$1:$L23)+1)</f>
         <v>22</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O24" s="16" t="str">
         <f>IF(ISNUMBER($L24),"insert into M_CD_VAL_LANG values ("&amp;$L24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G24)&amp;"', '"&amp;$M24&amp;"', '"&amp;$N24&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (22, now(), 1, now(), 1, 0, '16', 'ja', '経度');</v>
       </c>
       <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2510,10 +3197,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="16" t="str">
@@ -2525,35 +3212,36 @@
         <v>17</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="16" t="str">
         <f>IF(ISNUMBER($G25),"insert into M_CD_VAL values ("&amp;$G25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B25)&amp;"', '"&amp;$H25&amp;"', '"&amp;$I25&amp;"', "&amp;J25&amp;");","")</f>
-        <v>insert into M_CD_VAL values (17, now(), 1, now(), 1, 0, '5', 'dcls', 'Disclose', 1);</v>
+        <v>insert into M_CD_VAL values (17, now(), 1, now(), 1, 0, '5', 'disclose', 'Disclose', 1);</v>
       </c>
       <c r="L25" s="16">
         <f>IF(ISBLANK($M25),"",MAX($L$1:$L24)+1)</f>
         <v>23</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O25" s="16" t="str">
         <f>IF(ISNUMBER($L25),"insert into M_CD_VAL_LANG values ("&amp;$L25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G25)&amp;"', '"&amp;$M25&amp;"', '"&amp;$N25&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (23, now(), 1, now(), 1, 0, '17', 'ja', '公開');</v>
       </c>
       <c r="P25" s="17"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2574,35 +3262,36 @@
         <v>18</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J26" s="13">
         <v>2</v>
       </c>
       <c r="K26" s="16" t="str">
         <f>IF(ISNUMBER($G26),"insert into M_CD_VAL values ("&amp;$G26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B26)&amp;"', '"&amp;$H26&amp;"', '"&amp;$I26&amp;"', "&amp;J26&amp;");","")</f>
-        <v>insert into M_CD_VAL values (18, now(), 1, now(), 1, 0, '5', 'cls', 'Close', 2);</v>
+        <v>insert into M_CD_VAL values (18, now(), 1, now(), 1, 0, '5', 'close', 'Close', 2);</v>
       </c>
       <c r="L26" s="16">
         <f>IF(ISBLANK($M26),"",MAX($L$1:$L25)+1)</f>
         <v>24</v>
       </c>
       <c r="M26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>IF(ISNUMBER($L26),"insert into M_CD_VAL_LANG values ("&amp;$L26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G26)&amp;"', '"&amp;$M26&amp;"', '"&amp;$N26&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (24, now(), 1, now(), 1, 0, '18', 'ja', '非公開');</v>
       </c>
       <c r="P26" s="17"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2612,10 +3301,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="16" t="str">
@@ -2627,10 +3316,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="J27" s="13">
         <v>1</v>
@@ -2644,18 +3333,19 @@
         <v>25</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>IF(ISNUMBER($L27),"insert into M_CD_VAL_LANG values ("&amp;$L27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G27)&amp;"', '"&amp;$M27&amp;"', '"&amp;$N27&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (25, now(), 1, now(), 1, 0, '19', 'ja', '有り');</v>
       </c>
       <c r="P27" s="17"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2687,18 +3377,19 @@
         <v>26</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O28" s="16" t="str">
         <f>IF(ISNUMBER($L28),"insert into M_CD_VAL_LANG values ("&amp;$L28&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G28)&amp;"', '"&amp;$M28&amp;"', '"&amp;$N28&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (26, now(), 1, now(), 1, 0, '19', 'us', 'Has');</v>
       </c>
       <c r="P28" s="17"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2719,10 +3410,10 @@
         <v>20</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="J29" s="13">
         <v>2</v>
@@ -2736,18 +3427,19 @@
         <v>27</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O29" s="16" t="str">
         <f>IF(ISNUMBER($L29),"insert into M_CD_VAL_LANG values ("&amp;$L29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G29)&amp;"', '"&amp;$M29&amp;"', '"&amp;$N29&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (27, now(), 1, now(), 1, 0, '20', 'ja', '無し');</v>
       </c>
       <c r="P29" s="17"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2779,18 +3471,19 @@
         <v>28</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O30" s="16" t="str">
         <f>IF(ISNUMBER($L30),"insert into M_CD_VAL_LANG values ("&amp;$L30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G30)&amp;"', '"&amp;$M30&amp;"', '"&amp;$N30&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (28, now(), 1, now(), 1, 0, '20', 'us', 'Does not have');</v>
       </c>
       <c r="P30" s="17"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2800,50 +3493,51 @@
         <v>7</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="str">
         <f t="shared" si="2"/>
         <v>insert into M_CD_GRP values (7, now(), 1, now(), 1, 0, 'LayoutObjType', 'レイアウトオブジェクトタイプ', '');</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="16">
         <f>IF(ISBLANK($H31),"",MAX($G$1:$G30)+1)</f>
         <v>21</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="J31" s="19">
         <v>1</v>
       </c>
       <c r="K31" s="19" t="str">
         <f>IF(ISNUMBER($G31),"insert into M_CD_VAL values ("&amp;$G31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B31)&amp;"', '"&amp;$H31&amp;"', '"&amp;$I31&amp;"', "&amp;J31&amp;");","")</f>
-        <v>insert into M_CD_VAL values (21, now(), 1, now(), 1, 0, '7', 'txt', 'Text', 1);</v>
-      </c>
-      <c r="L31" s="19">
+        <v>insert into M_CD_VAL values (21, now(), 1, now(), 1, 0, '7', 'text', 'Text', 1);</v>
+      </c>
+      <c r="L31" s="16">
         <f>IF(ISBLANK($M31),"",MAX($L$1:$L30)+1)</f>
         <v>29</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O31" s="16" t="str">
         <f>IF(ISNUMBER($L31),"insert into M_CD_VAL_LANG values ("&amp;$L31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G31)&amp;"', '"&amp;$M31&amp;"', '"&amp;$N31&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (29, now(), 1, now(), 1, 0, '21', 'ja', 'テキスト');</v>
       </c>
       <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2859,39 +3553,41 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="16">
         <f>IF(ISBLANK($H32),"",MAX($G$1:$G31)+1)</f>
         <v>22</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="J32" s="19">
         <v>2</v>
       </c>
       <c r="K32" s="19" t="str">
         <f>IF(ISNUMBER($G32),"insert into M_CD_VAL values ("&amp;$G32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B32)&amp;"', '"&amp;$H32&amp;"', '"&amp;$I32&amp;"', "&amp;J32&amp;");","")</f>
-        <v>insert into M_CD_VAL values (22, now(), 1, now(), 1, 0, '7', 'img', 'Image', 2);</v>
-      </c>
-      <c r="L32" s="19">
+        <v>insert into M_CD_VAL values (22, now(), 1, now(), 1, 0, '7', 'image', 'Image', 2);</v>
+      </c>
+      <c r="L32" s="16">
         <f>IF(ISBLANK($M32),"",MAX($L$1:$L31)+1)</f>
         <v>30</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>IF(ISNUMBER($L32),"insert into M_CD_VAL_LANG values ("&amp;$L32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G32)&amp;"', '"&amp;$M32&amp;"', '"&amp;$N32&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (30, now(), 1, now(), 1, 0, '22', 'ja', '画像');</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2907,39 +3603,41 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="16">
         <f>IF(ISBLANK($H33),"",MAX($G$1:$G32)+1)</f>
         <v>23</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="J33" s="19">
         <v>3</v>
       </c>
       <c r="K33" s="19" t="str">
         <f>IF(ISNUMBER($G33),"insert into M_CD_VAL values ("&amp;$G33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B33)&amp;"', '"&amp;$H33&amp;"', '"&amp;$I33&amp;"', "&amp;J33&amp;");","")</f>
-        <v>insert into M_CD_VAL values (23, now(), 1, now(), 1, 0, '7', 'mov', 'Movie', 3);</v>
-      </c>
-      <c r="L33" s="19">
+        <v>insert into M_CD_VAL values (23, now(), 1, now(), 1, 0, '7', 'movie', 'Movie', 3);</v>
+      </c>
+      <c r="L33" s="16">
         <f>IF(ISBLANK($M33),"",MAX($L$1:$L32)+1)</f>
         <v>31</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>IF(ISNUMBER($L33),"insert into M_CD_VAL_LANG values ("&amp;$L33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G33)&amp;"', '"&amp;$M33&amp;"', '"&amp;$N33&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (31, now(), 1, now(), 1, 0, '23', 'ja', '動画');</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2955,15 +3653,15 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="16">
         <f>IF(ISBLANK($H34),"",MAX($G$1:$G33)+1)</f>
         <v>24</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="J34" s="19">
         <v>4</v>
@@ -2972,22 +3670,24 @@
         <f>IF(ISNUMBER($G34),"insert into M_CD_VAL values ("&amp;$G34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B34)&amp;"', '"&amp;$H34&amp;"', '"&amp;$I34&amp;"', "&amp;J34&amp;");","")</f>
         <v>insert into M_CD_VAL values (24, now(), 1, now(), 1, 0, '7', 'map', 'Map', 4);</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="16">
         <f>IF(ISBLANK($M34),"",MAX($L$1:$L33)+1)</f>
         <v>32</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O34" s="16" t="str">
         <f>IF(ISNUMBER($L34),"insert into M_CD_VAL_LANG values ("&amp;$L34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G34)&amp;"', '"&amp;$M34&amp;"', '"&amp;$N34&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (32, now(), 1, now(), 1, 0, '24', 'ja', '地図');</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3003,15 +3703,15 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="16">
         <f>IF(ISBLANK($H35),"",MAX($G$1:$G34)+1)</f>
         <v>25</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="J35" s="19">
         <v>5</v>
@@ -3020,22 +3720,24 @@
         <f>IF(ISNUMBER($G35),"insert into M_CD_VAL values ("&amp;$G35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B35)&amp;"', '"&amp;$H35&amp;"', '"&amp;$I35&amp;"', "&amp;J35&amp;");","")</f>
         <v>insert into M_CD_VAL values (25, now(), 1, now(), 1, 0, '7', 'button', 'Button', 5);</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="16">
         <f>IF(ISBLANK($M35),"",MAX($L$1:$L34)+1)</f>
         <v>33</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O35" s="16" t="str">
         <f>IF(ISNUMBER($L35),"insert into M_CD_VAL_LANG values ("&amp;$L35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G35)&amp;"', '"&amp;$M35&amp;"', '"&amp;$N35&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (33, now(), 1, now(), 1, 0, '25', 'ja', 'ボタン');</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3045,10 +3747,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="16" t="str">
@@ -3060,34 +3762,36 @@
         <v>26</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="J36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="16" t="str">
         <f>IF(ISNUMBER($G36),"insert into M_CD_VAL values ("&amp;$G36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B36)&amp;"', '"&amp;$H36&amp;"', '"&amp;$I36&amp;"', "&amp;J36&amp;");","")</f>
-        <v>insert into M_CD_VAL values (26, now(), 1, now(), 1, 0, '8', 'sin', 'Single', 1);</v>
+        <v>insert into M_CD_VAL values (26, now(), 1, now(), 1, 0, '8', 'single', 'Single', 1);</v>
       </c>
       <c r="L36" s="16">
         <f>IF(ISBLANK($M36),"",MAX($L$1:$L35)+1)</f>
         <v>34</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="O36" s="16" t="str">
         <f>IF(ISNUMBER($L36),"insert into M_CD_VAL_LANG values ("&amp;$L36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G36)&amp;"', '"&amp;$M36&amp;"', '"&amp;$N36&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (34, now(), 1, now(), 1, 0, '26', 'ja', 'シングル');</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3108,34 +3812,36 @@
         <v>27</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="J37" s="13">
         <v>2</v>
       </c>
       <c r="K37" s="16" t="str">
         <f>IF(ISNUMBER($G37),"insert into M_CD_VAL values ("&amp;$G37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B37)&amp;"', '"&amp;$H37&amp;"', '"&amp;$I37&amp;"', "&amp;J37&amp;");","")</f>
-        <v>insert into M_CD_VAL values (27, now(), 1, now(), 1, 0, '8', 'multi', 'Multiple', 2);</v>
+        <v>insert into M_CD_VAL values (27, now(), 1, now(), 1, 0, '8', 'multiple', 'Multiple', 2);</v>
       </c>
       <c r="L37" s="16">
         <f>IF(ISBLANK($M37),"",MAX($L$1:$L36)+1)</f>
         <v>35</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O37" s="16" t="str">
         <f>IF(ISNUMBER($L37),"insert into M_CD_VAL_LANG values ("&amp;$L37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G37)&amp;"', '"&amp;$M37&amp;"', '"&amp;$N37&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (35, now(), 1, now(), 1, 0, '27', 'ja', 'マルチ');</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3145,10 +3851,10 @@
         <v>9</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="16" t="str">
@@ -3160,34 +3866,36 @@
         <v>28</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="J38" s="13">
         <v>1</v>
       </c>
       <c r="K38" s="16" t="str">
         <f>IF(ISNUMBER($G38),"insert into M_CD_VAL values ("&amp;$G38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B38)&amp;"', '"&amp;$H38&amp;"', '"&amp;$I38&amp;"', "&amp;J38&amp;");","")</f>
-        <v>insert into M_CD_VAL values (28, now(), 1, now(), 1, 0, '9', 'reg', 'Region', 1);</v>
+        <v>insert into M_CD_VAL values (28, now(), 1, now(), 1, 0, '9', 'region', 'Region', 1);</v>
       </c>
       <c r="L38" s="16">
         <f>IF(ISBLANK($M38),"",MAX($L$1:$L37)+1)</f>
         <v>36</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="O38" s="16" t="str">
         <f>IF(ISNUMBER($L38),"insert into M_CD_VAL_LANG values ("&amp;$L38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G38)&amp;"', '"&amp;$M38&amp;"', '"&amp;$N38&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (36, now(), 1, now(), 1, 0, '28', 'ja', '地域');</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3208,34 +3916,36 @@
         <v>29</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="J39" s="13">
         <v>2</v>
       </c>
       <c r="K39" s="16" t="str">
         <f>IF(ISNUMBER($G39),"insert into M_CD_VAL values ("&amp;$G39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B39)&amp;"', '"&amp;$H39&amp;"', '"&amp;$I39&amp;"', "&amp;J39&amp;");","")</f>
-        <v>insert into M_CD_VAL values (29, now(), 1, now(), 1, 0, '9', 'fac', 'Facility', 2);</v>
+        <v>insert into M_CD_VAL values (29, now(), 1, now(), 1, 0, '9', 'facility', 'Facility', 2);</v>
       </c>
       <c r="L39" s="16">
         <f>IF(ISBLANK($M39),"",MAX($L$1:$L38)+1)</f>
         <v>37</v>
       </c>
       <c r="M39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="O39" s="16" t="str">
         <f>IF(ISNUMBER($L39),"insert into M_CD_VAL_LANG values ("&amp;$L39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G39)&amp;"', '"&amp;$M39&amp;"', '"&amp;$N39&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (37, now(), 1, now(), 1, 0, '29', 'ja', '施設');</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3256,10 +3966,10 @@
         <v>30</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="J40" s="13">
         <v>3</v>
@@ -3273,17 +3983,19 @@
         <v>38</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="O40" s="16" t="str">
         <f>IF(ISNUMBER($L40),"insert into M_CD_VAL_LANG values ("&amp;$L40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G40)&amp;"', '"&amp;$M40&amp;"', '"&amp;$N40&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (38, now(), 1, now(), 1, 0, '30', 'ja', '施設グループ');</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3304,10 +4016,10 @@
         <v>31</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="J41" s="13">
         <v>4</v>
@@ -3321,17 +4033,19 @@
         <v>39</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="O41" s="16" t="str">
         <f>IF(ISNUMBER($L41),"insert into M_CD_VAL_LANG values ("&amp;$L41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G41)&amp;"', '"&amp;$M41&amp;"', '"&amp;$N41&amp;"');","")</f>
         <v>insert into M_CD_VAL_LANG values (39, now(), 1, now(), 1, 0, '31', 'ja', '施設_施設グループ_リンク');</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3341,49 +4055,51 @@
         <v>10</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'FacilityType', '施設種別', '');</v>
+        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'Purpose', '目的', '');</v>
       </c>
       <c r="G42" s="16">
         <f>IF(ISBLANK($H42),"",MAX($G$1:$G41)+1)</f>
         <v>32</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J42" s="13">
         <v>1</v>
       </c>
       <c r="K42" s="16" t="str">
         <f>IF(ISNUMBER($G42),"insert into M_CD_VAL values ("&amp;$G42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B42)&amp;"', '"&amp;$H42&amp;"', '"&amp;$I42&amp;"', "&amp;J42&amp;");","")</f>
-        <v>insert into M_CD_VAL values (32, now(), 1, now(), 1, 0, '10', 'shp', 'Shop', 1);</v>
+        <v>insert into M_CD_VAL values (32, now(), 1, now(), 1, 0, '10', 'eat', 'Eat', 1);</v>
       </c>
       <c r="L42" s="16">
         <f>IF(ISBLANK($M42),"",MAX($L$1:$L41)+1)</f>
         <v>40</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="O42" s="16" t="str">
         <f>IF(ISNUMBER($L42),"insert into M_CD_VAL_LANG values ("&amp;$L42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G42)&amp;"', '"&amp;$M42&amp;"', '"&amp;$N42&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (40, now(), 1, now(), 1, 0, '32', 'ja', '店');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (40, now(), 1, now(), 1, 0, '32', 'ja', '食べる');</v>
+      </c>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3399,30 +4115,41 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="G43" s="16">
+        <f>IF(ISBLANK($H43),"",MAX($G$1:$G42)+1)</f>
+        <v>33</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J43" s="13">
+        <v>2</v>
+      </c>
       <c r="K43" s="16" t="str">
         <f>IF(ISNUMBER($G43),"insert into M_CD_VAL values ("&amp;$G43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B43)&amp;"', '"&amp;$H43&amp;"', '"&amp;$I43&amp;"', "&amp;J43&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'shop', 'Shop', 2);</v>
       </c>
       <c r="L43" s="16">
         <f>IF(ISBLANK($M43),"",MAX($L$1:$L42)+1)</f>
         <v>41</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O43" s="16" t="str">
         <f>IF(ISNUMBER($L43),"insert into M_CD_VAL_LANG values ("&amp;$L43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G43)&amp;"', '"&amp;$M43&amp;"', '"&amp;$N43&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (41, now(), 1, now(), 1, 0, '32', 'en', 'Shop');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (41, now(), 1, now(), 1, 0, '33', 'ja', '買う');</v>
+      </c>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3440,37 +4167,39 @@
       </c>
       <c r="G44" s="16">
         <f>IF(ISBLANK($H44),"",MAX($G$1:$G43)+1)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="J44" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44" s="16" t="str">
         <f>IF(ISNUMBER($G44),"insert into M_CD_VAL values ("&amp;$G44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B44)&amp;"', '"&amp;$H44&amp;"', '"&amp;$I44&amp;"', "&amp;J44&amp;");","")</f>
-        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'res', 'Restaurant', 2);</v>
+        <v>insert into M_CD_VAL values (34, now(), 1, now(), 1, 0, '10', 'play', 'Play', 3);</v>
       </c>
       <c r="L44" s="16">
         <f>IF(ISBLANK($M44),"",MAX($L$1:$L43)+1)</f>
         <v>42</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="O44" s="16" t="str">
         <f>IF(ISNUMBER($L44),"insert into M_CD_VAL_LANG values ("&amp;$L44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G44)&amp;"', '"&amp;$M44&amp;"', '"&amp;$N44&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (42, now(), 1, now(), 1, 0, '33', 'ja', 'レストラン');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (42, now(), 1, now(), 1, 0, '34', 'ja', '遊ぶ');</v>
+      </c>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3486,33 +4215,41 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G45" s="16" t="str">
+      <c r="G45" s="16">
         <f>IF(ISBLANK($H45),"",MAX($G$1:$G44)+1)</f>
-        <v/>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" s="13">
+        <v>4</v>
+      </c>
       <c r="K45" s="16" t="str">
         <f>IF(ISNUMBER($G45),"insert into M_CD_VAL values ("&amp;$G45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B45)&amp;"', '"&amp;$H45&amp;"', '"&amp;$I45&amp;"', "&amp;J45&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (35, now(), 1, now(), 1, 0, '10', 'see', 'See', 4);</v>
       </c>
       <c r="L45" s="16">
         <f>IF(ISBLANK($M45),"",MAX($L$1:$L44)+1)</f>
         <v>43</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="O45" s="16" t="str">
         <f>IF(ISNUMBER($L45),"insert into M_CD_VAL_LANG values ("&amp;$L45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G45)&amp;"', '"&amp;$M45&amp;"', '"&amp;$N45&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (43, now(), 1, now(), 1, 0, '33', 'en', 'Restaurant');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (43, now(), 1, now(), 1, 0, '35', 'ja', '見る');</v>
+      </c>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3528,29 +4265,41 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G46" s="16" t="str">
+      <c r="G46" s="16">
         <f>IF(ISBLANK($H46),"",MAX($G$1:$G45)+1)</f>
-        <v/>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J46" s="13">
+        <v>5</v>
+      </c>
       <c r="K46" s="16" t="str">
         <f>IF(ISNUMBER($G46),"insert into M_CD_VAL values ("&amp;$G46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B46)&amp;"', '"&amp;$H46&amp;"', '"&amp;$I46&amp;"', "&amp;J46&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L46" s="16" t="str">
+        <v>insert into M_CD_VAL values (36, now(), 1, now(), 1, 0, '10', 'stay', 'Stay', 5);</v>
+      </c>
+      <c r="L46" s="16">
         <f>IF(ISBLANK($M46),"",MAX($L$1:$L45)+1)</f>
-        <v/>
-      </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="O46" s="16" t="str">
         <f>IF(ISNUMBER($L46),"insert into M_CD_VAL_LANG values ("&amp;$L46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G46)&amp;"', '"&amp;$M46&amp;"', '"&amp;$N46&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (44, now(), 1, now(), 1, 0, '36', 'ja', '泊まる');</v>
+      </c>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3566,43 +4315,59 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G47" s="16" t="str">
+      <c r="G47" s="16">
         <f>IF(ISBLANK($H47),"",MAX($G$1:$G46)+1)</f>
-        <v/>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="13">
+        <v>6</v>
+      </c>
       <c r="K47" s="16" t="str">
         <f>IF(ISNUMBER($G47),"insert into M_CD_VAL values ("&amp;$G47&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B47)&amp;"', '"&amp;$H47&amp;"', '"&amp;$I47&amp;"', "&amp;J47&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L47" s="16" t="str">
+        <v>insert into M_CD_VAL values (37, now(), 1, now(), 1, 0, '10', 'event', 'Event', 6);</v>
+      </c>
+      <c r="L47" s="16">
         <f>IF(ISBLANK($M47),"",MAX($L$1:$L46)+1)</f>
-        <v/>
-      </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="O47" s="16" t="str">
         <f>IF(ISNUMBER($L47),"insert into M_CD_VAL_LANG values ("&amp;$L47&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G47)&amp;"', '"&amp;$M47&amp;"', '"&amp;$N47&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (45, now(), 1, now(), 1, 0, '37', 'ja', 'イベント');</v>
+      </c>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="16" t="str">
+      <c r="B48" s="16">
         <f>IF(ISBLANK($C48),"",MAX($B$1:$B47)+1)</f>
-        <v/>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="E48" s="13"/>
       <c r="F48" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (11, now(), 1, now(), 1, 0, 'EatGenre', '食べるジャンル', '');</v>
       </c>
       <c r="G48" s="16" t="str">
         <f>IF(ISBLANK($H48),"",MAX($G$1:$G47)+1)</f>
@@ -3610,23 +4375,31 @@
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="J48" s="13">
+        <v>1</v>
+      </c>
       <c r="K48" s="16" t="str">
         <f>IF(ISNUMBER($G48),"insert into M_CD_VAL values ("&amp;$G48&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B48)&amp;"', '"&amp;$H48&amp;"', '"&amp;$I48&amp;"', "&amp;J48&amp;");","")</f>
         <v/>
       </c>
-      <c r="L48" s="16" t="str">
+      <c r="L48" s="16">
         <f>IF(ISBLANK($M48),"",MAX($L$1:$L47)+1)</f>
-        <v/>
-      </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="O48" s="16" t="str">
         <f>IF(ISNUMBER($L48),"insert into M_CD_VAL_LANG values ("&amp;$L48&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G48)&amp;"', '"&amp;$M48&amp;"', '"&amp;$N48&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (46, now(), 1, now(), 1, 0, '37', 'ja', '居酒屋');</v>
+      </c>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3648,23 +4421,31 @@
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="J49" s="13">
+        <v>2</v>
+      </c>
       <c r="K49" s="16" t="str">
         <f>IF(ISNUMBER($G49),"insert into M_CD_VAL values ("&amp;$G49&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B49)&amp;"', '"&amp;$H49&amp;"', '"&amp;$I49&amp;"', "&amp;J49&amp;");","")</f>
         <v/>
       </c>
-      <c r="L49" s="16" t="str">
+      <c r="L49" s="16">
         <f>IF(ISBLANK($M49),"",MAX($L$1:$L48)+1)</f>
-        <v/>
-      </c>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="O49" s="16" t="str">
         <f>IF(ISNUMBER($L49),"insert into M_CD_VAL_LANG values ("&amp;$L49&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G49)&amp;"', '"&amp;$M49&amp;"', '"&amp;$N49&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (47, now(), 1, now(), 1, 0, '37', 'ja', 'ダイニングバー');</v>
+      </c>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3686,23 +4467,31 @@
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="J50" s="13">
+        <v>3</v>
+      </c>
       <c r="K50" s="16" t="str">
         <f>IF(ISNUMBER($G50),"insert into M_CD_VAL values ("&amp;$G50&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B50)&amp;"', '"&amp;$H50&amp;"', '"&amp;$I50&amp;"', "&amp;J50&amp;");","")</f>
         <v/>
       </c>
-      <c r="L50" s="16" t="str">
+      <c r="L50" s="16">
         <f>IF(ISBLANK($M50),"",MAX($L$1:$L49)+1)</f>
-        <v/>
-      </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="O50" s="16" t="str">
         <f>IF(ISNUMBER($L50),"insert into M_CD_VAL_LANG values ("&amp;$L50&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G50)&amp;"', '"&amp;$M50&amp;"', '"&amp;$N50&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (48, now(), 1, now(), 1, 0, '37', 'ja', '創作料理');</v>
+      </c>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="13">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3724,23 +4513,31 @@
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="J51" s="13">
+        <v>4</v>
+      </c>
       <c r="K51" s="16" t="str">
         <f>IF(ISNUMBER($G51),"insert into M_CD_VAL values ("&amp;$G51&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B51)&amp;"', '"&amp;$H51&amp;"', '"&amp;$I51&amp;"', "&amp;J51&amp;");","")</f>
         <v/>
       </c>
-      <c r="L51" s="16" t="str">
+      <c r="L51" s="16">
         <f>IF(ISBLANK($M51),"",MAX($L$1:$L50)+1)</f>
-        <v/>
-      </c>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="O51" s="16" t="str">
         <f>IF(ISNUMBER($L51),"insert into M_CD_VAL_LANG values ("&amp;$L51&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G51)&amp;"', '"&amp;$M51&amp;"', '"&amp;$N51&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (49, now(), 1, now(), 1, 0, '37', 'ja', '和食');</v>
+      </c>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3762,23 +4559,31 @@
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="J52" s="13">
+        <v>5</v>
+      </c>
       <c r="K52" s="16" t="str">
         <f>IF(ISNUMBER($G52),"insert into M_CD_VAL values ("&amp;$G52&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B52)&amp;"', '"&amp;$H52&amp;"', '"&amp;$I52&amp;"', "&amp;J52&amp;");","")</f>
         <v/>
       </c>
-      <c r="L52" s="16" t="str">
+      <c r="L52" s="16">
         <f>IF(ISBLANK($M52),"",MAX($L$1:$L51)+1)</f>
-        <v/>
-      </c>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="O52" s="16" t="str">
         <f>IF(ISNUMBER($L52),"insert into M_CD_VAL_LANG values ("&amp;$L52&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G52)&amp;"', '"&amp;$M52&amp;"', '"&amp;$N52&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (50, now(), 1, now(), 1, 0, '37', 'ja', '洋食');</v>
+      </c>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3800,23 +4605,31 @@
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="J53" s="13">
+        <v>6</v>
+      </c>
       <c r="K53" s="16" t="str">
         <f>IF(ISNUMBER($G53),"insert into M_CD_VAL values ("&amp;$G53&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B53)&amp;"', '"&amp;$H53&amp;"', '"&amp;$I53&amp;"', "&amp;J53&amp;");","")</f>
         <v/>
       </c>
-      <c r="L53" s="16" t="str">
+      <c r="L53" s="16">
         <f>IF(ISBLANK($M53),"",MAX($L$1:$L52)+1)</f>
-        <v/>
-      </c>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="O53" s="16" t="str">
         <f>IF(ISNUMBER($L53),"insert into M_CD_VAL_LANG values ("&amp;$L53&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G53)&amp;"', '"&amp;$M53&amp;"', '"&amp;$N53&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (51, now(), 1, now(), 1, 0, '37', 'ja', 'イタリアン・フレンチ');</v>
+      </c>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3838,23 +4651,31 @@
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="J54" s="13">
+        <v>7</v>
+      </c>
       <c r="K54" s="16" t="str">
         <f>IF(ISNUMBER($G54),"insert into M_CD_VAL values ("&amp;$G54&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B54)&amp;"', '"&amp;$H54&amp;"', '"&amp;$I54&amp;"', "&amp;J54&amp;");","")</f>
         <v/>
       </c>
-      <c r="L54" s="16" t="str">
+      <c r="L54" s="16">
         <f>IF(ISBLANK($M54),"",MAX($L$1:$L53)+1)</f>
-        <v/>
-      </c>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="O54" s="16" t="str">
         <f>IF(ISNUMBER($L54),"insert into M_CD_VAL_LANG values ("&amp;$L54&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G54)&amp;"', '"&amp;$M54&amp;"', '"&amp;$N54&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (52, now(), 1, now(), 1, 0, '37', 'ja', '中華');</v>
+      </c>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3876,23 +4697,31 @@
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="J55" s="13">
+        <v>8</v>
+      </c>
       <c r="K55" s="16" t="str">
         <f>IF(ISNUMBER($G55),"insert into M_CD_VAL values ("&amp;$G55&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B55)&amp;"', '"&amp;$H55&amp;"', '"&amp;$I55&amp;"', "&amp;J55&amp;");","")</f>
         <v/>
       </c>
-      <c r="L55" s="16" t="str">
+      <c r="L55" s="16">
         <f>IF(ISBLANK($M55),"",MAX($L$1:$L54)+1)</f>
-        <v/>
-      </c>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="O55" s="16" t="str">
         <f>IF(ISNUMBER($L55),"insert into M_CD_VAL_LANG values ("&amp;$L55&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G55)&amp;"', '"&amp;$M55&amp;"', '"&amp;$N55&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (53, now(), 1, now(), 1, 0, '37', 'ja', '焼き肉・韓国料理');</v>
+      </c>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="13">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3914,23 +4743,31 @@
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="J56" s="13">
+        <v>9</v>
+      </c>
       <c r="K56" s="16" t="str">
         <f>IF(ISNUMBER($G56),"insert into M_CD_VAL values ("&amp;$G56&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B56)&amp;"', '"&amp;$H56&amp;"', '"&amp;$I56&amp;"', "&amp;J56&amp;");","")</f>
         <v/>
       </c>
-      <c r="L56" s="16" t="str">
+      <c r="L56" s="16">
         <f>IF(ISBLANK($M56),"",MAX($L$1:$L55)+1)</f>
-        <v/>
-      </c>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="O56" s="16" t="str">
         <f>IF(ISNUMBER($L56),"insert into M_CD_VAL_LANG values ("&amp;$L56&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G56)&amp;"', '"&amp;$M56&amp;"', '"&amp;$N56&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (54, now(), 1, now(), 1, 0, '37', 'ja', 'アジアン');</v>
+      </c>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="13">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3952,23 +4789,31 @@
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="J57" s="13">
+        <v>10</v>
+      </c>
       <c r="K57" s="16" t="str">
         <f>IF(ISNUMBER($G57),"insert into M_CD_VAL values ("&amp;$G57&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B57)&amp;"', '"&amp;$H57&amp;"', '"&amp;$I57&amp;"', "&amp;J57&amp;");","")</f>
         <v/>
       </c>
-      <c r="L57" s="16" t="str">
+      <c r="L57" s="16">
         <f>IF(ISBLANK($M57),"",MAX($L$1:$L56)+1)</f>
-        <v/>
-      </c>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="O57" s="16" t="str">
         <f>IF(ISNUMBER($L57),"insert into M_CD_VAL_LANG values ("&amp;$L57&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G57)&amp;"', '"&amp;$M57&amp;"', '"&amp;$N57&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (55, now(), 1, now(), 1, 0, '37', 'ja', '各国料理');</v>
+      </c>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="13">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3990,23 +4835,31 @@
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+      <c r="J58" s="13">
+        <v>11</v>
+      </c>
       <c r="K58" s="16" t="str">
         <f>IF(ISNUMBER($G58),"insert into M_CD_VAL values ("&amp;$G58&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B58)&amp;"', '"&amp;$H58&amp;"', '"&amp;$I58&amp;"', "&amp;J58&amp;");","")</f>
         <v/>
       </c>
-      <c r="L58" s="16" t="str">
+      <c r="L58" s="16">
         <f>IF(ISBLANK($M58),"",MAX($L$1:$L57)+1)</f>
-        <v/>
-      </c>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="O58" s="16" t="str">
         <f>IF(ISNUMBER($L58),"insert into M_CD_VAL_LANG values ("&amp;$L58&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G58)&amp;"', '"&amp;$M58&amp;"', '"&amp;$N58&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (56, now(), 1, now(), 1, 0, '37', 'ja', 'カラオケ・パーティー');</v>
+      </c>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="13">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4028,23 +4881,31 @@
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
+      <c r="J59" s="13">
+        <v>12</v>
+      </c>
       <c r="K59" s="16" t="str">
         <f>IF(ISNUMBER($G59),"insert into M_CD_VAL values ("&amp;$G59&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B59)&amp;"', '"&amp;$H59&amp;"', '"&amp;$I59&amp;"', "&amp;J59&amp;");","")</f>
         <v/>
       </c>
-      <c r="L59" s="16" t="str">
+      <c r="L59" s="16">
         <f>IF(ISBLANK($M59),"",MAX($L$1:$L58)+1)</f>
-        <v/>
-      </c>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="O59" s="16" t="str">
         <f>IF(ISNUMBER($L59),"insert into M_CD_VAL_LANG values ("&amp;$L59&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G59)&amp;"', '"&amp;$M59&amp;"', '"&amp;$N59&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (57, now(), 1, now(), 1, 0, '37', 'ja', 'バー・カクテル');</v>
+      </c>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="13">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4066,23 +4927,31 @@
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
+      <c r="J60" s="13">
+        <v>13</v>
+      </c>
       <c r="K60" s="16" t="str">
         <f>IF(ISNUMBER($G60),"insert into M_CD_VAL values ("&amp;$G60&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B60)&amp;"', '"&amp;$H60&amp;"', '"&amp;$I60&amp;"', "&amp;J60&amp;");","")</f>
         <v/>
       </c>
-      <c r="L60" s="16" t="str">
+      <c r="L60" s="16">
         <f>IF(ISBLANK($M60),"",MAX($L$1:$L59)+1)</f>
-        <v/>
-      </c>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="O60" s="16" t="str">
         <f>IF(ISNUMBER($L60),"insert into M_CD_VAL_LANG values ("&amp;$L60&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G60)&amp;"', '"&amp;$M60&amp;"', '"&amp;$N60&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (58, now(), 1, now(), 1, 0, '37', 'ja', 'ラーメン');</v>
+      </c>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4104,23 +4973,31 @@
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
+      <c r="J61" s="13">
+        <v>14</v>
+      </c>
       <c r="K61" s="16" t="str">
         <f>IF(ISNUMBER($G61),"insert into M_CD_VAL values ("&amp;$G61&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B61)&amp;"', '"&amp;$H61&amp;"', '"&amp;$I61&amp;"', "&amp;J61&amp;");","")</f>
         <v/>
       </c>
-      <c r="L61" s="16" t="str">
+      <c r="L61" s="16">
         <f>IF(ISBLANK($M61),"",MAX($L$1:$L60)+1)</f>
-        <v/>
-      </c>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="O61" s="16" t="str">
         <f>IF(ISNUMBER($L61),"insert into M_CD_VAL_LANG values ("&amp;$L61&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G61)&amp;"', '"&amp;$M61&amp;"', '"&amp;$N61&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (59, now(), 1, now(), 1, 0, '37', 'ja', 'お好み焼き・もんじゃ・鉄板焼き');</v>
+      </c>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4142,23 +5019,31 @@
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
+      <c r="J62" s="13">
+        <v>15</v>
+      </c>
       <c r="K62" s="16" t="str">
         <f>IF(ISNUMBER($G62),"insert into M_CD_VAL values ("&amp;$G62&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B62)&amp;"', '"&amp;$H62&amp;"', '"&amp;$I62&amp;"', "&amp;J62&amp;");","")</f>
         <v/>
       </c>
-      <c r="L62" s="16" t="str">
+      <c r="L62" s="16">
         <f>IF(ISBLANK($M62),"",MAX($L$1:$L61)+1)</f>
-        <v/>
-      </c>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="O62" s="16" t="str">
         <f>IF(ISNUMBER($L62),"insert into M_CD_VAL_LANG values ("&amp;$L62&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G62)&amp;"', '"&amp;$M62&amp;"', '"&amp;$N62&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (60, now(), 1, now(), 1, 0, '37', 'ja', 'カフェ・スイーツ');</v>
+      </c>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="13">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4174,43 +5059,59 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G63" s="16" t="str">
+      <c r="G63" s="16">
         <f>IF(ISBLANK($H63),"",MAX($G$1:$G62)+1)</f>
-        <v/>
-      </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J63" s="13">
+        <v>16</v>
+      </c>
       <c r="K63" s="16" t="str">
         <f>IF(ISNUMBER($G63),"insert into M_CD_VAL values ("&amp;$G63&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B63)&amp;"', '"&amp;$H63&amp;"', '"&amp;$I63&amp;"', "&amp;J63&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L63" s="16" t="str">
+        <v>insert into M_CD_VAL values (38, now(), 1, now(), 1, 0, '11', 'other', 'Other', 16);</v>
+      </c>
+      <c r="L63" s="16">
         <f>IF(ISBLANK($M63),"",MAX($L$1:$L62)+1)</f>
-        <v/>
-      </c>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="O63" s="16" t="str">
         <f>IF(ISNUMBER($L63),"insert into M_CD_VAL_LANG values ("&amp;$L63&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G63)&amp;"', '"&amp;$M63&amp;"', '"&amp;$N63&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (61, now(), 1, now(), 1, 0, '38', 'ja', 'その他');</v>
+      </c>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="13">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="16" t="str">
+      <c r="B64" s="16">
         <f>IF(ISBLANK($C64),"",MAX($B$1:$B63)+1)</f>
-        <v/>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="E64" s="13"/>
       <c r="F64" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (12, now(), 1, now(), 1, 0, 'ShopGenre', '買うジャンル', '');</v>
       </c>
       <c r="G64" s="16" t="str">
         <f>IF(ISBLANK($H64),"",MAX($G$1:$G63)+1)</f>
@@ -4218,23 +5119,31 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
+      <c r="J64" s="13">
+        <v>1</v>
+      </c>
       <c r="K64" s="16" t="str">
         <f>IF(ISNUMBER($G64),"insert into M_CD_VAL values ("&amp;$G64&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B64)&amp;"', '"&amp;$H64&amp;"', '"&amp;$I64&amp;"', "&amp;J64&amp;");","")</f>
         <v/>
       </c>
-      <c r="L64" s="16" t="str">
+      <c r="L64" s="16">
         <f>IF(ISBLANK($M64),"",MAX($L$1:$L63)+1)</f>
-        <v/>
-      </c>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="O64" s="16" t="str">
         <f>IF(ISNUMBER($L64),"insert into M_CD_VAL_LANG values ("&amp;$L64&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G64)&amp;"', '"&amp;$M64&amp;"', '"&amp;$N64&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (62, now(), 1, now(), 1, 0, '38', 'ja', '本・コミック・雑誌');</v>
+      </c>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4256,23 +5165,31 @@
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
+      <c r="J65" s="13">
+        <v>2</v>
+      </c>
       <c r="K65" s="16" t="str">
         <f>IF(ISNUMBER($G65),"insert into M_CD_VAL values ("&amp;$G65&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B65)&amp;"', '"&amp;$H65&amp;"', '"&amp;$I65&amp;"', "&amp;J65&amp;");","")</f>
         <v/>
       </c>
-      <c r="L65" s="16" t="str">
+      <c r="L65" s="16">
         <f>IF(ISBLANK($M65),"",MAX($L$1:$L64)+1)</f>
-        <v/>
-      </c>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="O65" s="16" t="str">
         <f>IF(ISNUMBER($L65),"insert into M_CD_VAL_LANG values ("&amp;$L65&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G65)&amp;"', '"&amp;$M65&amp;"', '"&amp;$N65&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (63, now(), 1, now(), 1, 0, '38', 'ja', 'DVD・ミュージック・ゲーム');</v>
+      </c>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4294,25 +5211,33 @@
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
+      <c r="J66" s="13">
+        <v>3</v>
+      </c>
       <c r="K66" s="16" t="str">
         <f>IF(ISNUMBER($G66),"insert into M_CD_VAL values ("&amp;$G66&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B66)&amp;"', '"&amp;$H66&amp;"', '"&amp;$I66&amp;"', "&amp;J66&amp;");","")</f>
         <v/>
       </c>
-      <c r="L66" s="16" t="str">
+      <c r="L66" s="16">
         <f>IF(ISBLANK($M66),"",MAX($L$1:$L65)+1)</f>
-        <v/>
-      </c>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="O66" s="16" t="str">
         <f>IF(ISNUMBER($L66),"insert into M_CD_VAL_LANG values ("&amp;$L66&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G66)&amp;"', '"&amp;$M66&amp;"', '"&amp;$N66&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (64, now(), 1, now(), 1, 0, '38', 'ja', '家電・カメラ・AV機器');</v>
+      </c>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
-        <f t="shared" ref="A67:A130" si="3">ROW()-2</f>
+        <f t="shared" ref="A67:A131" si="3">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="B67" s="16" t="str">
@@ -4332,23 +5257,31 @@
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
+      <c r="J67" s="13">
+        <v>4</v>
+      </c>
       <c r="K67" s="16" t="str">
         <f>IF(ISNUMBER($G67),"insert into M_CD_VAL values ("&amp;$G67&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B67)&amp;"', '"&amp;$H67&amp;"', '"&amp;$I67&amp;"', "&amp;J67&amp;");","")</f>
         <v/>
       </c>
-      <c r="L67" s="16" t="str">
+      <c r="L67" s="16">
         <f>IF(ISBLANK($M67),"",MAX($L$1:$L66)+1)</f>
-        <v/>
-      </c>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="O67" s="16" t="str">
         <f>IF(ISNUMBER($L67),"insert into M_CD_VAL_LANG values ("&amp;$L67&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G67)&amp;"', '"&amp;$M67&amp;"', '"&amp;$N67&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (65, now(), 1, now(), 1, 0, '38', 'ja', 'パソコン・オフィス用品');</v>
+      </c>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="13">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -4370,23 +5303,31 @@
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
+      <c r="J68" s="13">
+        <v>5</v>
+      </c>
       <c r="K68" s="16" t="str">
         <f>IF(ISNUMBER($G68),"insert into M_CD_VAL values ("&amp;$G68&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B68)&amp;"', '"&amp;$H68&amp;"', '"&amp;$I68&amp;"', "&amp;J68&amp;");","")</f>
         <v/>
       </c>
-      <c r="L68" s="16" t="str">
+      <c r="L68" s="16">
         <f>IF(ISBLANK($M68),"",MAX($L$1:$L67)+1)</f>
-        <v/>
-      </c>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="O68" s="16" t="str">
         <f>IF(ISNUMBER($L68),"insert into M_CD_VAL_LANG values ("&amp;$L68&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G68)&amp;"', '"&amp;$M68&amp;"', '"&amp;$N68&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (66, now(), 1, now(), 1, 0, '38', 'ja', 'ホーム＆キッチン・ペット');</v>
+      </c>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -4408,23 +5349,31 @@
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
+      <c r="J69" s="13">
+        <v>6</v>
+      </c>
       <c r="K69" s="16" t="str">
         <f>IF(ISNUMBER($G69),"insert into M_CD_VAL values ("&amp;$G69&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B69)&amp;"', '"&amp;$H69&amp;"', '"&amp;$I69&amp;"', "&amp;J69&amp;");","")</f>
         <v/>
       </c>
-      <c r="L69" s="16" t="str">
+      <c r="L69" s="16">
         <f>IF(ISBLANK($M69),"",MAX($L$1:$L68)+1)</f>
-        <v/>
-      </c>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="O69" s="16" t="str">
         <f>IF(ISNUMBER($L69),"insert into M_CD_VAL_LANG values ("&amp;$L69&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G69)&amp;"', '"&amp;$M69&amp;"', '"&amp;$N69&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (67, now(), 1, now(), 1, 0, '38', 'ja', '食品・飲料・お酒');</v>
+      </c>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -4446,23 +5395,31 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
+      <c r="J70" s="13">
+        <v>7</v>
+      </c>
       <c r="K70" s="16" t="str">
         <f>IF(ISNUMBER($G70),"insert into M_CD_VAL values ("&amp;$G70&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B70)&amp;"', '"&amp;$H70&amp;"', '"&amp;$I70&amp;"', "&amp;J70&amp;");","")</f>
         <v/>
       </c>
-      <c r="L70" s="16" t="str">
+      <c r="L70" s="16">
         <f>IF(ISBLANK($M70),"",MAX($L$1:$L69)+1)</f>
-        <v/>
-      </c>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="O70" s="16" t="str">
         <f>IF(ISNUMBER($L70),"insert into M_CD_VAL_LANG values ("&amp;$L70&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G70)&amp;"', '"&amp;$M70&amp;"', '"&amp;$N70&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (68, now(), 1, now(), 1, 0, '38', 'ja', 'ヘルス＆ビューティー');</v>
+      </c>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="13">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -4484,23 +5441,31 @@
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
+      <c r="J71" s="13">
+        <v>8</v>
+      </c>
       <c r="K71" s="16" t="str">
         <f>IF(ISNUMBER($G71),"insert into M_CD_VAL values ("&amp;$G71&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B71)&amp;"', '"&amp;$H71&amp;"', '"&amp;$I71&amp;"', "&amp;J71&amp;");","")</f>
         <v/>
       </c>
-      <c r="L71" s="16" t="str">
+      <c r="L71" s="16">
         <f>IF(ISBLANK($M71),"",MAX($L$1:$L70)+1)</f>
-        <v/>
-      </c>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="O71" s="16" t="str">
         <f>IF(ISNUMBER($L71),"insert into M_CD_VAL_LANG values ("&amp;$L71&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G71)&amp;"', '"&amp;$M71&amp;"', '"&amp;$N71&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (69, now(), 1, now(), 1, 0, '38', 'ja', 'ベビー・おもちゃ・ホビー');</v>
+      </c>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="13">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -4522,23 +5487,31 @@
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="J72" s="13">
+        <v>9</v>
+      </c>
       <c r="K72" s="16" t="str">
         <f>IF(ISNUMBER($G72),"insert into M_CD_VAL values ("&amp;$G72&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B72)&amp;"', '"&amp;$H72&amp;"', '"&amp;$I72&amp;"', "&amp;J72&amp;");","")</f>
         <v/>
       </c>
-      <c r="L72" s="16" t="str">
+      <c r="L72" s="16">
         <f>IF(ISBLANK($M72),"",MAX($L$1:$L71)+1)</f>
-        <v/>
-      </c>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="O72" s="16" t="str">
         <f>IF(ISNUMBER($L72),"insert into M_CD_VAL_LANG values ("&amp;$L72&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G72)&amp;"', '"&amp;$M72&amp;"', '"&amp;$N72&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (70, now(), 1, now(), 1, 0, '38', 'ja', 'ファッション・バッグ・腕時計');</v>
+      </c>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="13">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -4560,23 +5533,31 @@
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
+      <c r="J73" s="13">
+        <v>10</v>
+      </c>
       <c r="K73" s="16" t="str">
         <f>IF(ISNUMBER($G73),"insert into M_CD_VAL values ("&amp;$G73&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B73)&amp;"', '"&amp;$H73&amp;"', '"&amp;$I73&amp;"', "&amp;J73&amp;");","")</f>
         <v/>
       </c>
-      <c r="L73" s="16" t="str">
+      <c r="L73" s="16">
         <f>IF(ISBLANK($M73),"",MAX($L$1:$L72)+1)</f>
-        <v/>
-      </c>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N73" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="O73" s="16" t="str">
         <f>IF(ISNUMBER($L73),"insert into M_CD_VAL_LANG values ("&amp;$L73&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G73)&amp;"', '"&amp;$M73&amp;"', '"&amp;$N73&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (71, now(), 1, now(), 1, 0, '38', 'ja', 'スポーツ＆アウトドア');</v>
+      </c>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="13">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -4598,23 +5579,31 @@
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
+      <c r="J74" s="13">
+        <v>11</v>
+      </c>
       <c r="K74" s="16" t="str">
         <f>IF(ISNUMBER($G74),"insert into M_CD_VAL values ("&amp;$G74&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B74)&amp;"', '"&amp;$H74&amp;"', '"&amp;$I74&amp;"', "&amp;J74&amp;");","")</f>
         <v/>
       </c>
-      <c r="L74" s="16" t="str">
+      <c r="L74" s="16">
         <f>IF(ISBLANK($M74),"",MAX($L$1:$L73)+1)</f>
-        <v/>
-      </c>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="O74" s="16" t="str">
         <f>IF(ISNUMBER($L74),"insert into M_CD_VAL_LANG values ("&amp;$L74&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G74)&amp;"', '"&amp;$M74&amp;"', '"&amp;$N74&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (72, now(), 1, now(), 1, 0, '38', 'ja', 'DIY・カー＆バイク用品');</v>
+      </c>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="13">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -4630,43 +5619,59 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G75" s="16" t="str">
+      <c r="G75" s="16">
         <f>IF(ISBLANK($H75),"",MAX($G$1:$G74)+1)</f>
-        <v/>
-      </c>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J75" s="13">
+        <v>12</v>
+      </c>
       <c r="K75" s="16" t="str">
         <f>IF(ISNUMBER($G75),"insert into M_CD_VAL values ("&amp;$G75&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B75)&amp;"', '"&amp;$H75&amp;"', '"&amp;$I75&amp;"', "&amp;J75&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L75" s="16" t="str">
+        <v>insert into M_CD_VAL values (39, now(), 1, now(), 1, 0, '12', 'other', 'Other', 12);</v>
+      </c>
+      <c r="L75" s="16">
         <f>IF(ISBLANK($M75),"",MAX($L$1:$L74)+1)</f>
-        <v/>
-      </c>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="O75" s="16" t="str">
         <f>IF(ISNUMBER($L75),"insert into M_CD_VAL_LANG values ("&amp;$L75&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G75)&amp;"', '"&amp;$M75&amp;"', '"&amp;$N75&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (73, now(), 1, now(), 1, 0, '39', 'ja', 'その他');</v>
+      </c>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="13">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="B76" s="16" t="str">
+      <c r="B76" s="16">
         <f>IF(ISBLANK($C76),"",MAX($B$1:$B75)+1)</f>
-        <v/>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="E76" s="13"/>
       <c r="F76" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (13, now(), 1, now(), 1, 0, 'PlayGenre', '遊ぶジャンル', '');</v>
       </c>
       <c r="G76" s="16" t="str">
         <f>IF(ISBLANK($H76),"",MAX($G$1:$G75)+1)</f>
@@ -4674,23 +5679,31 @@
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
+      <c r="J76" s="13">
+        <v>1</v>
+      </c>
       <c r="K76" s="16" t="str">
         <f>IF(ISNUMBER($G76),"insert into M_CD_VAL values ("&amp;$G76&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B76)&amp;"', '"&amp;$H76&amp;"', '"&amp;$I76&amp;"', "&amp;J76&amp;");","")</f>
         <v/>
       </c>
-      <c r="L76" s="16" t="str">
+      <c r="L76" s="16">
         <f>IF(ISBLANK($M76),"",MAX($L$1:$L75)+1)</f>
-        <v/>
-      </c>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="O76" s="16" t="str">
         <f>IF(ISNUMBER($L76),"insert into M_CD_VAL_LANG values ("&amp;$L76&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G76)&amp;"', '"&amp;$M76&amp;"', '"&amp;$N76&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (74, now(), 1, now(), 1, 0, '39', 'ja', '公園');</v>
+      </c>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="13">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -4712,23 +5725,31 @@
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
+      <c r="J77" s="13">
+        <v>2</v>
+      </c>
       <c r="K77" s="16" t="str">
         <f>IF(ISNUMBER($G77),"insert into M_CD_VAL values ("&amp;$G77&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B77)&amp;"', '"&amp;$H77&amp;"', '"&amp;$I77&amp;"', "&amp;J77&amp;");","")</f>
         <v/>
       </c>
-      <c r="L77" s="16" t="str">
+      <c r="L77" s="16">
         <f>IF(ISBLANK($M77),"",MAX($L$1:$L76)+1)</f>
-        <v/>
-      </c>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="O77" s="16" t="str">
         <f>IF(ISNUMBER($L77),"insert into M_CD_VAL_LANG values ("&amp;$L77&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G77)&amp;"', '"&amp;$M77&amp;"', '"&amp;$N77&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (75, now(), 1, now(), 1, 0, '39', 'ja', 'キャンプ場');</v>
+      </c>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="13">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -4750,23 +5771,31 @@
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
+      <c r="J78" s="13">
+        <v>3</v>
+      </c>
       <c r="K78" s="16" t="str">
         <f>IF(ISNUMBER($G78),"insert into M_CD_VAL values ("&amp;$G78&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B78)&amp;"', '"&amp;$H78&amp;"', '"&amp;$I78&amp;"', "&amp;J78&amp;");","")</f>
         <v/>
       </c>
-      <c r="L78" s="16" t="str">
+      <c r="L78" s="16">
         <f>IF(ISBLANK($M78),"",MAX($L$1:$L77)+1)</f>
-        <v/>
-      </c>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="O78" s="16" t="str">
         <f>IF(ISNUMBER($L78),"insert into M_CD_VAL_LANG values ("&amp;$L78&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G78)&amp;"', '"&amp;$M78&amp;"', '"&amp;$N78&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (76, now(), 1, now(), 1, 0, '39', 'ja', '海水浴場');</v>
+      </c>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="13">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -4788,23 +5817,31 @@
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+      <c r="J79" s="13">
+        <v>4</v>
+      </c>
       <c r="K79" s="16" t="str">
         <f>IF(ISNUMBER($G79),"insert into M_CD_VAL values ("&amp;$G79&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B79)&amp;"', '"&amp;$H79&amp;"', '"&amp;$I79&amp;"', "&amp;J79&amp;");","")</f>
         <v/>
       </c>
-      <c r="L79" s="16" t="str">
+      <c r="L79" s="16">
         <f>IF(ISBLANK($M79),"",MAX($L$1:$L78)+1)</f>
-        <v/>
-      </c>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="O79" s="16" t="str">
         <f>IF(ISNUMBER($L79),"insert into M_CD_VAL_LANG values ("&amp;$L79&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G79)&amp;"', '"&amp;$M79&amp;"', '"&amp;$N79&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (77, now(), 1, now(), 1, 0, '39', 'ja', 'プール');</v>
+      </c>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="13">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -4826,23 +5863,31 @@
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
+      <c r="J80" s="13">
+        <v>5</v>
+      </c>
       <c r="K80" s="16" t="str">
         <f>IF(ISNUMBER($G80),"insert into M_CD_VAL values ("&amp;$G80&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B80)&amp;"', '"&amp;$H80&amp;"', '"&amp;$I80&amp;"', "&amp;J80&amp;");","")</f>
         <v/>
       </c>
-      <c r="L80" s="16" t="str">
+      <c r="L80" s="16">
         <f>IF(ISBLANK($M80),"",MAX($L$1:$L79)+1)</f>
-        <v/>
-      </c>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="O80" s="16" t="str">
         <f>IF(ISNUMBER($L80),"insert into M_CD_VAL_LANG values ("&amp;$L80&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G80)&amp;"', '"&amp;$M80&amp;"', '"&amp;$N80&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (78, now(), 1, now(), 1, 0, '39', 'ja', '釣り堀');</v>
+      </c>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="13">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -4864,23 +5909,31 @@
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
+      <c r="J81" s="13">
+        <v>6</v>
+      </c>
       <c r="K81" s="16" t="str">
         <f>IF(ISNUMBER($G81),"insert into M_CD_VAL values ("&amp;$G81&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B81)&amp;"', '"&amp;$H81&amp;"', '"&amp;$I81&amp;"', "&amp;J81&amp;");","")</f>
         <v/>
       </c>
-      <c r="L81" s="16" t="str">
+      <c r="L81" s="16">
         <f>IF(ISBLANK($M81),"",MAX($L$1:$L80)+1)</f>
-        <v/>
-      </c>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="O81" s="16" t="str">
         <f>IF(ISNUMBER($L81),"insert into M_CD_VAL_LANG values ("&amp;$L81&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G81)&amp;"', '"&amp;$M81&amp;"', '"&amp;$N81&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (79, now(), 1, now(), 1, 0, '39', 'ja', '牧場');</v>
+      </c>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="13">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -4902,23 +5955,31 @@
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
+      <c r="J82" s="13">
+        <v>7</v>
+      </c>
       <c r="K82" s="16" t="str">
         <f>IF(ISNUMBER($G82),"insert into M_CD_VAL values ("&amp;$G82&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B82)&amp;"', '"&amp;$H82&amp;"', '"&amp;$I82&amp;"', "&amp;J82&amp;");","")</f>
         <v/>
       </c>
-      <c r="L82" s="16" t="str">
+      <c r="L82" s="16">
         <f>IF(ISBLANK($M82),"",MAX($L$1:$L81)+1)</f>
-        <v/>
-      </c>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="O82" s="16" t="str">
         <f>IF(ISNUMBER($L82),"insert into M_CD_VAL_LANG values ("&amp;$L82&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G82)&amp;"', '"&amp;$M82&amp;"', '"&amp;$N82&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (80, now(), 1, now(), 1, 0, '39', 'ja', '遊園地・テーマパーク');</v>
+      </c>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="13">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -4931,7 +5992,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="16" t="str">
-        <f t="shared" ref="F83:F146" si="4">IF(ISNUMBER($B83),"insert into M_CD_GRP values ("&amp;$B83&amp;", now(), 1, now(), 1, 0, '"&amp;$C83&amp;"', '"&amp;$D83&amp;"', '"&amp;$E83&amp;"');","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G83" s="16" t="str">
@@ -4940,23 +6001,31 @@
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
+      <c r="J83" s="13">
+        <v>8</v>
+      </c>
       <c r="K83" s="16" t="str">
         <f>IF(ISNUMBER($G83),"insert into M_CD_VAL values ("&amp;$G83&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B83)&amp;"', '"&amp;$H83&amp;"', '"&amp;$I83&amp;"', "&amp;J83&amp;");","")</f>
         <v/>
       </c>
-      <c r="L83" s="16" t="str">
+      <c r="L83" s="16">
         <f>IF(ISBLANK($M83),"",MAX($L$1:$L82)+1)</f>
-        <v/>
-      </c>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="O83" s="16" t="str">
         <f>IF(ISNUMBER($L83),"insert into M_CD_VAL_LANG values ("&amp;$L83&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G83)&amp;"', '"&amp;$M83&amp;"', '"&amp;$N83&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (81, now(), 1, now(), 1, 0, '39', 'ja', 'カラオケ');</v>
+      </c>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="13">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -4969,7 +6038,7 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F83:F146" si="4">IF(ISNUMBER($B84),"insert into M_CD_GRP values ("&amp;$B84&amp;", now(), 1, now(), 1, 0, '"&amp;$C84&amp;"', '"&amp;$D84&amp;"', '"&amp;$E84&amp;"');","")</f>
         <v/>
       </c>
       <c r="G84" s="16" t="str">
@@ -4978,23 +6047,31 @@
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
+      <c r="J84" s="13">
+        <v>9</v>
+      </c>
       <c r="K84" s="16" t="str">
         <f>IF(ISNUMBER($G84),"insert into M_CD_VAL values ("&amp;$G84&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B84)&amp;"', '"&amp;$H84&amp;"', '"&amp;$I84&amp;"', "&amp;J84&amp;");","")</f>
         <v/>
       </c>
-      <c r="L84" s="16" t="str">
+      <c r="L84" s="16">
         <f>IF(ISBLANK($M84),"",MAX($L$1:$L83)+1)</f>
-        <v/>
-      </c>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="O84" s="16" t="str">
         <f>IF(ISNUMBER($L84),"insert into M_CD_VAL_LANG values ("&amp;$L84&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G84)&amp;"', '"&amp;$M84&amp;"', '"&amp;$N84&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (82, now(), 1, now(), 1, 0, '39', 'ja', 'ゲームセンター');</v>
+      </c>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="13">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -5016,23 +6093,31 @@
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
+      <c r="J85" s="13">
+        <v>10</v>
+      </c>
       <c r="K85" s="16" t="str">
         <f>IF(ISNUMBER($G85),"insert into M_CD_VAL values ("&amp;$G85&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B85)&amp;"', '"&amp;$H85&amp;"', '"&amp;$I85&amp;"', "&amp;J85&amp;");","")</f>
         <v/>
       </c>
-      <c r="L85" s="16" t="str">
+      <c r="L85" s="16">
         <f>IF(ISBLANK($M85),"",MAX($L$1:$L84)+1)</f>
-        <v/>
-      </c>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="O85" s="16" t="str">
         <f>IF(ISNUMBER($L85),"insert into M_CD_VAL_LANG values ("&amp;$L85&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G85)&amp;"', '"&amp;$M85&amp;"', '"&amp;$N85&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (83, now(), 1, now(), 1, 0, '39', 'ja', 'クラブ・ディスコ');</v>
+      </c>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="13">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -5054,23 +6139,31 @@
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
+      <c r="J86" s="13">
+        <v>11</v>
+      </c>
       <c r="K86" s="16" t="str">
         <f>IF(ISNUMBER($G86),"insert into M_CD_VAL values ("&amp;$G86&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B86)&amp;"', '"&amp;$H86&amp;"', '"&amp;$I86&amp;"', "&amp;J86&amp;");","")</f>
         <v/>
       </c>
-      <c r="L86" s="16" t="str">
+      <c r="L86" s="16">
         <f>IF(ISBLANK($M86),"",MAX($L$1:$L85)+1)</f>
-        <v/>
-      </c>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="O86" s="16" t="str">
         <f>IF(ISNUMBER($L86),"insert into M_CD_VAL_LANG values ("&amp;$L86&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G86)&amp;"', '"&amp;$M86&amp;"', '"&amp;$N86&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (84, now(), 1, now(), 1, 0, '39', 'ja', 'ボウリング場');</v>
+      </c>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="13">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -5092,23 +6185,31 @@
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
+      <c r="J87" s="13">
+        <v>12</v>
+      </c>
       <c r="K87" s="16" t="str">
         <f>IF(ISNUMBER($G87),"insert into M_CD_VAL values ("&amp;$G87&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B87)&amp;"', '"&amp;$H87&amp;"', '"&amp;$I87&amp;"', "&amp;J87&amp;");","")</f>
         <v/>
       </c>
-      <c r="L87" s="16" t="str">
+      <c r="L87" s="16">
         <f>IF(ISBLANK($M87),"",MAX($L$1:$L86)+1)</f>
-        <v/>
-      </c>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="M87" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N87" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="O87" s="16" t="str">
         <f>IF(ISNUMBER($L87),"insert into M_CD_VAL_LANG values ("&amp;$L87&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G87)&amp;"', '"&amp;$M87&amp;"', '"&amp;$N87&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (85, now(), 1, now(), 1, 0, '39', 'ja', 'ビリヤード');</v>
+      </c>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="13">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -5130,23 +6231,31 @@
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
+      <c r="J88" s="13">
+        <v>13</v>
+      </c>
       <c r="K88" s="16" t="str">
         <f>IF(ISNUMBER($G88),"insert into M_CD_VAL values ("&amp;$G88&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B88)&amp;"', '"&amp;$H88&amp;"', '"&amp;$I88&amp;"', "&amp;J88&amp;");","")</f>
         <v/>
       </c>
-      <c r="L88" s="16" t="str">
+      <c r="L88" s="16">
         <f>IF(ISBLANK($M88),"",MAX($L$1:$L87)+1)</f>
-        <v/>
-      </c>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N88" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="O88" s="16" t="str">
         <f>IF(ISNUMBER($L88),"insert into M_CD_VAL_LANG values ("&amp;$L88&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G88)&amp;"', '"&amp;$M88&amp;"', '"&amp;$N88&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (86, now(), 1, now(), 1, 0, '39', 'ja', '競輪・競馬・競艇');</v>
+      </c>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89" s="13">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -5168,23 +6277,31 @@
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
+      <c r="J89" s="13">
+        <v>14</v>
+      </c>
       <c r="K89" s="16" t="str">
         <f>IF(ISNUMBER($G89),"insert into M_CD_VAL values ("&amp;$G89&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B89)&amp;"', '"&amp;$H89&amp;"', '"&amp;$I89&amp;"', "&amp;J89&amp;");","")</f>
         <v/>
       </c>
-      <c r="L89" s="16" t="str">
+      <c r="L89" s="16">
         <f>IF(ISBLANK($M89),"",MAX($L$1:$L88)+1)</f>
-        <v/>
-      </c>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="M89" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N89" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="O89" s="16" t="str">
         <f>IF(ISNUMBER($L89),"insert into M_CD_VAL_LANG values ("&amp;$L89&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G89)&amp;"', '"&amp;$M89&amp;"', '"&amp;$N89&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (87, now(), 1, now(), 1, 0, '39', 'ja', 'オートレース場');</v>
+      </c>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="13">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -5206,23 +6323,31 @@
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
+      <c r="J90" s="13">
+        <v>15</v>
+      </c>
       <c r="K90" s="16" t="str">
         <f>IF(ISNUMBER($G90),"insert into M_CD_VAL values ("&amp;$G90&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B90)&amp;"', '"&amp;$H90&amp;"', '"&amp;$I90&amp;"', "&amp;J90&amp;");","")</f>
         <v/>
       </c>
-      <c r="L90" s="16" t="str">
+      <c r="L90" s="16">
         <f>IF(ISBLANK($M90),"",MAX($L$1:$L89)+1)</f>
-        <v/>
-      </c>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="O90" s="16" t="str">
         <f>IF(ISNUMBER($L90),"insert into M_CD_VAL_LANG values ("&amp;$L90&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G90)&amp;"', '"&amp;$M90&amp;"', '"&amp;$N90&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (88, now(), 1, now(), 1, 0, '39', 'ja', 'パチンコ・パチスロ');</v>
+      </c>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="13">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -5244,23 +6369,31 @@
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
+      <c r="J91" s="13">
+        <v>16</v>
+      </c>
       <c r="K91" s="16" t="str">
         <f>IF(ISNUMBER($G91),"insert into M_CD_VAL values ("&amp;$G91&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B91)&amp;"', '"&amp;$H91&amp;"', '"&amp;$I91&amp;"', "&amp;J91&amp;");","")</f>
         <v/>
       </c>
-      <c r="L91" s="16" t="str">
+      <c r="L91" s="16">
         <f>IF(ISBLANK($M91),"",MAX($L$1:$L90)+1)</f>
-        <v/>
-      </c>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="O91" s="16" t="str">
         <f>IF(ISNUMBER($L91),"insert into M_CD_VAL_LANG values ("&amp;$L91&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G91)&amp;"', '"&amp;$M91&amp;"', '"&amp;$N91&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (89, now(), 1, now(), 1, 0, '39', 'ja', '雀荘');</v>
+      </c>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="13">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -5282,23 +6415,31 @@
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
+      <c r="J92" s="13">
+        <v>17</v>
+      </c>
       <c r="K92" s="16" t="str">
         <f>IF(ISNUMBER($G92),"insert into M_CD_VAL values ("&amp;$G92&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B92)&amp;"', '"&amp;$H92&amp;"', '"&amp;$I92&amp;"', "&amp;J92&amp;");","")</f>
         <v/>
       </c>
-      <c r="L92" s="16" t="str">
+      <c r="L92" s="16">
         <f>IF(ISBLANK($M92),"",MAX($L$1:$L91)+1)</f>
-        <v/>
-      </c>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="O92" s="16" t="str">
         <f>IF(ISNUMBER($L92),"insert into M_CD_VAL_LANG values ("&amp;$L92&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G92)&amp;"', '"&amp;$M92&amp;"', '"&amp;$N92&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (90, now(), 1, now(), 1, 0, '39', 'ja', '漫画喫茶');</v>
+      </c>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="13">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -5314,43 +6455,59 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G93" s="16" t="str">
+      <c r="G93" s="16">
         <f>IF(ISBLANK($H93),"",MAX($G$1:$G92)+1)</f>
-        <v/>
-      </c>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J93" s="13">
+        <v>18</v>
+      </c>
       <c r="K93" s="16" t="str">
         <f>IF(ISNUMBER($G93),"insert into M_CD_VAL values ("&amp;$G93&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B93)&amp;"', '"&amp;$H93&amp;"', '"&amp;$I93&amp;"', "&amp;J93&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L93" s="16" t="str">
+        <v>insert into M_CD_VAL values (40, now(), 1, now(), 1, 0, '13', 'other', 'Other', 18);</v>
+      </c>
+      <c r="L93" s="16">
         <f>IF(ISBLANK($M93),"",MAX($L$1:$L92)+1)</f>
-        <v/>
-      </c>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="O93" s="16" t="str">
         <f>IF(ISNUMBER($L93),"insert into M_CD_VAL_LANG values ("&amp;$L93&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G93)&amp;"', '"&amp;$M93&amp;"', '"&amp;$N93&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (91, now(), 1, now(), 1, 0, '40', 'ja', 'その他');</v>
+      </c>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="13">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B94" s="16" t="str">
+      <c r="B94" s="16">
         <f>IF(ISBLANK($C94),"",MAX($B$1:$B93)+1)</f>
-        <v/>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="E94" s="13"/>
       <c r="F94" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>insert into M_CD_GRP values (14, now(), 1, now(), 1, 0, 'SeeGenre', '見るジャンル', '');</v>
       </c>
       <c r="G94" s="16" t="str">
         <f>IF(ISBLANK($H94),"",MAX($G$1:$G93)+1)</f>
@@ -5358,23 +6515,31 @@
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
+      <c r="J94" s="13">
+        <v>1</v>
+      </c>
       <c r="K94" s="16" t="str">
         <f>IF(ISNUMBER($G94),"insert into M_CD_VAL values ("&amp;$G94&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B94)&amp;"', '"&amp;$H94&amp;"', '"&amp;$I94&amp;"', "&amp;J94&amp;");","")</f>
         <v/>
       </c>
-      <c r="L94" s="16" t="str">
+      <c r="L94" s="16">
         <f>IF(ISBLANK($M94),"",MAX($L$1:$L93)+1)</f>
-        <v/>
-      </c>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N94" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="O94" s="16" t="str">
         <f>IF(ISNUMBER($L94),"insert into M_CD_VAL_LANG values ("&amp;$L94&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G94)&amp;"', '"&amp;$M94&amp;"', '"&amp;$N94&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (92, now(), 1, now(), 1, 0, '40', 'ja', '動物園');</v>
+      </c>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="13">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -5396,23 +6561,31 @@
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
+      <c r="J95" s="13">
+        <v>2</v>
+      </c>
       <c r="K95" s="16" t="str">
         <f>IF(ISNUMBER($G95),"insert into M_CD_VAL values ("&amp;$G95&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B95)&amp;"', '"&amp;$H95&amp;"', '"&amp;$I95&amp;"', "&amp;J95&amp;");","")</f>
         <v/>
       </c>
-      <c r="L95" s="16" t="str">
+      <c r="L95" s="16">
         <f>IF(ISBLANK($M95),"",MAX($L$1:$L94)+1)</f>
-        <v/>
-      </c>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="O95" s="16" t="str">
         <f>IF(ISNUMBER($L95),"insert into M_CD_VAL_LANG values ("&amp;$L95&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G95)&amp;"', '"&amp;$M95&amp;"', '"&amp;$N95&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (93, now(), 1, now(), 1, 0, '40', 'ja', '植物園');</v>
+      </c>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="13">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -5434,23 +6607,31 @@
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
+      <c r="J96" s="13">
+        <v>3</v>
+      </c>
       <c r="K96" s="16" t="str">
         <f>IF(ISNUMBER($G96),"insert into M_CD_VAL values ("&amp;$G96&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B96)&amp;"', '"&amp;$H96&amp;"', '"&amp;$I96&amp;"', "&amp;J96&amp;");","")</f>
         <v/>
       </c>
-      <c r="L96" s="16" t="str">
+      <c r="L96" s="16">
         <f>IF(ISBLANK($M96),"",MAX($L$1:$L95)+1)</f>
-        <v/>
-      </c>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="O96" s="16" t="str">
         <f>IF(ISNUMBER($L96),"insert into M_CD_VAL_LANG values ("&amp;$L96&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G96)&amp;"', '"&amp;$M96&amp;"', '"&amp;$N96&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (94, now(), 1, now(), 1, 0, '40', 'ja', '水族館');</v>
+      </c>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97" s="13">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -5472,23 +6653,31 @@
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
+      <c r="J97" s="13">
+        <v>4</v>
+      </c>
       <c r="K97" s="16" t="str">
         <f>IF(ISNUMBER($G97),"insert into M_CD_VAL values ("&amp;$G97&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B97)&amp;"', '"&amp;$H97&amp;"', '"&amp;$I97&amp;"', "&amp;J97&amp;");","")</f>
         <v/>
       </c>
-      <c r="L97" s="16" t="str">
+      <c r="L97" s="16">
         <f>IF(ISBLANK($M97),"",MAX($L$1:$L96)+1)</f>
-        <v/>
-      </c>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="O97" s="16" t="str">
         <f>IF(ISNUMBER($L97),"insert into M_CD_VAL_LANG values ("&amp;$L97&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G97)&amp;"', '"&amp;$M97&amp;"', '"&amp;$N97&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (95, now(), 1, now(), 1, 0, '40', 'ja', '映画館');</v>
+      </c>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98" s="13">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -5504,29 +6693,41 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G98" s="16" t="str">
+      <c r="G98" s="16">
         <f>IF(ISBLANK($H98),"",MAX($G$1:$G97)+1)</f>
-        <v/>
-      </c>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J98" s="13">
+        <v>5</v>
+      </c>
       <c r="K98" s="16" t="str">
         <f>IF(ISNUMBER($G98),"insert into M_CD_VAL values ("&amp;$G98&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B98)&amp;"', '"&amp;$H98&amp;"', '"&amp;$I98&amp;"', "&amp;J98&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L98" s="16" t="str">
+        <v>insert into M_CD_VAL values (41, now(), 1, now(), 1, 0, '14', 'museum', 'Museum', 5);</v>
+      </c>
+      <c r="L98" s="16">
         <f>IF(ISBLANK($M98),"",MAX($L$1:$L97)+1)</f>
-        <v/>
-      </c>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="O98" s="16" t="str">
         <f>IF(ISNUMBER($L98),"insert into M_CD_VAL_LANG values ("&amp;$L98&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G98)&amp;"', '"&amp;$M98&amp;"', '"&amp;$N98&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (96, now(), 1, now(), 1, 0, '41', 'ja', '博物館');</v>
+      </c>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99" s="13">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -5548,23 +6749,31 @@
       </c>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
+      <c r="J99" s="13">
+        <v>6</v>
+      </c>
       <c r="K99" s="16" t="str">
         <f>IF(ISNUMBER($G99),"insert into M_CD_VAL values ("&amp;$G99&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B99)&amp;"', '"&amp;$H99&amp;"', '"&amp;$I99&amp;"', "&amp;J99&amp;");","")</f>
         <v/>
       </c>
-      <c r="L99" s="16" t="str">
+      <c r="L99" s="16">
         <f>IF(ISBLANK($M99),"",MAX($L$1:$L98)+1)</f>
-        <v/>
-      </c>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N99" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="O99" s="16" t="str">
         <f>IF(ISNUMBER($L99),"insert into M_CD_VAL_LANG values ("&amp;$L99&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G99)&amp;"', '"&amp;$M99&amp;"', '"&amp;$N99&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (97, now(), 1, now(), 1, 0, '41', 'ja', '美術館');</v>
+      </c>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="13">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -5586,23 +6795,31 @@
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
+      <c r="J100" s="13">
+        <v>7</v>
+      </c>
       <c r="K100" s="16" t="str">
         <f>IF(ISNUMBER($G100),"insert into M_CD_VAL values ("&amp;$G100&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B100)&amp;"', '"&amp;$H100&amp;"', '"&amp;$I100&amp;"', "&amp;J100&amp;");","")</f>
         <v/>
       </c>
-      <c r="L100" s="16" t="str">
+      <c r="L100" s="16">
         <f>IF(ISBLANK($M100),"",MAX($L$1:$L99)+1)</f>
-        <v/>
-      </c>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="O100" s="16" t="str">
         <f>IF(ISNUMBER($L100),"insert into M_CD_VAL_LANG values ("&amp;$L100&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G100)&amp;"', '"&amp;$M100&amp;"', '"&amp;$N100&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (98, now(), 1, now(), 1, 0, '41', 'ja', '天文台・プラネタリム');</v>
+      </c>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="13">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -5624,23 +6841,31 @@
       </c>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
+      <c r="J101" s="13">
+        <v>8</v>
+      </c>
       <c r="K101" s="16" t="str">
         <f>IF(ISNUMBER($G101),"insert into M_CD_VAL values ("&amp;$G101&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B101)&amp;"', '"&amp;$H101&amp;"', '"&amp;$I101&amp;"', "&amp;J101&amp;");","")</f>
         <v/>
       </c>
-      <c r="L101" s="16" t="str">
+      <c r="L101" s="16">
         <f>IF(ISBLANK($M101),"",MAX($L$1:$L100)+1)</f>
-        <v/>
-      </c>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="O101" s="16" t="str">
         <f>IF(ISNUMBER($L101),"insert into M_CD_VAL_LANG values ("&amp;$L101&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G101)&amp;"', '"&amp;$M101&amp;"', '"&amp;$N101&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (99, now(), 1, now(), 1, 0, '41', 'ja', '劇場');</v>
+      </c>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="13">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -5656,43 +6881,59 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G102" s="16" t="str">
+      <c r="G102" s="16">
         <f>IF(ISBLANK($H102),"",MAX($G$1:$G101)+1)</f>
-        <v/>
-      </c>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J102" s="13">
+        <v>9</v>
+      </c>
       <c r="K102" s="16" t="str">
         <f>IF(ISNUMBER($G102),"insert into M_CD_VAL values ("&amp;$G102&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B102)&amp;"', '"&amp;$H102&amp;"', '"&amp;$I102&amp;"', "&amp;J102&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L102" s="16" t="str">
+        <v>insert into M_CD_VAL values (42, now(), 1, now(), 1, 0, '14', 'other', 'Other', 9);</v>
+      </c>
+      <c r="L102" s="16">
         <f>IF(ISBLANK($M102),"",MAX($L$1:$L101)+1)</f>
-        <v/>
-      </c>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N102" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="O102" s="16" t="str">
         <f>IF(ISNUMBER($L102),"insert into M_CD_VAL_LANG values ("&amp;$L102&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G102)&amp;"', '"&amp;$M102&amp;"', '"&amp;$N102&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (100, now(), 1, now(), 1, 0, '42', 'ja', 'その他');</v>
+      </c>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103" s="13">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="B103" s="16" t="str">
+      <c r="B103" s="16">
         <f>IF(ISBLANK($C103),"",MAX($B$1:$B102)+1)</f>
-        <v/>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="E103" s="13"/>
       <c r="F103" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>insert into M_CD_GRP values (15, now(), 1, now(), 1, 0, 'StayGenre', '泊まるジャンル', '');</v>
       </c>
       <c r="G103" s="16" t="str">
         <f>IF(ISBLANK($H103),"",MAX($G$1:$G102)+1)</f>
@@ -5700,23 +6941,31 @@
       </c>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
+      <c r="J103" s="13">
+        <v>1</v>
+      </c>
       <c r="K103" s="16" t="str">
         <f>IF(ISNUMBER($G103),"insert into M_CD_VAL values ("&amp;$G103&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B103)&amp;"', '"&amp;$H103&amp;"', '"&amp;$I103&amp;"', "&amp;J103&amp;");","")</f>
         <v/>
       </c>
-      <c r="L103" s="16" t="str">
+      <c r="L103" s="16">
         <f>IF(ISBLANK($M103),"",MAX($L$1:$L102)+1)</f>
-        <v/>
-      </c>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="M103" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N103" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="O103" s="16" t="str">
         <f>IF(ISNUMBER($L103),"insert into M_CD_VAL_LANG values ("&amp;$L103&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G103)&amp;"', '"&amp;$M103&amp;"', '"&amp;$N103&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (101, now(), 1, now(), 1, 0, '42', 'ja', 'ホテル');</v>
+      </c>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104" s="13">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -5738,23 +6987,31 @@
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
+      <c r="J104" s="13">
+        <v>2</v>
+      </c>
       <c r="K104" s="16" t="str">
         <f>IF(ISNUMBER($G104),"insert into M_CD_VAL values ("&amp;$G104&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B104)&amp;"', '"&amp;$H104&amp;"', '"&amp;$I104&amp;"', "&amp;J104&amp;");","")</f>
         <v/>
       </c>
-      <c r="L104" s="16" t="str">
+      <c r="L104" s="16">
         <f>IF(ISBLANK($M104),"",MAX($L$1:$L103)+1)</f>
-        <v/>
-      </c>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="O104" s="16" t="str">
         <f>IF(ISNUMBER($L104),"insert into M_CD_VAL_LANG values ("&amp;$L104&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G104)&amp;"', '"&amp;$M104&amp;"', '"&amp;$N104&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (102, now(), 1, now(), 1, 0, '42', 'ja', '旅館');</v>
+      </c>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A105" s="13">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -5776,23 +7033,31 @@
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
+      <c r="J105" s="13">
+        <v>3</v>
+      </c>
       <c r="K105" s="16" t="str">
         <f>IF(ISNUMBER($G105),"insert into M_CD_VAL values ("&amp;$G105&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B105)&amp;"', '"&amp;$H105&amp;"', '"&amp;$I105&amp;"', "&amp;J105&amp;");","")</f>
         <v/>
       </c>
-      <c r="L105" s="16" t="str">
+      <c r="L105" s="16">
         <f>IF(ISBLANK($M105),"",MAX($L$1:$L104)+1)</f>
-        <v/>
-      </c>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N105" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="O105" s="16" t="str">
         <f>IF(ISNUMBER($L105),"insert into M_CD_VAL_LANG values ("&amp;$L105&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G105)&amp;"', '"&amp;$M105&amp;"', '"&amp;$N105&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (103, now(), 1, now(), 1, 0, '42', 'ja', '民宿');</v>
+      </c>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A106" s="13">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -5814,23 +7079,31 @@
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
+      <c r="J106" s="13">
+        <v>4</v>
+      </c>
       <c r="K106" s="16" t="str">
         <f>IF(ISNUMBER($G106),"insert into M_CD_VAL values ("&amp;$G106&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B106)&amp;"', '"&amp;$H106&amp;"', '"&amp;$I106&amp;"', "&amp;J106&amp;");","")</f>
         <v/>
       </c>
-      <c r="L106" s="16" t="str">
+      <c r="L106" s="16">
         <f>IF(ISBLANK($M106),"",MAX($L$1:$L105)+1)</f>
-        <v/>
-      </c>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="O106" s="16" t="str">
         <f>IF(ISNUMBER($L106),"insert into M_CD_VAL_LANG values ("&amp;$L106&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G106)&amp;"', '"&amp;$M106&amp;"', '"&amp;$N106&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (104, now(), 1, now(), 1, 0, '42', 'ja', '温泉');</v>
+      </c>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A107" s="13">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -5852,23 +7125,31 @@
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
+      <c r="J107" s="13">
+        <v>5</v>
+      </c>
       <c r="K107" s="16" t="str">
         <f>IF(ISNUMBER($G107),"insert into M_CD_VAL values ("&amp;$G107&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B107)&amp;"', '"&amp;$H107&amp;"', '"&amp;$I107&amp;"', "&amp;J107&amp;");","")</f>
         <v/>
       </c>
-      <c r="L107" s="16" t="str">
+      <c r="L107" s="16">
         <f>IF(ISBLANK($M107),"",MAX($L$1:$L106)+1)</f>
-        <v/>
-      </c>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="M107" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N107" s="13" t="s">
+        <v>202</v>
+      </c>
       <c r="O107" s="16" t="str">
         <f>IF(ISNUMBER($L107),"insert into M_CD_VAL_LANG values ("&amp;$L107&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G107)&amp;"', '"&amp;$M107&amp;"', '"&amp;$N107&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (105, now(), 1, now(), 1, 0, '42', 'ja', 'カプセルホテル');</v>
+      </c>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A108" s="13">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -5884,43 +7165,59 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G108" s="16" t="str">
+      <c r="G108" s="16">
         <f>IF(ISBLANK($H108),"",MAX($G$1:$G107)+1)</f>
-        <v/>
-      </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J108" s="13">
+        <v>6</v>
+      </c>
       <c r="K108" s="16" t="str">
         <f>IF(ISNUMBER($G108),"insert into M_CD_VAL values ("&amp;$G108&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B108)&amp;"', '"&amp;$H108&amp;"', '"&amp;$I108&amp;"', "&amp;J108&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L108" s="16" t="str">
+        <v>insert into M_CD_VAL values (43, now(), 1, now(), 1, 0, '15', 'other', 'Other', 6);</v>
+      </c>
+      <c r="L108" s="16">
         <f>IF(ISBLANK($M108),"",MAX($L$1:$L107)+1)</f>
-        <v/>
-      </c>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="M108" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N108" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="O108" s="16" t="str">
         <f>IF(ISNUMBER($L108),"insert into M_CD_VAL_LANG values ("&amp;$L108&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G108)&amp;"', '"&amp;$M108&amp;"', '"&amp;$N108&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (106, now(), 1, now(), 1, 0, '43', 'ja', 'その他');</v>
+      </c>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A109" s="13">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B109" s="16" t="str">
+      <c r="B109" s="16">
         <f>IF(ISBLANK($C109),"",MAX($B$1:$B108)+1)</f>
-        <v/>
-      </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>205</v>
+      </c>
       <c r="E109" s="13"/>
       <c r="F109" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>insert into M_CD_GRP values (16, now(), 1, now(), 1, 0, 'EventGenre', 'イベントジャンル', '');</v>
       </c>
       <c r="G109" s="16" t="str">
         <f>IF(ISBLANK($H109),"",MAX($G$1:$G108)+1)</f>
@@ -5928,23 +7225,31 @@
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
+      <c r="J109" s="13">
+        <v>1</v>
+      </c>
       <c r="K109" s="16" t="str">
         <f>IF(ISNUMBER($G109),"insert into M_CD_VAL values ("&amp;$G109&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B109)&amp;"', '"&amp;$H109&amp;"', '"&amp;$I109&amp;"', "&amp;J109&amp;");","")</f>
         <v/>
       </c>
-      <c r="L109" s="16" t="str">
+      <c r="L109" s="16">
         <f>IF(ISBLANK($M109),"",MAX($L$1:$L108)+1)</f>
-        <v/>
-      </c>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="M109" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N109" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="O109" s="16" t="str">
         <f>IF(ISNUMBER($L109),"insert into M_CD_VAL_LANG values ("&amp;$L109&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G109)&amp;"', '"&amp;$M109&amp;"', '"&amp;$N109&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (107, now(), 1, now(), 1, 0, '43', 'ja', '節句・年中行事');</v>
+      </c>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A110" s="13">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -5966,23 +7271,31 @@
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
+      <c r="J110" s="13">
+        <v>2</v>
+      </c>
       <c r="K110" s="16" t="str">
         <f>IF(ISNUMBER($G110),"insert into M_CD_VAL values ("&amp;$G110&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B110)&amp;"', '"&amp;$H110&amp;"', '"&amp;$I110&amp;"', "&amp;J110&amp;");","")</f>
         <v/>
       </c>
-      <c r="L110" s="16" t="str">
+      <c r="L110" s="16">
         <f>IF(ISBLANK($M110),"",MAX($L$1:$L109)+1)</f>
-        <v/>
-      </c>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N110" s="13" t="s">
+        <v>214</v>
+      </c>
       <c r="O110" s="16" t="str">
         <f>IF(ISNUMBER($L110),"insert into M_CD_VAL_LANG values ("&amp;$L110&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G110)&amp;"', '"&amp;$M110&amp;"', '"&amp;$N110&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (108, now(), 1, now(), 1, 0, '43', 'ja', '神輿・山車など');</v>
+      </c>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A111" s="13">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -6004,23 +7317,31 @@
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
+      <c r="J111" s="13">
+        <v>3</v>
+      </c>
       <c r="K111" s="16" t="str">
         <f>IF(ISNUMBER($G111),"insert into M_CD_VAL values ("&amp;$G111&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B111)&amp;"', '"&amp;$H111&amp;"', '"&amp;$I111&amp;"', "&amp;J111&amp;");","")</f>
         <v/>
       </c>
-      <c r="L111" s="16" t="str">
+      <c r="L111" s="16">
         <f>IF(ISBLANK($M111),"",MAX($L$1:$L110)+1)</f>
-        <v/>
-      </c>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>222</v>
+      </c>
       <c r="O111" s="16" t="str">
         <f>IF(ISNUMBER($L111),"insert into M_CD_VAL_LANG values ("&amp;$L111&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G111)&amp;"', '"&amp;$M111&amp;"', '"&amp;$N111&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (109, now(), 1, now(), 1, 0, '43', 'ja', '伝統芸能・舞踊');</v>
+      </c>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A112" s="13">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -6042,23 +7363,31 @@
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
+      <c r="J112" s="13">
+        <v>4</v>
+      </c>
       <c r="K112" s="16" t="str">
         <f>IF(ISNUMBER($G112),"insert into M_CD_VAL values ("&amp;$G112&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B112)&amp;"', '"&amp;$H112&amp;"', '"&amp;$I112&amp;"', "&amp;J112&amp;");","")</f>
         <v/>
       </c>
-      <c r="L112" s="16" t="str">
+      <c r="L112" s="16">
         <f>IF(ISBLANK($M112),"",MAX($L$1:$L111)+1)</f>
-        <v/>
-      </c>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N112" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="O112" s="16" t="str">
         <f>IF(ISNUMBER($L112),"insert into M_CD_VAL_LANG values ("&amp;$L112&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G112)&amp;"', '"&amp;$M112&amp;"', '"&amp;$N112&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (110, now(), 1, now(), 1, 0, '43', 'ja', '行列・パレード');</v>
+      </c>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113" s="13">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -6080,23 +7409,31 @@
       </c>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
+      <c r="J113" s="13">
+        <v>5</v>
+      </c>
       <c r="K113" s="16" t="str">
         <f>IF(ISNUMBER($G113),"insert into M_CD_VAL values ("&amp;$G113&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B113)&amp;"', '"&amp;$H113&amp;"', '"&amp;$I113&amp;"', "&amp;J113&amp;");","")</f>
         <v/>
       </c>
-      <c r="L113" s="16" t="str">
+      <c r="L113" s="16">
         <f>IF(ISBLANK($M113),"",MAX($L$1:$L112)+1)</f>
-        <v/>
-      </c>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="O113" s="16" t="str">
         <f>IF(ISNUMBER($L113),"insert into M_CD_VAL_LANG values ("&amp;$L113&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G113)&amp;"', '"&amp;$M113&amp;"', '"&amp;$N113&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (111, now(), 1, now(), 1, 0, '43', 'ja', 'グルメ');</v>
+      </c>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A114" s="13">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -6118,23 +7455,31 @@
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
+      <c r="J114" s="13">
+        <v>6</v>
+      </c>
       <c r="K114" s="16" t="str">
         <f>IF(ISNUMBER($G114),"insert into M_CD_VAL values ("&amp;$G114&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B114)&amp;"', '"&amp;$H114&amp;"', '"&amp;$I114&amp;"', "&amp;J114&amp;");","")</f>
         <v/>
       </c>
-      <c r="L114" s="16" t="str">
+      <c r="L114" s="16">
         <f>IF(ISBLANK($M114),"",MAX($L$1:$L113)+1)</f>
-        <v/>
-      </c>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N114" s="13" t="s">
+        <v>223</v>
+      </c>
       <c r="O114" s="16" t="str">
         <f>IF(ISNUMBER($L114),"insert into M_CD_VAL_LANG values ("&amp;$L114&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G114)&amp;"', '"&amp;$M114&amp;"', '"&amp;$N114&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (112, now(), 1, now(), 1, 0, '43', 'ja', '市・縁日');</v>
+      </c>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115" s="13">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -6156,23 +7501,31 @@
       </c>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
+      <c r="J115" s="13">
+        <v>7</v>
+      </c>
       <c r="K115" s="16" t="str">
         <f>IF(ISNUMBER($G115),"insert into M_CD_VAL values ("&amp;$G115&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B115)&amp;"', '"&amp;$H115&amp;"', '"&amp;$I115&amp;"', "&amp;J115&amp;");","")</f>
         <v/>
       </c>
-      <c r="L115" s="16" t="str">
+      <c r="L115" s="16">
         <f>IF(ISBLANK($M115),"",MAX($L$1:$L114)+1)</f>
-        <v/>
-      </c>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N115" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="O115" s="16" t="str">
         <f>IF(ISNUMBER($L115),"insert into M_CD_VAL_LANG values ("&amp;$L115&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G115)&amp;"', '"&amp;$M115&amp;"', '"&amp;$N115&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (113, now(), 1, now(), 1, 0, '43', 'ja', '花見・自然');</v>
+      </c>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A116" s="13">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -6194,23 +7547,31 @@
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
+      <c r="J116" s="13">
+        <v>8</v>
+      </c>
       <c r="K116" s="16" t="str">
         <f>IF(ISNUMBER($G116),"insert into M_CD_VAL values ("&amp;$G116&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B116)&amp;"', '"&amp;$H116&amp;"', '"&amp;$I116&amp;"', "&amp;J116&amp;");","")</f>
         <v/>
       </c>
-      <c r="L116" s="16" t="str">
+      <c r="L116" s="16">
         <f>IF(ISBLANK($M116),"",MAX($L$1:$L115)+1)</f>
-        <v/>
-      </c>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="M116" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N116" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="O116" s="16" t="str">
         <f>IF(ISNUMBER($L116),"insert into M_CD_VAL_LANG values ("&amp;$L116&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G116)&amp;"', '"&amp;$M116&amp;"', '"&amp;$N116&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (114, now(), 1, now(), 1, 0, '43', 'ja', '火と灯の祭り');</v>
+      </c>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A117" s="13">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -6232,23 +7593,31 @@
       </c>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
+      <c r="J117" s="13">
+        <v>9</v>
+      </c>
       <c r="K117" s="16" t="str">
         <f>IF(ISNUMBER($G117),"insert into M_CD_VAL values ("&amp;$G117&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B117)&amp;"', '"&amp;$H117&amp;"', '"&amp;$I117&amp;"', "&amp;J117&amp;");","")</f>
         <v/>
       </c>
-      <c r="L117" s="16" t="str">
+      <c r="L117" s="16">
         <f>IF(ISBLANK($M117),"",MAX($L$1:$L116)+1)</f>
-        <v/>
-      </c>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="M117" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N117" s="13" t="s">
+        <v>224</v>
+      </c>
       <c r="O117" s="16" t="str">
         <f>IF(ISNUMBER($L117),"insert into M_CD_VAL_LANG values ("&amp;$L117&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G117)&amp;"', '"&amp;$M117&amp;"', '"&amp;$N117&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (115, now(), 1, now(), 1, 0, '43', 'ja', '花火大会');</v>
+      </c>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A118" s="13">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -6270,23 +7639,31 @@
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
+      <c r="J118" s="13">
+        <v>10</v>
+      </c>
       <c r="K118" s="16" t="str">
         <f>IF(ISNUMBER($G118),"insert into M_CD_VAL values ("&amp;$G118&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B118)&amp;"', '"&amp;$H118&amp;"', '"&amp;$I118&amp;"', "&amp;J118&amp;");","")</f>
         <v/>
       </c>
-      <c r="L118" s="16" t="str">
+      <c r="L118" s="16">
         <f>IF(ISBLANK($M118),"",MAX($L$1:$L117)+1)</f>
-        <v/>
-      </c>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="M118" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N118" s="13" t="s">
+        <v>209</v>
+      </c>
       <c r="O118" s="16" t="str">
         <f>IF(ISNUMBER($L118),"insert into M_CD_VAL_LANG values ("&amp;$L118&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G118)&amp;"', '"&amp;$M118&amp;"', '"&amp;$N118&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (116, now(), 1, now(), 1, 0, '43', 'ja', '雪・冬祭り');</v>
+      </c>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A119" s="13">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -6308,23 +7685,31 @@
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
+      <c r="J119" s="13">
+        <v>11</v>
+      </c>
       <c r="K119" s="16" t="str">
         <f>IF(ISNUMBER($G119),"insert into M_CD_VAL values ("&amp;$G119&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B119)&amp;"', '"&amp;$H119&amp;"', '"&amp;$I119&amp;"', "&amp;J119&amp;");","")</f>
         <v/>
       </c>
-      <c r="L119" s="16" t="str">
+      <c r="L119" s="16">
         <f>IF(ISBLANK($M119),"",MAX($L$1:$L118)+1)</f>
-        <v/>
-      </c>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="M119" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N119" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="O119" s="16" t="str">
         <f>IF(ISNUMBER($L119),"insert into M_CD_VAL_LANG values ("&amp;$L119&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G119)&amp;"', '"&amp;$M119&amp;"', '"&amp;$N119&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (117, now(), 1, now(), 1, 0, '43', 'ja', 'イルミネーション');</v>
+      </c>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A120" s="13">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -6346,23 +7731,31 @@
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
+      <c r="J120" s="13">
+        <v>12</v>
+      </c>
       <c r="K120" s="16" t="str">
         <f>IF(ISNUMBER($G120),"insert into M_CD_VAL values ("&amp;$G120&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B120)&amp;"', '"&amp;$H120&amp;"', '"&amp;$I120&amp;"', "&amp;J120&amp;");","")</f>
         <v/>
       </c>
-      <c r="L120" s="16" t="str">
+      <c r="L120" s="16">
         <f>IF(ISBLANK($M120),"",MAX($L$1:$L119)+1)</f>
-        <v/>
-      </c>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N120" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="O120" s="16" t="str">
         <f>IF(ISNUMBER($L120),"insert into M_CD_VAL_LANG values ("&amp;$L120&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G120)&amp;"', '"&amp;$M120&amp;"', '"&amp;$N120&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (118, now(), 1, now(), 1, 0, '43', 'ja', '音楽・映画');</v>
+      </c>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A121" s="13">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -6384,23 +7777,31 @@
       </c>
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
+      <c r="J121" s="13">
+        <v>13</v>
+      </c>
       <c r="K121" s="16" t="str">
         <f>IF(ISNUMBER($G121),"insert into M_CD_VAL values ("&amp;$G121&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B121)&amp;"', '"&amp;$H121&amp;"', '"&amp;$I121&amp;"', "&amp;J121&amp;");","")</f>
         <v/>
       </c>
-      <c r="L121" s="16" t="str">
+      <c r="L121" s="16">
         <f>IF(ISBLANK($M121),"",MAX($L$1:$L120)+1)</f>
-        <v/>
-      </c>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="M121" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N121" s="13" t="s">
+        <v>210</v>
+      </c>
       <c r="O121" s="16" t="str">
         <f>IF(ISNUMBER($L121),"insert into M_CD_VAL_LANG values ("&amp;$L121&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G121)&amp;"', '"&amp;$M121&amp;"', '"&amp;$N121&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (119, now(), 1, now(), 1, 0, '43', 'ja', 'スポーツ');</v>
+      </c>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A122" s="13">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -6422,23 +7823,31 @@
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
+      <c r="J122" s="13">
+        <v>14</v>
+      </c>
       <c r="K122" s="16" t="str">
         <f>IF(ISNUMBER($G122),"insert into M_CD_VAL values ("&amp;$G122&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B122)&amp;"', '"&amp;$H122&amp;"', '"&amp;$I122&amp;"', "&amp;J122&amp;");","")</f>
         <v/>
       </c>
-      <c r="L122" s="16" t="str">
+      <c r="L122" s="16">
         <f>IF(ISBLANK($M122),"",MAX($L$1:$L121)+1)</f>
-        <v/>
-      </c>
-      <c r="M122" s="13"/>
-      <c r="N122" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="M122" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N122" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="O122" s="16" t="str">
         <f>IF(ISNUMBER($L122),"insert into M_CD_VAL_LANG values ("&amp;$L122&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G122)&amp;"', '"&amp;$M122&amp;"', '"&amp;$N122&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (120, now(), 1, now(), 1, 0, '43', 'ja', '美術展・博物展');</v>
+      </c>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A123" s="13">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -6460,23 +7869,31 @@
       </c>
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
+      <c r="J123" s="13">
+        <v>15</v>
+      </c>
       <c r="K123" s="16" t="str">
         <f>IF(ISNUMBER($G123),"insert into M_CD_VAL values ("&amp;$G123&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B123)&amp;"', '"&amp;$H123&amp;"', '"&amp;$I123&amp;"', "&amp;J123&amp;");","")</f>
         <v/>
       </c>
-      <c r="L123" s="16" t="str">
+      <c r="L123" s="16">
         <f>IF(ISBLANK($M123),"",MAX($L$1:$L122)+1)</f>
-        <v/>
-      </c>
-      <c r="M123" s="13"/>
-      <c r="N123" s="13"/>
+        <v>121</v>
+      </c>
+      <c r="M123" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N123" s="13" t="s">
+        <v>226</v>
+      </c>
       <c r="O123" s="16" t="str">
         <f>IF(ISNUMBER($L123),"insert into M_CD_VAL_LANG values ("&amp;$L123&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G123)&amp;"', '"&amp;$M123&amp;"', '"&amp;$N123&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (121, now(), 1, now(), 1, 0, '43', 'ja', '博覧会・フェスティバル');</v>
+      </c>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A124" s="13">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -6498,23 +7915,31 @@
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
+      <c r="J124" s="13">
+        <v>16</v>
+      </c>
       <c r="K124" s="16" t="str">
         <f>IF(ISNUMBER($G124),"insert into M_CD_VAL values ("&amp;$G124&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B124)&amp;"', '"&amp;$H124&amp;"', '"&amp;$I124&amp;"', "&amp;J124&amp;");","")</f>
         <v/>
       </c>
-      <c r="L124" s="16" t="str">
+      <c r="L124" s="16">
         <f>IF(ISBLANK($M124),"",MAX($L$1:$L123)+1)</f>
-        <v/>
-      </c>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>211</v>
+      </c>
       <c r="O124" s="16" t="str">
         <f>IF(ISNUMBER($L124),"insert into M_CD_VAL_LANG values ("&amp;$L124&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G124)&amp;"', '"&amp;$M124&amp;"', '"&amp;$N124&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (122, now(), 1, now(), 1, 0, '43', 'ja', 'ペット・動物');</v>
+      </c>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A125" s="13">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -6536,23 +7961,31 @@
       </c>
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
+      <c r="J125" s="13">
+        <v>17</v>
+      </c>
       <c r="K125" s="16" t="str">
         <f>IF(ISNUMBER($G125),"insert into M_CD_VAL values ("&amp;$G125&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B125)&amp;"', '"&amp;$H125&amp;"', '"&amp;$I125&amp;"', "&amp;J125&amp;");","")</f>
         <v/>
       </c>
-      <c r="L125" s="16" t="str">
+      <c r="L125" s="16">
         <f>IF(ISBLANK($M125),"",MAX($L$1:$L124)+1)</f>
-        <v/>
-      </c>
-      <c r="M125" s="13"/>
-      <c r="N125" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="M125" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N125" s="13" t="s">
+        <v>219</v>
+      </c>
       <c r="O125" s="16" t="str">
         <f>IF(ISNUMBER($L125),"insert into M_CD_VAL_LANG values ("&amp;$L125&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G125)&amp;"', '"&amp;$M125&amp;"', '"&amp;$N125&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (123, now(), 1, now(), 1, 0, '43', 'ja', '体験イベント');</v>
+      </c>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A126" s="13">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -6574,23 +8007,31 @@
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
+      <c r="J126" s="13">
+        <v>18</v>
+      </c>
       <c r="K126" s="16" t="str">
         <f>IF(ISNUMBER($G126),"insert into M_CD_VAL values ("&amp;$G126&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B126)&amp;"', '"&amp;$H126&amp;"', '"&amp;$I126&amp;"', "&amp;J126&amp;");","")</f>
         <v/>
       </c>
-      <c r="L126" s="16" t="str">
+      <c r="L126" s="16">
         <f>IF(ISBLANK($M126),"",MAX($L$1:$L125)+1)</f>
-        <v/>
-      </c>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="M126" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="O126" s="16" t="str">
         <f>IF(ISNUMBER($L126),"insert into M_CD_VAL_LANG values ("&amp;$L126&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G126)&amp;"', '"&amp;$M126&amp;"', '"&amp;$N126&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (124, now(), 1, now(), 1, 0, '43', 'ja', '講演会・トークショー');</v>
+      </c>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A127" s="13">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -6612,23 +8053,31 @@
       </c>
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
+      <c r="J127" s="13">
+        <v>19</v>
+      </c>
       <c r="K127" s="16" t="str">
         <f>IF(ISNUMBER($G127),"insert into M_CD_VAL values ("&amp;$G127&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B127)&amp;"', '"&amp;$H127&amp;"', '"&amp;$I127&amp;"', "&amp;J127&amp;");","")</f>
         <v/>
       </c>
-      <c r="L127" s="16" t="str">
+      <c r="L127" s="16">
         <f>IF(ISBLANK($M127),"",MAX($L$1:$L126)+1)</f>
-        <v/>
-      </c>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="M127" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N127" s="13" t="s">
+        <v>212</v>
+      </c>
       <c r="O127" s="16" t="str">
         <f>IF(ISNUMBER($L127),"insert into M_CD_VAL_LANG values ("&amp;$L127&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G127)&amp;"', '"&amp;$M127&amp;"', '"&amp;$N127&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (125, now(), 1, now(), 1, 0, '43', 'ja', '演劇・舞台');</v>
+      </c>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A128" s="13">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -6650,23 +8099,31 @@
       </c>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
+      <c r="J128" s="13">
+        <v>20</v>
+      </c>
       <c r="K128" s="16" t="str">
         <f>IF(ISNUMBER($G128),"insert into M_CD_VAL values ("&amp;$G128&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B128)&amp;"', '"&amp;$H128&amp;"', '"&amp;$I128&amp;"', "&amp;J128&amp;");","")</f>
         <v/>
       </c>
-      <c r="L128" s="16" t="str">
+      <c r="L128" s="16">
         <f>IF(ISBLANK($M128),"",MAX($L$1:$L127)+1)</f>
-        <v/>
-      </c>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="M128" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N128" s="13" t="s">
+        <v>220</v>
+      </c>
       <c r="O128" s="16" t="str">
         <f>IF(ISNUMBER($L128),"insert into M_CD_VAL_LANG values ("&amp;$L128&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G128)&amp;"', '"&amp;$M128&amp;"', '"&amp;$N128&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (126, now(), 1, now(), 1, 0, '43', 'ja', 'テーマパーク');</v>
+      </c>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A129" s="13">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -6688,23 +8145,31 @@
       </c>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
+      <c r="J129" s="13">
+        <v>21</v>
+      </c>
       <c r="K129" s="16" t="str">
         <f>IF(ISNUMBER($G129),"insert into M_CD_VAL values ("&amp;$G129&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B129)&amp;"', '"&amp;$H129&amp;"', '"&amp;$I129&amp;"', "&amp;J129&amp;");","")</f>
         <v/>
       </c>
-      <c r="L129" s="16" t="str">
+      <c r="L129" s="16">
         <f>IF(ISBLANK($M129),"",MAX($L$1:$L128)+1)</f>
-        <v/>
-      </c>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="M129" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N129" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="O129" s="16" t="str">
         <f>IF(ISNUMBER($L129),"insert into M_CD_VAL_LANG values ("&amp;$L129&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G129)&amp;"', '"&amp;$M129&amp;"', '"&amp;$N129&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (127, now(), 1, now(), 1, 0, '43', 'ja', '動物園・水族館');</v>
+      </c>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A130" s="13">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -6726,25 +8191,33 @@
       </c>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
+      <c r="J130" s="13">
+        <v>22</v>
+      </c>
       <c r="K130" s="16" t="str">
         <f>IF(ISNUMBER($G130),"insert into M_CD_VAL values ("&amp;$G130&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B130)&amp;"', '"&amp;$H130&amp;"', '"&amp;$I130&amp;"', "&amp;J130&amp;");","")</f>
         <v/>
       </c>
-      <c r="L130" s="16" t="str">
+      <c r="L130" s="16">
         <f>IF(ISBLANK($M130),"",MAX($L$1:$L129)+1)</f>
-        <v/>
-      </c>
-      <c r="M130" s="13"/>
-      <c r="N130" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="M130" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N130" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="O130" s="16" t="str">
         <f>IF(ISNUMBER($L130),"insert into M_CD_VAL_LANG values ("&amp;$L130&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G130)&amp;"', '"&amp;$M130&amp;"', '"&amp;$N130&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (128, now(), 1, now(), 1, 0, '43', 'ja', '記念日');</v>
+      </c>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A131" s="13">
-        <f t="shared" ref="A131:A194" si="5">ROW()-2</f>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B131" s="16" t="str">
@@ -6764,25 +8237,33 @@
       </c>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
+      <c r="J131" s="13">
+        <v>23</v>
+      </c>
       <c r="K131" s="16" t="str">
         <f>IF(ISNUMBER($G131),"insert into M_CD_VAL values ("&amp;$G131&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B131)&amp;"', '"&amp;$H131&amp;"', '"&amp;$I131&amp;"', "&amp;J131&amp;");","")</f>
         <v/>
       </c>
-      <c r="L131" s="16" t="str">
+      <c r="L131" s="16">
         <f>IF(ISBLANK($M131),"",MAX($L$1:$L130)+1)</f>
-        <v/>
-      </c>
-      <c r="M131" s="13"/>
-      <c r="N131" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="M131" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N131" s="13" t="s">
+        <v>221</v>
+      </c>
       <c r="O131" s="16" t="str">
         <f>IF(ISNUMBER($L131),"insert into M_CD_VAL_LANG values ("&amp;$L131&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G131)&amp;"', '"&amp;$M131&amp;"', '"&amp;$N131&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (129, now(), 1, now(), 1, 0, '43', 'ja', '即売会・フェア');</v>
+      </c>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A132" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A131:A194" si="5">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="B132" s="16" t="str">
@@ -6796,29 +8277,41 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G132" s="16" t="str">
+      <c r="G132" s="16">
         <f>IF(ISBLANK($H132),"",MAX($G$1:$G131)+1)</f>
-        <v/>
-      </c>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J132" s="13">
+        <v>24</v>
+      </c>
       <c r="K132" s="16" t="str">
         <f>IF(ISNUMBER($G132),"insert into M_CD_VAL values ("&amp;$G132&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B132)&amp;"', '"&amp;$H132&amp;"', '"&amp;$I132&amp;"', "&amp;J132&amp;");","")</f>
-        <v/>
-      </c>
-      <c r="L132" s="16" t="str">
+        <v>insert into M_CD_VAL values (44, now(), 1, now(), 1, 0, '16', 'other', 'Other', 24);</v>
+      </c>
+      <c r="L132" s="16">
         <f>IF(ISBLANK($M132),"",MAX($L$1:$L131)+1)</f>
-        <v/>
-      </c>
-      <c r="M132" s="13"/>
-      <c r="N132" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="M132" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N132" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="O132" s="16" t="str">
         <f>IF(ISNUMBER($L132),"insert into M_CD_VAL_LANG values ("&amp;$L132&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G132)&amp;"', '"&amp;$M132&amp;"', '"&amp;$N132&amp;"');","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+        <v>insert into M_CD_VAL_LANG values (130, now(), 1, now(), 1, 0, '44', 'ja', 'その他');</v>
+      </c>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A133" s="13">
         <f t="shared" si="5"/>
         <v>131</v>
@@ -6855,8 +8348,9 @@
         <f>IF(ISNUMBER($L133),"insert into M_CD_VAL_LANG values ("&amp;$L133&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G133)&amp;"', '"&amp;$M133&amp;"', '"&amp;$N133&amp;"');","")</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P133" s="17"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A134" s="13">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -6894,7 +8388,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A135" s="13">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -6932,7 +8426,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A136" s="13">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -6970,7 +8464,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A137" s="13">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -7008,7 +8502,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A138" s="13">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -7046,7 +8540,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A139" s="13">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -7084,7 +8578,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A140" s="13">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -7122,7 +8616,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A141" s="13">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -7160,7 +8654,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A142" s="13">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -7198,7 +8692,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A143" s="13">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -7236,7 +8730,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A144" s="13">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -13167,28 +14661,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:F1000">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:O1000">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>AND(ISNUMBER($L2),NOT(ISNUMBER($L3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:K1000">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>ISNUMBER($G3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1000 L3:O1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>ISNUMBER($L3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/03_設計/05_コード/コード定義一覧.xlsx
+++ b/03_設計/05_コード/コード定義一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="241">
   <si>
     <t>コードグループ</t>
     <phoneticPr fontId="1"/>
@@ -250,32 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ja</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緯度</t>
-    <rPh sb="0" eb="2">
-      <t>イド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経度</t>
-    <rPh sb="0" eb="2">
-      <t>ケイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>公開ステータス</t>
     <rPh sb="0" eb="2">
       <t>コウカイ</t>
@@ -330,10 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ja</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>us</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,14 +317,6 @@
   </si>
   <si>
     <t>map</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ja</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -370,13 +332,6 @@
   </si>
   <si>
     <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地図</t>
-    <rPh sb="0" eb="2">
-      <t>チズ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -566,23 +521,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Longitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Latitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Disclose</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Close</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Has</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -645,10 +588,6 @@
   </si>
   <si>
     <t>ja</t>
-  </si>
-  <si>
-    <t>ja</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>買う</t>
@@ -1587,7 +1526,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="12">
     <dxf>
       <border>
         <top style="hair">
@@ -1618,33 +1557,6 @@
     <dxf>
       <border>
         <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="hair">
           <color auto="1"/>
         </top>
         <vertical/>
@@ -2089,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>25</v>
@@ -2117,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -2132,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J3" s="11">
         <v>1</v>
@@ -2226,10 +2138,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J5" s="13">
         <v>2</v>
@@ -2320,10 +2232,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J7" s="13">
         <v>3</v>
@@ -2403,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -2421,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J9" s="13">
         <v>1</v>
@@ -2512,10 +2424,10 @@
         <v>5</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J11" s="13">
         <v>2</v>
@@ -2606,10 +2518,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J13" s="13">
         <v>3</v>
@@ -2689,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>27</v>
@@ -2704,10 +2616,10 @@
         <v>7</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J15" s="13">
         <v>1</v>
@@ -2754,10 +2666,10 @@
         <v>8</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J16" s="13">
         <v>2</v>
@@ -2804,10 +2716,10 @@
         <v>9</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J17" s="13">
         <v>3</v>
@@ -2854,10 +2766,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J18" s="13">
         <v>4</v>
@@ -2893,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>32</v>
@@ -2908,10 +2820,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J19" s="19">
         <v>1</v>
@@ -2958,10 +2870,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J20" s="19">
         <v>2</v>
@@ -3008,10 +2920,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J21" s="19">
         <v>3</v>
@@ -3028,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O21" s="16" t="str">
         <f>IF(ISNUMBER($L21),"insert into M_CD_VAL_LANG values ("&amp;$L21&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G21)&amp;"', '"&amp;$M21&amp;"', '"&amp;$N21&amp;"');","")</f>
@@ -3058,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J22" s="19">
         <v>4</v>
@@ -3078,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O22" s="16" t="str">
         <f>IF(ISNUMBER($L22),"insert into M_CD_VAL_LANG values ("&amp;$L22&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G22)&amp;"', '"&amp;$M22&amp;"', '"&amp;$N22&amp;"');","")</f>
@@ -3092,47 +3004,51 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="16">
         <f>IF(ISBLANK($C23),"",MAX($B$1:$B22)+1)</f>
-        <v/>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19" t="str">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (5, now(), 1, now(), 1, 0, 'PublishSts', '公開ステータス', '');</v>
       </c>
       <c r="G23" s="16">
         <f>IF(ISBLANK($H23),"",MAX($G$1:$G22)+1)</f>
         <v>15</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="19">
-        <v>5</v>
-      </c>
-      <c r="K23" s="19" t="str">
+      <c r="H23" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16" t="str">
         <f>IF(ISNUMBER($G23),"insert into M_CD_VAL values ("&amp;$G23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B23)&amp;"', '"&amp;$H23&amp;"', '"&amp;$I23&amp;"', "&amp;J23&amp;");","")</f>
-        <v>insert into M_CD_VAL values (15, now(), 1, now(), 1, 0, '4', 'lon', 'Longitude', 5);</v>
+        <v>insert into M_CD_VAL values (15, now(), 1, now(), 1, 0, '5', 'disclose', 'Disclose', 1);</v>
       </c>
       <c r="L23" s="16">
         <f>IF(ISBLANK($M23),"",MAX($L$1:$L22)+1)</f>
         <v>21</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="O23" s="16" t="str">
         <f>IF(ISNUMBER($L23),"insert into M_CD_VAL_LANG values ("&amp;$L23&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G23)&amp;"', '"&amp;$M23&amp;"', '"&amp;$N23&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (21, now(), 1, now(), 1, 0, '15', 'ja', '緯度');</v>
+        <v>insert into M_CD_VAL_LANG values (21, now(), 1, now(), 1, 0, '15', 'ja', '公開');</v>
       </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -3146,10 +3062,10 @@
         <f>IF(ISBLANK($C24),"",MAX($B$1:$B23)+1)</f>
         <v/>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="str">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3157,32 +3073,32 @@
         <f>IF(ISBLANK($H24),"",MAX($G$1:$G23)+1)</f>
         <v>16</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="19">
-        <v>6</v>
-      </c>
-      <c r="K24" s="19" t="str">
+      <c r="H24" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="13">
+        <v>2</v>
+      </c>
+      <c r="K24" s="16" t="str">
         <f>IF(ISNUMBER($G24),"insert into M_CD_VAL values ("&amp;$G24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B24)&amp;"', '"&amp;$H24&amp;"', '"&amp;$I24&amp;"', "&amp;J24&amp;");","")</f>
-        <v>insert into M_CD_VAL values (16, now(), 1, now(), 1, 0, '4', 'lat', 'Latitude', 6);</v>
+        <v>insert into M_CD_VAL values (16, now(), 1, now(), 1, 0, '5', 'close', 'Close', 2);</v>
       </c>
       <c r="L24" s="16">
         <f>IF(ISBLANK($M24),"",MAX($L$1:$L23)+1)</f>
         <v>22</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>39</v>
+      <c r="M24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="O24" s="16" t="str">
         <f>IF(ISNUMBER($L24),"insert into M_CD_VAL_LANG values ("&amp;$L24&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G24)&amp;"', '"&amp;$M24&amp;"', '"&amp;$N24&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (22, now(), 1, now(), 1, 0, '16', 'ja', '経度');</v>
+        <v>insert into M_CD_VAL_LANG values (22, now(), 1, now(), 1, 0, '16', 'ja', '非公開');</v>
       </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -3194,49 +3110,49 @@
       </c>
       <c r="B25" s="16">
         <f>IF(ISBLANK($C25),"",MAX($B$1:$B24)+1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (5, now(), 1, now(), 1, 0, 'PublishSts', '公開ステータス', '');</v>
+        <v>insert into M_CD_GRP values (6, now(), 1, now(), 1, 0, 'HasNotHave', '有無', '');</v>
       </c>
       <c r="G25" s="16">
         <f>IF(ISBLANK($H25),"",MAX($G$1:$G24)+1)</f>
         <v>17</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="16" t="str">
         <f>IF(ISNUMBER($G25),"insert into M_CD_VAL values ("&amp;$G25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B25)&amp;"', '"&amp;$H25&amp;"', '"&amp;$I25&amp;"', "&amp;J25&amp;");","")</f>
-        <v>insert into M_CD_VAL values (17, now(), 1, now(), 1, 0, '5', 'disclose', 'Disclose', 1);</v>
+        <v>insert into M_CD_VAL values (17, now(), 1, now(), 1, 0, '6', 'has', 'Has', 1);</v>
       </c>
       <c r="L25" s="16">
         <f>IF(ISBLANK($M25),"",MAX($L$1:$L24)+1)</f>
         <v>23</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O25" s="16" t="str">
         <f>IF(ISNUMBER($L25),"insert into M_CD_VAL_LANG values ("&amp;$L25&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G25)&amp;"', '"&amp;$M25&amp;"', '"&amp;$N25&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (23, now(), 1, now(), 1, 0, '17', 'ja', '公開');</v>
+        <v>insert into M_CD_VAL_LANG values (23, now(), 1, now(), 1, 0, '17', 'ja', '有り');</v>
       </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
@@ -3257,36 +3173,30 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="16" t="str">
         <f>IF(ISBLANK($H26),"",MAX($G$1:$G25)+1)</f>
-        <v>18</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="13">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="16" t="str">
         <f>IF(ISNUMBER($G26),"insert into M_CD_VAL values ("&amp;$G26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B26)&amp;"', '"&amp;$H26&amp;"', '"&amp;$I26&amp;"', "&amp;J26&amp;");","")</f>
-        <v>insert into M_CD_VAL values (18, now(), 1, now(), 1, 0, '5', 'close', 'Close', 2);</v>
+        <v/>
       </c>
       <c r="L26" s="16">
         <f>IF(ISBLANK($M26),"",MAX($L$1:$L25)+1)</f>
         <v>24</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>IF(ISNUMBER($L26),"insert into M_CD_VAL_LANG values ("&amp;$L26&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G26)&amp;"', '"&amp;$M26&amp;"', '"&amp;$N26&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (24, now(), 1, now(), 1, 0, '18', 'ja', '非公開');</v>
+        <v>insert into M_CD_VAL_LANG values (24, now(), 1, now(), 1, 0, '17', 'us', 'Has');</v>
       </c>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
@@ -3296,51 +3206,47 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="16" t="str">
         <f>IF(ISBLANK($C27),"",MAX($B$1:$B26)+1)</f>
-        <v>6</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (6, now(), 1, now(), 1, 0, 'HasNotHave', '有無', '');</v>
+        <v/>
       </c>
       <c r="G27" s="16">
         <f>IF(ISBLANK($H27),"",MAX($G$1:$G26)+1)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="16" t="str">
         <f>IF(ISNUMBER($G27),"insert into M_CD_VAL values ("&amp;$G27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B27)&amp;"', '"&amp;$H27&amp;"', '"&amp;$I27&amp;"', "&amp;J27&amp;");","")</f>
-        <v>insert into M_CD_VAL values (19, now(), 1, now(), 1, 0, '6', 'has', 'Has', 1);</v>
+        <v>insert into M_CD_VAL values (18, now(), 1, now(), 1, 0, '6', 'nohas', 'DoesNotHave', 2);</v>
       </c>
       <c r="L27" s="16">
         <f>IF(ISBLANK($M27),"",MAX($L$1:$L26)+1)</f>
         <v>25</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>IF(ISNUMBER($L27),"insert into M_CD_VAL_LANG values ("&amp;$L27&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G27)&amp;"', '"&amp;$M27&amp;"', '"&amp;$N27&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (25, now(), 1, now(), 1, 0, '19', 'ja', '有り');</v>
+        <v>insert into M_CD_VAL_LANG values (25, now(), 1, now(), 1, 0, '18', 'ja', '無し');</v>
       </c>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
@@ -3377,14 +3283,14 @@
         <v>26</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O28" s="16" t="str">
         <f>IF(ISNUMBER($L28),"insert into M_CD_VAL_LANG values ("&amp;$L28&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G28)&amp;"', '"&amp;$M28&amp;"', '"&amp;$N28&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (26, now(), 1, now(), 1, 0, '19', 'us', 'Has');</v>
+        <v>insert into M_CD_VAL_LANG values (26, now(), 1, now(), 1, 0, '18', 'us', 'Does not have');</v>
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
@@ -3394,47 +3300,51 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="16">
         <f>IF(ISBLANK($C29),"",MAX($B$1:$B28)+1)</f>
-        <v/>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="16" t="str">
+        <v>7</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (7, now(), 1, now(), 1, 0, 'LayoutObjType', 'レイアウトオブジェクトタイプ', '');</v>
       </c>
       <c r="G29" s="16">
         <f>IF(ISBLANK($H29),"",MAX($G$1:$G28)+1)</f>
-        <v>20</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J29" s="13">
-        <v>2</v>
-      </c>
-      <c r="K29" s="16" t="str">
+        <v>19</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="19">
+        <v>1</v>
+      </c>
+      <c r="K29" s="19" t="str">
         <f>IF(ISNUMBER($G29),"insert into M_CD_VAL values ("&amp;$G29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B29)&amp;"', '"&amp;$H29&amp;"', '"&amp;$I29&amp;"', "&amp;J29&amp;");","")</f>
-        <v>insert into M_CD_VAL values (20, now(), 1, now(), 1, 0, '6', 'nohas', 'DoesNotHave', 2);</v>
+        <v>insert into M_CD_VAL values (19, now(), 1, now(), 1, 0, '7', 'text', 'Text', 1);</v>
       </c>
       <c r="L29" s="16">
         <f>IF(ISBLANK($M29),"",MAX($L$1:$L28)+1)</f>
         <v>27</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>47</v>
+      <c r="M29" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="O29" s="16" t="str">
         <f>IF(ISNUMBER($L29),"insert into M_CD_VAL_LANG values ("&amp;$L29&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G29)&amp;"', '"&amp;$M29&amp;"', '"&amp;$N29&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (27, now(), 1, now(), 1, 0, '20', 'ja', '無し');</v>
+        <v>insert into M_CD_VAL_LANG values (27, now(), 1, now(), 1, 0, '19', 'ja', 'テキスト');</v>
       </c>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
@@ -3448,37 +3358,43 @@
         <f>IF(ISBLANK($C30),"",MAX($B$1:$B29)+1)</f>
         <v/>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="16" t="str">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G30" s="16" t="str">
+      <c r="G30" s="16">
         <f>IF(ISBLANK($H30),"",MAX($G$1:$G29)+1)</f>
-        <v/>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="16" t="str">
+        <v>20</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="19">
+        <v>2</v>
+      </c>
+      <c r="K30" s="19" t="str">
         <f>IF(ISNUMBER($G30),"insert into M_CD_VAL values ("&amp;$G30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B30)&amp;"', '"&amp;$H30&amp;"', '"&amp;$I30&amp;"', "&amp;J30&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (20, now(), 1, now(), 1, 0, '7', 'image', 'Image', 2);</v>
       </c>
       <c r="L30" s="16">
         <f>IF(ISBLANK($M30),"",MAX($L$1:$L29)+1)</f>
         <v>28</v>
       </c>
-      <c r="M30" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N30" s="13" t="s">
+      <c r="M30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="19" t="s">
         <v>48</v>
       </c>
       <c r="O30" s="16" t="str">
         <f>IF(ISNUMBER($L30),"insert into M_CD_VAL_LANG values ("&amp;$L30&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G30)&amp;"', '"&amp;$M30&amp;"', '"&amp;$N30&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (28, now(), 1, now(), 1, 0, '20', 'us', 'Does not have');</v>
+        <v>insert into M_CD_VAL_LANG values (28, now(), 1, now(), 1, 0, '20', 'ja', '画像');</v>
       </c>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
@@ -3488,51 +3404,47 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="16" t="str">
         <f>IF(ISBLANK($C31),"",MAX($B$1:$B30)+1)</f>
-        <v>7</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>52</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (7, now(), 1, now(), 1, 0, 'LayoutObjType', 'レイアウトオブジェクトタイプ', '');</v>
+        <v/>
       </c>
       <c r="G31" s="16">
         <f>IF(ISBLANK($H31),"",MAX($G$1:$G30)+1)</f>
         <v>21</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31" s="19" t="str">
         <f>IF(ISNUMBER($G31),"insert into M_CD_VAL values ("&amp;$G31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B31)&amp;"', '"&amp;$H31&amp;"', '"&amp;$I31&amp;"', "&amp;J31&amp;");","")</f>
-        <v>insert into M_CD_VAL values (21, now(), 1, now(), 1, 0, '7', 'text', 'Text', 1);</v>
+        <v>insert into M_CD_VAL values (21, now(), 1, now(), 1, 0, '7', 'movie', 'Movie', 3);</v>
       </c>
       <c r="L31" s="16">
         <f>IF(ISBLANK($M31),"",MAX($L$1:$L30)+1)</f>
         <v>29</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O31" s="16" t="str">
         <f>IF(ISNUMBER($L31),"insert into M_CD_VAL_LANG values ("&amp;$L31&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G31)&amp;"', '"&amp;$M31&amp;"', '"&amp;$N31&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (29, now(), 1, now(), 1, 0, '21', 'ja', 'テキスト');</v>
+        <v>insert into M_CD_VAL_LANG values (29, now(), 1, now(), 1, 0, '21', 'ja', '動画');</v>
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -3558,31 +3470,31 @@
         <v>22</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="J32" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K32" s="19" t="str">
         <f>IF(ISNUMBER($G32),"insert into M_CD_VAL values ("&amp;$G32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B32)&amp;"', '"&amp;$H32&amp;"', '"&amp;$I32&amp;"', "&amp;J32&amp;");","")</f>
-        <v>insert into M_CD_VAL values (22, now(), 1, now(), 1, 0, '7', 'image', 'Image', 2);</v>
+        <v>insert into M_CD_VAL values (22, now(), 1, now(), 1, 0, '7', 'map', 'Map', 4);</v>
       </c>
       <c r="L32" s="16">
         <f>IF(ISBLANK($M32),"",MAX($L$1:$L31)+1)</f>
         <v>30</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>IF(ISNUMBER($L32),"insert into M_CD_VAL_LANG values ("&amp;$L32&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G32)&amp;"', '"&amp;$M32&amp;"', '"&amp;$N32&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (30, now(), 1, now(), 1, 0, '22', 'ja', '画像');</v>
+        <v>insert into M_CD_VAL_LANG values (30, now(), 1, now(), 1, 0, '22', 'ja', '地図');</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -3608,31 +3520,31 @@
         <v>23</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J33" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" s="19" t="str">
         <f>IF(ISNUMBER($G33),"insert into M_CD_VAL values ("&amp;$G33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B33)&amp;"', '"&amp;$H33&amp;"', '"&amp;$I33&amp;"', "&amp;J33&amp;");","")</f>
-        <v>insert into M_CD_VAL values (23, now(), 1, now(), 1, 0, '7', 'movie', 'Movie', 3);</v>
+        <v>insert into M_CD_VAL values (23, now(), 1, now(), 1, 0, '7', 'button', 'Button', 5);</v>
       </c>
       <c r="L33" s="16">
         <f>IF(ISBLANK($M33),"",MAX($L$1:$L32)+1)</f>
         <v>31</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>IF(ISNUMBER($L33),"insert into M_CD_VAL_LANG values ("&amp;$L33&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G33)&amp;"', '"&amp;$M33&amp;"', '"&amp;$N33&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (31, now(), 1, now(), 1, 0, '23', 'ja', '動画');</v>
+        <v>insert into M_CD_VAL_LANG values (31, now(), 1, now(), 1, 0, '23', 'ja', 'ボタン');</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
@@ -3642,47 +3554,51 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="16">
         <f>IF(ISBLANK($C34),"",MAX($B$1:$B33)+1)</f>
-        <v/>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19" t="str">
+        <v>8</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (8, now(), 1, now(), 1, 0, 'LayoutMultiplicity', 'レイアウト多重度', '');</v>
       </c>
       <c r="G34" s="16">
         <f>IF(ISBLANK($H34),"",MAX($G$1:$G33)+1)</f>
         <v>24</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="19">
-        <v>4</v>
-      </c>
-      <c r="K34" s="19" t="str">
+      <c r="H34" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="13">
+        <v>1</v>
+      </c>
+      <c r="K34" s="16" t="str">
         <f>IF(ISNUMBER($G34),"insert into M_CD_VAL values ("&amp;$G34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B34)&amp;"', '"&amp;$H34&amp;"', '"&amp;$I34&amp;"', "&amp;J34&amp;");","")</f>
-        <v>insert into M_CD_VAL values (24, now(), 1, now(), 1, 0, '7', 'map', 'Map', 4);</v>
+        <v>insert into M_CD_VAL values (24, now(), 1, now(), 1, 0, '8', 'single', 'Single', 1);</v>
       </c>
       <c r="L34" s="16">
         <f>IF(ISBLANK($M34),"",MAX($L$1:$L33)+1)</f>
         <v>32</v>
       </c>
-      <c r="M34" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>59</v>
+      <c r="M34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="O34" s="16" t="str">
         <f>IF(ISNUMBER($L34),"insert into M_CD_VAL_LANG values ("&amp;$L34&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G34)&amp;"', '"&amp;$M34&amp;"', '"&amp;$N34&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (32, now(), 1, now(), 1, 0, '24', 'ja', '地図');</v>
+        <v>insert into M_CD_VAL_LANG values (32, now(), 1, now(), 1, 0, '24', 'ja', 'シングル');</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
@@ -3696,10 +3612,10 @@
         <f>IF(ISBLANK($C35),"",MAX($B$1:$B34)+1)</f>
         <v/>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="str">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3707,32 +3623,32 @@
         <f>IF(ISBLANK($H35),"",MAX($G$1:$G34)+1)</f>
         <v>25</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J35" s="19">
-        <v>5</v>
-      </c>
-      <c r="K35" s="19" t="str">
+      <c r="H35" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="13">
+        <v>2</v>
+      </c>
+      <c r="K35" s="16" t="str">
         <f>IF(ISNUMBER($G35),"insert into M_CD_VAL values ("&amp;$G35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B35)&amp;"', '"&amp;$H35&amp;"', '"&amp;$I35&amp;"', "&amp;J35&amp;");","")</f>
-        <v>insert into M_CD_VAL values (25, now(), 1, now(), 1, 0, '7', 'button', 'Button', 5);</v>
+        <v>insert into M_CD_VAL values (25, now(), 1, now(), 1, 0, '8', 'multiple', 'Multiple', 2);</v>
       </c>
       <c r="L35" s="16">
         <f>IF(ISBLANK($M35),"",MAX($L$1:$L34)+1)</f>
         <v>33</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="O35" s="16" t="str">
         <f>IF(ISNUMBER($L35),"insert into M_CD_VAL_LANG values ("&amp;$L35&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G35)&amp;"', '"&amp;$M35&amp;"', '"&amp;$N35&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (33, now(), 1, now(), 1, 0, '25', 'ja', 'ボタン');</v>
+        <v>insert into M_CD_VAL_LANG values (33, now(), 1, now(), 1, 0, '25', 'ja', 'マルチ');</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
@@ -3744,49 +3660,49 @@
       </c>
       <c r="B36" s="16">
         <f>IF(ISBLANK($C36),"",MAX($B$1:$B35)+1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (8, now(), 1, now(), 1, 0, 'LayoutMultiplicity', 'レイアウト多重度', '');</v>
+        <v>insert into M_CD_GRP values (9, now(), 1, now(), 1, 0, 'Entity', 'エンティティ', '');</v>
       </c>
       <c r="G36" s="16">
         <f>IF(ISBLANK($H36),"",MAX($G$1:$G35)+1)</f>
         <v>26</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="16" t="str">
         <f>IF(ISNUMBER($G36),"insert into M_CD_VAL values ("&amp;$G36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B36)&amp;"', '"&amp;$H36&amp;"', '"&amp;$I36&amp;"', "&amp;J36&amp;");","")</f>
-        <v>insert into M_CD_VAL values (26, now(), 1, now(), 1, 0, '8', 'single', 'Single', 1);</v>
+        <v>insert into M_CD_VAL values (26, now(), 1, now(), 1, 0, '9', 'region', 'Region', 1);</v>
       </c>
       <c r="L36" s="16">
         <f>IF(ISBLANK($M36),"",MAX($L$1:$L35)+1)</f>
         <v>34</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O36" s="16" t="str">
         <f>IF(ISNUMBER($L36),"insert into M_CD_VAL_LANG values ("&amp;$L36&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G36)&amp;"', '"&amp;$M36&amp;"', '"&amp;$N36&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (34, now(), 1, now(), 1, 0, '26', 'ja', 'シングル');</v>
+        <v>insert into M_CD_VAL_LANG values (34, now(), 1, now(), 1, 0, '26', 'ja', '地域');</v>
       </c>
       <c r="P36" s="17"/>
       <c r="Q36" s="17"/>
@@ -3812,31 +3728,31 @@
         <v>27</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J37" s="13">
         <v>2</v>
       </c>
       <c r="K37" s="16" t="str">
         <f>IF(ISNUMBER($G37),"insert into M_CD_VAL values ("&amp;$G37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B37)&amp;"', '"&amp;$H37&amp;"', '"&amp;$I37&amp;"', "&amp;J37&amp;");","")</f>
-        <v>insert into M_CD_VAL values (27, now(), 1, now(), 1, 0, '8', 'multiple', 'Multiple', 2);</v>
+        <v>insert into M_CD_VAL values (27, now(), 1, now(), 1, 0, '9', 'facility', 'Facility', 2);</v>
       </c>
       <c r="L37" s="16">
         <f>IF(ISBLANK($M37),"",MAX($L$1:$L36)+1)</f>
         <v>35</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O37" s="16" t="str">
         <f>IF(ISNUMBER($L37),"insert into M_CD_VAL_LANG values ("&amp;$L37&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G37)&amp;"', '"&amp;$M37&amp;"', '"&amp;$N37&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (35, now(), 1, now(), 1, 0, '27', 'ja', 'マルチ');</v>
+        <v>insert into M_CD_VAL_LANG values (35, now(), 1, now(), 1, 0, '27', 'ja', '施設');</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
@@ -3846,51 +3762,47 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="16" t="str">
         <f>IF(ISBLANK($C38),"",MAX($B$1:$B37)+1)</f>
-        <v>9</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>65</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (9, now(), 1, now(), 1, 0, 'Entity', 'エンティティ', '');</v>
+        <v/>
       </c>
       <c r="G38" s="16">
         <f>IF(ISBLANK($H38),"",MAX($G$1:$G37)+1)</f>
         <v>28</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J38" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" s="16" t="str">
         <f>IF(ISNUMBER($G38),"insert into M_CD_VAL values ("&amp;$G38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B38)&amp;"', '"&amp;$H38&amp;"', '"&amp;$I38&amp;"', "&amp;J38&amp;");","")</f>
-        <v>insert into M_CD_VAL values (28, now(), 1, now(), 1, 0, '9', 'region', 'Region', 1);</v>
+        <v>insert into M_CD_VAL values (28, now(), 1, now(), 1, 0, '9', 'facgrp', 'FacilityGroup', 3);</v>
       </c>
       <c r="L38" s="16">
         <f>IF(ISBLANK($M38),"",MAX($L$1:$L37)+1)</f>
         <v>36</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O38" s="16" t="str">
         <f>IF(ISNUMBER($L38),"insert into M_CD_VAL_LANG values ("&amp;$L38&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G38)&amp;"', '"&amp;$M38&amp;"', '"&amp;$N38&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (36, now(), 1, now(), 1, 0, '28', 'ja', '地域');</v>
+        <v>insert into M_CD_VAL_LANG values (36, now(), 1, now(), 1, 0, '28', 'ja', '施設グループ');</v>
       </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
@@ -3916,31 +3828,31 @@
         <v>29</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J39" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K39" s="16" t="str">
         <f>IF(ISNUMBER($G39),"insert into M_CD_VAL values ("&amp;$G39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B39)&amp;"', '"&amp;$H39&amp;"', '"&amp;$I39&amp;"', "&amp;J39&amp;");","")</f>
-        <v>insert into M_CD_VAL values (29, now(), 1, now(), 1, 0, '9', 'facility', 'Facility', 2);</v>
+        <v>insert into M_CD_VAL values (29, now(), 1, now(), 1, 0, '9', 'facgrpln', 'FacilityFacilityGroupLink', 4);</v>
       </c>
       <c r="L39" s="16">
         <f>IF(ISBLANK($M39),"",MAX($L$1:$L38)+1)</f>
         <v>37</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O39" s="16" t="str">
         <f>IF(ISNUMBER($L39),"insert into M_CD_VAL_LANG values ("&amp;$L39&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G39)&amp;"', '"&amp;$M39&amp;"', '"&amp;$N39&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (37, now(), 1, now(), 1, 0, '29', 'ja', '施設');</v>
+        <v>insert into M_CD_VAL_LANG values (37, now(), 1, now(), 1, 0, '29', 'ja', '施設_施設グループ_リンク');</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -3950,47 +3862,51 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="str">
+      <c r="B40" s="16">
         <f>IF(ISBLANK($C40),"",MAX($B$1:$B39)+1)</f>
-        <v/>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="E40" s="13"/>
       <c r="F40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'Purpose', '目的', '');</v>
       </c>
       <c r="G40" s="16">
         <f>IF(ISBLANK($H40),"",MAX($G$1:$G39)+1)</f>
         <v>30</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>112</v>
       </c>
       <c r="J40" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" s="16" t="str">
         <f>IF(ISNUMBER($G40),"insert into M_CD_VAL values ("&amp;$G40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B40)&amp;"', '"&amp;$H40&amp;"', '"&amp;$I40&amp;"', "&amp;J40&amp;");","")</f>
-        <v>insert into M_CD_VAL values (30, now(), 1, now(), 1, 0, '9', 'facgrp', 'FacilityGroup', 3);</v>
+        <v>insert into M_CD_VAL values (30, now(), 1, now(), 1, 0, '10', 'eat', 'Eat', 1);</v>
       </c>
       <c r="L40" s="16">
         <f>IF(ISBLANK($M40),"",MAX($L$1:$L39)+1)</f>
         <v>38</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="O40" s="16" t="str">
         <f>IF(ISNUMBER($L40),"insert into M_CD_VAL_LANG values ("&amp;$L40&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G40)&amp;"', '"&amp;$M40&amp;"', '"&amp;$N40&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (38, now(), 1, now(), 1, 0, '30', 'ja', '施設グループ');</v>
+        <v>insert into M_CD_VAL_LANG values (38, now(), 1, now(), 1, 0, '30', 'ja', '食べる');</v>
       </c>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
@@ -4016,31 +3932,31 @@
         <v>31</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>113</v>
       </c>
       <c r="J41" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K41" s="16" t="str">
         <f>IF(ISNUMBER($G41),"insert into M_CD_VAL values ("&amp;$G41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B41)&amp;"', '"&amp;$H41&amp;"', '"&amp;$I41&amp;"', "&amp;J41&amp;");","")</f>
-        <v>insert into M_CD_VAL values (31, now(), 1, now(), 1, 0, '9', 'facgrpln', 'FacilityFacilityGroupLink', 4);</v>
+        <v>insert into M_CD_VAL values (31, now(), 1, now(), 1, 0, '10', 'shop', 'Shop', 2);</v>
       </c>
       <c r="L41" s="16">
         <f>IF(ISBLANK($M41),"",MAX($L$1:$L40)+1)</f>
         <v>39</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="O41" s="16" t="str">
         <f>IF(ISNUMBER($L41),"insert into M_CD_VAL_LANG values ("&amp;$L41&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G41)&amp;"', '"&amp;$M41&amp;"', '"&amp;$N41&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (39, now(), 1, now(), 1, 0, '31', 'ja', '施設_施設グループ_リンク');</v>
+        <v>insert into M_CD_VAL_LANG values (39, now(), 1, now(), 1, 0, '31', 'ja', '買う');</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
@@ -4050,51 +3966,47 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="16" t="str">
         <f>IF(ISBLANK($C42),"",MAX($B$1:$B41)+1)</f>
-        <v>10</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>115</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (10, now(), 1, now(), 1, 0, 'Purpose', '目的', '');</v>
+        <v/>
       </c>
       <c r="G42" s="16">
         <f>IF(ISBLANK($H42),"",MAX($G$1:$G41)+1)</f>
         <v>32</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J42" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" s="16" t="str">
         <f>IF(ISNUMBER($G42),"insert into M_CD_VAL values ("&amp;$G42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B42)&amp;"', '"&amp;$H42&amp;"', '"&amp;$I42&amp;"', "&amp;J42&amp;");","")</f>
-        <v>insert into M_CD_VAL values (32, now(), 1, now(), 1, 0, '10', 'eat', 'Eat', 1);</v>
+        <v>insert into M_CD_VAL values (32, now(), 1, now(), 1, 0, '10', 'play', 'Play', 3);</v>
       </c>
       <c r="L42" s="16">
         <f>IF(ISBLANK($M42),"",MAX($L$1:$L41)+1)</f>
         <v>40</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O42" s="16" t="str">
         <f>IF(ISNUMBER($L42),"insert into M_CD_VAL_LANG values ("&amp;$L42&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G42)&amp;"', '"&amp;$M42&amp;"', '"&amp;$N42&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (40, now(), 1, now(), 1, 0, '32', 'ja', '食べる');</v>
+        <v>insert into M_CD_VAL_LANG values (40, now(), 1, now(), 1, 0, '32', 'ja', '遊ぶ');</v>
       </c>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
@@ -4120,31 +4032,31 @@
         <v>33</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J43" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K43" s="16" t="str">
         <f>IF(ISNUMBER($G43),"insert into M_CD_VAL values ("&amp;$G43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B43)&amp;"', '"&amp;$H43&amp;"', '"&amp;$I43&amp;"', "&amp;J43&amp;");","")</f>
-        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'shop', 'Shop', 2);</v>
+        <v>insert into M_CD_VAL values (33, now(), 1, now(), 1, 0, '10', 'see', 'See', 4);</v>
       </c>
       <c r="L43" s="16">
         <f>IF(ISBLANK($M43),"",MAX($L$1:$L42)+1)</f>
         <v>41</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O43" s="16" t="str">
         <f>IF(ISNUMBER($L43),"insert into M_CD_VAL_LANG values ("&amp;$L43&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G43)&amp;"', '"&amp;$M43&amp;"', '"&amp;$N43&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (41, now(), 1, now(), 1, 0, '33', 'ja', '買う');</v>
+        <v>insert into M_CD_VAL_LANG values (41, now(), 1, now(), 1, 0, '33', 'ja', '見る');</v>
       </c>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
@@ -4170,31 +4082,31 @@
         <v>34</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J44" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K44" s="16" t="str">
         <f>IF(ISNUMBER($G44),"insert into M_CD_VAL values ("&amp;$G44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B44)&amp;"', '"&amp;$H44&amp;"', '"&amp;$I44&amp;"', "&amp;J44&amp;");","")</f>
-        <v>insert into M_CD_VAL values (34, now(), 1, now(), 1, 0, '10', 'play', 'Play', 3);</v>
+        <v>insert into M_CD_VAL values (34, now(), 1, now(), 1, 0, '10', 'stay', 'Stay', 5);</v>
       </c>
       <c r="L44" s="16">
         <f>IF(ISBLANK($M44),"",MAX($L$1:$L43)+1)</f>
         <v>42</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="O44" s="16" t="str">
         <f>IF(ISNUMBER($L44),"insert into M_CD_VAL_LANG values ("&amp;$L44&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G44)&amp;"', '"&amp;$M44&amp;"', '"&amp;$N44&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (42, now(), 1, now(), 1, 0, '34', 'ja', '遊ぶ');</v>
+        <v>insert into M_CD_VAL_LANG values (42, now(), 1, now(), 1, 0, '34', 'ja', '泊まる');</v>
       </c>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
@@ -4220,31 +4132,31 @@
         <v>35</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="J45" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K45" s="16" t="str">
         <f>IF(ISNUMBER($G45),"insert into M_CD_VAL values ("&amp;$G45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B45)&amp;"', '"&amp;$H45&amp;"', '"&amp;$I45&amp;"', "&amp;J45&amp;");","")</f>
-        <v>insert into M_CD_VAL values (35, now(), 1, now(), 1, 0, '10', 'see', 'See', 4);</v>
+        <v>insert into M_CD_VAL values (35, now(), 1, now(), 1, 0, '10', 'event', 'Event', 6);</v>
       </c>
       <c r="L45" s="16">
         <f>IF(ISBLANK($M45),"",MAX($L$1:$L44)+1)</f>
         <v>43</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O45" s="16" t="str">
         <f>IF(ISNUMBER($L45),"insert into M_CD_VAL_LANG values ("&amp;$L45&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G45)&amp;"', '"&amp;$M45&amp;"', '"&amp;$N45&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (43, now(), 1, now(), 1, 0, '35', 'ja', '見る');</v>
+        <v>insert into M_CD_VAL_LANG values (43, now(), 1, now(), 1, 0, '35', 'ja', 'イベント');</v>
       </c>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
@@ -4254,47 +4166,47 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="16" t="str">
+      <c r="B46" s="16">
         <f>IF(ISBLANK($C46),"",MAX($B$1:$B45)+1)</f>
-        <v/>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="E46" s="13"/>
       <c r="F46" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G46" s="16">
+        <v>insert into M_CD_GRP values (11, now(), 1, now(), 1, 0, 'EatGenre', '食べるジャンル', '');</v>
+      </c>
+      <c r="G46" s="16" t="str">
         <f>IF(ISBLANK($H46),"",MAX($G$1:$G45)+1)</f>
-        <v>36</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>128</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K46" s="16" t="str">
         <f>IF(ISNUMBER($G46),"insert into M_CD_VAL values ("&amp;$G46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B46)&amp;"', '"&amp;$H46&amp;"', '"&amp;$I46&amp;"', "&amp;J46&amp;");","")</f>
-        <v>insert into M_CD_VAL values (36, now(), 1, now(), 1, 0, '10', 'stay', 'Stay', 5);</v>
+        <v/>
       </c>
       <c r="L46" s="16">
         <f>IF(ISBLANK($M46),"",MAX($L$1:$L45)+1)</f>
         <v>44</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O46" s="16" t="str">
         <f>IF(ISNUMBER($L46),"insert into M_CD_VAL_LANG values ("&amp;$L46&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G46)&amp;"', '"&amp;$M46&amp;"', '"&amp;$N46&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (44, now(), 1, now(), 1, 0, '36', 'ja', '泊まる');</v>
+        <v>insert into M_CD_VAL_LANG values (44, now(), 1, now(), 1, 0, '35', 'ja', '居酒屋');</v>
       </c>
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
@@ -4315,36 +4227,32 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="16" t="str">
         <f>IF(ISBLANK($H47),"",MAX($G$1:$G46)+1)</f>
-        <v>37</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>129</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K47" s="16" t="str">
         <f>IF(ISNUMBER($G47),"insert into M_CD_VAL values ("&amp;$G47&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B47)&amp;"', '"&amp;$H47&amp;"', '"&amp;$I47&amp;"', "&amp;J47&amp;");","")</f>
-        <v>insert into M_CD_VAL values (37, now(), 1, now(), 1, 0, '10', 'event', 'Event', 6);</v>
+        <v/>
       </c>
       <c r="L47" s="16">
         <f>IF(ISBLANK($M47),"",MAX($L$1:$L46)+1)</f>
         <v>45</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O47" s="16" t="str">
         <f>IF(ISNUMBER($L47),"insert into M_CD_VAL_LANG values ("&amp;$L47&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G47)&amp;"', '"&amp;$M47&amp;"', '"&amp;$N47&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (45, now(), 1, now(), 1, 0, '37', 'ja', 'イベント');</v>
+        <v>insert into M_CD_VAL_LANG values (45, now(), 1, now(), 1, 0, '35', 'ja', 'ダイニングバー');</v>
       </c>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
@@ -4354,20 +4262,16 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="16" t="str">
         <f>IF(ISBLANK($C48),"",MAX($B$1:$B47)+1)</f>
-        <v>11</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>152</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (11, now(), 1, now(), 1, 0, 'EatGenre', '食べるジャンル', '');</v>
+        <v/>
       </c>
       <c r="G48" s="16" t="str">
         <f>IF(ISBLANK($H48),"",MAX($G$1:$G47)+1)</f>
@@ -4376,7 +4280,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K48" s="16" t="str">
         <f>IF(ISNUMBER($G48),"insert into M_CD_VAL values ("&amp;$G48&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B48)&amp;"', '"&amp;$H48&amp;"', '"&amp;$I48&amp;"', "&amp;J48&amp;");","")</f>
@@ -4387,14 +4291,14 @@
         <v>46</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O48" s="16" t="str">
         <f>IF(ISNUMBER($L48),"insert into M_CD_VAL_LANG values ("&amp;$L48&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G48)&amp;"', '"&amp;$M48&amp;"', '"&amp;$N48&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (46, now(), 1, now(), 1, 0, '37', 'ja', '居酒屋');</v>
+        <v>insert into M_CD_VAL_LANG values (46, now(), 1, now(), 1, 0, '35', 'ja', '創作料理');</v>
       </c>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
@@ -4422,7 +4326,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" s="16" t="str">
         <f>IF(ISNUMBER($G49),"insert into M_CD_VAL values ("&amp;$G49&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B49)&amp;"', '"&amp;$H49&amp;"', '"&amp;$I49&amp;"', "&amp;J49&amp;");","")</f>
@@ -4433,14 +4337,14 @@
         <v>47</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N49" s="13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="O49" s="16" t="str">
         <f>IF(ISNUMBER($L49),"insert into M_CD_VAL_LANG values ("&amp;$L49&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G49)&amp;"', '"&amp;$M49&amp;"', '"&amp;$N49&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (47, now(), 1, now(), 1, 0, '37', 'ja', 'ダイニングバー');</v>
+        <v>insert into M_CD_VAL_LANG values (47, now(), 1, now(), 1, 0, '35', 'ja', '和食');</v>
       </c>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
@@ -4468,7 +4372,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K50" s="16" t="str">
         <f>IF(ISNUMBER($G50),"insert into M_CD_VAL values ("&amp;$G50&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B50)&amp;"', '"&amp;$H50&amp;"', '"&amp;$I50&amp;"', "&amp;J50&amp;");","")</f>
@@ -4479,14 +4383,14 @@
         <v>48</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="O50" s="16" t="str">
         <f>IF(ISNUMBER($L50),"insert into M_CD_VAL_LANG values ("&amp;$L50&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G50)&amp;"', '"&amp;$M50&amp;"', '"&amp;$N50&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (48, now(), 1, now(), 1, 0, '37', 'ja', '創作料理');</v>
+        <v>insert into M_CD_VAL_LANG values (48, now(), 1, now(), 1, 0, '35', 'ja', '洋食');</v>
       </c>
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
@@ -4514,7 +4418,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K51" s="16" t="str">
         <f>IF(ISNUMBER($G51),"insert into M_CD_VAL values ("&amp;$G51&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B51)&amp;"', '"&amp;$H51&amp;"', '"&amp;$I51&amp;"', "&amp;J51&amp;");","")</f>
@@ -4525,14 +4429,14 @@
         <v>49</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O51" s="16" t="str">
         <f>IF(ISNUMBER($L51),"insert into M_CD_VAL_LANG values ("&amp;$L51&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G51)&amp;"', '"&amp;$M51&amp;"', '"&amp;$N51&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (49, now(), 1, now(), 1, 0, '37', 'ja', '和食');</v>
+        <v>insert into M_CD_VAL_LANG values (49, now(), 1, now(), 1, 0, '35', 'ja', 'イタリアン・フレンチ');</v>
       </c>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
@@ -4560,7 +4464,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K52" s="16" t="str">
         <f>IF(ISNUMBER($G52),"insert into M_CD_VAL values ("&amp;$G52&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B52)&amp;"', '"&amp;$H52&amp;"', '"&amp;$I52&amp;"', "&amp;J52&amp;");","")</f>
@@ -4571,14 +4475,14 @@
         <v>50</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="O52" s="16" t="str">
         <f>IF(ISNUMBER($L52),"insert into M_CD_VAL_LANG values ("&amp;$L52&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G52)&amp;"', '"&amp;$M52&amp;"', '"&amp;$N52&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (50, now(), 1, now(), 1, 0, '37', 'ja', '洋食');</v>
+        <v>insert into M_CD_VAL_LANG values (50, now(), 1, now(), 1, 0, '35', 'ja', '中華');</v>
       </c>
       <c r="P52" s="17"/>
       <c r="Q52" s="17"/>
@@ -4606,7 +4510,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K53" s="16" t="str">
         <f>IF(ISNUMBER($G53),"insert into M_CD_VAL values ("&amp;$G53&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B53)&amp;"', '"&amp;$H53&amp;"', '"&amp;$I53&amp;"', "&amp;J53&amp;");","")</f>
@@ -4617,14 +4521,14 @@
         <v>51</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O53" s="16" t="str">
         <f>IF(ISNUMBER($L53),"insert into M_CD_VAL_LANG values ("&amp;$L53&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G53)&amp;"', '"&amp;$M53&amp;"', '"&amp;$N53&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (51, now(), 1, now(), 1, 0, '37', 'ja', 'イタリアン・フレンチ');</v>
+        <v>insert into M_CD_VAL_LANG values (51, now(), 1, now(), 1, 0, '35', 'ja', '焼き肉・韓国料理');</v>
       </c>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
@@ -4652,7 +4556,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K54" s="16" t="str">
         <f>IF(ISNUMBER($G54),"insert into M_CD_VAL values ("&amp;$G54&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B54)&amp;"', '"&amp;$H54&amp;"', '"&amp;$I54&amp;"', "&amp;J54&amp;");","")</f>
@@ -4663,14 +4567,14 @@
         <v>52</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O54" s="16" t="str">
         <f>IF(ISNUMBER($L54),"insert into M_CD_VAL_LANG values ("&amp;$L54&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G54)&amp;"', '"&amp;$M54&amp;"', '"&amp;$N54&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (52, now(), 1, now(), 1, 0, '37', 'ja', '中華');</v>
+        <v>insert into M_CD_VAL_LANG values (52, now(), 1, now(), 1, 0, '35', 'ja', 'アジアン');</v>
       </c>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
@@ -4698,7 +4602,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K55" s="16" t="str">
         <f>IF(ISNUMBER($G55),"insert into M_CD_VAL values ("&amp;$G55&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B55)&amp;"', '"&amp;$H55&amp;"', '"&amp;$I55&amp;"', "&amp;J55&amp;");","")</f>
@@ -4709,14 +4613,14 @@
         <v>53</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="O55" s="16" t="str">
         <f>IF(ISNUMBER($L55),"insert into M_CD_VAL_LANG values ("&amp;$L55&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G55)&amp;"', '"&amp;$M55&amp;"', '"&amp;$N55&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (53, now(), 1, now(), 1, 0, '37', 'ja', '焼き肉・韓国料理');</v>
+        <v>insert into M_CD_VAL_LANG values (53, now(), 1, now(), 1, 0, '35', 'ja', '各国料理');</v>
       </c>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
@@ -4744,7 +4648,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K56" s="16" t="str">
         <f>IF(ISNUMBER($G56),"insert into M_CD_VAL values ("&amp;$G56&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B56)&amp;"', '"&amp;$H56&amp;"', '"&amp;$I56&amp;"', "&amp;J56&amp;");","")</f>
@@ -4755,14 +4659,14 @@
         <v>54</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O56" s="16" t="str">
         <f>IF(ISNUMBER($L56),"insert into M_CD_VAL_LANG values ("&amp;$L56&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G56)&amp;"', '"&amp;$M56&amp;"', '"&amp;$N56&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (54, now(), 1, now(), 1, 0, '37', 'ja', 'アジアン');</v>
+        <v>insert into M_CD_VAL_LANG values (54, now(), 1, now(), 1, 0, '35', 'ja', 'カラオケ・パーティー');</v>
       </c>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
@@ -4790,7 +4694,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K57" s="16" t="str">
         <f>IF(ISNUMBER($G57),"insert into M_CD_VAL values ("&amp;$G57&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B57)&amp;"', '"&amp;$H57&amp;"', '"&amp;$I57&amp;"', "&amp;J57&amp;");","")</f>
@@ -4801,14 +4705,14 @@
         <v>55</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O57" s="16" t="str">
         <f>IF(ISNUMBER($L57),"insert into M_CD_VAL_LANG values ("&amp;$L57&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G57)&amp;"', '"&amp;$M57&amp;"', '"&amp;$N57&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (55, now(), 1, now(), 1, 0, '37', 'ja', '各国料理');</v>
+        <v>insert into M_CD_VAL_LANG values (55, now(), 1, now(), 1, 0, '35', 'ja', 'バー・カクテル');</v>
       </c>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
@@ -4836,7 +4740,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K58" s="16" t="str">
         <f>IF(ISNUMBER($G58),"insert into M_CD_VAL values ("&amp;$G58&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B58)&amp;"', '"&amp;$H58&amp;"', '"&amp;$I58&amp;"', "&amp;J58&amp;");","")</f>
@@ -4847,14 +4751,14 @@
         <v>56</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O58" s="16" t="str">
         <f>IF(ISNUMBER($L58),"insert into M_CD_VAL_LANG values ("&amp;$L58&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G58)&amp;"', '"&amp;$M58&amp;"', '"&amp;$N58&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (56, now(), 1, now(), 1, 0, '37', 'ja', 'カラオケ・パーティー');</v>
+        <v>insert into M_CD_VAL_LANG values (56, now(), 1, now(), 1, 0, '35', 'ja', 'ラーメン');</v>
       </c>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
@@ -4882,7 +4786,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K59" s="16" t="str">
         <f>IF(ISNUMBER($G59),"insert into M_CD_VAL values ("&amp;$G59&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B59)&amp;"', '"&amp;$H59&amp;"', '"&amp;$I59&amp;"', "&amp;J59&amp;");","")</f>
@@ -4893,14 +4797,14 @@
         <v>57</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="O59" s="16" t="str">
         <f>IF(ISNUMBER($L59),"insert into M_CD_VAL_LANG values ("&amp;$L59&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G59)&amp;"', '"&amp;$M59&amp;"', '"&amp;$N59&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (57, now(), 1, now(), 1, 0, '37', 'ja', 'バー・カクテル');</v>
+        <v>insert into M_CD_VAL_LANG values (57, now(), 1, now(), 1, 0, '35', 'ja', 'お好み焼き・もんじゃ・鉄板焼き');</v>
       </c>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
@@ -4928,7 +4832,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K60" s="16" t="str">
         <f>IF(ISNUMBER($G60),"insert into M_CD_VAL values ("&amp;$G60&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B60)&amp;"', '"&amp;$H60&amp;"', '"&amp;$I60&amp;"', "&amp;J60&amp;");","")</f>
@@ -4939,14 +4843,14 @@
         <v>58</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O60" s="16" t="str">
         <f>IF(ISNUMBER($L60),"insert into M_CD_VAL_LANG values ("&amp;$L60&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G60)&amp;"', '"&amp;$M60&amp;"', '"&amp;$N60&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (58, now(), 1, now(), 1, 0, '37', 'ja', 'ラーメン');</v>
+        <v>insert into M_CD_VAL_LANG values (58, now(), 1, now(), 1, 0, '35', 'ja', 'カフェ・スイーツ');</v>
       </c>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
@@ -4967,32 +4871,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G61" s="16" t="str">
+      <c r="G61" s="16">
         <f>IF(ISBLANK($H61),"",MAX($G$1:$G60)+1)</f>
-        <v/>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="J61" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K61" s="16" t="str">
         <f>IF(ISNUMBER($G61),"insert into M_CD_VAL values ("&amp;$G61&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B61)&amp;"', '"&amp;$H61&amp;"', '"&amp;$I61&amp;"', "&amp;J61&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (36, now(), 1, now(), 1, 0, '11', 'other', 'Other', 16);</v>
       </c>
       <c r="L61" s="16">
         <f>IF(ISBLANK($M61),"",MAX($L$1:$L60)+1)</f>
         <v>59</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="O61" s="16" t="str">
         <f>IF(ISNUMBER($L61),"insert into M_CD_VAL_LANG values ("&amp;$L61&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G61)&amp;"', '"&amp;$M61&amp;"', '"&amp;$N61&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (59, now(), 1, now(), 1, 0, '37', 'ja', 'お好み焼き・もんじゃ・鉄板焼き');</v>
+        <v>insert into M_CD_VAL_LANG values (59, now(), 1, now(), 1, 0, '36', 'ja', 'その他');</v>
       </c>
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
@@ -5002,16 +4910,20 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="16" t="str">
+      <c r="B62" s="16">
         <f>IF(ISBLANK($C62),"",MAX($B$1:$B61)+1)</f>
-        <v/>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="E62" s="13"/>
       <c r="F62" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (12, now(), 1, now(), 1, 0, 'ShopGenre', '買うジャンル', '');</v>
       </c>
       <c r="G62" s="16" t="str">
         <f>IF(ISBLANK($H62),"",MAX($G$1:$G61)+1)</f>
@@ -5020,7 +4932,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K62" s="16" t="str">
         <f>IF(ISNUMBER($G62),"insert into M_CD_VAL values ("&amp;$G62&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B62)&amp;"', '"&amp;$H62&amp;"', '"&amp;$I62&amp;"', "&amp;J62&amp;");","")</f>
@@ -5031,14 +4943,14 @@
         <v>60</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O62" s="16" t="str">
         <f>IF(ISNUMBER($L62),"insert into M_CD_VAL_LANG values ("&amp;$L62&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G62)&amp;"', '"&amp;$M62&amp;"', '"&amp;$N62&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (60, now(), 1, now(), 1, 0, '37', 'ja', 'カフェ・スイーツ');</v>
+        <v>insert into M_CD_VAL_LANG values (60, now(), 1, now(), 1, 0, '36', 'ja', '本・コミック・雑誌');</v>
       </c>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
@@ -5059,36 +4971,32 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="16" t="str">
         <f>IF(ISBLANK($H63),"",MAX($G$1:$G62)+1)</f>
-        <v>38</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>229</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
       <c r="J63" s="13">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K63" s="16" t="str">
         <f>IF(ISNUMBER($G63),"insert into M_CD_VAL values ("&amp;$G63&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B63)&amp;"', '"&amp;$H63&amp;"', '"&amp;$I63&amp;"', "&amp;J63&amp;");","")</f>
-        <v>insert into M_CD_VAL values (38, now(), 1, now(), 1, 0, '11', 'other', 'Other', 16);</v>
+        <v/>
       </c>
       <c r="L63" s="16">
         <f>IF(ISBLANK($M63),"",MAX($L$1:$L62)+1)</f>
         <v>61</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="O63" s="16" t="str">
         <f>IF(ISNUMBER($L63),"insert into M_CD_VAL_LANG values ("&amp;$L63&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G63)&amp;"', '"&amp;$M63&amp;"', '"&amp;$N63&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (61, now(), 1, now(), 1, 0, '38', 'ja', 'その他');</v>
+        <v>insert into M_CD_VAL_LANG values (61, now(), 1, now(), 1, 0, '36', 'ja', 'DVD・ミュージック・ゲーム');</v>
       </c>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
@@ -5098,20 +5006,16 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="16" t="str">
         <f>IF(ISBLANK($C64),"",MAX($B$1:$B63)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>154</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (12, now(), 1, now(), 1, 0, 'ShopGenre', '買うジャンル', '');</v>
+        <v/>
       </c>
       <c r="G64" s="16" t="str">
         <f>IF(ISBLANK($H64),"",MAX($G$1:$G63)+1)</f>
@@ -5120,7 +5024,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" s="16" t="str">
         <f>IF(ISNUMBER($G64),"insert into M_CD_VAL values ("&amp;$G64&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B64)&amp;"', '"&amp;$H64&amp;"', '"&amp;$I64&amp;"', "&amp;J64&amp;");","")</f>
@@ -5131,21 +5035,21 @@
         <v>62</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="O64" s="16" t="str">
         <f>IF(ISNUMBER($L64),"insert into M_CD_VAL_LANG values ("&amp;$L64&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G64)&amp;"', '"&amp;$M64&amp;"', '"&amp;$N64&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (62, now(), 1, now(), 1, 0, '38', 'ja', '本・コミック・雑誌');</v>
+        <v>insert into M_CD_VAL_LANG values (62, now(), 1, now(), 1, 0, '36', 'ja', '家電・カメラ・AV機器');</v>
       </c>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A65:A131" si="3">ROW()-2</f>
         <v>63</v>
       </c>
       <c r="B65" s="16" t="str">
@@ -5166,7 +5070,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K65" s="16" t="str">
         <f>IF(ISNUMBER($G65),"insert into M_CD_VAL values ("&amp;$G65&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B65)&amp;"', '"&amp;$H65&amp;"', '"&amp;$I65&amp;"', "&amp;J65&amp;");","")</f>
@@ -5177,21 +5081,21 @@
         <v>63</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="O65" s="16" t="str">
         <f>IF(ISNUMBER($L65),"insert into M_CD_VAL_LANG values ("&amp;$L65&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G65)&amp;"', '"&amp;$M65&amp;"', '"&amp;$N65&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (63, now(), 1, now(), 1, 0, '38', 'ja', 'DVD・ミュージック・ゲーム');</v>
+        <v>insert into M_CD_VAL_LANG values (63, now(), 1, now(), 1, 0, '36', 'ja', 'パソコン・オフィス用品');</v>
       </c>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B66" s="16" t="str">
@@ -5212,7 +5116,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66" s="16" t="str">
         <f>IF(ISNUMBER($G66),"insert into M_CD_VAL values ("&amp;$G66&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B66)&amp;"', '"&amp;$H66&amp;"', '"&amp;$I66&amp;"', "&amp;J66&amp;");","")</f>
@@ -5223,21 +5127,21 @@
         <v>64</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="O66" s="16" t="str">
         <f>IF(ISNUMBER($L66),"insert into M_CD_VAL_LANG values ("&amp;$L66&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G66)&amp;"', '"&amp;$M66&amp;"', '"&amp;$N66&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (64, now(), 1, now(), 1, 0, '38', 'ja', '家電・カメラ・AV機器');</v>
+        <v>insert into M_CD_VAL_LANG values (64, now(), 1, now(), 1, 0, '36', 'ja', 'ホーム＆キッチン・ペット');</v>
       </c>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
-        <f t="shared" ref="A67:A131" si="3">ROW()-2</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B67" s="16" t="str">
@@ -5258,7 +5162,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K67" s="16" t="str">
         <f>IF(ISNUMBER($G67),"insert into M_CD_VAL values ("&amp;$G67&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B67)&amp;"', '"&amp;$H67&amp;"', '"&amp;$I67&amp;"', "&amp;J67&amp;");","")</f>
@@ -5269,14 +5173,14 @@
         <v>65</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="O67" s="16" t="str">
         <f>IF(ISNUMBER($L67),"insert into M_CD_VAL_LANG values ("&amp;$L67&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G67)&amp;"', '"&amp;$M67&amp;"', '"&amp;$N67&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (65, now(), 1, now(), 1, 0, '38', 'ja', 'パソコン・オフィス用品');</v>
+        <v>insert into M_CD_VAL_LANG values (65, now(), 1, now(), 1, 0, '36', 'ja', '食品・飲料・お酒');</v>
       </c>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
@@ -5304,7 +5208,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K68" s="16" t="str">
         <f>IF(ISNUMBER($G68),"insert into M_CD_VAL values ("&amp;$G68&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B68)&amp;"', '"&amp;$H68&amp;"', '"&amp;$I68&amp;"', "&amp;J68&amp;");","")</f>
@@ -5315,14 +5219,14 @@
         <v>66</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="O68" s="16" t="str">
         <f>IF(ISNUMBER($L68),"insert into M_CD_VAL_LANG values ("&amp;$L68&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G68)&amp;"', '"&amp;$M68&amp;"', '"&amp;$N68&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (66, now(), 1, now(), 1, 0, '38', 'ja', 'ホーム＆キッチン・ペット');</v>
+        <v>insert into M_CD_VAL_LANG values (66, now(), 1, now(), 1, 0, '36', 'ja', 'ヘルス＆ビューティー');</v>
       </c>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
@@ -5350,7 +5254,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K69" s="16" t="str">
         <f>IF(ISNUMBER($G69),"insert into M_CD_VAL values ("&amp;$G69&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B69)&amp;"', '"&amp;$H69&amp;"', '"&amp;$I69&amp;"', "&amp;J69&amp;");","")</f>
@@ -5361,14 +5265,14 @@
         <v>67</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="O69" s="16" t="str">
         <f>IF(ISNUMBER($L69),"insert into M_CD_VAL_LANG values ("&amp;$L69&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G69)&amp;"', '"&amp;$M69&amp;"', '"&amp;$N69&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (67, now(), 1, now(), 1, 0, '38', 'ja', '食品・飲料・お酒');</v>
+        <v>insert into M_CD_VAL_LANG values (67, now(), 1, now(), 1, 0, '36', 'ja', 'ベビー・おもちゃ・ホビー');</v>
       </c>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
@@ -5396,7 +5300,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K70" s="16" t="str">
         <f>IF(ISNUMBER($G70),"insert into M_CD_VAL values ("&amp;$G70&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B70)&amp;"', '"&amp;$H70&amp;"', '"&amp;$I70&amp;"', "&amp;J70&amp;");","")</f>
@@ -5407,14 +5311,14 @@
         <v>68</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="O70" s="16" t="str">
         <f>IF(ISNUMBER($L70),"insert into M_CD_VAL_LANG values ("&amp;$L70&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G70)&amp;"', '"&amp;$M70&amp;"', '"&amp;$N70&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (68, now(), 1, now(), 1, 0, '38', 'ja', 'ヘルス＆ビューティー');</v>
+        <v>insert into M_CD_VAL_LANG values (68, now(), 1, now(), 1, 0, '36', 'ja', 'ファッション・バッグ・腕時計');</v>
       </c>
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
@@ -5442,7 +5346,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K71" s="16" t="str">
         <f>IF(ISNUMBER($G71),"insert into M_CD_VAL values ("&amp;$G71&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B71)&amp;"', '"&amp;$H71&amp;"', '"&amp;$I71&amp;"', "&amp;J71&amp;");","")</f>
@@ -5453,14 +5357,14 @@
         <v>69</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O71" s="16" t="str">
         <f>IF(ISNUMBER($L71),"insert into M_CD_VAL_LANG values ("&amp;$L71&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G71)&amp;"', '"&amp;$M71&amp;"', '"&amp;$N71&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (69, now(), 1, now(), 1, 0, '38', 'ja', 'ベビー・おもちゃ・ホビー');</v>
+        <v>insert into M_CD_VAL_LANG values (69, now(), 1, now(), 1, 0, '36', 'ja', 'スポーツ＆アウトドア');</v>
       </c>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
@@ -5488,7 +5392,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K72" s="16" t="str">
         <f>IF(ISNUMBER($G72),"insert into M_CD_VAL values ("&amp;$G72&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B72)&amp;"', '"&amp;$H72&amp;"', '"&amp;$I72&amp;"', "&amp;J72&amp;");","")</f>
@@ -5499,14 +5403,14 @@
         <v>70</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="O72" s="16" t="str">
         <f>IF(ISNUMBER($L72),"insert into M_CD_VAL_LANG values ("&amp;$L72&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G72)&amp;"', '"&amp;$M72&amp;"', '"&amp;$N72&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (70, now(), 1, now(), 1, 0, '38', 'ja', 'ファッション・バッグ・腕時計');</v>
+        <v>insert into M_CD_VAL_LANG values (70, now(), 1, now(), 1, 0, '36', 'ja', 'DIY・カー＆バイク用品');</v>
       </c>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
@@ -5527,32 +5431,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G73" s="16" t="str">
+      <c r="G73" s="16">
         <f>IF(ISBLANK($H73),"",MAX($G$1:$G72)+1)</f>
-        <v/>
-      </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="J73" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K73" s="16" t="str">
         <f>IF(ISNUMBER($G73),"insert into M_CD_VAL values ("&amp;$G73&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B73)&amp;"', '"&amp;$H73&amp;"', '"&amp;$I73&amp;"', "&amp;J73&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (37, now(), 1, now(), 1, 0, '12', 'other', 'Other', 12);</v>
       </c>
       <c r="L73" s="16">
         <f>IF(ISBLANK($M73),"",MAX($L$1:$L72)+1)</f>
         <v>71</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O73" s="16" t="str">
         <f>IF(ISNUMBER($L73),"insert into M_CD_VAL_LANG values ("&amp;$L73&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G73)&amp;"', '"&amp;$M73&amp;"', '"&amp;$N73&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (71, now(), 1, now(), 1, 0, '38', 'ja', 'スポーツ＆アウトドア');</v>
+        <v>insert into M_CD_VAL_LANG values (71, now(), 1, now(), 1, 0, '37', 'ja', 'その他');</v>
       </c>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
@@ -5562,16 +5470,20 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B74" s="16" t="str">
+      <c r="B74" s="16">
         <f>IF(ISBLANK($C74),"",MAX($B$1:$B73)+1)</f>
-        <v/>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="E74" s="13"/>
       <c r="F74" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>insert into M_CD_GRP values (13, now(), 1, now(), 1, 0, 'PlayGenre', '遊ぶジャンル', '');</v>
       </c>
       <c r="G74" s="16" t="str">
         <f>IF(ISBLANK($H74),"",MAX($G$1:$G73)+1)</f>
@@ -5580,7 +5492,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K74" s="16" t="str">
         <f>IF(ISNUMBER($G74),"insert into M_CD_VAL values ("&amp;$G74&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B74)&amp;"', '"&amp;$H74&amp;"', '"&amp;$I74&amp;"', "&amp;J74&amp;");","")</f>
@@ -5591,14 +5503,14 @@
         <v>72</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O74" s="16" t="str">
         <f>IF(ISNUMBER($L74),"insert into M_CD_VAL_LANG values ("&amp;$L74&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G74)&amp;"', '"&amp;$M74&amp;"', '"&amp;$N74&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (72, now(), 1, now(), 1, 0, '38', 'ja', 'DIY・カー＆バイク用品');</v>
+        <v>insert into M_CD_VAL_LANG values (72, now(), 1, now(), 1, 0, '37', 'ja', '公園');</v>
       </c>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
@@ -5619,36 +5531,32 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="16" t="str">
         <f>IF(ISBLANK($H75),"",MAX($G$1:$G74)+1)</f>
-        <v>39</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>230</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
       <c r="J75" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K75" s="16" t="str">
         <f>IF(ISNUMBER($G75),"insert into M_CD_VAL values ("&amp;$G75&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B75)&amp;"', '"&amp;$H75&amp;"', '"&amp;$I75&amp;"', "&amp;J75&amp;");","")</f>
-        <v>insert into M_CD_VAL values (39, now(), 1, now(), 1, 0, '12', 'other', 'Other', 12);</v>
+        <v/>
       </c>
       <c r="L75" s="16">
         <f>IF(ISBLANK($M75),"",MAX($L$1:$L74)+1)</f>
         <v>73</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="O75" s="16" t="str">
         <f>IF(ISNUMBER($L75),"insert into M_CD_VAL_LANG values ("&amp;$L75&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G75)&amp;"', '"&amp;$M75&amp;"', '"&amp;$N75&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (73, now(), 1, now(), 1, 0, '39', 'ja', 'その他');</v>
+        <v>insert into M_CD_VAL_LANG values (73, now(), 1, now(), 1, 0, '37', 'ja', 'キャンプ場');</v>
       </c>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
@@ -5658,20 +5566,16 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="16" t="str">
         <f>IF(ISBLANK($C76),"",MAX($B$1:$B75)+1)</f>
-        <v>13</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>167</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>insert into M_CD_GRP values (13, now(), 1, now(), 1, 0, 'PlayGenre', '遊ぶジャンル', '');</v>
+        <v/>
       </c>
       <c r="G76" s="16" t="str">
         <f>IF(ISBLANK($H76),"",MAX($G$1:$G75)+1)</f>
@@ -5680,7 +5584,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K76" s="16" t="str">
         <f>IF(ISNUMBER($G76),"insert into M_CD_VAL values ("&amp;$G76&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B76)&amp;"', '"&amp;$H76&amp;"', '"&amp;$I76&amp;"', "&amp;J76&amp;");","")</f>
@@ -5691,14 +5595,14 @@
         <v>74</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="O76" s="16" t="str">
         <f>IF(ISNUMBER($L76),"insert into M_CD_VAL_LANG values ("&amp;$L76&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G76)&amp;"', '"&amp;$M76&amp;"', '"&amp;$N76&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (74, now(), 1, now(), 1, 0, '39', 'ja', '公園');</v>
+        <v>insert into M_CD_VAL_LANG values (74, now(), 1, now(), 1, 0, '37', 'ja', '海水浴場');</v>
       </c>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
@@ -5726,7 +5630,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K77" s="16" t="str">
         <f>IF(ISNUMBER($G77),"insert into M_CD_VAL values ("&amp;$G77&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B77)&amp;"', '"&amp;$H77&amp;"', '"&amp;$I77&amp;"', "&amp;J77&amp;");","")</f>
@@ -5737,14 +5641,14 @@
         <v>75</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N77" s="13" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O77" s="16" t="str">
         <f>IF(ISNUMBER($L77),"insert into M_CD_VAL_LANG values ("&amp;$L77&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G77)&amp;"', '"&amp;$M77&amp;"', '"&amp;$N77&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (75, now(), 1, now(), 1, 0, '39', 'ja', 'キャンプ場');</v>
+        <v>insert into M_CD_VAL_LANG values (75, now(), 1, now(), 1, 0, '37', 'ja', 'プール');</v>
       </c>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
@@ -5772,7 +5676,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K78" s="16" t="str">
         <f>IF(ISNUMBER($G78),"insert into M_CD_VAL values ("&amp;$G78&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B78)&amp;"', '"&amp;$H78&amp;"', '"&amp;$I78&amp;"', "&amp;J78&amp;");","")</f>
@@ -5783,14 +5687,14 @@
         <v>76</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="O78" s="16" t="str">
         <f>IF(ISNUMBER($L78),"insert into M_CD_VAL_LANG values ("&amp;$L78&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G78)&amp;"', '"&amp;$M78&amp;"', '"&amp;$N78&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (76, now(), 1, now(), 1, 0, '39', 'ja', '海水浴場');</v>
+        <v>insert into M_CD_VAL_LANG values (76, now(), 1, now(), 1, 0, '37', 'ja', '釣り堀');</v>
       </c>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
@@ -5818,7 +5722,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K79" s="16" t="str">
         <f>IF(ISNUMBER($G79),"insert into M_CD_VAL values ("&amp;$G79&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B79)&amp;"', '"&amp;$H79&amp;"', '"&amp;$I79&amp;"', "&amp;J79&amp;");","")</f>
@@ -5829,14 +5733,14 @@
         <v>77</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N79" s="13" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O79" s="16" t="str">
         <f>IF(ISNUMBER($L79),"insert into M_CD_VAL_LANG values ("&amp;$L79&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G79)&amp;"', '"&amp;$M79&amp;"', '"&amp;$N79&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (77, now(), 1, now(), 1, 0, '39', 'ja', 'プール');</v>
+        <v>insert into M_CD_VAL_LANG values (77, now(), 1, now(), 1, 0, '37', 'ja', '牧場');</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -5864,7 +5768,7 @@
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K80" s="16" t="str">
         <f>IF(ISNUMBER($G80),"insert into M_CD_VAL values ("&amp;$G80&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B80)&amp;"', '"&amp;$H80&amp;"', '"&amp;$I80&amp;"', "&amp;J80&amp;");","")</f>
@@ -5875,14 +5779,14 @@
         <v>78</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O80" s="16" t="str">
         <f>IF(ISNUMBER($L80),"insert into M_CD_VAL_LANG values ("&amp;$L80&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G80)&amp;"', '"&amp;$M80&amp;"', '"&amp;$N80&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (78, now(), 1, now(), 1, 0, '39', 'ja', '釣り堀');</v>
+        <v>insert into M_CD_VAL_LANG values (78, now(), 1, now(), 1, 0, '37', 'ja', '遊園地・テーマパーク');</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -5910,7 +5814,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K81" s="16" t="str">
         <f>IF(ISNUMBER($G81),"insert into M_CD_VAL values ("&amp;$G81&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B81)&amp;"', '"&amp;$H81&amp;"', '"&amp;$I81&amp;"', "&amp;J81&amp;");","")</f>
@@ -5921,14 +5825,14 @@
         <v>79</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="O81" s="16" t="str">
         <f>IF(ISNUMBER($L81),"insert into M_CD_VAL_LANG values ("&amp;$L81&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G81)&amp;"', '"&amp;$M81&amp;"', '"&amp;$N81&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (79, now(), 1, now(), 1, 0, '39', 'ja', '牧場');</v>
+        <v>insert into M_CD_VAL_LANG values (79, now(), 1, now(), 1, 0, '37', 'ja', 'カラオケ');</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -5946,7 +5850,7 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F82:F146" si="4">IF(ISNUMBER($B82),"insert into M_CD_GRP values ("&amp;$B82&amp;", now(), 1, now(), 1, 0, '"&amp;$C82&amp;"', '"&amp;$D82&amp;"', '"&amp;$E82&amp;"');","")</f>
         <v/>
       </c>
       <c r="G82" s="16" t="str">
@@ -5956,7 +5860,7 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K82" s="16" t="str">
         <f>IF(ISNUMBER($G82),"insert into M_CD_VAL values ("&amp;$G82&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B82)&amp;"', '"&amp;$H82&amp;"', '"&amp;$I82&amp;"', "&amp;J82&amp;");","")</f>
@@ -5967,14 +5871,14 @@
         <v>80</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O82" s="16" t="str">
         <f>IF(ISNUMBER($L82),"insert into M_CD_VAL_LANG values ("&amp;$L82&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G82)&amp;"', '"&amp;$M82&amp;"', '"&amp;$N82&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (80, now(), 1, now(), 1, 0, '39', 'ja', '遊園地・テーマパーク');</v>
+        <v>insert into M_CD_VAL_LANG values (80, now(), 1, now(), 1, 0, '37', 'ja', 'ゲームセンター');</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -5992,7 +5896,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G83" s="16" t="str">
@@ -6002,7 +5906,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K83" s="16" t="str">
         <f>IF(ISNUMBER($G83),"insert into M_CD_VAL values ("&amp;$G83&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B83)&amp;"', '"&amp;$H83&amp;"', '"&amp;$I83&amp;"', "&amp;J83&amp;");","")</f>
@@ -6013,14 +5917,14 @@
         <v>81</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N83" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="O83" s="16" t="str">
         <f>IF(ISNUMBER($L83),"insert into M_CD_VAL_LANG values ("&amp;$L83&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G83)&amp;"', '"&amp;$M83&amp;"', '"&amp;$N83&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (81, now(), 1, now(), 1, 0, '39', 'ja', 'カラオケ');</v>
+        <v>insert into M_CD_VAL_LANG values (81, now(), 1, now(), 1, 0, '37', 'ja', 'クラブ・ディスコ');</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -6038,7 +5942,7 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="16" t="str">
-        <f t="shared" ref="F83:F146" si="4">IF(ISNUMBER($B84),"insert into M_CD_GRP values ("&amp;$B84&amp;", now(), 1, now(), 1, 0, '"&amp;$C84&amp;"', '"&amp;$D84&amp;"', '"&amp;$E84&amp;"');","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G84" s="16" t="str">
@@ -6048,7 +5952,7 @@
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K84" s="16" t="str">
         <f>IF(ISNUMBER($G84),"insert into M_CD_VAL values ("&amp;$G84&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B84)&amp;"', '"&amp;$H84&amp;"', '"&amp;$I84&amp;"', "&amp;J84&amp;");","")</f>
@@ -6059,14 +5963,14 @@
         <v>82</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N84" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O84" s="16" t="str">
         <f>IF(ISNUMBER($L84),"insert into M_CD_VAL_LANG values ("&amp;$L84&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G84)&amp;"', '"&amp;$M84&amp;"', '"&amp;$N84&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (82, now(), 1, now(), 1, 0, '39', 'ja', 'ゲームセンター');</v>
+        <v>insert into M_CD_VAL_LANG values (82, now(), 1, now(), 1, 0, '37', 'ja', 'ボウリング場');</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -6094,7 +5998,7 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K85" s="16" t="str">
         <f>IF(ISNUMBER($G85),"insert into M_CD_VAL values ("&amp;$G85&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B85)&amp;"', '"&amp;$H85&amp;"', '"&amp;$I85&amp;"', "&amp;J85&amp;");","")</f>
@@ -6105,14 +6009,14 @@
         <v>83</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="O85" s="16" t="str">
         <f>IF(ISNUMBER($L85),"insert into M_CD_VAL_LANG values ("&amp;$L85&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G85)&amp;"', '"&amp;$M85&amp;"', '"&amp;$N85&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (83, now(), 1, now(), 1, 0, '39', 'ja', 'クラブ・ディスコ');</v>
+        <v>insert into M_CD_VAL_LANG values (83, now(), 1, now(), 1, 0, '37', 'ja', 'ビリヤード');</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -6140,7 +6044,7 @@
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K86" s="16" t="str">
         <f>IF(ISNUMBER($G86),"insert into M_CD_VAL values ("&amp;$G86&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B86)&amp;"', '"&amp;$H86&amp;"', '"&amp;$I86&amp;"', "&amp;J86&amp;");","")</f>
@@ -6151,14 +6055,14 @@
         <v>84</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O86" s="16" t="str">
         <f>IF(ISNUMBER($L86),"insert into M_CD_VAL_LANG values ("&amp;$L86&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G86)&amp;"', '"&amp;$M86&amp;"', '"&amp;$N86&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (84, now(), 1, now(), 1, 0, '39', 'ja', 'ボウリング場');</v>
+        <v>insert into M_CD_VAL_LANG values (84, now(), 1, now(), 1, 0, '37', 'ja', '競輪・競馬・競艇');</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -6186,7 +6090,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K87" s="16" t="str">
         <f>IF(ISNUMBER($G87),"insert into M_CD_VAL values ("&amp;$G87&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B87)&amp;"', '"&amp;$H87&amp;"', '"&amp;$I87&amp;"', "&amp;J87&amp;");","")</f>
@@ -6197,14 +6101,14 @@
         <v>85</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N87" s="13" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="O87" s="16" t="str">
         <f>IF(ISNUMBER($L87),"insert into M_CD_VAL_LANG values ("&amp;$L87&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G87)&amp;"', '"&amp;$M87&amp;"', '"&amp;$N87&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (85, now(), 1, now(), 1, 0, '39', 'ja', 'ビリヤード');</v>
+        <v>insert into M_CD_VAL_LANG values (85, now(), 1, now(), 1, 0, '37', 'ja', 'オートレース場');</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -6232,7 +6136,7 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K88" s="16" t="str">
         <f>IF(ISNUMBER($G88),"insert into M_CD_VAL values ("&amp;$G88&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B88)&amp;"', '"&amp;$H88&amp;"', '"&amp;$I88&amp;"', "&amp;J88&amp;");","")</f>
@@ -6243,14 +6147,14 @@
         <v>86</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O88" s="16" t="str">
         <f>IF(ISNUMBER($L88),"insert into M_CD_VAL_LANG values ("&amp;$L88&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G88)&amp;"', '"&amp;$M88&amp;"', '"&amp;$N88&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (86, now(), 1, now(), 1, 0, '39', 'ja', '競輪・競馬・競艇');</v>
+        <v>insert into M_CD_VAL_LANG values (86, now(), 1, now(), 1, 0, '37', 'ja', 'パチンコ・パチスロ');</v>
       </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
@@ -6278,7 +6182,7 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K89" s="16" t="str">
         <f>IF(ISNUMBER($G89),"insert into M_CD_VAL values ("&amp;$G89&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B89)&amp;"', '"&amp;$H89&amp;"', '"&amp;$I89&amp;"', "&amp;J89&amp;");","")</f>
@@ -6289,14 +6193,14 @@
         <v>87</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N89" s="13" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="O89" s="16" t="str">
         <f>IF(ISNUMBER($L89),"insert into M_CD_VAL_LANG values ("&amp;$L89&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G89)&amp;"', '"&amp;$M89&amp;"', '"&amp;$N89&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (87, now(), 1, now(), 1, 0, '39', 'ja', 'オートレース場');</v>
+        <v>insert into M_CD_VAL_LANG values (87, now(), 1, now(), 1, 0, '37', 'ja', '雀荘');</v>
       </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
@@ -6324,7 +6228,7 @@
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K90" s="16" t="str">
         <f>IF(ISNUMBER($G90),"insert into M_CD_VAL values ("&amp;$G90&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B90)&amp;"', '"&amp;$H90&amp;"', '"&amp;$I90&amp;"', "&amp;J90&amp;");","")</f>
@@ -6335,14 +6239,14 @@
         <v>88</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N90" s="13" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="O90" s="16" t="str">
         <f>IF(ISNUMBER($L90),"insert into M_CD_VAL_LANG values ("&amp;$L90&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G90)&amp;"', '"&amp;$M90&amp;"', '"&amp;$N90&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (88, now(), 1, now(), 1, 0, '39', 'ja', 'パチンコ・パチスロ');</v>
+        <v>insert into M_CD_VAL_LANG values (88, now(), 1, now(), 1, 0, '37', 'ja', '漫画喫茶');</v>
       </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
@@ -6363,32 +6267,36 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G91" s="16" t="str">
+      <c r="G91" s="16">
         <f>IF(ISBLANK($H91),"",MAX($G$1:$G90)+1)</f>
-        <v/>
-      </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="J91" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K91" s="16" t="str">
         <f>IF(ISNUMBER($G91),"insert into M_CD_VAL values ("&amp;$G91&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B91)&amp;"', '"&amp;$H91&amp;"', '"&amp;$I91&amp;"', "&amp;J91&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (38, now(), 1, now(), 1, 0, '13', 'other', 'Other', 18);</v>
       </c>
       <c r="L91" s="16">
         <f>IF(ISBLANK($M91),"",MAX($L$1:$L90)+1)</f>
         <v>89</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O91" s="16" t="str">
         <f>IF(ISNUMBER($L91),"insert into M_CD_VAL_LANG values ("&amp;$L91&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G91)&amp;"', '"&amp;$M91&amp;"', '"&amp;$N91&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (89, now(), 1, now(), 1, 0, '39', 'ja', '雀荘');</v>
+        <v>insert into M_CD_VAL_LANG values (89, now(), 1, now(), 1, 0, '38', 'ja', 'その他');</v>
       </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
@@ -6398,16 +6306,20 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B92" s="16" t="str">
+      <c r="B92" s="16">
         <f>IF(ISBLANK($C92),"",MAX($B$1:$B91)+1)</f>
-        <v/>
-      </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="E92" s="13"/>
       <c r="F92" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>insert into M_CD_GRP values (14, now(), 1, now(), 1, 0, 'SeeGenre', '見るジャンル', '');</v>
       </c>
       <c r="G92" s="16" t="str">
         <f>IF(ISBLANK($H92),"",MAX($G$1:$G91)+1)</f>
@@ -6416,7 +6328,7 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K92" s="16" t="str">
         <f>IF(ISNUMBER($G92),"insert into M_CD_VAL values ("&amp;$G92&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B92)&amp;"', '"&amp;$H92&amp;"', '"&amp;$I92&amp;"', "&amp;J92&amp;");","")</f>
@@ -6427,14 +6339,14 @@
         <v>90</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N92" s="13" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="O92" s="16" t="str">
         <f>IF(ISNUMBER($L92),"insert into M_CD_VAL_LANG values ("&amp;$L92&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G92)&amp;"', '"&amp;$M92&amp;"', '"&amp;$N92&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (90, now(), 1, now(), 1, 0, '39', 'ja', '漫画喫茶');</v>
+        <v>insert into M_CD_VAL_LANG values (90, now(), 1, now(), 1, 0, '38', 'ja', '動物園');</v>
       </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
@@ -6455,36 +6367,32 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="16" t="str">
         <f>IF(ISBLANK($H93),"",MAX($G$1:$G92)+1)</f>
-        <v>40</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>229</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
       <c r="J93" s="13">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K93" s="16" t="str">
         <f>IF(ISNUMBER($G93),"insert into M_CD_VAL values ("&amp;$G93&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B93)&amp;"', '"&amp;$H93&amp;"', '"&amp;$I93&amp;"', "&amp;J93&amp;");","")</f>
-        <v>insert into M_CD_VAL values (40, now(), 1, now(), 1, 0, '13', 'other', 'Other', 18);</v>
+        <v/>
       </c>
       <c r="L93" s="16">
         <f>IF(ISBLANK($M93),"",MAX($L$1:$L92)+1)</f>
         <v>91</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O93" s="16" t="str">
         <f>IF(ISNUMBER($L93),"insert into M_CD_VAL_LANG values ("&amp;$L93&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G93)&amp;"', '"&amp;$M93&amp;"', '"&amp;$N93&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (91, now(), 1, now(), 1, 0, '40', 'ja', 'その他');</v>
+        <v>insert into M_CD_VAL_LANG values (91, now(), 1, now(), 1, 0, '38', 'ja', '植物園');</v>
       </c>
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
@@ -6494,20 +6402,16 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="16" t="str">
         <f>IF(ISBLANK($C94),"",MAX($B$1:$B93)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>185</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>insert into M_CD_GRP values (14, now(), 1, now(), 1, 0, 'SeeGenre', '見るジャンル', '');</v>
+        <v/>
       </c>
       <c r="G94" s="16" t="str">
         <f>IF(ISBLANK($H94),"",MAX($G$1:$G93)+1)</f>
@@ -6516,7 +6420,7 @@
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K94" s="16" t="str">
         <f>IF(ISNUMBER($G94),"insert into M_CD_VAL values ("&amp;$G94&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B94)&amp;"', '"&amp;$H94&amp;"', '"&amp;$I94&amp;"', "&amp;J94&amp;");","")</f>
@@ -6527,14 +6431,14 @@
         <v>92</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="O94" s="16" t="str">
         <f>IF(ISNUMBER($L94),"insert into M_CD_VAL_LANG values ("&amp;$L94&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G94)&amp;"', '"&amp;$M94&amp;"', '"&amp;$N94&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (92, now(), 1, now(), 1, 0, '40', 'ja', '動物園');</v>
+        <v>insert into M_CD_VAL_LANG values (92, now(), 1, now(), 1, 0, '38', 'ja', '水族館');</v>
       </c>
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
@@ -6562,7 +6466,7 @@
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
       <c r="J95" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K95" s="16" t="str">
         <f>IF(ISNUMBER($G95),"insert into M_CD_VAL values ("&amp;$G95&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B95)&amp;"', '"&amp;$H95&amp;"', '"&amp;$I95&amp;"', "&amp;J95&amp;");","")</f>
@@ -6573,14 +6477,14 @@
         <v>93</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N95" s="13" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="O95" s="16" t="str">
         <f>IF(ISNUMBER($L95),"insert into M_CD_VAL_LANG values ("&amp;$L95&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G95)&amp;"', '"&amp;$M95&amp;"', '"&amp;$N95&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (93, now(), 1, now(), 1, 0, '40', 'ja', '植物園');</v>
+        <v>insert into M_CD_VAL_LANG values (93, now(), 1, now(), 1, 0, '38', 'ja', '映画館');</v>
       </c>
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
@@ -6601,32 +6505,36 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G96" s="16" t="str">
+      <c r="G96" s="16">
         <f>IF(ISBLANK($H96),"",MAX($G$1:$G95)+1)</f>
-        <v/>
-      </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>220</v>
+      </c>
       <c r="J96" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K96" s="16" t="str">
         <f>IF(ISNUMBER($G96),"insert into M_CD_VAL values ("&amp;$G96&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B96)&amp;"', '"&amp;$H96&amp;"', '"&amp;$I96&amp;"', "&amp;J96&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (39, now(), 1, now(), 1, 0, '14', 'museum', 'Museum', 5);</v>
       </c>
       <c r="L96" s="16">
         <f>IF(ISBLANK($M96),"",MAX($L$1:$L95)+1)</f>
         <v>94</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N96" s="13" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="O96" s="16" t="str">
         <f>IF(ISNUMBER($L96),"insert into M_CD_VAL_LANG values ("&amp;$L96&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G96)&amp;"', '"&amp;$M96&amp;"', '"&amp;$N96&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (94, now(), 1, now(), 1, 0, '40', 'ja', '水族館');</v>
+        <v>insert into M_CD_VAL_LANG values (94, now(), 1, now(), 1, 0, '39', 'ja', '博物館');</v>
       </c>
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
@@ -6654,7 +6562,7 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K97" s="16" t="str">
         <f>IF(ISNUMBER($G97),"insert into M_CD_VAL values ("&amp;$G97&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B97)&amp;"', '"&amp;$H97&amp;"', '"&amp;$I97&amp;"', "&amp;J97&amp;");","")</f>
@@ -6665,14 +6573,14 @@
         <v>95</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N97" s="13" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O97" s="16" t="str">
         <f>IF(ISNUMBER($L97),"insert into M_CD_VAL_LANG values ("&amp;$L97&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G97)&amp;"', '"&amp;$M97&amp;"', '"&amp;$N97&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (95, now(), 1, now(), 1, 0, '40', 'ja', '映画館');</v>
+        <v>insert into M_CD_VAL_LANG values (95, now(), 1, now(), 1, 0, '39', 'ja', '美術館');</v>
       </c>
       <c r="P97" s="17"/>
       <c r="Q97" s="17"/>
@@ -6693,36 +6601,32 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="16" t="str">
         <f>IF(ISBLANK($H98),"",MAX($G$1:$G97)+1)</f>
-        <v>41</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>233</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
       <c r="J98" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K98" s="16" t="str">
         <f>IF(ISNUMBER($G98),"insert into M_CD_VAL values ("&amp;$G98&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B98)&amp;"', '"&amp;$H98&amp;"', '"&amp;$I98&amp;"', "&amp;J98&amp;");","")</f>
-        <v>insert into M_CD_VAL values (41, now(), 1, now(), 1, 0, '14', 'museum', 'Museum', 5);</v>
+        <v/>
       </c>
       <c r="L98" s="16">
         <f>IF(ISBLANK($M98),"",MAX($L$1:$L97)+1)</f>
         <v>96</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N98" s="13" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="O98" s="16" t="str">
         <f>IF(ISNUMBER($L98),"insert into M_CD_VAL_LANG values ("&amp;$L98&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G98)&amp;"', '"&amp;$M98&amp;"', '"&amp;$N98&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (96, now(), 1, now(), 1, 0, '41', 'ja', '博物館');</v>
+        <v>insert into M_CD_VAL_LANG values (96, now(), 1, now(), 1, 0, '39', 'ja', '天文台・プラネタリム');</v>
       </c>
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
@@ -6750,7 +6654,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K99" s="16" t="str">
         <f>IF(ISNUMBER($G99),"insert into M_CD_VAL values ("&amp;$G99&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B99)&amp;"', '"&amp;$H99&amp;"', '"&amp;$I99&amp;"', "&amp;J99&amp;");","")</f>
@@ -6761,14 +6665,14 @@
         <v>97</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N99" s="13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="O99" s="16" t="str">
         <f>IF(ISNUMBER($L99),"insert into M_CD_VAL_LANG values ("&amp;$L99&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G99)&amp;"', '"&amp;$M99&amp;"', '"&amp;$N99&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (97, now(), 1, now(), 1, 0, '41', 'ja', '美術館');</v>
+        <v>insert into M_CD_VAL_LANG values (97, now(), 1, now(), 1, 0, '39', 'ja', '劇場');</v>
       </c>
       <c r="P99" s="17"/>
       <c r="Q99" s="17"/>
@@ -6789,32 +6693,36 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G100" s="16" t="str">
+      <c r="G100" s="16">
         <f>IF(ISBLANK($H100),"",MAX($G$1:$G99)+1)</f>
-        <v/>
-      </c>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="J100" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K100" s="16" t="str">
         <f>IF(ISNUMBER($G100),"insert into M_CD_VAL values ("&amp;$G100&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B100)&amp;"', '"&amp;$H100&amp;"', '"&amp;$I100&amp;"', "&amp;J100&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (40, now(), 1, now(), 1, 0, '14', 'other', 'Other', 9);</v>
       </c>
       <c r="L100" s="16">
         <f>IF(ISBLANK($M100),"",MAX($L$1:$L99)+1)</f>
         <v>98</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="N100" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="O100" s="16" t="str">
         <f>IF(ISNUMBER($L100),"insert into M_CD_VAL_LANG values ("&amp;$L100&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G100)&amp;"', '"&amp;$M100&amp;"', '"&amp;$N100&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (98, now(), 1, now(), 1, 0, '41', 'ja', '天文台・プラネタリム');</v>
+        <v>insert into M_CD_VAL_LANG values (98, now(), 1, now(), 1, 0, '40', 'ja', 'その他');</v>
       </c>
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
@@ -6824,16 +6732,20 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="B101" s="16" t="str">
+      <c r="B101" s="16">
         <f>IF(ISBLANK($C101),"",MAX($B$1:$B100)+1)</f>
-        <v/>
-      </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="E101" s="13"/>
       <c r="F101" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>insert into M_CD_GRP values (15, now(), 1, now(), 1, 0, 'StayGenre', '泊まるジャンル', '');</v>
       </c>
       <c r="G101" s="16" t="str">
         <f>IF(ISBLANK($H101),"",MAX($G$1:$G100)+1)</f>
@@ -6842,7 +6754,7 @@
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K101" s="16" t="str">
         <f>IF(ISNUMBER($G101),"insert into M_CD_VAL values ("&amp;$G101&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B101)&amp;"', '"&amp;$H101&amp;"', '"&amp;$I101&amp;"', "&amp;J101&amp;");","")</f>
@@ -6853,14 +6765,14 @@
         <v>99</v>
       </c>
       <c r="M101" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N101" s="13" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="O101" s="16" t="str">
         <f>IF(ISNUMBER($L101),"insert into M_CD_VAL_LANG values ("&amp;$L101&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G101)&amp;"', '"&amp;$M101&amp;"', '"&amp;$N101&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (99, now(), 1, now(), 1, 0, '41', 'ja', '劇場');</v>
+        <v>insert into M_CD_VAL_LANG values (99, now(), 1, now(), 1, 0, '40', 'ja', 'ホテル');</v>
       </c>
       <c r="P101" s="17"/>
       <c r="Q101" s="17"/>
@@ -6881,36 +6793,32 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="16" t="str">
         <f>IF(ISBLANK($H102),"",MAX($G$1:$G101)+1)</f>
-        <v>42</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>229</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
       <c r="J102" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K102" s="16" t="str">
         <f>IF(ISNUMBER($G102),"insert into M_CD_VAL values ("&amp;$G102&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B102)&amp;"', '"&amp;$H102&amp;"', '"&amp;$I102&amp;"', "&amp;J102&amp;");","")</f>
-        <v>insert into M_CD_VAL values (42, now(), 1, now(), 1, 0, '14', 'other', 'Other', 9);</v>
+        <v/>
       </c>
       <c r="L102" s="16">
         <f>IF(ISBLANK($M102),"",MAX($L$1:$L101)+1)</f>
         <v>100</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N102" s="13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="O102" s="16" t="str">
         <f>IF(ISNUMBER($L102),"insert into M_CD_VAL_LANG values ("&amp;$L102&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G102)&amp;"', '"&amp;$M102&amp;"', '"&amp;$N102&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (100, now(), 1, now(), 1, 0, '42', 'ja', 'その他');</v>
+        <v>insert into M_CD_VAL_LANG values (100, now(), 1, now(), 1, 0, '40', 'ja', '旅館');</v>
       </c>
       <c r="P102" s="17"/>
       <c r="Q102" s="17"/>
@@ -6920,20 +6828,16 @@
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="16" t="str">
         <f>IF(ISBLANK($C103),"",MAX($B$1:$B102)+1)</f>
-        <v>15</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>195</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>insert into M_CD_GRP values (15, now(), 1, now(), 1, 0, 'StayGenre', '泊まるジャンル', '');</v>
+        <v/>
       </c>
       <c r="G103" s="16" t="str">
         <f>IF(ISBLANK($H103),"",MAX($G$1:$G102)+1)</f>
@@ -6942,7 +6846,7 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K103" s="16" t="str">
         <f>IF(ISNUMBER($G103),"insert into M_CD_VAL values ("&amp;$G103&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B103)&amp;"', '"&amp;$H103&amp;"', '"&amp;$I103&amp;"', "&amp;J103&amp;");","")</f>
@@ -6953,14 +6857,14 @@
         <v>101</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N103" s="13" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="O103" s="16" t="str">
         <f>IF(ISNUMBER($L103),"insert into M_CD_VAL_LANG values ("&amp;$L103&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G103)&amp;"', '"&amp;$M103&amp;"', '"&amp;$N103&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (101, now(), 1, now(), 1, 0, '42', 'ja', 'ホテル');</v>
+        <v>insert into M_CD_VAL_LANG values (101, now(), 1, now(), 1, 0, '40', 'ja', '民宿');</v>
       </c>
       <c r="P103" s="17"/>
       <c r="Q103" s="17"/>
@@ -6988,7 +6892,7 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K104" s="16" t="str">
         <f>IF(ISNUMBER($G104),"insert into M_CD_VAL values ("&amp;$G104&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B104)&amp;"', '"&amp;$H104&amp;"', '"&amp;$I104&amp;"', "&amp;J104&amp;");","")</f>
@@ -6999,14 +6903,14 @@
         <v>102</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N104" s="13" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="O104" s="16" t="str">
         <f>IF(ISNUMBER($L104),"insert into M_CD_VAL_LANG values ("&amp;$L104&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G104)&amp;"', '"&amp;$M104&amp;"', '"&amp;$N104&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (102, now(), 1, now(), 1, 0, '42', 'ja', '旅館');</v>
+        <v>insert into M_CD_VAL_LANG values (102, now(), 1, now(), 1, 0, '40', 'ja', '温泉');</v>
       </c>
       <c r="P104" s="17"/>
       <c r="Q104" s="17"/>
@@ -7034,7 +6938,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K105" s="16" t="str">
         <f>IF(ISNUMBER($G105),"insert into M_CD_VAL values ("&amp;$G105&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B105)&amp;"', '"&amp;$H105&amp;"', '"&amp;$I105&amp;"', "&amp;J105&amp;");","")</f>
@@ -7045,14 +6949,14 @@
         <v>103</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N105" s="13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="O105" s="16" t="str">
         <f>IF(ISNUMBER($L105),"insert into M_CD_VAL_LANG values ("&amp;$L105&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G105)&amp;"', '"&amp;$M105&amp;"', '"&amp;$N105&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (103, now(), 1, now(), 1, 0, '42', 'ja', '民宿');</v>
+        <v>insert into M_CD_VAL_LANG values (103, now(), 1, now(), 1, 0, '40', 'ja', 'カプセルホテル');</v>
       </c>
       <c r="P105" s="17"/>
       <c r="Q105" s="17"/>
@@ -7073,32 +6977,36 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G106" s="16" t="str">
+      <c r="G106" s="16">
         <f>IF(ISBLANK($H106),"",MAX($G$1:$G105)+1)</f>
-        <v/>
-      </c>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="J106" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K106" s="16" t="str">
         <f>IF(ISNUMBER($G106),"insert into M_CD_VAL values ("&amp;$G106&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B106)&amp;"', '"&amp;$H106&amp;"', '"&amp;$I106&amp;"', "&amp;J106&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (41, now(), 1, now(), 1, 0, '15', 'other', 'Other', 6);</v>
       </c>
       <c r="L106" s="16">
         <f>IF(ISBLANK($M106),"",MAX($L$1:$L105)+1)</f>
         <v>104</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N106" s="13" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="O106" s="16" t="str">
         <f>IF(ISNUMBER($L106),"insert into M_CD_VAL_LANG values ("&amp;$L106&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G106)&amp;"', '"&amp;$M106&amp;"', '"&amp;$N106&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (104, now(), 1, now(), 1, 0, '42', 'ja', '温泉');</v>
+        <v>insert into M_CD_VAL_LANG values (104, now(), 1, now(), 1, 0, '41', 'ja', 'その他');</v>
       </c>
       <c r="P106" s="17"/>
       <c r="Q106" s="17"/>
@@ -7108,16 +7016,20 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B107" s="16" t="str">
+      <c r="B107" s="16">
         <f>IF(ISBLANK($C107),"",MAX($B$1:$B106)+1)</f>
-        <v/>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="E107" s="13"/>
       <c r="F107" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>insert into M_CD_GRP values (16, now(), 1, now(), 1, 0, 'EventGenre', 'イベントジャンル', '');</v>
       </c>
       <c r="G107" s="16" t="str">
         <f>IF(ISBLANK($H107),"",MAX($G$1:$G106)+1)</f>
@@ -7126,7 +7038,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K107" s="16" t="str">
         <f>IF(ISNUMBER($G107),"insert into M_CD_VAL values ("&amp;$G107&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B107)&amp;"', '"&amp;$H107&amp;"', '"&amp;$I107&amp;"', "&amp;J107&amp;");","")</f>
@@ -7137,14 +7049,14 @@
         <v>105</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N107" s="13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O107" s="16" t="str">
         <f>IF(ISNUMBER($L107),"insert into M_CD_VAL_LANG values ("&amp;$L107&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G107)&amp;"', '"&amp;$M107&amp;"', '"&amp;$N107&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (105, now(), 1, now(), 1, 0, '42', 'ja', 'カプセルホテル');</v>
+        <v>insert into M_CD_VAL_LANG values (105, now(), 1, now(), 1, 0, '41', 'ja', '節句・年中行事');</v>
       </c>
       <c r="P107" s="17"/>
       <c r="Q107" s="17"/>
@@ -7165,36 +7077,32 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G108" s="16">
+      <c r="G108" s="16" t="str">
         <f>IF(ISBLANK($H108),"",MAX($G$1:$G107)+1)</f>
-        <v>43</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="I108" s="13" t="s">
-        <v>229</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K108" s="16" t="str">
         <f>IF(ISNUMBER($G108),"insert into M_CD_VAL values ("&amp;$G108&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B108)&amp;"', '"&amp;$H108&amp;"', '"&amp;$I108&amp;"', "&amp;J108&amp;");","")</f>
-        <v>insert into M_CD_VAL values (43, now(), 1, now(), 1, 0, '15', 'other', 'Other', 6);</v>
+        <v/>
       </c>
       <c r="L108" s="16">
         <f>IF(ISBLANK($M108),"",MAX($L$1:$L107)+1)</f>
         <v>106</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N108" s="13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O108" s="16" t="str">
         <f>IF(ISNUMBER($L108),"insert into M_CD_VAL_LANG values ("&amp;$L108&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G108)&amp;"', '"&amp;$M108&amp;"', '"&amp;$N108&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (106, now(), 1, now(), 1, 0, '43', 'ja', 'その他');</v>
+        <v>insert into M_CD_VAL_LANG values (106, now(), 1, now(), 1, 0, '41', 'ja', '神輿・山車など');</v>
       </c>
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
@@ -7204,20 +7112,16 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="16" t="str">
         <f>IF(ISBLANK($C109),"",MAX($B$1:$B108)+1)</f>
-        <v>16</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>205</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>insert into M_CD_GRP values (16, now(), 1, now(), 1, 0, 'EventGenre', 'イベントジャンル', '');</v>
+        <v/>
       </c>
       <c r="G109" s="16" t="str">
         <f>IF(ISBLANK($H109),"",MAX($G$1:$G108)+1)</f>
@@ -7226,7 +7130,7 @@
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
       <c r="J109" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K109" s="16" t="str">
         <f>IF(ISNUMBER($G109),"insert into M_CD_VAL values ("&amp;$G109&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B109)&amp;"', '"&amp;$H109&amp;"', '"&amp;$I109&amp;"', "&amp;J109&amp;");","")</f>
@@ -7237,14 +7141,14 @@
         <v>107</v>
       </c>
       <c r="M109" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N109" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O109" s="16" t="str">
         <f>IF(ISNUMBER($L109),"insert into M_CD_VAL_LANG values ("&amp;$L109&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G109)&amp;"', '"&amp;$M109&amp;"', '"&amp;$N109&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (107, now(), 1, now(), 1, 0, '43', 'ja', '節句・年中行事');</v>
+        <v>insert into M_CD_VAL_LANG values (107, now(), 1, now(), 1, 0, '41', 'ja', '伝統芸能・舞踊');</v>
       </c>
       <c r="P109" s="17"/>
       <c r="Q109" s="17"/>
@@ -7272,7 +7176,7 @@
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K110" s="16" t="str">
         <f>IF(ISNUMBER($G110),"insert into M_CD_VAL values ("&amp;$G110&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B110)&amp;"', '"&amp;$H110&amp;"', '"&amp;$I110&amp;"', "&amp;J110&amp;");","")</f>
@@ -7283,14 +7187,14 @@
         <v>108</v>
       </c>
       <c r="M110" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N110" s="13" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O110" s="16" t="str">
         <f>IF(ISNUMBER($L110),"insert into M_CD_VAL_LANG values ("&amp;$L110&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G110)&amp;"', '"&amp;$M110&amp;"', '"&amp;$N110&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (108, now(), 1, now(), 1, 0, '43', 'ja', '神輿・山車など');</v>
+        <v>insert into M_CD_VAL_LANG values (108, now(), 1, now(), 1, 0, '41', 'ja', '行列・パレード');</v>
       </c>
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
@@ -7318,7 +7222,7 @@
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
       <c r="J111" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K111" s="16" t="str">
         <f>IF(ISNUMBER($G111),"insert into M_CD_VAL values ("&amp;$G111&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B111)&amp;"', '"&amp;$H111&amp;"', '"&amp;$I111&amp;"', "&amp;J111&amp;");","")</f>
@@ -7329,14 +7233,14 @@
         <v>109</v>
       </c>
       <c r="M111" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N111" s="13" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="O111" s="16" t="str">
         <f>IF(ISNUMBER($L111),"insert into M_CD_VAL_LANG values ("&amp;$L111&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G111)&amp;"', '"&amp;$M111&amp;"', '"&amp;$N111&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (109, now(), 1, now(), 1, 0, '43', 'ja', '伝統芸能・舞踊');</v>
+        <v>insert into M_CD_VAL_LANG values (109, now(), 1, now(), 1, 0, '41', 'ja', 'グルメ');</v>
       </c>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
@@ -7364,7 +7268,7 @@
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K112" s="16" t="str">
         <f>IF(ISNUMBER($G112),"insert into M_CD_VAL values ("&amp;$G112&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B112)&amp;"', '"&amp;$H112&amp;"', '"&amp;$I112&amp;"', "&amp;J112&amp;");","")</f>
@@ -7375,14 +7279,14 @@
         <v>110</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N112" s="13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O112" s="16" t="str">
         <f>IF(ISNUMBER($L112),"insert into M_CD_VAL_LANG values ("&amp;$L112&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G112)&amp;"', '"&amp;$M112&amp;"', '"&amp;$N112&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (110, now(), 1, now(), 1, 0, '43', 'ja', '行列・パレード');</v>
+        <v>insert into M_CD_VAL_LANG values (110, now(), 1, now(), 1, 0, '41', 'ja', '市・縁日');</v>
       </c>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
@@ -7410,7 +7314,7 @@
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
       <c r="J113" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K113" s="16" t="str">
         <f>IF(ISNUMBER($G113),"insert into M_CD_VAL values ("&amp;$G113&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B113)&amp;"', '"&amp;$H113&amp;"', '"&amp;$I113&amp;"', "&amp;J113&amp;");","")</f>
@@ -7421,14 +7325,14 @@
         <v>111</v>
       </c>
       <c r="M113" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N113" s="13" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="O113" s="16" t="str">
         <f>IF(ISNUMBER($L113),"insert into M_CD_VAL_LANG values ("&amp;$L113&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G113)&amp;"', '"&amp;$M113&amp;"', '"&amp;$N113&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (111, now(), 1, now(), 1, 0, '43', 'ja', 'グルメ');</v>
+        <v>insert into M_CD_VAL_LANG values (111, now(), 1, now(), 1, 0, '41', 'ja', '花見・自然');</v>
       </c>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
@@ -7456,7 +7360,7 @@
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K114" s="16" t="str">
         <f>IF(ISNUMBER($G114),"insert into M_CD_VAL values ("&amp;$G114&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B114)&amp;"', '"&amp;$H114&amp;"', '"&amp;$I114&amp;"', "&amp;J114&amp;");","")</f>
@@ -7467,14 +7371,14 @@
         <v>112</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N114" s="13" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O114" s="16" t="str">
         <f>IF(ISNUMBER($L114),"insert into M_CD_VAL_LANG values ("&amp;$L114&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G114)&amp;"', '"&amp;$M114&amp;"', '"&amp;$N114&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (112, now(), 1, now(), 1, 0, '43', 'ja', '市・縁日');</v>
+        <v>insert into M_CD_VAL_LANG values (112, now(), 1, now(), 1, 0, '41', 'ja', '火と灯の祭り');</v>
       </c>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
@@ -7502,7 +7406,7 @@
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
       <c r="J115" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K115" s="16" t="str">
         <f>IF(ISNUMBER($G115),"insert into M_CD_VAL values ("&amp;$G115&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B115)&amp;"', '"&amp;$H115&amp;"', '"&amp;$I115&amp;"', "&amp;J115&amp;");","")</f>
@@ -7513,14 +7417,14 @@
         <v>113</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N115" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O115" s="16" t="str">
         <f>IF(ISNUMBER($L115),"insert into M_CD_VAL_LANG values ("&amp;$L115&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G115)&amp;"', '"&amp;$M115&amp;"', '"&amp;$N115&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (113, now(), 1, now(), 1, 0, '43', 'ja', '花見・自然');</v>
+        <v>insert into M_CD_VAL_LANG values (113, now(), 1, now(), 1, 0, '41', 'ja', '花火大会');</v>
       </c>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
@@ -7548,7 +7452,7 @@
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K116" s="16" t="str">
         <f>IF(ISNUMBER($G116),"insert into M_CD_VAL values ("&amp;$G116&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B116)&amp;"', '"&amp;$H116&amp;"', '"&amp;$I116&amp;"', "&amp;J116&amp;");","")</f>
@@ -7559,14 +7463,14 @@
         <v>114</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N116" s="13" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="O116" s="16" t="str">
         <f>IF(ISNUMBER($L116),"insert into M_CD_VAL_LANG values ("&amp;$L116&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G116)&amp;"', '"&amp;$M116&amp;"', '"&amp;$N116&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (114, now(), 1, now(), 1, 0, '43', 'ja', '火と灯の祭り');</v>
+        <v>insert into M_CD_VAL_LANG values (114, now(), 1, now(), 1, 0, '41', 'ja', '雪・冬祭り');</v>
       </c>
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
@@ -7594,7 +7498,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K117" s="16" t="str">
         <f>IF(ISNUMBER($G117),"insert into M_CD_VAL values ("&amp;$G117&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B117)&amp;"', '"&amp;$H117&amp;"', '"&amp;$I117&amp;"', "&amp;J117&amp;");","")</f>
@@ -7605,14 +7509,14 @@
         <v>115</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N117" s="13" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="O117" s="16" t="str">
         <f>IF(ISNUMBER($L117),"insert into M_CD_VAL_LANG values ("&amp;$L117&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G117)&amp;"', '"&amp;$M117&amp;"', '"&amp;$N117&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (115, now(), 1, now(), 1, 0, '43', 'ja', '花火大会');</v>
+        <v>insert into M_CD_VAL_LANG values (115, now(), 1, now(), 1, 0, '41', 'ja', 'イルミネーション');</v>
       </c>
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
@@ -7640,7 +7544,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K118" s="16" t="str">
         <f>IF(ISNUMBER($G118),"insert into M_CD_VAL values ("&amp;$G118&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B118)&amp;"', '"&amp;$H118&amp;"', '"&amp;$I118&amp;"', "&amp;J118&amp;");","")</f>
@@ -7651,14 +7555,14 @@
         <v>116</v>
       </c>
       <c r="M118" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N118" s="13" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O118" s="16" t="str">
         <f>IF(ISNUMBER($L118),"insert into M_CD_VAL_LANG values ("&amp;$L118&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G118)&amp;"', '"&amp;$M118&amp;"', '"&amp;$N118&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (116, now(), 1, now(), 1, 0, '43', 'ja', '雪・冬祭り');</v>
+        <v>insert into M_CD_VAL_LANG values (116, now(), 1, now(), 1, 0, '41', 'ja', '音楽・映画');</v>
       </c>
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
@@ -7686,7 +7590,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K119" s="16" t="str">
         <f>IF(ISNUMBER($G119),"insert into M_CD_VAL values ("&amp;$G119&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B119)&amp;"', '"&amp;$H119&amp;"', '"&amp;$I119&amp;"', "&amp;J119&amp;");","")</f>
@@ -7697,14 +7601,14 @@
         <v>117</v>
       </c>
       <c r="M119" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N119" s="13" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="O119" s="16" t="str">
         <f>IF(ISNUMBER($L119),"insert into M_CD_VAL_LANG values ("&amp;$L119&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G119)&amp;"', '"&amp;$M119&amp;"', '"&amp;$N119&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (117, now(), 1, now(), 1, 0, '43', 'ja', 'イルミネーション');</v>
+        <v>insert into M_CD_VAL_LANG values (117, now(), 1, now(), 1, 0, '41', 'ja', 'スポーツ');</v>
       </c>
       <c r="P119" s="17"/>
       <c r="Q119" s="17"/>
@@ -7732,7 +7636,7 @@
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K120" s="16" t="str">
         <f>IF(ISNUMBER($G120),"insert into M_CD_VAL values ("&amp;$G120&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B120)&amp;"', '"&amp;$H120&amp;"', '"&amp;$I120&amp;"', "&amp;J120&amp;");","")</f>
@@ -7743,14 +7647,14 @@
         <v>118</v>
       </c>
       <c r="M120" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N120" s="13" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="O120" s="16" t="str">
         <f>IF(ISNUMBER($L120),"insert into M_CD_VAL_LANG values ("&amp;$L120&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G120)&amp;"', '"&amp;$M120&amp;"', '"&amp;$N120&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (118, now(), 1, now(), 1, 0, '43', 'ja', '音楽・映画');</v>
+        <v>insert into M_CD_VAL_LANG values (118, now(), 1, now(), 1, 0, '41', 'ja', '美術展・博物展');</v>
       </c>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
@@ -7778,7 +7682,7 @@
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
       <c r="J121" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K121" s="16" t="str">
         <f>IF(ISNUMBER($G121),"insert into M_CD_VAL values ("&amp;$G121&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B121)&amp;"', '"&amp;$H121&amp;"', '"&amp;$I121&amp;"', "&amp;J121&amp;");","")</f>
@@ -7789,14 +7693,14 @@
         <v>119</v>
       </c>
       <c r="M121" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N121" s="13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O121" s="16" t="str">
         <f>IF(ISNUMBER($L121),"insert into M_CD_VAL_LANG values ("&amp;$L121&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G121)&amp;"', '"&amp;$M121&amp;"', '"&amp;$N121&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (119, now(), 1, now(), 1, 0, '43', 'ja', 'スポーツ');</v>
+        <v>insert into M_CD_VAL_LANG values (119, now(), 1, now(), 1, 0, '41', 'ja', '博覧会・フェスティバル');</v>
       </c>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
@@ -7824,7 +7728,7 @@
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K122" s="16" t="str">
         <f>IF(ISNUMBER($G122),"insert into M_CD_VAL values ("&amp;$G122&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B122)&amp;"', '"&amp;$H122&amp;"', '"&amp;$I122&amp;"', "&amp;J122&amp;");","")</f>
@@ -7835,14 +7739,14 @@
         <v>120</v>
       </c>
       <c r="M122" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N122" s="13" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="O122" s="16" t="str">
         <f>IF(ISNUMBER($L122),"insert into M_CD_VAL_LANG values ("&amp;$L122&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G122)&amp;"', '"&amp;$M122&amp;"', '"&amp;$N122&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (120, now(), 1, now(), 1, 0, '43', 'ja', '美術展・博物展');</v>
+        <v>insert into M_CD_VAL_LANG values (120, now(), 1, now(), 1, 0, '41', 'ja', 'ペット・動物');</v>
       </c>
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
@@ -7870,7 +7774,7 @@
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
       <c r="J123" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K123" s="16" t="str">
         <f>IF(ISNUMBER($G123),"insert into M_CD_VAL values ("&amp;$G123&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B123)&amp;"', '"&amp;$H123&amp;"', '"&amp;$I123&amp;"', "&amp;J123&amp;");","")</f>
@@ -7881,14 +7785,14 @@
         <v>121</v>
       </c>
       <c r="M123" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N123" s="13" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="O123" s="16" t="str">
         <f>IF(ISNUMBER($L123),"insert into M_CD_VAL_LANG values ("&amp;$L123&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G123)&amp;"', '"&amp;$M123&amp;"', '"&amp;$N123&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (121, now(), 1, now(), 1, 0, '43', 'ja', '博覧会・フェスティバル');</v>
+        <v>insert into M_CD_VAL_LANG values (121, now(), 1, now(), 1, 0, '41', 'ja', '体験イベント');</v>
       </c>
       <c r="P123" s="17"/>
       <c r="Q123" s="17"/>
@@ -7916,7 +7820,7 @@
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K124" s="16" t="str">
         <f>IF(ISNUMBER($G124),"insert into M_CD_VAL values ("&amp;$G124&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B124)&amp;"', '"&amp;$H124&amp;"', '"&amp;$I124&amp;"', "&amp;J124&amp;");","")</f>
@@ -7927,14 +7831,14 @@
         <v>122</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N124" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O124" s="16" t="str">
         <f>IF(ISNUMBER($L124),"insert into M_CD_VAL_LANG values ("&amp;$L124&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G124)&amp;"', '"&amp;$M124&amp;"', '"&amp;$N124&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (122, now(), 1, now(), 1, 0, '43', 'ja', 'ペット・動物');</v>
+        <v>insert into M_CD_VAL_LANG values (122, now(), 1, now(), 1, 0, '41', 'ja', '講演会・トークショー');</v>
       </c>
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
@@ -7962,7 +7866,7 @@
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
       <c r="J125" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K125" s="16" t="str">
         <f>IF(ISNUMBER($G125),"insert into M_CD_VAL values ("&amp;$G125&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B125)&amp;"', '"&amp;$H125&amp;"', '"&amp;$I125&amp;"', "&amp;J125&amp;");","")</f>
@@ -7973,14 +7877,14 @@
         <v>123</v>
       </c>
       <c r="M125" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N125" s="13" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="O125" s="16" t="str">
         <f>IF(ISNUMBER($L125),"insert into M_CD_VAL_LANG values ("&amp;$L125&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G125)&amp;"', '"&amp;$M125&amp;"', '"&amp;$N125&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (123, now(), 1, now(), 1, 0, '43', 'ja', '体験イベント');</v>
+        <v>insert into M_CD_VAL_LANG values (123, now(), 1, now(), 1, 0, '41', 'ja', '演劇・舞台');</v>
       </c>
       <c r="P125" s="17"/>
       <c r="Q125" s="17"/>
@@ -8008,7 +7912,7 @@
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K126" s="16" t="str">
         <f>IF(ISNUMBER($G126),"insert into M_CD_VAL values ("&amp;$G126&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B126)&amp;"', '"&amp;$H126&amp;"', '"&amp;$I126&amp;"', "&amp;J126&amp;");","")</f>
@@ -8019,14 +7923,14 @@
         <v>124</v>
       </c>
       <c r="M126" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N126" s="13" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="O126" s="16" t="str">
         <f>IF(ISNUMBER($L126),"insert into M_CD_VAL_LANG values ("&amp;$L126&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G126)&amp;"', '"&amp;$M126&amp;"', '"&amp;$N126&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (124, now(), 1, now(), 1, 0, '43', 'ja', '講演会・トークショー');</v>
+        <v>insert into M_CD_VAL_LANG values (124, now(), 1, now(), 1, 0, '41', 'ja', 'テーマパーク');</v>
       </c>
       <c r="P126" s="17"/>
       <c r="Q126" s="17"/>
@@ -8054,7 +7958,7 @@
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
       <c r="J127" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K127" s="16" t="str">
         <f>IF(ISNUMBER($G127),"insert into M_CD_VAL values ("&amp;$G127&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B127)&amp;"', '"&amp;$H127&amp;"', '"&amp;$I127&amp;"', "&amp;J127&amp;");","")</f>
@@ -8065,14 +7969,14 @@
         <v>125</v>
       </c>
       <c r="M127" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N127" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O127" s="16" t="str">
         <f>IF(ISNUMBER($L127),"insert into M_CD_VAL_LANG values ("&amp;$L127&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G127)&amp;"', '"&amp;$M127&amp;"', '"&amp;$N127&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (125, now(), 1, now(), 1, 0, '43', 'ja', '演劇・舞台');</v>
+        <v>insert into M_CD_VAL_LANG values (125, now(), 1, now(), 1, 0, '41', 'ja', '動物園・水族館');</v>
       </c>
       <c r="P127" s="17"/>
       <c r="Q127" s="17"/>
@@ -8100,7 +8004,7 @@
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K128" s="16" t="str">
         <f>IF(ISNUMBER($G128),"insert into M_CD_VAL values ("&amp;$G128&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B128)&amp;"', '"&amp;$H128&amp;"', '"&amp;$I128&amp;"', "&amp;J128&amp;");","")</f>
@@ -8111,14 +8015,14 @@
         <v>126</v>
       </c>
       <c r="M128" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N128" s="13" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="O128" s="16" t="str">
         <f>IF(ISNUMBER($L128),"insert into M_CD_VAL_LANG values ("&amp;$L128&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G128)&amp;"', '"&amp;$M128&amp;"', '"&amp;$N128&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (126, now(), 1, now(), 1, 0, '43', 'ja', 'テーマパーク');</v>
+        <v>insert into M_CD_VAL_LANG values (126, now(), 1, now(), 1, 0, '41', 'ja', '記念日');</v>
       </c>
       <c r="P128" s="17"/>
       <c r="Q128" s="17"/>
@@ -8146,7 +8050,7 @@
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
       <c r="J129" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K129" s="16" t="str">
         <f>IF(ISNUMBER($G129),"insert into M_CD_VAL values ("&amp;$G129&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B129)&amp;"', '"&amp;$H129&amp;"', '"&amp;$I129&amp;"', "&amp;J129&amp;");","")</f>
@@ -8157,21 +8061,21 @@
         <v>127</v>
       </c>
       <c r="M129" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N129" s="13" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="O129" s="16" t="str">
         <f>IF(ISNUMBER($L129),"insert into M_CD_VAL_LANG values ("&amp;$L129&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G129)&amp;"', '"&amp;$M129&amp;"', '"&amp;$N129&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (127, now(), 1, now(), 1, 0, '43', 'ja', '動物園・水族館');</v>
+        <v>insert into M_CD_VAL_LANG values (127, now(), 1, now(), 1, 0, '41', 'ja', '即売会・フェア');</v>
       </c>
       <c r="P129" s="17"/>
       <c r="Q129" s="17"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A130" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A130:A194" si="5">ROW()-2</f>
         <v>128</v>
       </c>
       <c r="B130" s="16" t="str">
@@ -8185,32 +8089,36 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G130" s="16" t="str">
+      <c r="G130" s="16">
         <f>IF(ISBLANK($H130),"",MAX($G$1:$G129)+1)</f>
-        <v/>
-      </c>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="J130" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K130" s="16" t="str">
         <f>IF(ISNUMBER($G130),"insert into M_CD_VAL values ("&amp;$G130&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B130)&amp;"', '"&amp;$H130&amp;"', '"&amp;$I130&amp;"', "&amp;J130&amp;");","")</f>
-        <v/>
+        <v>insert into M_CD_VAL values (42, now(), 1, now(), 1, 0, '16', 'other', 'Other', 24);</v>
       </c>
       <c r="L130" s="16">
         <f>IF(ISBLANK($M130),"",MAX($L$1:$L129)+1)</f>
         <v>128</v>
       </c>
       <c r="M130" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N130" s="13" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="O130" s="16" t="str">
         <f>IF(ISNUMBER($L130),"insert into M_CD_VAL_LANG values ("&amp;$L130&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G130)&amp;"', '"&amp;$M130&amp;"', '"&amp;$N130&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (128, now(), 1, now(), 1, 0, '43', 'ja', '記念日');</v>
+        <v>insert into M_CD_VAL_LANG values (128, now(), 1, now(), 1, 0, '42', 'ja', 'その他');</v>
       </c>
       <c r="P130" s="17"/>
       <c r="Q130" s="17"/>
@@ -8237,33 +8145,27 @@
       </c>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
-      <c r="J131" s="13">
-        <v>23</v>
-      </c>
+      <c r="J131" s="13"/>
       <c r="K131" s="16" t="str">
         <f>IF(ISNUMBER($G131),"insert into M_CD_VAL values ("&amp;$G131&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B131)&amp;"', '"&amp;$H131&amp;"', '"&amp;$I131&amp;"', "&amp;J131&amp;");","")</f>
         <v/>
       </c>
-      <c r="L131" s="16">
+      <c r="L131" s="16" t="str">
         <f>IF(ISBLANK($M131),"",MAX($L$1:$L130)+1)</f>
-        <v>129</v>
-      </c>
-      <c r="M131" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="N131" s="13" t="s">
-        <v>221</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
       <c r="O131" s="16" t="str">
         <f>IF(ISNUMBER($L131),"insert into M_CD_VAL_LANG values ("&amp;$L131&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G131)&amp;"', '"&amp;$M131&amp;"', '"&amp;$N131&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (129, now(), 1, now(), 1, 0, '43', 'ja', '即売会・フェア');</v>
+        <v/>
       </c>
       <c r="P131" s="17"/>
       <c r="Q131" s="17"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A132" s="13">
-        <f t="shared" ref="A131:A194" si="5">ROW()-2</f>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="B132" s="16" t="str">
@@ -8277,36 +8179,26 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G132" s="16">
+      <c r="G132" s="16" t="str">
         <f>IF(ISBLANK($H132),"",MAX($G$1:$G131)+1)</f>
-        <v>44</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="J132" s="13">
-        <v>24</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
       <c r="K132" s="16" t="str">
         <f>IF(ISNUMBER($G132),"insert into M_CD_VAL values ("&amp;$G132&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($B$3:$B132)&amp;"', '"&amp;$H132&amp;"', '"&amp;$I132&amp;"', "&amp;J132&amp;");","")</f>
-        <v>insert into M_CD_VAL values (44, now(), 1, now(), 1, 0, '16', 'other', 'Other', 24);</v>
-      </c>
-      <c r="L132" s="16">
+        <v/>
+      </c>
+      <c r="L132" s="16" t="str">
         <f>IF(ISBLANK($M132),"",MAX($L$1:$L131)+1)</f>
-        <v>130</v>
-      </c>
-      <c r="M132" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="N132" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
       <c r="O132" s="16" t="str">
         <f>IF(ISNUMBER($L132),"insert into M_CD_VAL_LANG values ("&amp;$L132&amp;", now(), 1, now(), 1, 0, '"&amp;MAX($G$3:$G132)&amp;"', '"&amp;$M132&amp;"', '"&amp;$N132&amp;"');","")</f>
-        <v>insert into M_CD_VAL_LANG values (130, now(), 1, now(), 1, 0, '44', 'ja', 'その他');</v>
+        <v/>
       </c>
       <c r="P132" s="17"/>
       <c r="Q132" s="17"/>
@@ -14661,28 +14553,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:F1000">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:O1000">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>AND(ISNUMBER($L2),NOT(ISNUMBER($L3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:K1000">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>ISNUMBER($G3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1000 L3:O1000">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>ISNUMBER($B3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>ISNUMBER($L3)</formula>
     </cfRule>
   </conditionalFormatting>
